--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -6975,12 +6975,6 @@
     <t>exa-bkup</t>
   </si>
   <si>
-    <t>10.113.1.0/28</t>
-  </si>
-  <si>
-    <t>10.113.1.16/28</t>
-  </si>
-  <si>
     <t>VCN::exa-vcn</t>
   </si>
   <si>
@@ -7597,6 +7591,12 @@
   </si>
   <si>
     <t>exa-bkup-rt</t>
+  </si>
+  <si>
+    <t>10.113.0.0/28</t>
+  </si>
+  <si>
+    <t>10.113.0.16/28</t>
   </si>
 </sst>
 </file>
@@ -12645,7 +12645,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1">
       <c r="A2" s="90" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -12658,8 +12658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R502"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13310,7 +13310,7 @@
         <v>989</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>993</v>
+        <v>1034</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>51</v>
@@ -13361,7 +13361,7 @@
         <v>992</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>994</v>
+        <v>1035</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>51</v>
@@ -13371,10 +13371,10 @@
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>23</v>
@@ -18708,7 +18708,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1">
       <c r="A1" s="111" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -19582,7 +19582,7 @@
         <v>79</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
@@ -19595,7 +19595,7 @@
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
@@ -19628,7 +19628,7 @@
         <v>79</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
@@ -19641,7 +19641,7 @@
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
@@ -20432,7 +20432,7 @@
         <v>79</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
@@ -20445,7 +20445,7 @@
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
@@ -20478,7 +20478,7 @@
         <v>79</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
@@ -20491,7 +20491,7 @@
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="36" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
@@ -20897,7 +20897,7 @@
         <v>988</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E41" s="36" t="s">
         <v>508</v>
@@ -20914,7 +20914,7 @@
         <v>372</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
@@ -20927,7 +20927,7 @@
       <c r="P41" s="36"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="36" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
@@ -20943,7 +20943,7 @@
         <v>988</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E42" s="36" t="s">
         <v>508</v>
@@ -20989,7 +20989,7 @@
         <v>988</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E43" s="36" t="s">
         <v>509</v>
@@ -21004,7 +21004,7 @@
         <v>372</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -21019,7 +21019,7 @@
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
@@ -21035,7 +21035,7 @@
         <v>988</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E44" s="36" t="s">
         <v>509</v>
@@ -21065,7 +21065,7 @@
       <c r="P44" s="36"/>
       <c r="Q44" s="36"/>
       <c r="R44" s="36" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="S44" s="36"/>
       <c r="T44" s="36"/>
@@ -21081,7 +21081,7 @@
         <v>988</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>509</v>
@@ -21096,7 +21096,7 @@
         <v>372</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -21111,7 +21111,7 @@
       <c r="P45" s="36"/>
       <c r="Q45" s="36"/>
       <c r="R45" s="36" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="S45" s="36"/>
       <c r="T45" s="36"/>
@@ -21127,7 +21127,7 @@
         <v>988</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>509</v>
@@ -21157,7 +21157,7 @@
       <c r="P46" s="36"/>
       <c r="Q46" s="36"/>
       <c r="R46" s="36" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="S46" s="36"/>
       <c r="T46" s="36"/>
@@ -21173,7 +21173,7 @@
         <v>988</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E47" s="36" t="s">
         <v>509</v>
@@ -21203,7 +21203,7 @@
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="S47" s="36"/>
       <c r="T47" s="36"/>
@@ -21219,7 +21219,7 @@
         <v>988</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E48" s="36" t="s">
         <v>509</v>
@@ -21249,7 +21249,7 @@
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="36" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="S48" s="36"/>
       <c r="T48" s="36"/>
@@ -21265,7 +21265,7 @@
         <v>988</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E49" s="36" t="s">
         <v>508</v>
@@ -21282,7 +21282,7 @@
         <v>372</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
@@ -21295,7 +21295,7 @@
       <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
       <c r="R49" s="36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
@@ -21311,7 +21311,7 @@
         <v>988</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>509</v>
@@ -21341,7 +21341,7 @@
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
       <c r="R50" s="36" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
@@ -21357,7 +21357,7 @@
         <v>988</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>508</v>
@@ -21374,7 +21374,7 @@
         <v>372</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
@@ -21387,7 +21387,7 @@
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
       <c r="R51" s="36" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
@@ -21403,7 +21403,7 @@
         <v>988</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>509</v>
@@ -21433,7 +21433,7 @@
       <c r="P52" s="36"/>
       <c r="Q52" s="36"/>
       <c r="R52" s="36" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="S52" s="36"/>
       <c r="T52" s="36"/>
@@ -21449,7 +21449,7 @@
         <v>988</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>509</v>
@@ -21464,7 +21464,7 @@
         <v>372</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
@@ -21479,7 +21479,7 @@
       <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
       <c r="R53" s="36" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S53" s="36"/>
       <c r="T53" s="36"/>
@@ -21495,7 +21495,7 @@
         <v>988</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E54" s="36" t="s">
         <v>508</v>
@@ -21512,7 +21512,7 @@
         <v>511</v>
       </c>
       <c r="K54" s="36" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
@@ -21525,7 +21525,7 @@
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
       <c r="R54" s="36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
@@ -21925,19 +21925,19 @@
         <v>336</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>424</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K3" s="38">
         <v>8</v>
@@ -25087,13 +25087,13 @@
         <v>726</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E4" s="61" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G4" s="61"/>
       <c r="H4" s="61" t="s">
@@ -25574,7 +25574,7 @@
         <v>10000</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29">
@@ -25607,7 +25607,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29">
@@ -25634,7 +25634,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -25668,7 +25668,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="37" customFormat="1" ht="160" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -25694,13 +25694,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>311</v>
@@ -25715,10 +25715,10 @@
         <v>641</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="L2" s="58" t="s">
         <v>646</v>
@@ -25764,14 +25764,14 @@
         <v>446</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D4" s="61" t="s">
         <v>671</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="60" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G4" s="60"/>
       <c r="H4" s="103" t="s">
@@ -32224,7 +32224,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -53231,7 +53231,7 @@
         <v>988</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>489</v>
@@ -53343,14 +53343,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1">
       <c r="A1" s="111" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
       <c r="D1" s="111"/>
       <c r="E1" s="111"/>
       <c r="F1" s="118" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G1" s="118"/>
       <c r="H1" s="118"/>
@@ -53456,7 +53456,7 @@
         <v>489</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>559</v>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A27B0-C446-1A44-A773-1D27C551F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62B913-9D80-1248-B148-2C210AE03336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="VCNs" sheetId="5" r:id="rId6"/>
     <sheet name="DRGs" sheetId="28" r:id="rId7"/>
     <sheet name="VCN Info" sheetId="6" r:id="rId8"/>
-    <sheet name="drop_down_rule_set" sheetId="31" state="hidden" r:id="rId9"/>
-    <sheet name="DHCP" sheetId="7" r:id="rId10"/>
-    <sheet name="Subnets" sheetId="8" r:id="rId11"/>
-    <sheet name="DRGRouteRulesinOCI" sheetId="30" r:id="rId12"/>
-    <sheet name="RouteRulesinOCI" sheetId="9" r:id="rId13"/>
-    <sheet name="SecRulesinOCI" sheetId="10" r:id="rId14"/>
-    <sheet name="NSGs" sheetId="11" r:id="rId15"/>
+    <sheet name="DHCP" sheetId="7" r:id="rId9"/>
+    <sheet name="Subnets" sheetId="8" r:id="rId10"/>
+    <sheet name="DRGRouteRulesinOCI" sheetId="30" r:id="rId11"/>
+    <sheet name="RouteRulesinOCI" sheetId="9" r:id="rId12"/>
+    <sheet name="SecRulesinOCI" sheetId="10" r:id="rId13"/>
+    <sheet name="NSGs" sheetId="11" r:id="rId14"/>
+    <sheet name="drop_down_rule_set" sheetId="31" state="hidden" r:id="rId15"/>
     <sheet name="DedicatedVMHosts" sheetId="12" r:id="rId16"/>
     <sheet name="Instances" sheetId="13" r:id="rId17"/>
     <sheet name="BlockVolumes" sheetId="14" r:id="rId18"/>
@@ -60,61 +60,61 @@
     <externalReference r:id="rId43"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">NSGs!$A$2:$T$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">NSGs!$A$2:$T$54</definedName>
     <definedName name="Action_Values" localSheetId="23">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
     <definedName name="Allowed_Methods" localSheetId="23">'LB Rule Set Dropdown'!$B$2:$B$41</definedName>
     <definedName name="Attribute_Names" localSheetId="23">'LB Rule Set Dropdown'!$D$2:$D$5</definedName>
     <definedName name="bm_shapes_drop" localSheetId="31">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="11">[1]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="10">[1]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="6">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="33">[3]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="8">[4]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="14">[4]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="26">[5]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="25">[5]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="19">[6]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop">[7]Database_Dropdown!#REF!</definedName>
     <definedName name="char_set" localSheetId="31">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="11">[1]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="10">[1]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="6">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="33">[3]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="8">[4]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="14">[4]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="26">[5]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="25">[5]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="19">[6]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set">[7]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="D3D1000">'DBSystems-VM-BM'!$D$3</definedName>
     <definedName name="db_sersion_drop" localSheetId="31">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="11">[1]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="10">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="6">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="33">[3]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="8">[4]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="14">[4]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="26">[5]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="25">[5]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="19">[6]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop">[7]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="exa_shapes_drop" localSheetId="31">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="11">[1]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="10">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="6">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="33">[3]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="8">[4]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="14">[4]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="26">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="25">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="19">[6]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop">[7]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="Header_Size" localSheetId="31">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="11">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="10">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="6">'[2]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="33">'[3]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="8">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="14">#REF!</definedName>
     <definedName name="Header_Size" localSheetId="26">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="25">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="19">'[8]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="license_type_drop" localSheetId="31">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="11">[1]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="10">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="6">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="33">[3]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="8">[4]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="14">[4]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="26">[5]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="25">[5]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="19">[6]Database_Dropdown!$F$2:$F$3</definedName>
@@ -122,61 +122,61 @@
     <definedName name="Match_Style" localSheetId="24">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="Match_Style" localSheetId="23">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="nchar_set" localSheetId="31">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="11">[1]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="10">[1]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="6">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="33">[3]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="8">[4]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="14">[4]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="26">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="25">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="19">[6]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set">[7]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="Response_Code" localSheetId="31">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="11">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="10">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="6">'[2]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="33">'[3]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="8">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="14">#REF!</definedName>
     <definedName name="Response_Code" localSheetId="26">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="25">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="19">'[8]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Shape_Option" localSheetId="31">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="28">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="11">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="10">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="6">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="33">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="8">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="14">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="30">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="25">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="19">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[9]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="31">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="11">[1]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="10">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="6">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="33">[3]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="8">[4]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="14">[4]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="26">[5]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="25">[5]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="19">[6]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop">[7]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="VM_Shapes" localSheetId="31">Database_Dropdown!$A$2:$A$12</definedName>
-    <definedName name="VM_Shapes" localSheetId="11">#REF!</definedName>
+    <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="6">#REF!</definedName>
     <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$395:$AB$405</definedName>
     <definedName name="VM_shapes_drop" localSheetId="31">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="11">[1]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="10">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="6">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="33">[3]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="8">[4]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="14">[4]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="26">[5]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="25">[5]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="19">[6]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop">[7]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="workload_drop" localSheetId="31">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="11">[1]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="10">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="6">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="33">[3]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="8">[4]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="14">[4]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="26">[5]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="25">[5]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="19">[6]Database_Dropdown!$D$2:$D$3</definedName>
@@ -9111,7 +9111,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9162,12 +9162,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9646,19 +9640,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9727,6 +9717,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14695,292 +14689,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-    </row>
-    <row r="2" spans="1:8" s="44" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D1:XFD1048576 A1:C2" xr:uid="{65F16DDC-E856-2A45-B577-0471201C84B1}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D661BA34-81C7-F243-BB64-55A1D8BA5FB8}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAE0D089-A9D1-BA4D-9F4D-FF70D208C3F9}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D37A6EF-B29B-7244-BBCA-B1E5CB81865F}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R502"/>
   <sheetViews>
@@ -15010,28 +14718,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="117" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="115" t="s">
         <v>415</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -20890,13 +20598,13 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CEEE57D7-C0CE-C14F-9619-60AE078FEC04}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{CEEE57D7-C0CE-C14F-9619-60AE078FEC04}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD75F266-CDF3-6D40-B058-2FA2F08C6105}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{BD75F266-CDF3-6D40-B058-2FA2F08C6105}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
           </x14:formula1>
@@ -20920,7 +20628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -20943,18 +20651,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -21033,7 +20741,7 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{27491DAC-5D04-8944-B805-9AFBDFC55212}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{27491DAC-5D04-8944-B805-9AFBDFC55212}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -21045,7 +20753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -21067,17 +20775,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -21126,13 +20834,13 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D4E3322-4A6A-594A-A2F6-037295C95721}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3D4E3322-4A6A-594A-A2F6-037295C95721}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB545DFF-A30E-714E-A7B9-6CFEC3EECE2C}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{AB545DFF-A30E-714E-A7B9-6CFEC3EECE2C}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
           </x14:formula1>
@@ -21150,7 +20858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -21171,25 +20879,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -21261,13 +20969,13 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BA5DC63-A084-F449-906D-67D634EA90F6}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{6BA5DC63-A084-F449-906D-67D634EA90F6}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58D8608E-B711-9349-A09E-996963784BAE}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{58D8608E-B711-9349-A09E-996963784BAE}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
           </x14:formula1>
@@ -21297,7 +21005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -21323,28 +21031,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -23770,7 +23478,7 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96BB357B-463B-1846-8141-6D6E9179E0DF}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{96BB357B-463B-1846-8141-6D6E9179E0DF}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
           </x14:formula1>
@@ -23794,7 +23502,7 @@
           </x14:formula1>
           <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D91FE91E-A7AA-6546-85BF-CA95F48FD704}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D91FE91E-A7AA-6546-85BF-CA95F48FD704}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -23803,6 +23511,3324 @@
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:AN50"/>
+  <sheetViews>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="38.5" style="64" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="29.83203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18" style="64" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" style="64" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.1640625" style="64" customWidth="1"/>
+    <col min="29" max="29" width="15.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44.5" style="64" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.1640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="28.33203125" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="57" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>549</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>551</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>598</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>552</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>553</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>555</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>556</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>557</v>
+      </c>
+      <c r="T1" s="65" t="s">
+        <v>600</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>558</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y1" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB1" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC1" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD1" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE1" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF1" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG1" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH1" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI1" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ1" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="AK1" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL1" s="56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AM1" s="56" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AN1" s="56" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58">
+        <v>3</v>
+      </c>
+      <c r="B2" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
+        <v>VCN::fwl-vcn</v>
+      </c>
+      <c r="C2" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
+        <v>fwl-vcn</v>
+      </c>
+      <c r="D2" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A2,4,4,1,"Subnets")))</f>
+        <v>fwl-vcn_fwl-mgmt</v>
+      </c>
+      <c r="E2" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,9,4,1,"Subnets")))</f>
+        <v>fwl-mgmt-rt</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"DHCP")))</f>
+        <v>dhcp-internal</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DRGs")))</f>
+        <v>DRG</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="R2" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="T2" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
+        <v>VM1</v>
+      </c>
+      <c r="U2" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"instances")))</f>
+        <v>Bastion</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="W2" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="X2" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y2" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA2" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB2" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC2" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE2" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF2" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG2" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH2" s="59">
+        <v>301</v>
+      </c>
+      <c r="AI2" s="59">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK2" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL2" s="58" t="s">
+        <v>980</v>
+      </c>
+      <c r="AM2" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="58" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58">
+        <v>4</v>
+      </c>
+      <c r="B3" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
+        <v>VCN::prod-vcn</v>
+      </c>
+      <c r="C3" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
+        <v>prod-vcn</v>
+      </c>
+      <c r="D3" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A3,4,4,1,"Subnets")))</f>
+        <v>fwl-vcn_fwl-pub</v>
+      </c>
+      <c r="E3" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,9,4,1,"Subnets")))</f>
+        <v>fwl-pub-rt</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="K3" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
+        <v>dhcp-external</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DRGs")))</f>
+        <v>DRG</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="T3" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
+        <v>VM2</v>
+      </c>
+      <c r="U3" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V3" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y3" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA3" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB3" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="AC3" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD3" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE3" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF3" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG3" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH3" s="59">
+        <v>302</v>
+      </c>
+      <c r="AI3" s="59">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL3" s="58" t="s">
+        <v>972</v>
+      </c>
+      <c r="AM3" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="58" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58">
+        <v>5</v>
+      </c>
+      <c r="B4" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
+        <v>VCN::nonprod-vcn</v>
+      </c>
+      <c r="C4" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
+        <v>nonprod-vcn</v>
+      </c>
+      <c r="D4" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A4,4,4,1,"Subnets")))</f>
+        <v>fwl-vcn_fwl-priv</v>
+      </c>
+      <c r="E4" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,9,4,1,"Subnets")))</f>
+        <v>fwl-priv-rt</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"DHCP")))</f>
+        <v>dhcp-internal</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="M4" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
+        <v>DRG</v>
+      </c>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="T4" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
+        <v>VM3</v>
+      </c>
+      <c r="U4" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE4" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF4" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG4" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH4" s="59">
+        <v>303</v>
+      </c>
+      <c r="AI4" s="59">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="58" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58">
+        <v>6</v>
+      </c>
+      <c r="B5" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
+        <v>VCN::exa-vcn</v>
+      </c>
+      <c r="C5" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
+        <v>exa-vcn</v>
+      </c>
+      <c r="D5" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A5,4,4,1,"Subnets")))</f>
+        <v>fwl-vcn_fwl-ha</v>
+      </c>
+      <c r="E5" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,9,4,1,"Subnets")))</f>
+        <v>fwl-ha-rt</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"DHCP")))</f>
+        <v>dhcp-external</v>
+      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DRGs")))</f>
+        <v>DRG</v>
+      </c>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="T5" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U5" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE5" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF5" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59">
+        <v>307</v>
+      </c>
+      <c r="AI5" s="59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58">
+        <v>7</v>
+      </c>
+      <c r="B6" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C6" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D6" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A6,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-web</v>
+      </c>
+      <c r="E6" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,9,4,1,"Subnets")))</f>
+        <v>prod-web-rt</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"DHCP")))</f>
+        <v>dhcp-internal</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U6" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE6" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59">
+        <v>308</v>
+      </c>
+      <c r="AI6" s="59"/>
+    </row>
+    <row r="7" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58">
+        <v>8</v>
+      </c>
+      <c r="B7" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C7" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D7" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A7,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-app</v>
+      </c>
+      <c r="E7" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,9,4,1,"Subnets")))</f>
+        <v>prod-app-rt</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U7" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE7" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+    </row>
+    <row r="8" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58">
+        <v>9</v>
+      </c>
+      <c r="B8" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C8" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D8" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A8,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-db</v>
+      </c>
+      <c r="E8" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,9,4,1,"Subnets")))</f>
+        <v>prod-db-rt</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" t="s">
+        <v>579</v>
+      </c>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U8" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE8" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+    </row>
+    <row r="9" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="58">
+        <v>10</v>
+      </c>
+      <c r="B9" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C9" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D9" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A9,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-web</v>
+      </c>
+      <c r="E9" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,9,4,1,"Subnets")))</f>
+        <v>nonprod-web-rt</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" t="s">
+        <v>581</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U9" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE9" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+    </row>
+    <row r="10" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58">
+        <v>11</v>
+      </c>
+      <c r="B10" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C10" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D10" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A10,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-app</v>
+      </c>
+      <c r="E10" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,9,4,1,"Subnets")))</f>
+        <v>nonprod-app-rt</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U10" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE10" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+    </row>
+    <row r="11" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58">
+        <v>12</v>
+      </c>
+      <c r="B11" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C11" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D11" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A11,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-db</v>
+      </c>
+      <c r="E11" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,9,4,1,"Subnets")))</f>
+        <v>nonprod-db-rt</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U11" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE11" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+    </row>
+    <row r="12" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58">
+        <v>13</v>
+      </c>
+      <c r="B12" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C12" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D12" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A12,4,4,1,"Subnets")))</f>
+        <v>exa-vcn_exa-clnt</v>
+      </c>
+      <c r="E12" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,9,4,1,"Subnets")))</f>
+        <v>exa-clnt-rt</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U12" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+    </row>
+    <row r="13" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="58">
+        <v>14</v>
+      </c>
+      <c r="B13" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C13" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D13" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A13,4,4,1,"Subnets")))</f>
+        <v>exa-vcn_exa-bkup</v>
+      </c>
+      <c r="E13" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,9,4,1,"Subnets")))</f>
+        <v>exa-bkup-rt</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U13" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+    </row>
+    <row r="14" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="58">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C14" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D14" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A14,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E14" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U14" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+    </row>
+    <row r="15" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="58">
+        <v>16</v>
+      </c>
+      <c r="B15" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C15" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D15" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A15,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E15" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" t="s">
+        <v>582</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U15" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+    </row>
+    <row r="16" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58">
+        <v>17</v>
+      </c>
+      <c r="B16" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C16" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D16" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A16,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E16" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" t="s">
+        <v>583</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U16" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+    </row>
+    <row r="17" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="58">
+        <v>18</v>
+      </c>
+      <c r="B17" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C17" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D17" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A17,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E17" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U17" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+    </row>
+    <row r="18" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58">
+        <v>19</v>
+      </c>
+      <c r="B18" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C18" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D18" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A18,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E18" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U18" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+    </row>
+    <row r="19" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58">
+        <v>20</v>
+      </c>
+      <c r="B19" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C19" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D19" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A19,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E19" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U19" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+    </row>
+    <row r="20" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58">
+        <v>21</v>
+      </c>
+      <c r="B20" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C20" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D20" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A20,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E20" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" t="s">
+        <v>584</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U20" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+    </row>
+    <row r="21" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58">
+        <v>22</v>
+      </c>
+      <c r="B21" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C21" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D21" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A21,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E21" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F21" s="59"/>
+      <c r="G21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U21" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+    </row>
+    <row r="22" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58">
+        <v>23</v>
+      </c>
+      <c r="B22" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C22" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D22" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A22,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E22" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U22" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+    </row>
+    <row r="23" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58">
+        <v>24</v>
+      </c>
+      <c r="B23" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C23" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D23" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A23,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E23" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U23" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+    </row>
+    <row r="24" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58">
+        <v>25</v>
+      </c>
+      <c r="B24" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C24" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D24" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A24,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E24" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" t="s">
+        <v>585</v>
+      </c>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U24" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+    </row>
+    <row r="25" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58">
+        <v>26</v>
+      </c>
+      <c r="B25" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C25" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D25" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A25,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E25" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F25" s="59"/>
+      <c r="G25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U25" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+    </row>
+    <row r="26" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58">
+        <v>27</v>
+      </c>
+      <c r="B26" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C26" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D26" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A26,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E26" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" t="s">
+        <v>586</v>
+      </c>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U26" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+    </row>
+    <row r="27" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="58">
+        <v>28</v>
+      </c>
+      <c r="B27" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C27" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D27" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A27,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E27" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" t="s">
+        <v>587</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U27" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+    </row>
+    <row r="28" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58">
+        <v>29</v>
+      </c>
+      <c r="B28" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C28" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D28" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A28,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E28" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" t="s">
+        <v>588</v>
+      </c>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U28" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+    </row>
+    <row r="29" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="58">
+        <v>30</v>
+      </c>
+      <c r="B29" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C29" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D29" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A29,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E29" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U29" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+    </row>
+    <row r="30" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="58">
+        <v>31</v>
+      </c>
+      <c r="B30" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C30" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D30" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A30,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E30" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U30" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+    </row>
+    <row r="31" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="58">
+        <v>32</v>
+      </c>
+      <c r="B31" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C31" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D31" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A31,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E31" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F31" s="59"/>
+      <c r="G31" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U31" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+    </row>
+    <row r="32" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="58">
+        <v>33</v>
+      </c>
+      <c r="B32" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C32" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D32" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A32,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E32" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F32" s="59"/>
+      <c r="G32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U32" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+    </row>
+    <row r="33" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="58">
+        <v>34</v>
+      </c>
+      <c r="B33" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C33" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D33" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A33,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E33" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" t="s">
+        <v>589</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U33" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+    </row>
+    <row r="34" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58">
+        <v>35</v>
+      </c>
+      <c r="B34" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C34" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D34" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A34,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E34" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F34" s="59"/>
+      <c r="G34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U34" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+    </row>
+    <row r="35" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58">
+        <v>36</v>
+      </c>
+      <c r="B35" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C35" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D35" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A35,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E35" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F35" s="59"/>
+      <c r="G35" t="s">
+        <v>590</v>
+      </c>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U35" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+    </row>
+    <row r="36" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="58">
+        <v>37</v>
+      </c>
+      <c r="B36" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C36" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D36" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A36,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E36" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F36" s="59"/>
+      <c r="G36" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U36" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF36" s="62"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+    </row>
+    <row r="37" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="58">
+        <v>38</v>
+      </c>
+      <c r="B37" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C37" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D37" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A37,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E37" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U37" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF37" s="62"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+    </row>
+    <row r="38" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="58">
+        <v>39</v>
+      </c>
+      <c r="B38" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C38" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D38" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A38,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E38" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" t="s">
+        <v>591</v>
+      </c>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U38" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+    </row>
+    <row r="39" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="58">
+        <v>40</v>
+      </c>
+      <c r="B39" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C39" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D39" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A39,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E39" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" t="s">
+        <v>592</v>
+      </c>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U39" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+    </row>
+    <row r="40" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="58">
+        <v>41</v>
+      </c>
+      <c r="B40" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C40" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D40" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A40,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E40" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F40" s="59"/>
+      <c r="G40" t="s">
+        <v>593</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U40" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+    </row>
+    <row r="41" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="58">
+        <v>42</v>
+      </c>
+      <c r="B41" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C41" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D41" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A41,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E41" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="G41" t="s">
+        <v>594</v>
+      </c>
+      <c r="K41" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M41" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T41" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U41" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="AF41" s="63"/>
+    </row>
+    <row r="42" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58">
+        <v>43</v>
+      </c>
+      <c r="B42" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C42" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D42" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A42,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E42" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="G42" t="s">
+        <v>595</v>
+      </c>
+      <c r="K42" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M42" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T42" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U42" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58">
+        <v>44</v>
+      </c>
+      <c r="B43" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C43" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D43" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A43,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E43" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M43" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T43" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U43" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="58">
+        <v>45</v>
+      </c>
+      <c r="B44" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C44" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D44" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A44,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E44" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K44" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M44" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T44" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U44" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="58">
+        <v>46</v>
+      </c>
+      <c r="B45" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C45" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D45" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A45,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E45" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K45" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M45" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T45" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U45" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="58">
+        <v>47</v>
+      </c>
+      <c r="B46" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C46" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D46" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A46,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E46" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K46" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M46" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T46" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U46" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="58">
+        <v>48</v>
+      </c>
+      <c r="B47" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C47" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D47" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A47,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E47" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K47" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M47" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T47" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U47" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="58">
+        <v>49</v>
+      </c>
+      <c r="B48" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C48" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D48" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A48,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E48" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K48" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M48" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T48" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U48" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="58">
+        <v>50</v>
+      </c>
+      <c r="B49" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C49" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D49" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="D49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A49,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E49" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K49" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="K49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M49" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="M49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T49" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="T49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U49" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="U49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB50" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23825,15 +26851,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -23939,18 +26965,12 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1048574:A1048576 A1:B2 C1:C1048576 D1:D2 E1:E1048576 G1:XFD1048576 F1:F2" xr:uid="{3E76EE7D-7304-354E-B6C1-554DF2E56C17}"/>
+    <dataValidation allowBlank="1" sqref="F1:F2 A1:B2 C1:C1048576 D1:D2 E1:E1048576 G1:XFD1048576" xr:uid="{3E76EE7D-7304-354E-B6C1-554DF2E56C17}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{60CCAEA1-DF05-CB4E-972B-8EA9767F3533}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048573</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{D0B33123-0A52-EF47-9BE8-505963D6F3B3}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
@@ -23969,6 +26989,12 @@
           </x14:formula1>
           <xm:sqref>F3:F1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{392C168D-A8AA-FC48-9915-83E3A099C052}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -23979,7 +27005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:T1"/>
     </sheetView>
   </sheetViews>
@@ -24007,30 +27033,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>1038</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="110" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="108" t="s">
         <v>655</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="112"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -24366,19 +27392,13 @@
     <mergeCell ref="I1:T1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1048574:A1048576 A1:C2 D1:D1048576 F12 E1:G2 H1:O1048576 R1:XFD1048576 P1:Q2" xr:uid="{B727580F-A9BA-874F-B6B3-796C3608F9F2}"/>
+    <dataValidation allowBlank="1" sqref="P1:Q2 A1:C2 D1:D1048576 R1:XFD1048576 E1:G2 H1:O1048576" xr:uid="{B727580F-A9BA-874F-B6B3-796C3608F9F2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{24D9265D-4AAA-254F-BFC1-07B82A477F7E}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048573</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{33326236-1F93-7340-A241-92CC3FDEE126}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
@@ -24415,6 +27435,12 @@
           </x14:formula1>
           <xm:sqref>P3:P1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{58CABDAC-3EC8-244C-8CC6-62411D89AED8}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -24444,20 +27470,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -24582,19 +27608,13 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1048574:A1048576 A1:B2 C1:D1048576 E1:E2 F1:F1048576 G1:G2 H1:I1048576 L1:XFD1048576 J1:K2" xr:uid="{1FD833B1-F0AA-8D4C-95CF-526910458461}"/>
+    <dataValidation allowBlank="1" sqref="J1:K2 A1:B2 C1:D1048576 E1:E2 F1:F1048576 G1:G2 H1:I1048576 L1:XFD1048576" xr:uid="{1FD833B1-F0AA-8D4C-95CF-526910458461}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{06A79DF3-146B-4045-AF68-6DDF2368CE81}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048573</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{0B212C27-B8BF-524D-A1D3-D69C25B517DB}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
@@ -24619,6 +27639,12 @@
           </x14:formula1>
           <xm:sqref>J3:J1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{26555209-6983-E146-A1DF-457DA16E25E9}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -24630,7 +27656,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I1" sqref="I1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24654,27 +27680,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -24989,19 +28015,13 @@
     <mergeCell ref="I1:Q1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1048574:A1048576 A1:C2 D1:D1048576 F1:XFD1048576 E1:E2 E12" xr:uid="{6585BFD1-FCAD-AB4B-A467-E55533136206}"/>
+    <dataValidation allowBlank="1" sqref="E1:E2 A1:C2 D1:D1048576 F1:XFD1048576" xr:uid="{6585BFD1-FCAD-AB4B-A467-E55533136206}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{09BD12D6-F08A-D14C-B438-BAF147DE460D}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048573</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{CF6E522D-08A6-A247-9FC0-F82089E6C5DF}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
@@ -25019,6 +28039,12 @@
             <xm:f>drop_down_rule_set!$D$2:$D$13</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{0757FBA8-DB93-E44F-A921-A9517A7362D6}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25044,13 +28070,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -25262,18 +28288,24 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 B1:C1048576 E1:XFD1048576 D1:D2" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
+    <dataValidation allowBlank="1" sqref="D1:D2 E1:XFD1048576 C1:C1048576 A1:B2" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{48866E28-9BB7-9E49-929A-56E9207F4B0D}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{6B34CB11-3DA9-1D49-8B26-9BF104EABEBE}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D1048576 B3:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25285,7 +28317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F65FE3-2D63-BD4D-9BED-4A49D98211B8}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:AD1"/>
     </sheetView>
   </sheetViews>
@@ -25323,40 +28355,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>1012</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="118" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="116" t="s">
         <v>1037</v>
       </c>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="120"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="118"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -25702,7 +28734,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 D1:I2 J1:M1048576 N1:N2 O1:T1048576 U12 Y12:XFD12 Y1:Y2 U1:V2 Z1:XFD11 W1:X1048576 Z13:XFD1048576" xr:uid="{BC97A670-8A5B-A94F-B55A-F39918CE145C}"/>
+    <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 D1:I2 J1:M1048576 N1:N2 O1:T1048576 Z13:XFD1048576 W1:X1048576 Y1:Y2 U1:V2 Z1:XFD11 Z12:XFD12" xr:uid="{BC97A670-8A5B-A94F-B55A-F39918CE145C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25726,7 +28758,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$AN$2:$AN$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D1048576 N3:N1048576</xm:sqref>
+          <xm:sqref>N3:N1048576 D3:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{1B3657DD-26FC-D741-A9DF-2CA5BDF2305B}">
           <x14:formula1>
@@ -25744,7 +28776,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$D$2:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:H1048576 U3:U1048576 Y3:Y1048576</xm:sqref>
+          <xm:sqref>H3:H1048576 G3:G1048576 U3:U1048576 Y3:Y1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{B0E5EC79-F5E9-4843-B071-8E82D7E4DE18}">
           <x14:formula1>
@@ -25762,7 +28794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
@@ -25783,27 +28815,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -26060,7 +29092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
@@ -26082,30 +29114,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -26433,25 +29465,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -26676,8 +29708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="F1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26698,29 +29730,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="113" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="111" t="s">
         <v>430</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="126"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -27415,14 +30447,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -27577,20 +30609,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -28074,19 +31106,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
@@ -28284,24 +31316,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>959</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -28481,7 +31513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScaleNormal="84" workbookViewId="0">
       <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
@@ -28507,35 +31539,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="110"/>
     </row>
     <row r="2" spans="1:27" s="49" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
@@ -31902,13 +34934,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -32165,16 +35197,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
@@ -35041,7 +38073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScaleNormal="78" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -35075,25 +38107,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
       <c r="R1" s="70"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -39464,7 +42496,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$D$2:$D$13</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:F1048576</xm:sqref>
+          <xm:sqref>E3:E1048576 F3:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{2D22C270-4EE2-B840-B92A-8B5B67D42622}">
           <x14:formula1>
@@ -39482,7 +42514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F48E23C-F15A-8649-ADB9-6B0FFE9380CD}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -39503,46 +42535,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>1109</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="101" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="102" t="s">
         <v>1110</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="102" t="s">
         <v>1111</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>1112</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="103" t="s">
         <v>610</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="104" t="s">
         <v>608</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="104" t="s">
         <v>609</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="103" t="s">
         <v>604</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="102" t="s">
         <v>1113</v>
       </c>
-      <c r="M1" s="104"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="105" t="s">
         <v>1114</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -39560,7 +42592,7 @@
       <c r="F2" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="106" t="s">
         <v>328</v>
       </c>
       <c r="H2" s="37" t="s">
@@ -39580,7 +42612,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="105" t="s">
         <v>1119</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -39598,7 +42630,7 @@
       <c r="F3" s="37" t="s">
         <v>1123</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="106" t="s">
         <v>1124</v>
       </c>
       <c r="H3" s="37" t="s">
@@ -39618,7 +42650,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="105" t="s">
         <v>1127</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -39640,7 +42672,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="105" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -39662,7 +42694,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="105" t="s">
         <v>1137</v>
       </c>
       <c r="B6" s="37"/>
@@ -39679,7 +42711,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="105" t="s">
         <v>1141</v>
       </c>
       <c r="B7" s="37"/>
@@ -39696,7 +42728,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="105" t="s">
         <v>1145</v>
       </c>
       <c r="B8" s="37"/>
@@ -39713,7 +42745,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="105" t="s">
         <v>1149</v>
       </c>
       <c r="B9" s="37"/>
@@ -39730,7 +42762,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="105" t="s">
         <v>1152</v>
       </c>
       <c r="B10" s="37"/>
@@ -39747,7 +42779,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="105" t="s">
         <v>1156</v>
       </c>
       <c r="B11" s="37"/>
@@ -39764,7 +42796,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="105" t="s">
         <v>1160</v>
       </c>
       <c r="B12" s="37"/>
@@ -39781,7 +42813,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="105" t="s">
         <v>1164</v>
       </c>
       <c r="B13" s="37"/>
@@ -39798,7 +42830,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="105" t="s">
         <v>332</v>
       </c>
       <c r="B14" s="37"/>
@@ -41102,16 +44134,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -43930,120 +46962,120 @@
       <c r="H227" s="37"/>
     </row>
     <row r="228" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="101" t="s">
+      <c r="A228" s="128" t="s">
         <v>314</v>
       </c>
-      <c r="B228" s="101" t="s">
+      <c r="B228" s="128" t="s">
         <v>1098</v>
       </c>
-      <c r="C228" s="101" t="s">
+      <c r="C228" s="128" t="s">
         <v>384</v>
       </c>
-      <c r="D228" s="102" t="s">
+      <c r="D228" s="129" t="s">
         <v>1099</v>
       </c>
-      <c r="E228" s="102" t="s">
+      <c r="E228" s="129" t="s">
         <v>1100</v>
       </c>
-      <c r="F228" s="101"/>
-      <c r="G228" s="101"/>
-      <c r="H228" s="101"/>
+      <c r="F228" s="128"/>
+      <c r="G228" s="128"/>
+      <c r="H228" s="128"/>
     </row>
     <row r="229" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="101"/>
-      <c r="B229" s="101"/>
-      <c r="C229" s="101"/>
-      <c r="D229" s="102"/>
-      <c r="E229" s="102" t="s">
+      <c r="A229" s="128"/>
+      <c r="B229" s="128"/>
+      <c r="C229" s="128"/>
+      <c r="D229" s="129"/>
+      <c r="E229" s="129" t="s">
         <v>1101</v>
       </c>
-      <c r="F229" s="101"/>
-      <c r="G229" s="101"/>
-      <c r="H229" s="101"/>
+      <c r="F229" s="128"/>
+      <c r="G229" s="128"/>
+      <c r="H229" s="128"/>
     </row>
     <row r="230" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="101"/>
-      <c r="B230" s="101"/>
-      <c r="C230" s="101"/>
-      <c r="D230" s="102"/>
-      <c r="E230" s="102" t="s">
+      <c r="A230" s="128"/>
+      <c r="B230" s="128"/>
+      <c r="C230" s="128"/>
+      <c r="D230" s="129"/>
+      <c r="E230" s="129" t="s">
         <v>1102</v>
       </c>
-      <c r="F230" s="101"/>
-      <c r="G230" s="101"/>
-      <c r="H230" s="101"/>
+      <c r="F230" s="128"/>
+      <c r="G230" s="128"/>
+      <c r="H230" s="128"/>
     </row>
     <row r="231" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="101"/>
-      <c r="B231" s="101"/>
-      <c r="C231" s="101"/>
-      <c r="D231" s="102"/>
-      <c r="E231" s="102" t="s">
+      <c r="A231" s="128"/>
+      <c r="B231" s="128"/>
+      <c r="C231" s="128"/>
+      <c r="D231" s="129"/>
+      <c r="E231" s="129" t="s">
         <v>1103</v>
       </c>
-      <c r="F231" s="101"/>
-      <c r="G231" s="101"/>
-      <c r="H231" s="101"/>
+      <c r="F231" s="128"/>
+      <c r="G231" s="128"/>
+      <c r="H231" s="128"/>
     </row>
     <row r="232" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="101"/>
-      <c r="B232" s="101"/>
-      <c r="C232" s="101"/>
-      <c r="D232" s="102"/>
-      <c r="E232" s="102" t="s">
+      <c r="A232" s="128"/>
+      <c r="B232" s="128"/>
+      <c r="C232" s="128"/>
+      <c r="D232" s="129"/>
+      <c r="E232" s="129" t="s">
         <v>1104</v>
       </c>
-      <c r="F232" s="101"/>
-      <c r="G232" s="101"/>
-      <c r="H232" s="101"/>
+      <c r="F232" s="128"/>
+      <c r="G232" s="128"/>
+      <c r="H232" s="128"/>
     </row>
     <row r="233" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="101"/>
-      <c r="B233" s="101"/>
-      <c r="C233" s="101"/>
-      <c r="D233" s="102"/>
-      <c r="E233" s="102" t="s">
+      <c r="A233" s="128"/>
+      <c r="B233" s="128"/>
+      <c r="C233" s="128"/>
+      <c r="D233" s="129"/>
+      <c r="E233" s="129" t="s">
         <v>1105</v>
       </c>
-      <c r="F233" s="101"/>
-      <c r="G233" s="101"/>
-      <c r="H233" s="101"/>
+      <c r="F233" s="128"/>
+      <c r="G233" s="128"/>
+      <c r="H233" s="128"/>
     </row>
     <row r="234" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A234" s="101"/>
-      <c r="B234" s="101"/>
-      <c r="C234" s="101"/>
-      <c r="D234" s="102"/>
-      <c r="E234" s="102" t="s">
+      <c r="A234" s="128"/>
+      <c r="B234" s="128"/>
+      <c r="C234" s="128"/>
+      <c r="D234" s="129"/>
+      <c r="E234" s="129" t="s">
         <v>1106</v>
       </c>
-      <c r="F234" s="101"/>
-      <c r="G234" s="101"/>
-      <c r="H234" s="101"/>
+      <c r="F234" s="128"/>
+      <c r="G234" s="128"/>
+      <c r="H234" s="128"/>
     </row>
     <row r="235" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="101"/>
-      <c r="B235" s="101"/>
-      <c r="C235" s="101"/>
-      <c r="D235" s="102"/>
-      <c r="E235" s="102" t="s">
+      <c r="A235" s="128"/>
+      <c r="B235" s="128"/>
+      <c r="C235" s="128"/>
+      <c r="D235" s="129"/>
+      <c r="E235" s="129" t="s">
         <v>1107</v>
       </c>
-      <c r="F235" s="101"/>
-      <c r="G235" s="101"/>
-      <c r="H235" s="101"/>
+      <c r="F235" s="128"/>
+      <c r="G235" s="128"/>
+      <c r="H235" s="128"/>
     </row>
     <row r="236" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="101"/>
-      <c r="B236" s="101"/>
-      <c r="C236" s="101"/>
-      <c r="D236" s="102"/>
-      <c r="E236" s="102" t="s">
+      <c r="A236" s="128"/>
+      <c r="B236" s="128"/>
+      <c r="C236" s="128"/>
+      <c r="D236" s="129"/>
+      <c r="E236" s="129" t="s">
         <v>1108</v>
       </c>
-      <c r="F236" s="101"/>
-      <c r="G236" s="101"/>
-      <c r="H236" s="101"/>
+      <c r="F236" s="128"/>
+      <c r="G236" s="128"/>
+      <c r="H236" s="128"/>
     </row>
     <row r="237" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="36" t="s">
@@ -44137,7 +47169,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
+          <xm:sqref>A238:A1048576 A3:A237</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -44167,19 +47199,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111" t="s">
         <v>881</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -44492,7 +47524,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:B2 C1:F1048576 G1:G2 H1:H1048576 J1:XFD1048576 I1:I2" xr:uid="{B3C51400-D71B-5747-9F69-06AD4073E95D}"/>
+    <dataValidation allowBlank="1" sqref="A1:B2 C1:F1048576 G1:G2 I1:I2 J1:XFD1048576 H1:H2 H3:H1048576" xr:uid="{B3C51400-D71B-5747-9F69-06AD4073E95D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44505,11 +47537,11 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4527638-F6CB-CA4C-AD9B-62FB13AF83A7}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{F4527638-F6CB-CA4C-AD9B-62FB13AF83A7}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576 I3:I1048576</xm:sqref>
+          <xm:sqref>I3:I1048576 B3:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{C5D5CA80-30E2-9347-9789-CC0F1D04D63A}">
           <x14:formula1>
@@ -44528,7 +47560,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44547,22 +47579,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="110" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="108" t="s">
         <v>427</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -44773,13 +47805,13 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E0EBE25-DECD-054F-A18A-867E40E085F5}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{1E0EBE25-DECD-054F-A18A-867E40E085F5}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7CE50CD2-3237-1B46-9C6A-E89ADB639258}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{7CE50CD2-3237-1B46-9C6A-E89ADB639258}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
           </x14:formula1>
@@ -44796,7 +47828,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44813,18 +47845,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>960</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="116" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="114" t="s">
         <v>961</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -44967,7 +47999,7 @@
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7502365-3511-5443-83E3-F7DAD70258DE}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D7502365-3511-5443-83E3-F7DAD70258DE}">
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -45001,10 +48033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>651</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -45047,3319 +48079,287 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:AN50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="38.5" style="64" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="64" customWidth="1"/>
-    <col min="12" max="12" width="29.83203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" style="64" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="64" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="64" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18" style="64" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="64" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.1640625" style="64" customWidth="1"/>
-    <col min="29" max="29" width="15.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="44.5" style="64" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="28.33203125" style="64"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="57" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>543</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>545</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>546</v>
-      </c>
-      <c r="G1" s="65" t="s">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="107" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+    </row>
+    <row r="2" spans="1:8" s="44" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="65" t="s">
-        <v>547</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>548</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>549</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>550</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>551</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>598</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>552</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>553</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>555</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="S1" s="65" t="s">
-        <v>557</v>
-      </c>
-      <c r="T1" s="65" t="s">
-        <v>600</v>
-      </c>
-      <c r="U1" s="65" t="s">
-        <v>558</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>559</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>560</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="Y1" s="65" t="s">
-        <v>599</v>
-      </c>
-      <c r="Z1" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA1" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="AB1" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC1" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="AD1" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE1" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF1" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG1" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH1" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI1" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ1" s="56" t="s">
-        <v>565</v>
-      </c>
-      <c r="AK1" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="AL1" s="56" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AM1" s="56" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AN1" s="56" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58">
-        <v>3</v>
-      </c>
-      <c r="B2" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
-        <v>VCN::fwl-vcn</v>
-      </c>
-      <c r="C2" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
-        <v>fwl-vcn</v>
-      </c>
-      <c r="D2" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A2,4,4,1,"Subnets")))</f>
-        <v>fwl-vcn_fwl-mgmt</v>
-      </c>
-      <c r="E2" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,9,4,1,"Subnets")))</f>
-        <v>fwl-mgmt-rt</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H2" s="59" t="s">
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"DHCP")))</f>
-        <v>dhcp-internal</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DRGs")))</f>
-        <v>DRG</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>490</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>376</v>
-      </c>
-      <c r="T2" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
-        <v>VM1</v>
-      </c>
-      <c r="U2" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"instances")))</f>
-        <v>Bastion</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>568</v>
-      </c>
-      <c r="W2" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="59" t="s">
-        <v>569</v>
-      </c>
-      <c r="Y2" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB2" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC2" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE2" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF2" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG2" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH2" s="59">
-        <v>301</v>
-      </c>
-      <c r="AI2" s="59">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK2" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL2" s="58" t="s">
-        <v>980</v>
-      </c>
-      <c r="AM2" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="58" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58">
+      <c r="F3" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
-        <v>VCN::prod-vcn</v>
-      </c>
-      <c r="C3" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
-        <v>prod-vcn</v>
-      </c>
-      <c r="D3" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A3,4,4,1,"Subnets")))</f>
-        <v>fwl-vcn_fwl-pub</v>
-      </c>
-      <c r="E3" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,9,4,1,"Subnets")))</f>
-        <v>fwl-pub-rt</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H3" s="59" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>474</v>
-      </c>
-      <c r="K3" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
-        <v>dhcp-external</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DRGs")))</f>
-        <v>DRG</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>491</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>371</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="59" t="s">
-        <v>571</v>
-      </c>
-      <c r="T3" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
-        <v>VM2</v>
-      </c>
-      <c r="U3" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V3" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="X3" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y3" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB3" s="59" t="s">
-        <v>573</v>
-      </c>
-      <c r="AC3" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD3" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE3" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF3" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG3" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH3" s="59">
-        <v>302</v>
-      </c>
-      <c r="AI3" s="59">
-        <v>16</v>
-      </c>
-      <c r="AJ3" s="59" t="s">
-        <v>573</v>
-      </c>
-      <c r="AK3" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL3" s="58" t="s">
-        <v>972</v>
-      </c>
-      <c r="AM3" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="58" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58">
+      <c r="F9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
-        <v>VCN::nonprod-vcn</v>
-      </c>
-      <c r="C4" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
-        <v>nonprod-vcn</v>
-      </c>
-      <c r="D4" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A4,4,4,1,"Subnets")))</f>
-        <v>fwl-vcn_fwl-priv</v>
-      </c>
-      <c r="E4" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,9,4,1,"Subnets")))</f>
-        <v>fwl-priv-rt</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"DHCP")))</f>
-        <v>dhcp-internal</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="M4" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
-        <v>DRG</v>
-      </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>575</v>
-      </c>
-      <c r="T4" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
-        <v>VM3</v>
-      </c>
-      <c r="U4" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59" t="s">
-        <v>576</v>
-      </c>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59" t="s">
-        <v>577</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD4" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE4" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF4" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG4" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH4" s="59">
-        <v>303</v>
-      </c>
-      <c r="AI4" s="59">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="58" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58">
-        <v>6</v>
-      </c>
-      <c r="B5" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
-        <v>VCN::exa-vcn</v>
-      </c>
-      <c r="C5" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
-        <v>exa-vcn</v>
-      </c>
-      <c r="D5" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A5,4,4,1,"Subnets")))</f>
-        <v>fwl-vcn_fwl-ha</v>
-      </c>
-      <c r="E5" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,9,4,1,"Subnets")))</f>
-        <v>fwl-ha-rt</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"DHCP")))</f>
-        <v>dhcp-external</v>
-      </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DRGs")))</f>
-        <v>DRG</v>
-      </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59" t="s">
-        <v>580</v>
-      </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="T5" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U5" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE5" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF5" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59">
-        <v>307</v>
-      </c>
-      <c r="AI5" s="59">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
-        <v>7</v>
-      </c>
-      <c r="B6" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C6" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D6" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A6,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-web</v>
-      </c>
-      <c r="E6" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,9,4,1,"Subnets")))</f>
-        <v>prod-web-rt</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"DHCP")))</f>
-        <v>dhcp-internal</v>
-      </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U6" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE6" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59">
-        <v>308</v>
-      </c>
-      <c r="AI6" s="59"/>
-    </row>
-    <row r="7" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
-        <v>8</v>
-      </c>
-      <c r="B7" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C7" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D7" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A7,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-app</v>
-      </c>
-      <c r="E7" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,9,4,1,"Subnets")))</f>
-        <v>prod-app-rt</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" t="s">
-        <v>574</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U7" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE7" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-    </row>
-    <row r="8" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58">
-        <v>9</v>
-      </c>
-      <c r="B8" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C8" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D8" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A8,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-db</v>
-      </c>
-      <c r="E8" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,9,4,1,"Subnets")))</f>
-        <v>prod-db-rt</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" t="s">
-        <v>579</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U8" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE8" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-    </row>
-    <row r="9" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58">
-        <v>10</v>
-      </c>
-      <c r="B9" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C9" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D9" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A9,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-web</v>
-      </c>
-      <c r="E9" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,9,4,1,"Subnets")))</f>
-        <v>nonprod-web-rt</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" t="s">
-        <v>581</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U9" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE9" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-    </row>
-    <row r="10" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58">
-        <v>11</v>
-      </c>
-      <c r="B10" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C10" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D10" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A10,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-app</v>
-      </c>
-      <c r="E10" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,9,4,1,"Subnets")))</f>
-        <v>nonprod-app-rt</v>
-      </c>
-      <c r="F10" s="59"/>
-      <c r="G10" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U10" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE10" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-    </row>
-    <row r="11" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58">
-        <v>12</v>
-      </c>
-      <c r="B11" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C11" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D11" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A11,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-db</v>
-      </c>
-      <c r="E11" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,9,4,1,"Subnets")))</f>
-        <v>nonprod-db-rt</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="G11" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U11" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE11" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-    </row>
-    <row r="12" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58">
-        <v>13</v>
-      </c>
-      <c r="B12" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C12" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D12" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A12,4,4,1,"Subnets")))</f>
-        <v>exa-vcn_exa-clnt</v>
-      </c>
-      <c r="E12" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,9,4,1,"Subnets")))</f>
-        <v>exa-clnt-rt</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U12" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-    </row>
-    <row r="13" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58">
-        <v>14</v>
-      </c>
-      <c r="B13" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C13" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D13" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A13,4,4,1,"Subnets")))</f>
-        <v>exa-vcn_exa-bkup</v>
-      </c>
-      <c r="E13" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,9,4,1,"Subnets")))</f>
-        <v>exa-bkup-rt</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U13" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-    </row>
-    <row r="14" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58">
-        <v>15</v>
-      </c>
-      <c r="B14" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C14" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D14" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A14,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E14" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U14" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-    </row>
-    <row r="15" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58">
-        <v>16</v>
-      </c>
-      <c r="B15" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C15" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D15" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A15,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E15" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" t="s">
-        <v>582</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U15" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-    </row>
-    <row r="16" spans="1:40" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58">
-        <v>17</v>
-      </c>
-      <c r="B16" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C16" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D16" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A16,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E16" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" t="s">
-        <v>583</v>
-      </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U16" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-    </row>
-    <row r="17" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
-        <v>18</v>
-      </c>
-      <c r="B17" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C17" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D17" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A17,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E17" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U17" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-    </row>
-    <row r="18" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58">
-        <v>19</v>
-      </c>
-      <c r="B18" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C18" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D18" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A18,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E18" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U18" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-    </row>
-    <row r="19" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58">
-        <v>20</v>
-      </c>
-      <c r="B19" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C19" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D19" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A19,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E19" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U19" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-    </row>
-    <row r="20" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58">
-        <v>21</v>
-      </c>
-      <c r="B20" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C20" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D20" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A20,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E20" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" t="s">
-        <v>584</v>
-      </c>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U20" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-    </row>
-    <row r="21" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58">
-        <v>22</v>
-      </c>
-      <c r="B21" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C21" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D21" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A21,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E21" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U21" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-    </row>
-    <row r="22" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58">
-        <v>23</v>
-      </c>
-      <c r="B22" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C22" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D22" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A22,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E22" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U22" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-    </row>
-    <row r="23" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58">
-        <v>24</v>
-      </c>
-      <c r="B23" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C23" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D23" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A23,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E23" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U23" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-    </row>
-    <row r="24" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58">
-        <v>25</v>
-      </c>
-      <c r="B24" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C24" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D24" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A24,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E24" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" t="s">
-        <v>585</v>
-      </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U24" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-    </row>
-    <row r="25" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58">
-        <v>26</v>
-      </c>
-      <c r="B25" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C25" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D25" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A25,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E25" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U25" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-    </row>
-    <row r="26" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58">
-        <v>27</v>
-      </c>
-      <c r="B26" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C26" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D26" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A26,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E26" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" t="s">
-        <v>586</v>
-      </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U26" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-    </row>
-    <row r="27" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58">
-        <v>28</v>
-      </c>
-      <c r="B27" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C27" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D27" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A27,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E27" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" t="s">
-        <v>587</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U27" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-    </row>
-    <row r="28" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58">
-        <v>29</v>
-      </c>
-      <c r="B28" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C28" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D28" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A28,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E28" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" t="s">
-        <v>588</v>
-      </c>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U28" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-    </row>
-    <row r="29" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58">
-        <v>30</v>
-      </c>
-      <c r="B29" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C29" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D29" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A29,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E29" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U29" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-    </row>
-    <row r="30" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58">
-        <v>31</v>
-      </c>
-      <c r="B30" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C30" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D30" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A30,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E30" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" t="s">
+      <c r="B10" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U30" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-    </row>
-    <row r="31" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58">
-        <v>32</v>
-      </c>
-      <c r="B31" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C31" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D31" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A31,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E31" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F31" s="59"/>
-      <c r="G31" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U31" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-    </row>
-    <row r="32" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58">
-        <v>33</v>
-      </c>
-      <c r="B32" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C32" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D32" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A32,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E32" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U32" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-    </row>
-    <row r="33" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58">
-        <v>34</v>
-      </c>
-      <c r="B33" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C33" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D33" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A33,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E33" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" t="s">
-        <v>589</v>
-      </c>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U33" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-    </row>
-    <row r="34" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58">
-        <v>35</v>
-      </c>
-      <c r="B34" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C34" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D34" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A34,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E34" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U34" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-    </row>
-    <row r="35" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58">
-        <v>36</v>
-      </c>
-      <c r="B35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A35,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" t="s">
-        <v>590</v>
-      </c>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U35" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-    </row>
-    <row r="36" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58">
+      <c r="B11" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C36" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D36" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A36,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E36" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F36" s="59"/>
-      <c r="G36" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-    </row>
-    <row r="37" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58">
-        <v>38</v>
-      </c>
-      <c r="B37" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C37" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D37" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A37,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E37" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F37" s="59"/>
-      <c r="G37" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U37" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-    </row>
-    <row r="38" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58">
-        <v>39</v>
-      </c>
-      <c r="B38" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C38" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D38" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A38,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E38" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F38" s="59"/>
-      <c r="G38" t="s">
-        <v>591</v>
-      </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U38" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-    </row>
-    <row r="39" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58">
-        <v>40</v>
-      </c>
-      <c r="B39" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C39" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D39" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A39,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E39" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F39" s="59"/>
-      <c r="G39" t="s">
-        <v>592</v>
-      </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U39" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-    </row>
-    <row r="40" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58">
-        <v>41</v>
-      </c>
-      <c r="B40" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C40" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D40" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A40,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E40" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F40" s="59"/>
-      <c r="G40" t="s">
-        <v>593</v>
-      </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U40" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-    </row>
-    <row r="41" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58">
-        <v>42</v>
-      </c>
-      <c r="B41" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C41" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D41" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A41,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E41" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="G41" t="s">
-        <v>594</v>
-      </c>
-      <c r="K41" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M41" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T41" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U41" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="AF41" s="63"/>
-    </row>
-    <row r="42" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58">
-        <v>43</v>
-      </c>
-      <c r="B42" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C42" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D42" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A42,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E42" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="G42" t="s">
-        <v>595</v>
-      </c>
-      <c r="K42" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M42" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T42" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U42" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="58">
-        <v>44</v>
-      </c>
-      <c r="B43" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C43" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D43" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A43,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E43" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="G43" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M43" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T43" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U43" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58">
-        <v>45</v>
-      </c>
-      <c r="B44" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C44" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D44" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A44,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E44" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K44" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M44" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T44" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U44" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58">
-        <v>46</v>
-      </c>
-      <c r="B45" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C45" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D45" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A45,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E45" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K45" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M45" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T45" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U45" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58">
-        <v>47</v>
-      </c>
-      <c r="B46" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C46" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D46" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A46,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E46" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K46" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M46" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T46" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U46" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58">
-        <v>48</v>
-      </c>
-      <c r="B47" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C47" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D47" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A47,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E47" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K47" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M47" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T47" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U47" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:35" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58">
-        <v>49</v>
-      </c>
-      <c r="B48" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C48" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D48" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A48,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E48" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K48" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M48" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T48" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U48" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:28" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="58">
-        <v>50</v>
-      </c>
-      <c r="B49" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C49" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D49" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A49,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E49" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="E49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K49" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="K49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M49" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="M49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T49" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="T49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U49" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="U49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:28" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AB50" s="64"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="D1:XFD1048576 A1:C2" xr:uid="{65F16DDC-E856-2A45-B577-0471201C84B1}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D661BA34-81C7-F243-BB64-55A1D8BA5FB8}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{DAE0D089-A9D1-BA4D-9F4D-FF70D208C3F9}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{8D37A6EF-B29B-7244-BBCA-B1E5CB81865F}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145016BF-3E7F-4DE9-9228-9E63A8A88F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F9BEC-1809-467A-9220-7C77741225C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1252">
   <si>
     <t>Region</t>
   </si>
@@ -8281,39 +8281,6 @@
     <t>allow group SecurityAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>migrate360-policy</t>
-  </si>
-  <si>
-    <t>Policy for migrate360 group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow group migrate360Admins to read all-resources in tenancy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow group migrate360Admins to manage all-resources in compartment migrate360 </t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to manage instance-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to manage database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group migrate360Admins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
     <t>Shapes</t>
   </si>
   <si>
@@ -9111,7 +9078,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9162,12 +9129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9410,7 +9371,7 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9646,19 +9607,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14005,28 +13962,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="117" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="115" t="s">
         <v>415</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -19938,18 +19895,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -20062,17 +20019,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
@@ -20166,25 +20123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -20318,28 +20275,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="13" t="s">
@@ -26138,15 +26095,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -26320,30 +26277,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="137.25" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>1037</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="110" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="108" t="s">
         <v>655</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="112"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -26757,20 +26714,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="43.5">
       <c r="A2" s="10" t="s">
@@ -26967,27 +26924,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="106" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="50" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -27357,13 +27314,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
@@ -27642,40 +27599,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>1011</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="118" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="116" t="s">
         <v>1036</v>
       </c>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="120"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="118"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -28102,27 +28059,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -28401,30 +28358,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="38" t="s">
@@ -28752,25 +28709,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -29017,29 +28974,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="113" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="111" t="s">
         <v>430</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="126"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -29734,14 +29691,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -29896,20 +29853,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -30393,19 +30350,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -30603,24 +30560,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>959</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
     </row>
     <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="20" t="s">
@@ -30826,35 +30783,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="110"/>
     </row>
     <row r="2" spans="1:27" s="49" customFormat="1" ht="43.5">
       <c r="A2" s="50" t="s">
@@ -34221,13 +34178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -34484,16 +34441,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>961</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="66" t="s">
@@ -37394,25 +37351,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
       <c r="R1" s="70"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
@@ -41822,64 +41779,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.5">
-      <c r="A1" s="103" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="101" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>606</v>
       </c>
-      <c r="C1" s="104" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D1" s="104" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F1" s="105" t="s">
+      <c r="C1" s="102" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F1" s="103" t="s">
         <v>610</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="104" t="s">
         <v>608</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="104" t="s">
         <v>609</v>
       </c>
-      <c r="K1" s="105" t="s">
+      <c r="K1" s="103" t="s">
         <v>604</v>
       </c>
-      <c r="L1" s="104" t="s">
-        <v>1112</v>
-      </c>
-      <c r="M1" s="104"/>
+      <c r="L1" s="102" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="16">
-      <c r="A2" s="107" t="s">
-        <v>1113</v>
+      <c r="A2" s="105" t="s">
+        <v>1102</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>326</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="106" t="s">
         <v>328</v>
       </c>
       <c r="H2" s="37" t="s">
@@ -41889,7 +41846,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
@@ -41899,35 +41856,35 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16">
-      <c r="A3" s="107" t="s">
-        <v>1118</v>
+      <c r="A3" s="105" t="s">
+        <v>1107</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>395</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>1123</v>
+        <v>1111</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>1112</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="I3" s="36">
         <v>40</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
@@ -41937,103 +41894,103 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="107" t="s">
-        <v>1126</v>
+      <c r="A4" s="105" t="s">
+        <v>1115</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="F4" s="37"/>
       <c r="H4" s="9" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="L4" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="105" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F5" s="37"/>
       <c r="H5" s="37" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="L5" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="107" t="s">
-        <v>1136</v>
+      <c r="A6" s="105" t="s">
+        <v>1125</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="F6" s="37"/>
       <c r="H6" s="37" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="107" t="s">
-        <v>1140</v>
+      <c r="A7" s="105" t="s">
+        <v>1129</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="F7" s="37"/>
       <c r="H7" s="37" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="107" t="s">
-        <v>1144</v>
+      <c r="A8" s="105" t="s">
+        <v>1133</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="F8" s="37"/>
       <c r="H8" s="37" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="107" t="s">
-        <v>1148</v>
+      <c r="A9" s="105" t="s">
+        <v>1137</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
@@ -42041,564 +41998,564 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F9" s="37"/>
       <c r="H9" s="37" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="107" t="s">
-        <v>1151</v>
+      <c r="A10" s="105" t="s">
+        <v>1140</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="F10" s="37"/>
       <c r="H10" s="37" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="107" t="s">
-        <v>1155</v>
+      <c r="A11" s="105" t="s">
+        <v>1144</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="37"/>
       <c r="H11" s="37" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="107" t="s">
-        <v>1159</v>
+      <c r="A12" s="105" t="s">
+        <v>1148</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="107" t="s">
-        <v>1163</v>
+      <c r="A13" s="105" t="s">
+        <v>1152</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="F13" s="37"/>
       <c r="H13" s="37" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="105" t="s">
         <v>332</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="H14" s="37" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="H15" s="37" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="H16" s="37" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="37" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="37" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="37" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" s="37" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="37" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="37" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="37" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="37" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="37" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="37" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="37" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="37" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="37" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="37" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="37" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="37" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="37" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="37" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="37" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="37" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" s="37" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" s="37" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" s="37" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" s="37" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" s="37" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" s="37" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="37" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" s="37" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" s="37" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" s="37" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" s="37" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" s="37" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" s="37" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" s="37" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" s="37" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" s="37" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" s="37" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" s="37" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" s="37" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" s="37" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" s="37" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" s="37" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" s="37" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" s="37" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" s="37" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" s="37" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" s="37" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" s="37" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" s="37" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" s="37" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" s="37" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" s="37" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" s="37" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" s="37" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" s="37" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" s="37" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" s="37" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" s="37" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" s="37" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" s="37" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" s="37" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" s="37" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" s="37" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" s="37" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" s="37" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" s="37" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="37" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" s="37" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="37" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="37" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="37" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" s="37" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="37" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" s="37" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="37" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" s="37" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="37" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" s="37" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="37" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="37" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="37" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" s="37" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" s="37" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" s="37" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" s="37" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="37" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="37" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="37" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="37" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" s="37" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="37" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="37" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -43403,10 +43360,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -43421,16 +43378,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -46212,197 +46169,81 @@
       <c r="G224" s="37"/>
       <c r="H224" s="37"/>
     </row>
-    <row r="225" spans="1:8" ht="29" customHeight="1">
-      <c r="A225" s="101" t="s">
-        <v>314</v>
-      </c>
-      <c r="B225" s="101" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C225" s="101" t="s">
+    <row r="225" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A225" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="C225" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="D225" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E225" s="102" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F225" s="101"/>
-      <c r="G225" s="101"/>
-      <c r="H225" s="101"/>
-    </row>
-    <row r="226" spans="1:8" ht="29" customHeight="1">
-      <c r="A226" s="101"/>
-      <c r="B226" s="101"/>
-      <c r="C226" s="101"/>
-      <c r="D226" s="102"/>
-      <c r="E226" s="102" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F226" s="101"/>
-      <c r="G226" s="101"/>
-      <c r="H226" s="101"/>
-    </row>
-    <row r="227" spans="1:8" ht="29" customHeight="1">
-      <c r="A227" s="101"/>
-      <c r="B227" s="101"/>
-      <c r="C227" s="101"/>
-      <c r="D227" s="102"/>
-      <c r="E227" s="102" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F227" s="101"/>
-      <c r="G227" s="101"/>
-      <c r="H227" s="101"/>
-    </row>
-    <row r="228" spans="1:8" ht="29" customHeight="1">
-      <c r="A228" s="101"/>
-      <c r="B228" s="101"/>
-      <c r="C228" s="101"/>
-      <c r="D228" s="102"/>
-      <c r="E228" s="102" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F228" s="101"/>
-      <c r="G228" s="101"/>
-      <c r="H228" s="101"/>
-    </row>
-    <row r="229" spans="1:8" ht="29" customHeight="1">
-      <c r="A229" s="101"/>
-      <c r="B229" s="101"/>
-      <c r="C229" s="101"/>
-      <c r="D229" s="102"/>
-      <c r="E229" s="102" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F229" s="101"/>
-      <c r="G229" s="101"/>
-      <c r="H229" s="101"/>
-    </row>
-    <row r="230" spans="1:8" ht="29" customHeight="1">
-      <c r="A230" s="101"/>
-      <c r="B230" s="101"/>
-      <c r="C230" s="101"/>
-      <c r="D230" s="102"/>
-      <c r="E230" s="102" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F230" s="101"/>
-      <c r="G230" s="101"/>
-      <c r="H230" s="101"/>
-    </row>
-    <row r="231" spans="1:8" ht="29">
-      <c r="A231" s="101"/>
-      <c r="B231" s="101"/>
-      <c r="C231" s="101"/>
-      <c r="D231" s="102"/>
-      <c r="E231" s="102" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F231" s="101"/>
-      <c r="G231" s="101"/>
-      <c r="H231" s="101"/>
-    </row>
-    <row r="232" spans="1:8" ht="29" customHeight="1">
-      <c r="A232" s="101"/>
-      <c r="B232" s="101"/>
-      <c r="C232" s="101"/>
-      <c r="D232" s="102"/>
-      <c r="E232" s="102" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F232" s="101"/>
-      <c r="G232" s="101"/>
-      <c r="H232" s="101"/>
-    </row>
-    <row r="233" spans="1:8" ht="29" customHeight="1">
-      <c r="A233" s="101"/>
-      <c r="B233" s="101"/>
-      <c r="C233" s="101"/>
-      <c r="D233" s="102"/>
-      <c r="E233" s="102" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F233" s="101"/>
-      <c r="G233" s="101"/>
-      <c r="H233" s="101"/>
-    </row>
-    <row r="234" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A234" s="36" t="s">
+      <c r="D225" s="36" t="s">
+        <v>871</v>
+      </c>
+      <c r="E225" s="36" t="s">
+        <v>872</v>
+      </c>
+      <c r="F225" s="36"/>
+      <c r="G225" s="36"/>
+      <c r="H225" s="36"/>
+    </row>
+    <row r="226" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A226" s="36"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
+      <c r="E226" s="36" t="s">
+        <v>873</v>
+      </c>
+      <c r="F226" s="36"/>
+      <c r="G226" s="36"/>
+      <c r="H226" s="36"/>
+    </row>
+    <row r="227" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A227" s="36"/>
+      <c r="B227" s="36"/>
+      <c r="C227" s="36"/>
+      <c r="D227" s="36"/>
+      <c r="E227" s="36" t="s">
+        <v>874</v>
+      </c>
+      <c r="F227" s="36"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="36"/>
+    </row>
+    <row r="228" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A228" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B234" s="36" t="s">
-        <v>875</v>
-      </c>
-      <c r="C234" s="36" t="s">
+      <c r="B228" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="C228" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="D234" s="36" t="s">
-        <v>871</v>
-      </c>
-      <c r="E234" s="36" t="s">
-        <v>872</v>
-      </c>
-      <c r="F234" s="36"/>
-      <c r="G234" s="36"/>
-      <c r="H234" s="36"/>
-    </row>
-    <row r="235" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A235" s="36"/>
-      <c r="B235" s="36"/>
-      <c r="C235" s="36"/>
-      <c r="D235" s="36"/>
-      <c r="E235" s="36" t="s">
-        <v>873</v>
-      </c>
-      <c r="F235" s="36"/>
-      <c r="G235" s="36"/>
-      <c r="H235" s="36"/>
-    </row>
-    <row r="236" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A236" s="36"/>
-      <c r="B236" s="36"/>
-      <c r="C236" s="36"/>
-      <c r="D236" s="36"/>
-      <c r="E236" s="36" t="s">
-        <v>874</v>
-      </c>
-      <c r="F236" s="36"/>
-      <c r="G236" s="36"/>
-      <c r="H236" s="36"/>
-    </row>
-    <row r="237" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A237" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="36" t="s">
-        <v>876</v>
-      </c>
-      <c r="C237" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="D237" s="36" t="s">
+      <c r="D228" s="36" t="s">
         <v>877</v>
       </c>
-      <c r="E237" s="36" t="s">
+      <c r="E228" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="F237" s="36"/>
-      <c r="G237" s="36"/>
-      <c r="H237" s="36"/>
-    </row>
-    <row r="238" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A238" s="36"/>
-      <c r="B238" s="36"/>
-      <c r="C238" s="36"/>
-      <c r="D238" s="36"/>
-      <c r="E238" s="36" t="s">
+      <c r="F228" s="36"/>
+      <c r="G228" s="36"/>
+      <c r="H228" s="36"/>
+    </row>
+    <row r="229" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A229" s="36"/>
+      <c r="B229" s="36"/>
+      <c r="C229" s="36"/>
+      <c r="D229" s="36"/>
+      <c r="E229" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="F238" s="36"/>
-      <c r="G238" s="36"/>
-      <c r="H238" s="36"/>
+      <c r="F229" s="36"/>
+      <c r="G229" s="36"/>
+      <c r="H229" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46450,19 +46291,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="111" t="s">
         <v>881</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="41" t="s">
@@ -46830,22 +46671,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="108" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="110" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="108" t="s">
         <v>427</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -47096,18 +46937,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>960</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="116" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="114" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" ht="29">
       <c r="A2" s="31" t="s">
@@ -47284,10 +47125,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>651</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
@@ -47350,16 +47191,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="107" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="10" t="s">

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F9BEC-1809-467A-9220-7C77741225C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B4CB44-52DD-42AF-9A7B-B8ECCC336FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26249,8 +26249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:T1"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -26276,7 +26276,7 @@
     <col min="20" max="20" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="137.25" customHeight="1">
+    <row r="1" spans="1:20" ht="167.5" customHeight="1">
       <c r="A1" s="116" t="s">
         <v>1037</v>
       </c>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unamachi\Desktop\code\cd3_public\17042023\cd3-automation-toolkit\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B4CB44-52DD-42AF-9A7B-B8ECCC336FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A5CD8-C10F-495E-9CA3-A2D8AD018DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="1000" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="1258">
   <si>
     <t>Region</t>
   </si>
@@ -7861,6 +7861,725 @@
     </r>
   </si>
   <si>
+    <t>allow group AnnouncementReaders to read announcements in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AnnouncementReaders to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read app-catalog-listing in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read instance-images in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to inspect all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read instances in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read load-balancers in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read buckets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read nat-gateways in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read public-ips in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read file-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read instance-configurations in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read network-security-groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read resource-availability in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read audit-events in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read users in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read vss-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group Auditors to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>Policy for Credential Admins group</t>
+  </si>
+  <si>
+    <t>allow group CredAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>allow group CredAdmins to inspect groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow group CredAdmins to manage users in tenancy  where any {request.operation = 'ListApiKeys',request.operation = 'ListAuthTokens',request.operation = 'ListCustomerSecretKeys',request.operation = 'UploadApiKey',request.operation = 'DeleteApiKey',request.operation = 'UpdateAuthToken',request.operation = 'CreateAuthToken',request.operation = 'DeleteAuthToken',request.operation = 'CreateSecretKey',request.operation = 'UpdateCustomerSecretKey',request.operation = 'DeleteCustomerSecretKey',request.operation = 'UpdateUserCapabilities'}</t>
+  </si>
+  <si>
+    <t>allow group CredAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Managed-Services-Policy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to use network-security-groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow service osms to read instances in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage policies in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage compartments in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpgroupMapping', request.operation = 'DeleteIdpgroupMapping'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>define tenancy usage-report as ocid1.tenancy.oc1..aaaaaaaaned4fkpkisbwjlr56u7cj63lf3wffbilvqknstgtvzub7vhqkggq</t>
+  </si>
+  <si>
+    <t>allow group CostAdmins to manage usage-report in tenancy</t>
+  </si>
+  <si>
+    <t>allow group CostAdmins to manage usage-budgets  in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage tag-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage tag-defaults in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage repos in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read audit-events in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read app-catalog-listing in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read instance-images in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to inspect buckets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage cloudevents-rules in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage cloud-guard-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read tenancies in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>DB version</t>
+  </si>
+  <si>
+    <t>DB workload</t>
+  </si>
+  <si>
+    <t>EXA Shapes</t>
+  </si>
+  <si>
+    <t>ADB workload</t>
+  </si>
+  <si>
+    <t>VM.Standard2.1</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2.0.4 </t>
+  </si>
+  <si>
+    <t>Exadata.Quarter2.92</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>VM.Standard1.1</t>
+  </si>
+  <si>
+    <t>12.1.0.2</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>Exadata.Half2.184</t>
+  </si>
+  <si>
+    <t>BRING_YOUR_OWN_LICENSE</t>
+  </si>
+  <si>
+    <t>UTF8</t>
+  </si>
+  <si>
+    <t>AR8ADOS710</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>VM.Standard1.2</t>
+  </si>
+  <si>
+    <t>12.2.0.1</t>
+  </si>
+  <si>
+    <t>Exadata.Full2.368</t>
+  </si>
+  <si>
+    <t>AR8ADOS720</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>18.0.0.0</t>
+  </si>
+  <si>
+    <t>Exadata.Quarter1.84</t>
+  </si>
+  <si>
+    <t>AR8APTEC715</t>
+  </si>
+  <si>
+    <t>APEX</t>
+  </si>
+  <si>
+    <t>VM.Standard2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.0.0 </t>
+  </si>
+  <si>
+    <t>Exadata.Half1.168</t>
+  </si>
+  <si>
+    <t>AR8ARABICMACS</t>
+  </si>
+  <si>
+    <t>VM.Standard1.4</t>
+  </si>
+  <si>
+    <t>18.13.0.0</t>
+  </si>
+  <si>
+    <t>Exadata.Full1.336</t>
+  </si>
+  <si>
+    <t>AR8ASMO8X</t>
+  </si>
+  <si>
+    <t>VM.Standard1.8</t>
+  </si>
+  <si>
+    <t>18.14.0.0</t>
+  </si>
+  <si>
+    <t>Exadata.Base.48</t>
+  </si>
+  <si>
+    <t>AR8ISO8859P6</t>
+  </si>
+  <si>
+    <t>VM.Standard2.8</t>
+  </si>
+  <si>
+    <t>Exadata.Half3.200</t>
+  </si>
+  <si>
+    <t>AR8MSWIN1256</t>
+  </si>
+  <si>
+    <t>VM.Standard2.16</t>
+  </si>
+  <si>
+    <t>19.10.0.0</t>
+  </si>
+  <si>
+    <t>Exadata.Quater3.100</t>
+  </si>
+  <si>
+    <t>AR8MUSSAD768</t>
+  </si>
+  <si>
+    <t>VM.Standard1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.0.0 </t>
+  </si>
+  <si>
+    <t>Exadata.Full3.400</t>
+  </si>
+  <si>
+    <t>AR8NAFITHA711</t>
+  </si>
+  <si>
+    <t>VM.Standard2.24</t>
+  </si>
+  <si>
+    <t>19.12.0.0</t>
+  </si>
+  <si>
+    <t>Exadata X8M-2</t>
+  </si>
+  <si>
+    <t>AR8NAFITHA721</t>
+  </si>
+  <si>
+    <t>BM.DenseIO1.36</t>
+  </si>
+  <si>
+    <t>21.0.0.0</t>
+  </si>
+  <si>
+    <t>Exadata X9M-2</t>
+  </si>
+  <si>
+    <t>AR8SAKHR706</t>
+  </si>
+  <si>
+    <t>21.3.0.0</t>
+  </si>
+  <si>
+    <t>AR8SAKHR707</t>
+  </si>
+  <si>
+    <t>AZ8ISO8859P9E</t>
+  </si>
+  <si>
+    <t>BG8MSWIN</t>
+  </si>
+  <si>
+    <t>BG8PC437S</t>
+  </si>
+  <si>
+    <t>BLT8CP921</t>
+  </si>
+  <si>
+    <t>BLT8ISO8859P13</t>
+  </si>
+  <si>
+    <t>BLT8MSWIN1257</t>
+  </si>
+  <si>
+    <t>BLT8PC775</t>
+  </si>
+  <si>
+    <t>BN8BSCII</t>
+  </si>
+  <si>
+    <t>CDN8PC863</t>
+  </si>
+  <si>
+    <t>CEL8ISO8859P14</t>
+  </si>
+  <si>
+    <t>CL8ISO8859P5</t>
+  </si>
+  <si>
+    <t>CL8ISOIR111</t>
+  </si>
+  <si>
+    <t>CL8KOI8R</t>
+  </si>
+  <si>
+    <t>CL8KOI8U</t>
+  </si>
+  <si>
+    <t>CL8MACCYRILLICS</t>
+  </si>
+  <si>
+    <t>CL8MSWIN1251</t>
+  </si>
+  <si>
+    <t>EE8ISO8859P2</t>
+  </si>
+  <si>
+    <t>EE8MACCES</t>
+  </si>
+  <si>
+    <t>EE8MACCROATIANS</t>
+  </si>
+  <si>
+    <t>EE8MSWIN1250</t>
+  </si>
+  <si>
+    <t>EE8PC852</t>
+  </si>
+  <si>
+    <t>EL8DEC</t>
+  </si>
+  <si>
+    <t>EL8ISO8859P7</t>
+  </si>
+  <si>
+    <t>EL8MACGREEKS</t>
+  </si>
+  <si>
+    <t>EL8MSWIN1253</t>
+  </si>
+  <si>
+    <t>EL8PC437S</t>
+  </si>
+  <si>
+    <t>EL8PC851</t>
+  </si>
+  <si>
+    <t>EL8PC869</t>
+  </si>
+  <si>
+    <t>ET8MSWIN923</t>
+  </si>
+  <si>
+    <t>HU8ABMOD</t>
+  </si>
+  <si>
+    <t>HU8CWI2</t>
+  </si>
+  <si>
+    <t>IN8ISCII</t>
+  </si>
+  <si>
+    <t>IS8PC861</t>
+  </si>
+  <si>
+    <t>IW8ISO8859P8</t>
+  </si>
+  <si>
+    <t>IW8MACHEBREWS</t>
+  </si>
+  <si>
+    <t>IW8MSWIN1255</t>
+  </si>
+  <si>
+    <t>IW8PC1507</t>
+  </si>
+  <si>
+    <t>JA16EUC</t>
+  </si>
+  <si>
+    <t>JA16EUCTILDE</t>
+  </si>
+  <si>
+    <t>JA16SJIS</t>
+  </si>
+  <si>
+    <t>JA16SJISTILDE</t>
+  </si>
+  <si>
+    <t>JA16VMS</t>
+  </si>
+  <si>
+    <t>KO16KSC5601</t>
+  </si>
+  <si>
+    <t>KO16KSCCS</t>
+  </si>
+  <si>
+    <t>KO16MSWIN949</t>
+  </si>
+  <si>
+    <t>LA8ISO6937</t>
+  </si>
+  <si>
+    <t>LA8PASSPORT</t>
+  </si>
+  <si>
+    <t>LT8MSWIN921</t>
+  </si>
+  <si>
+    <t>LT8PC772</t>
+  </si>
+  <si>
+    <t>LT8PC774</t>
+  </si>
+  <si>
+    <t>LV8PC1117</t>
+  </si>
+  <si>
+    <t>LV8PC8LR</t>
+  </si>
+  <si>
+    <t>LV8RST104090</t>
+  </si>
+  <si>
+    <t>N8PC865</t>
+  </si>
+  <si>
+    <t>NE8ISO8859P10</t>
+  </si>
+  <si>
+    <t>NEE8ISO8859P4</t>
+  </si>
+  <si>
+    <t>RU8BESTA</t>
+  </si>
+  <si>
+    <t>RU8PC855</t>
+  </si>
+  <si>
+    <t>RU8PC866</t>
+  </si>
+  <si>
+    <t>SE8ISO8859P3</t>
+  </si>
+  <si>
+    <t>TH8MACTHAIS</t>
+  </si>
+  <si>
+    <t>TH8TISASCII</t>
+  </si>
+  <si>
+    <t>TR8DEC</t>
+  </si>
+  <si>
+    <t>TR8MACTURKISHS</t>
+  </si>
+  <si>
+    <t>TR8MSWIN1254</t>
+  </si>
+  <si>
+    <t>TR8PC857</t>
+  </si>
+  <si>
+    <t>US7ASCII</t>
+  </si>
+  <si>
+    <t>US8PC437</t>
+  </si>
+  <si>
+    <t>VN8MSWIN1258</t>
+  </si>
+  <si>
+    <t>VN8VN3</t>
+  </si>
+  <si>
+    <t>WE8DEC</t>
+  </si>
+  <si>
+    <t>WE8DG</t>
+  </si>
+  <si>
+    <t>WE8ISO8859P1</t>
+  </si>
+  <si>
+    <t>WE8ISO8859P15</t>
+  </si>
+  <si>
+    <t>WE8ISO8859P9</t>
+  </si>
+  <si>
+    <t>WE8MACROMAN8S</t>
+  </si>
+  <si>
+    <t>WE8MSWIN1252</t>
+  </si>
+  <si>
+    <t>WE8NCR4970</t>
+  </si>
+  <si>
+    <t>WE8NEXTSTEP</t>
+  </si>
+  <si>
+    <t>WE8PC850</t>
+  </si>
+  <si>
+    <t>WE8PC858</t>
+  </si>
+  <si>
+    <t>WE8PC860</t>
+  </si>
+  <si>
+    <t>WE8ROMAN8</t>
+  </si>
+  <si>
+    <t>ZHS16CGB231280</t>
+  </si>
+  <si>
+    <t>ZHS16GBK</t>
+  </si>
+  <si>
+    <t>ZHT16BIG5</t>
+  </si>
+  <si>
+    <t>ZHT16CCDC</t>
+  </si>
+  <si>
+    <t>ZHT16DBT</t>
+  </si>
+  <si>
+    <t>ZHT16HKSCS</t>
+  </si>
+  <si>
+    <t>ZHT16MSWIN950</t>
+  </si>
+  <si>
+    <t>ZHT32EUC</t>
+  </si>
+  <si>
+    <t>ZHT32SOPS</t>
+  </si>
+  <si>
+    <t>ZHT32TRIS</t>
+  </si>
+  <si>
+    <r>
+      <t>"Attached To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" - Valid format:
+VCN::&lt;vcn_name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Import DRG Route Distribution Statements"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline in the same cell(\n is not supported)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL::::1
+       DRG_ATTACHMENT_TYPE::VCN::2
+       DRG_ATTACHMENT_TYPE::IPSEC_TUNNEL::2
+       DRG_ATTACHMENT_TYPE::REMOTE_PEERING_CONNECTION::2
+       DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
+       DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
+    </r>
+  </si>
+  <si>
+    <t>Remote Execute</t>
+  </si>
+  <si>
+    <t>ansible_default</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
@@ -7973,7 +8692,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
+      <t>Leave this field empty if the instance does not need to be launched on dedicated vm host.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remote Execute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" - To execute script(Ansible/Shell) remotely during provisioning. Format is,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ansible_&lt;script_name&gt; or shell_&lt;script_name&gt; without ext (shell script should be named with *.sh and ansible with *.yaml inside scripts folder within region dir)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -8090,731 +8853,18 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>allow group AnnouncementReaders to read announcements in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AnnouncementReaders to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read app-catalog-listing in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read instance-images in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read repos in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to inspect all-resources in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read instances in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read load-balancers in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read buckets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read nat-gateways in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read public-ips in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read file-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read instance-configurations in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read network-security-groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read resource-availability in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read users in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read vss-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group Auditors to read data-safe-family in tenancy</t>
-  </si>
-  <si>
-    <t>Policy for Credential Admins group</t>
-  </si>
-  <si>
-    <t>allow group CredAdmins to inspect users in tenancy</t>
-  </si>
-  <si>
-    <t>allow group CredAdmins to inspect groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow group CredAdmins to manage users in tenancy  where any {request.operation = 'ListApiKeys',request.operation = 'ListAuthTokens',request.operation = 'ListCustomerSecretKeys',request.operation = 'UploadApiKey',request.operation = 'DeleteApiKey',request.operation = 'UpdateAuthToken',request.operation = 'CreateAuthToken',request.operation = 'DeleteAuthToken',request.operation = 'CreateSecretKey',request.operation = 'UpdateCustomerSecretKey',request.operation = 'DeleteCustomerSecretKey',request.operation = 'UpdateUserCapabilities'}</t>
-  </si>
-  <si>
-    <t>allow group CredAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Managed-Services-Policy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read all-resources in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to use network-security-groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow service osms to read instances in tenancy</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group IAMAdmins to manage policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow group IAMAdmins to manage compartments in tenancy</t>
-  </si>
-  <si>
-    <t>allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpgroupMapping', request.operation = 'DeleteIdpgroupMapping'}</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>define tenancy usage-report as ocid1.tenancy.oc1..aaaaaaaaned4fkpkisbwjlr56u7cj63lf3wffbilvqknstgtvzub7vhqkggq</t>
-  </si>
-  <si>
-    <t>allow group CostAdmins to manage usage-report in tenancy</t>
-  </si>
-  <si>
-    <t>allow group CostAdmins to manage usage-budgets  in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage tag-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage tag-defaults in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage repos in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read app-catalog-listing in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read instance-images in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to inspect buckets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage cloudevents-rules in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage cloud-guard-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read tenancies in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read objectstorage-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Shapes</t>
-  </si>
-  <si>
-    <t>DB version</t>
-  </si>
-  <si>
-    <t>DB workload</t>
-  </si>
-  <si>
-    <t>EXA Shapes</t>
-  </si>
-  <si>
-    <t>ADB workload</t>
-  </si>
-  <si>
-    <t>VM.Standard2.1</t>
-  </si>
-  <si>
-    <t>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2.0.4 </t>
-  </si>
-  <si>
-    <t>Exadata.Quarter2.92</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>VM.Standard1.1</t>
-  </si>
-  <si>
-    <t>12.1.0.2</t>
-  </si>
-  <si>
-    <t>DSS</t>
-  </si>
-  <si>
-    <t>Exadata.Half2.184</t>
-  </si>
-  <si>
-    <t>BRING_YOUR_OWN_LICENSE</t>
-  </si>
-  <si>
-    <t>UTF8</t>
-  </si>
-  <si>
-    <t>AR8ADOS710</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>VM.Standard1.2</t>
-  </si>
-  <si>
-    <t>12.2.0.1</t>
-  </si>
-  <si>
-    <t>Exadata.Full2.368</t>
-  </si>
-  <si>
-    <t>AR8ADOS720</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
-  </si>
-  <si>
-    <t>18.0.0.0</t>
-  </si>
-  <si>
-    <t>Exadata.Quarter1.84</t>
-  </si>
-  <si>
-    <t>AR8APTEC715</t>
-  </si>
-  <si>
-    <t>APEX</t>
-  </si>
-  <si>
-    <t>VM.Standard2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.12.0.0 </t>
-  </si>
-  <si>
-    <t>Exadata.Half1.168</t>
-  </si>
-  <si>
-    <t>AR8ARABICMACS</t>
-  </si>
-  <si>
-    <t>VM.Standard1.4</t>
-  </si>
-  <si>
-    <t>18.13.0.0</t>
-  </si>
-  <si>
-    <t>Exadata.Full1.336</t>
-  </si>
-  <si>
-    <t>AR8ASMO8X</t>
-  </si>
-  <si>
-    <t>VM.Standard1.8</t>
-  </si>
-  <si>
-    <t>18.14.0.0</t>
-  </si>
-  <si>
-    <t>Exadata.Base.48</t>
-  </si>
-  <si>
-    <t>AR8ISO8859P6</t>
-  </si>
-  <si>
-    <t>VM.Standard2.8</t>
-  </si>
-  <si>
-    <t>Exadata.Half3.200</t>
-  </si>
-  <si>
-    <t>AR8MSWIN1256</t>
-  </si>
-  <si>
-    <t>VM.Standard2.16</t>
-  </si>
-  <si>
-    <t>19.10.0.0</t>
-  </si>
-  <si>
-    <t>Exadata.Quater3.100</t>
-  </si>
-  <si>
-    <t>AR8MUSSAD768</t>
-  </si>
-  <si>
-    <t>VM.Standard1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.0.0 </t>
-  </si>
-  <si>
-    <t>Exadata.Full3.400</t>
-  </si>
-  <si>
-    <t>AR8NAFITHA711</t>
-  </si>
-  <si>
-    <t>VM.Standard2.24</t>
-  </si>
-  <si>
-    <t>19.12.0.0</t>
-  </si>
-  <si>
-    <t>Exadata X8M-2</t>
-  </si>
-  <si>
-    <t>AR8NAFITHA721</t>
-  </si>
-  <si>
-    <t>BM.DenseIO1.36</t>
-  </si>
-  <si>
-    <t>21.0.0.0</t>
-  </si>
-  <si>
-    <t>Exadata X9M-2</t>
-  </si>
-  <si>
-    <t>AR8SAKHR706</t>
-  </si>
-  <si>
-    <t>21.3.0.0</t>
-  </si>
-  <si>
-    <t>AR8SAKHR707</t>
-  </si>
-  <si>
-    <t>AZ8ISO8859P9E</t>
-  </si>
-  <si>
-    <t>BG8MSWIN</t>
-  </si>
-  <si>
-    <t>BG8PC437S</t>
-  </si>
-  <si>
-    <t>BLT8CP921</t>
-  </si>
-  <si>
-    <t>BLT8ISO8859P13</t>
-  </si>
-  <si>
-    <t>BLT8MSWIN1257</t>
-  </si>
-  <si>
-    <t>BLT8PC775</t>
-  </si>
-  <si>
-    <t>BN8BSCII</t>
-  </si>
-  <si>
-    <t>CDN8PC863</t>
-  </si>
-  <si>
-    <t>CEL8ISO8859P14</t>
-  </si>
-  <si>
-    <t>CL8ISO8859P5</t>
-  </si>
-  <si>
-    <t>CL8ISOIR111</t>
-  </si>
-  <si>
-    <t>CL8KOI8R</t>
-  </si>
-  <si>
-    <t>CL8KOI8U</t>
-  </si>
-  <si>
-    <t>CL8MACCYRILLICS</t>
-  </si>
-  <si>
-    <t>CL8MSWIN1251</t>
-  </si>
-  <si>
-    <t>EE8ISO8859P2</t>
-  </si>
-  <si>
-    <t>EE8MACCES</t>
-  </si>
-  <si>
-    <t>EE8MACCROATIANS</t>
-  </si>
-  <si>
-    <t>EE8MSWIN1250</t>
-  </si>
-  <si>
-    <t>EE8PC852</t>
-  </si>
-  <si>
-    <t>EL8DEC</t>
-  </si>
-  <si>
-    <t>EL8ISO8859P7</t>
-  </si>
-  <si>
-    <t>EL8MACGREEKS</t>
-  </si>
-  <si>
-    <t>EL8MSWIN1253</t>
-  </si>
-  <si>
-    <t>EL8PC437S</t>
-  </si>
-  <si>
-    <t>EL8PC851</t>
-  </si>
-  <si>
-    <t>EL8PC869</t>
-  </si>
-  <si>
-    <t>ET8MSWIN923</t>
-  </si>
-  <si>
-    <t>HU8ABMOD</t>
-  </si>
-  <si>
-    <t>HU8CWI2</t>
-  </si>
-  <si>
-    <t>IN8ISCII</t>
-  </si>
-  <si>
-    <t>IS8PC861</t>
-  </si>
-  <si>
-    <t>IW8ISO8859P8</t>
-  </si>
-  <si>
-    <t>IW8MACHEBREWS</t>
-  </si>
-  <si>
-    <t>IW8MSWIN1255</t>
-  </si>
-  <si>
-    <t>IW8PC1507</t>
-  </si>
-  <si>
-    <t>JA16EUC</t>
-  </si>
-  <si>
-    <t>JA16EUCTILDE</t>
-  </si>
-  <si>
-    <t>JA16SJIS</t>
-  </si>
-  <si>
-    <t>JA16SJISTILDE</t>
-  </si>
-  <si>
-    <t>JA16VMS</t>
-  </si>
-  <si>
-    <t>KO16KSC5601</t>
-  </si>
-  <si>
-    <t>KO16KSCCS</t>
-  </si>
-  <si>
-    <t>KO16MSWIN949</t>
-  </si>
-  <si>
-    <t>LA8ISO6937</t>
-  </si>
-  <si>
-    <t>LA8PASSPORT</t>
-  </si>
-  <si>
-    <t>LT8MSWIN921</t>
-  </si>
-  <si>
-    <t>LT8PC772</t>
-  </si>
-  <si>
-    <t>LT8PC774</t>
-  </si>
-  <si>
-    <t>LV8PC1117</t>
-  </si>
-  <si>
-    <t>LV8PC8LR</t>
-  </si>
-  <si>
-    <t>LV8RST104090</t>
-  </si>
-  <si>
-    <t>N8PC865</t>
-  </si>
-  <si>
-    <t>NE8ISO8859P10</t>
-  </si>
-  <si>
-    <t>NEE8ISO8859P4</t>
-  </si>
-  <si>
-    <t>RU8BESTA</t>
-  </si>
-  <si>
-    <t>RU8PC855</t>
-  </si>
-  <si>
-    <t>RU8PC866</t>
-  </si>
-  <si>
-    <t>SE8ISO8859P3</t>
-  </si>
-  <si>
-    <t>TH8MACTHAIS</t>
-  </si>
-  <si>
-    <t>TH8TISASCII</t>
-  </si>
-  <si>
-    <t>TR8DEC</t>
-  </si>
-  <si>
-    <t>TR8MACTURKISHS</t>
-  </si>
-  <si>
-    <t>TR8MSWIN1254</t>
-  </si>
-  <si>
-    <t>TR8PC857</t>
-  </si>
-  <si>
-    <t>US7ASCII</t>
-  </si>
-  <si>
-    <t>US8PC437</t>
-  </si>
-  <si>
-    <t>VN8MSWIN1258</t>
-  </si>
-  <si>
-    <t>VN8VN3</t>
-  </si>
-  <si>
-    <t>WE8DEC</t>
-  </si>
-  <si>
-    <t>WE8DG</t>
-  </si>
-  <si>
-    <t>WE8ISO8859P1</t>
-  </si>
-  <si>
-    <t>WE8ISO8859P15</t>
-  </si>
-  <si>
-    <t>WE8ISO8859P9</t>
-  </si>
-  <si>
-    <t>WE8MACROMAN8S</t>
-  </si>
-  <si>
-    <t>WE8MSWIN1252</t>
-  </si>
-  <si>
-    <t>WE8NCR4970</t>
-  </si>
-  <si>
-    <t>WE8NEXTSTEP</t>
-  </si>
-  <si>
-    <t>WE8PC850</t>
-  </si>
-  <si>
-    <t>WE8PC858</t>
-  </si>
-  <si>
-    <t>WE8PC860</t>
-  </si>
-  <si>
-    <t>WE8ROMAN8</t>
-  </si>
-  <si>
-    <t>ZHS16CGB231280</t>
-  </si>
-  <si>
-    <t>ZHS16GBK</t>
-  </si>
-  <si>
-    <t>ZHT16BIG5</t>
-  </si>
-  <si>
-    <t>ZHT16CCDC</t>
-  </si>
-  <si>
-    <t>ZHT16DBT</t>
-  </si>
-  <si>
-    <t>ZHT16HKSCS</t>
-  </si>
-  <si>
-    <t>ZHT16MSWIN950</t>
-  </si>
-  <si>
-    <t>ZHT32EUC</t>
-  </si>
-  <si>
-    <t>ZHT32SOPS</t>
-  </si>
-  <si>
-    <t>ZHT32TRIS</t>
-  </si>
-  <si>
-    <r>
-      <t>"Attached To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" - Valid format:
-VCN::&lt;vcn_name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Import DRG Route Distribution Statements"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline in the same cell(\n is not supported)
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>eg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL::::1
-       DRG_ATTACHMENT_TYPE::VCN::2
-       DRG_ATTACHMENT_TYPE::IPSEC_TUNNEL::2
-       DRG_ATTACHMENT_TYPE::REMOTE_PEERING_CONNECTION::2
-       DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
-       DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
-    </r>
+  </si>
+  <si>
+    <t>shell_scriptone</t>
+  </si>
+  <si>
+    <t>ansible_test-script</t>
+  </si>
+  <si>
+    <t>shell_bootstraptscript</t>
+  </si>
+  <si>
+    <t>ansible_testingscript</t>
   </si>
 </sst>
 </file>
@@ -13911,7 +13961,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -26247,10 +26297,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -26264,21 +26314,21 @@
     <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
-    <col min="12" max="13" width="20.81640625" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="8.36328125" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" customWidth="1"/>
+    <col min="10" max="11" width="22.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="14" width="20.81640625" customWidth="1"/>
+    <col min="15" max="15" width="21.81640625" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="167.5" customHeight="1">
+    <row r="1" spans="1:21" ht="221" customHeight="1">
       <c r="A1" s="116" t="s">
-        <v>1037</v>
+        <v>1253</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -26300,9 +26350,10 @@
       <c r="Q1" s="109"/>
       <c r="R1" s="109"/>
       <c r="S1" s="109"/>
-      <c r="T1" s="110"/>
-    </row>
-    <row r="2" spans="1:20" s="44" customFormat="1" ht="52.5" customHeight="1">
+      <c r="T1" s="109"/>
+      <c r="U1" s="110"/>
+    </row>
+    <row r="2" spans="1:21" s="44" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -26334,37 +26385,40 @@
         <v>82</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>649</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="T2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="U2" s="31" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="29">
+    <row r="3" spans="1:21" ht="29">
       <c r="A3" s="37" t="s">
         <v>314</v>
       </c>
@@ -26395,24 +26449,27 @@
       <c r="J3" s="78" t="s">
         <v>948</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="78" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L3" s="37">
         <v>8</v>
       </c>
-      <c r="L3" s="37"/>
       <c r="M3" s="37"/>
       <c r="N3" s="37"/>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="37"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -26430,13 +26487,14 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="37"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="37"/>
-      <c r="R4" s="9"/>
+      <c r="R4" s="37"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="37"/>
-    </row>
-    <row r="5" spans="1:20" ht="58">
+      <c r="T4" s="9"/>
+      <c r="U4" s="37"/>
+    </row>
+    <row r="5" spans="1:21" ht="58">
       <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
@@ -26465,30 +26523,33 @@
       <c r="J5" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="K5" s="53"/>
+      <c r="K5" s="53" t="s">
+        <v>1254</v>
+      </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="53" t="b">
+      <c r="M5" s="53"/>
+      <c r="N5" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="53"/>
+      <c r="P5" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="Q5" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="R5" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="53"/>
+      <c r="T5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="U5" s="54" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.5">
+    <row r="6" spans="1:21" ht="15.5">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -26517,28 +26578,31 @@
       <c r="J6" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="84" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L6" s="84">
         <v>16</v>
       </c>
-      <c r="L6" s="84">
+      <c r="M6" s="84">
         <v>55</v>
       </c>
-      <c r="M6" s="84"/>
       <c r="N6" s="84"/>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="84"/>
+      <c r="P6" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="Q6" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="53"/>
+      <c r="S6" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="S6" s="53"/>
       <c r="T6" s="53"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.5">
+      <c r="U6" s="53"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5">
       <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
@@ -26567,24 +26631,27 @@
       <c r="J7" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="84"/>
+      <c r="K7" s="84" t="s">
+        <v>1256</v>
+      </c>
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
       <c r="N7" s="84"/>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="84"/>
+      <c r="P7" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="Q7" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="53"/>
+      <c r="S7" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="S7" s="53"/>
       <c r="T7" s="53"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.5">
+      <c r="U7" s="53"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5">
       <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
@@ -26613,30 +26680,33 @@
       <c r="J8" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="84"/>
+      <c r="K8" s="84" t="s">
+        <v>1257</v>
+      </c>
       <c r="L8" s="84"/>
       <c r="M8" s="84"/>
       <c r="N8" s="84"/>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="84"/>
+      <c r="P8" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="Q8" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53" t="s">
+      <c r="R8" s="53"/>
+      <c r="S8" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="S8" s="53"/>
       <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="I1:U1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="P1:Q2 A1:C2 D1:D1048576 R1:XFD1048576 E1:G2 H1:O1048576" xr:uid="{B727580F-A9BA-874F-B6B3-796C3608F9F2}"/>
+    <dataValidation allowBlank="1" sqref="Q1:R2 A1:C2 D1:D1048576 S1:XFD1048576 E1:G2 H1:P1048576" xr:uid="{B727580F-A9BA-874F-B6B3-796C3608F9F2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26647,7 +26717,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576 Q3:Q1048576</xm:sqref>
+          <xm:sqref>B3:B1048576 R3:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{30FA0D2E-D10A-A343-878C-E48A2407AF2B}">
           <x14:formula1>
@@ -26677,7 +26747,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$S$2:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P1048576</xm:sqref>
+          <xm:sqref>Q3:Q1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{58CABDAC-3EC8-244C-8CC6-62411D89AED8}">
           <x14:formula1>
@@ -41780,19 +41850,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="43.5">
       <c r="A1" s="101" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1" s="101" t="s">
         <v>606</v>
       </c>
       <c r="C1" s="102" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D1" s="102" t="s">
         <v>1098</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="E1" s="101" t="s">
         <v>1099</v>
-      </c>
-      <c r="E1" s="101" t="s">
-        <v>1100</v>
       </c>
       <c r="F1" s="103" t="s">
         <v>610</v>
@@ -41813,25 +41883,25 @@
         <v>604</v>
       </c>
       <c r="L1" s="102" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="16">
       <c r="A2" s="105" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>1102</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="37" t="s">
         <v>1103</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1104</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>326</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>322</v>
@@ -41846,7 +41916,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
@@ -41857,34 +41927,34 @@
     </row>
     <row r="3" spans="1:13" ht="16">
       <c r="A3" s="105" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>395</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1108</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>1109</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>1110</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="106" t="s">
         <v>1111</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="H3" s="37" t="s">
         <v>1112</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>1113</v>
       </c>
       <c r="I3" s="36">
         <v>40</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
@@ -41895,24 +41965,24 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="105" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F4" s="37"/>
       <c r="H4" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L4" t="s">
         <v>1118</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -41920,77 +41990,77 @@
         <v>331</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>1120</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1121</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F5" s="37"/>
       <c r="H5" s="37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L5" t="s">
         <v>1123</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="105" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F6" s="37"/>
       <c r="H6" s="37" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="105" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F7" s="37"/>
       <c r="H7" s="37" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="105" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F8" s="37"/>
       <c r="H8" s="37" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="105" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
@@ -41998,79 +42068,79 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F9" s="37"/>
       <c r="H9" s="37" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="105" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F10" s="37"/>
       <c r="H10" s="37" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="105" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F11" s="37"/>
       <c r="H11" s="37" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="105" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="105" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F13" s="37"/>
       <c r="H13" s="37" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -42079,483 +42149,483 @@
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="H14" s="37" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="H15" s="37" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="H16" s="37" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="37" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="37" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" s="37" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="37" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="37" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="37" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="37" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="37" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="37" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="37" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="37" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="37" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="37" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="37" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" s="37" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" s="37" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" s="37" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="37" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" s="37" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" s="37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" s="37" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" s="37" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" s="37" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" s="37" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" s="37" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" s="37" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" s="37" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" s="37" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" s="37" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" s="37" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" s="37" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" s="37" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" s="37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" s="37" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" s="37" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" s="37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" s="37" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" s="37" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" s="37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" s="37" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" s="37" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" s="37" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" s="37" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" s="37" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" s="37" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" s="37" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" s="37" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" s="37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" s="37" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" s="37" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" s="37" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" s="37" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" s="37" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" s="37" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="37" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" s="37" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" s="37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="37" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" s="37" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="37" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" s="37" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="37" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="37" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" s="37" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" s="37" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" s="37" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="37" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="37" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="37" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -43429,7 +43499,7 @@
         <v>497</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -43441,7 +43511,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -43881,7 +43951,7 @@
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -43893,7 +43963,7 @@
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -43905,7 +43975,7 @@
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="36" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
@@ -43917,7 +43987,7 @@
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
@@ -43929,7 +43999,7 @@
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
       <c r="E44" s="36" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
@@ -43941,7 +44011,7 @@
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -43961,7 +44031,7 @@
         <v>463</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
@@ -43973,7 +44043,7 @@
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
       <c r="E47" s="36" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -43985,7 +44055,7 @@
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
       <c r="E48" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
@@ -43997,7 +44067,7 @@
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
       <c r="E49" s="36" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -44009,7 +44079,7 @@
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
       <c r="E50" s="36" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
@@ -44021,7 +44091,7 @@
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
       <c r="E51" s="36" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
@@ -44033,7 +44103,7 @@
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
       <c r="E52" s="36" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
@@ -44045,7 +44115,7 @@
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
       <c r="E53" s="36" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -44057,7 +44127,7 @@
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -44069,7 +44139,7 @@
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -44081,7 +44151,7 @@
       <c r="C56" s="36"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -44093,7 +44163,7 @@
       <c r="C57" s="36"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
@@ -44105,7 +44175,7 @@
       <c r="C58" s="36"/>
       <c r="D58" s="36"/>
       <c r="E58" s="36" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -44117,7 +44187,7 @@
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
       <c r="E59" s="36" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -44129,7 +44199,7 @@
       <c r="C60" s="36"/>
       <c r="D60" s="36"/>
       <c r="E60" s="36" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -44141,7 +44211,7 @@
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
       <c r="E61" s="36" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -44153,7 +44223,7 @@
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
       <c r="E62" s="36" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
@@ -44170,10 +44240,10 @@
         <v>384</v>
       </c>
       <c r="D63" s="36" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E63" s="36" t="s">
         <v>1063</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>1064</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -44185,7 +44255,7 @@
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
       <c r="E64" s="36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
@@ -44197,7 +44267,7 @@
       <c r="C65" s="36"/>
       <c r="D65" s="36"/>
       <c r="E65" s="36" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -44209,7 +44279,7 @@
       <c r="C66" s="36"/>
       <c r="D66" s="36"/>
       <c r="E66" s="36" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
@@ -44220,7 +44290,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>384</v>
@@ -44229,7 +44299,7 @@
         <v>858</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -44241,7 +44311,7 @@
       <c r="C68" s="36"/>
       <c r="D68" s="36"/>
       <c r="E68" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -44253,7 +44323,7 @@
       <c r="C69" s="36"/>
       <c r="D69" s="36"/>
       <c r="E69" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -44621,7 +44691,7 @@
       <c r="C99" s="36"/>
       <c r="D99" s="36"/>
       <c r="E99" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
@@ -44633,7 +44703,7 @@
       <c r="C100" s="36"/>
       <c r="D100" s="36"/>
       <c r="E100" s="36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
@@ -44665,7 +44735,7 @@
         <v>466</v>
       </c>
       <c r="E102" s="75" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
@@ -44677,7 +44747,7 @@
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
       <c r="E103" s="75" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -44749,7 +44819,7 @@
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
       <c r="E109" s="36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -45189,7 +45259,7 @@
       <c r="C145" s="36"/>
       <c r="D145" s="36"/>
       <c r="E145" s="36" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
@@ -45201,7 +45271,7 @@
       <c r="C146" s="36"/>
       <c r="D146" s="36"/>
       <c r="E146" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
@@ -45213,7 +45283,7 @@
       <c r="C147" s="36"/>
       <c r="D147" s="36"/>
       <c r="E147" s="36" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="36"/>
@@ -45233,7 +45303,7 @@
         <v>499</v>
       </c>
       <c r="E148" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F148" s="36"/>
       <c r="G148" s="36"/>
@@ -45253,7 +45323,7 @@
         <v>624</v>
       </c>
       <c r="E149" s="100" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="36"/>
@@ -45277,7 +45347,7 @@
       <c r="C151" s="36"/>
       <c r="D151" s="36"/>
       <c r="E151" s="36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F151" s="36"/>
       <c r="G151" s="36"/>
@@ -45289,7 +45359,7 @@
       <c r="C152" s="36"/>
       <c r="D152" s="36"/>
       <c r="E152" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
@@ -45309,7 +45379,7 @@
         <v>470</v>
       </c>
       <c r="E153" s="36" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F153" s="36"/>
       <c r="G153" s="36"/>
@@ -45321,7 +45391,7 @@
       <c r="C154" s="36"/>
       <c r="D154" s="36"/>
       <c r="E154" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F154" s="36"/>
       <c r="G154" s="36"/>
@@ -45333,7 +45403,7 @@
       <c r="C155" s="36"/>
       <c r="D155" s="36"/>
       <c r="E155" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F155" s="36"/>
       <c r="G155" s="36"/>
@@ -45345,7 +45415,7 @@
       <c r="C156" s="36"/>
       <c r="D156" s="36"/>
       <c r="E156" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
@@ -45357,7 +45427,7 @@
       <c r="C157" s="36"/>
       <c r="D157" s="36"/>
       <c r="E157" s="36" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="36"/>
@@ -45369,7 +45439,7 @@
       <c r="C158" s="36"/>
       <c r="D158" s="36"/>
       <c r="E158" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="36"/>
@@ -45381,7 +45451,7 @@
       <c r="C159" s="36"/>
       <c r="D159" s="36"/>
       <c r="E159" s="36" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F159" s="36"/>
       <c r="G159" s="36"/>
@@ -45741,7 +45811,7 @@
       <c r="C189" s="36"/>
       <c r="D189" s="36"/>
       <c r="E189" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F189" s="36"/>
       <c r="G189" s="36"/>
@@ -45753,7 +45823,7 @@
       <c r="C190" s="36"/>
       <c r="D190" s="36"/>
       <c r="E190" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F190" s="36"/>
       <c r="G190" s="36"/>
@@ -45765,7 +45835,7 @@
       <c r="C191" s="36"/>
       <c r="D191" s="36"/>
       <c r="E191" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F191" s="36"/>
       <c r="G191" s="36"/>
@@ -45777,7 +45847,7 @@
       <c r="C192" s="36"/>
       <c r="D192" s="36"/>
       <c r="E192" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F192" s="36"/>
       <c r="G192" s="36"/>
@@ -45789,7 +45859,7 @@
       <c r="C193" s="36"/>
       <c r="D193" s="36"/>
       <c r="E193" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F193" s="36"/>
       <c r="G193" s="36"/>
@@ -45801,7 +45871,7 @@
       <c r="C194" s="36"/>
       <c r="D194" s="36"/>
       <c r="E194" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F194" s="36"/>
       <c r="G194" s="36"/>
@@ -45809,7 +45879,7 @@
     </row>
     <row r="195" spans="1:9" s="37" customFormat="1" ht="29">
       <c r="E195" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I195" s="74"/>
     </row>
@@ -46945,7 +47015,7 @@
       <c r="D1" s="107"/>
       <c r="E1" s="107"/>
       <c r="F1" s="114" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G1" s="114"/>
       <c r="H1" s="114"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FDCC4-BA53-D045-A1D7-D869EC922E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D547F5-9349-A54F-AA2D-205805F09CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -11264,7 +11264,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11601,7 +11601,6 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -17725,7 +17724,7 @@
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="37"/>
@@ -26941,9 +26940,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="D1:D2 A1:B2 E1:XFD1048576 C1:C1048576 B3:B1048576" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
-    <dataValidation allowBlank="1" sqref="D3:D1048576" xr:uid="{6B34CB11-3DA9-1D49-8B26-9BF104EABEBE}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="A1:B2 B3:B1048576 C1:XFD1048576" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55492,20 +55490,15 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 F1:XFD1048576 D1:E2" xr:uid="{A97DD192-90C9-3743-81B1-04F12918A7AB}"/>
+    <dataValidation allowBlank="1" sqref="E3:E1048576" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$B$2:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{211C9B24-9609-374B-A235-F38EBDFE46A0}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D547F5-9349-A54F-AA2D-205805F09CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FDCC4-BA53-D045-A1D7-D869EC922E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -11264,7 +11264,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11601,6 +11601,7 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -17724,7 +17725,7 @@
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="139" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="37"/>
@@ -26940,8 +26941,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:B2 B3:B1048576 C1:XFD1048576" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="D1:D2 A1:B2 E1:XFD1048576 C1:C1048576 B3:B1048576" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
+    <dataValidation allowBlank="1" sqref="D3:D1048576" xr:uid="{6B34CB11-3DA9-1D49-8B26-9BF104EABEBE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55490,15 +55492,20 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 F1:XFD1048576 D1:E2" xr:uid="{A97DD192-90C9-3743-81B1-04F12918A7AB}"/>
-    <dataValidation allowBlank="1" sqref="E3:E1048576" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{211C9B24-9609-374B-A235-F38EBDFE46A0}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FDCC4-BA53-D045-A1D7-D869EC922E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4301064-DB29-FD42-BEE5-DB3CF7916A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -11264,7 +11264,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11601,7 +11601,6 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -17725,7 +17724,7 @@
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="37"/>
@@ -26941,9 +26940,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="D1:D2 A1:B2 E1:XFD1048576 C1:C1048576 B3:B1048576" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
-    <dataValidation allowBlank="1" sqref="D3:D1048576" xr:uid="{6B34CB11-3DA9-1D49-8B26-9BF104EABEBE}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="A1:B2 B3:B1048576 C1:XFD1048576" xr:uid="{BB40C8CC-67B2-8947-8DDE-AF0AAC487D9D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55492,20 +55490,15 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 F1:XFD1048576 D1:E2" xr:uid="{A97DD192-90C9-3743-81B1-04F12918A7AB}"/>
+    <dataValidation allowBlank="1" sqref="E3:E1048576" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$B$2:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{211C9B24-9609-374B-A235-F38EBDFE46A0}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4301064-DB29-FD42-BEE5-DB3CF7916A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F647B90-1401-3546-BE09-AD55093FE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55490,9 +55490,8 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 F1:XFD1048576 D1:E2" xr:uid="{A97DD192-90C9-3743-81B1-04F12918A7AB}"/>
-    <dataValidation allowBlank="1" sqref="E3:E1048576" xr:uid="{C42B24AD-BEBE-2C40-944C-813AF6073D75}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="A1:B2 C1:C1048576 F1:XFD1048576 D1:E2 E3:E1048576" xr:uid="{A97DD192-90C9-3743-81B1-04F12918A7AB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0DD52-ED56-4BEA-846E-7064D65E2745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7942A2D-702A-4F57-80C4-15CA3D825747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1417">
   <si>
     <t>Region</t>
   </si>
@@ -10071,304 +10071,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Create_Is PV Encryption In Transit Enabled" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Defaults to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">false </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">when left empty.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Update_Is PV Encryption In Transit Enabled"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"NSGs"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"DedicatedVMHost"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enabled or Disabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enable/Disable 
-other plugins by adding new columns with name as - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg for 'Bastion', column name will be 'Plugin Bastion'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Name" - </t>
     </r>
@@ -10904,12 +10606,365 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>allow service cloudguard to manage cloudevents-rules in tenancy where target.rule.type='managed'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+"Create_Is PV Encryption In Transit Enabled" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">when left empty.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Update_Is PV Encryption In Transit Enabled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"NSGs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DedicatedVMHost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enabled or Disabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enable/Disable 
+other plugins by adding new columns with name as - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please add column '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is Live Migration preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11244,6 +11299,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -11551,7 +11616,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11827,6 +11892,7 @@
     <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17032,7 +17098,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1">
       <c r="A2" s="79" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -17057,10 +17123,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>631</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="132"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
@@ -17123,16 +17189,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1325</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -17420,30 +17486,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>1341</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="133" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="134" t="s">
         <v>1307</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -23552,18 +23618,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1326</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -23676,17 +23742,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -23780,25 +23846,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1328</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -23932,28 +23998,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1329</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="12" t="s">
@@ -26437,17 +26503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1340</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -26837,19 +26903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>1330</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="2" spans="1:11" ht="29">
       <c r="A2" s="30" t="s">
@@ -27021,15 +27087,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1331</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -27189,13 +27255,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1322</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="30" t="s">
@@ -27461,32 +27527,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="126" t="s">
-        <v>1370</v>
-      </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="128"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="127" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="129"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -27930,21 +27996,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="120.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>1332</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
     </row>
     <row r="2" spans="1:13" s="43" customFormat="1" ht="43.5">
       <c r="A2" s="9" t="s">
@@ -28155,27 +28221,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="106" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="143" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144" t="s">
         <v>415</v>
       </c>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="50.25" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -28569,40 +28635,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>978</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="137" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="138" t="s">
         <v>1334</v>
       </c>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="140"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -29029,27 +29095,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1335</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -29328,30 +29394,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="129"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -29679,25 +29745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>639</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -29944,29 +30010,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="129" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="130" t="s">
         <v>417</v>
       </c>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="146"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -30661,14 +30727,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -30824,21 +30890,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
     </row>
     <row r="2" spans="1:13" ht="58" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -31350,13 +31416,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="121" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="123"/>
+      <c r="A1" s="122" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="116" t="s">
@@ -31616,19 +31682,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -31827,24 +31893,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>1336</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
     </row>
     <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="19" t="s">
@@ -32050,35 +32116,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>1337</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="129"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="43.5">
       <c r="A2" s="49" t="s">
@@ -35446,16 +35512,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>1338</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="65" t="s">
@@ -38362,29 +38428,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>1339</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -42816,25 +42882,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="148.5" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>1368</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="151"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="152"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="72.75" customHeight="1">
@@ -42957,22 +43023,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>1244</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="43.5">
       <c r="A2" s="30" t="s">
@@ -43095,26 +43161,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="153" t="s">
         <v>1342</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="154"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="155"/>
     </row>
     <row r="2" spans="1:18" ht="43.5">
       <c r="A2" s="30" t="s">
@@ -44593,15 +44659,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="163" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
+      <c r="A1" s="121" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126"/>
     </row>
     <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="30" t="s">
@@ -44611,7 +44677,7 @@
         <v>1208</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1209</v>
@@ -45901,7 +45967,7 @@
         <v>fwl-mgmt</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="57" customFormat="1">
+    <row r="3" spans="1:48" s="57" customFormat="1" ht="26">
       <c r="A3" s="57">
         <v>4</v>
       </c>
@@ -52716,7 +52782,7 @@
     <col min="3" max="4" width="20.1796875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="42">
       <c r="A1" s="55" t="s">
         <v>522</v>
       </c>
@@ -53224,14 +53290,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125"/>
+      <c r="A1" s="121" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
@@ -53276,10 +53342,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -53294,16 +53360,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -53641,7 +53707,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -53653,7 +53719,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -53665,7 +53731,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -53725,7 +53791,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -53749,7 +53815,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -53809,7 +53875,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -54163,25 +54229,25 @@
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="1:8" ht="29.25" customHeight="1">
+    <row r="69" spans="1:8" s="120" customFormat="1" ht="29">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>1032</v>
+        <v>1415</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
     </row>
-    <row r="70" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="70" spans="1:8" ht="29.25" customHeight="1">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>1378</v>
+        <v>1032</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -54193,7 +54259,7 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -54205,7 +54271,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -54217,7 +54283,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -54229,63 +54295,63 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>1033</v>
+        <v>1381</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
     </row>
-    <row r="76" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="76" spans="1:8">
       <c r="A76" s="35"/>
       <c r="B76" s="35"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F76" s="115"/>
+        <v>1033</v>
+      </c>
+      <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
     </row>
-    <row r="77" spans="1:8" ht="87" customHeight="1">
-      <c r="A77" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>701</v>
-      </c>
+    <row r="77" spans="1:8" s="114" customFormat="1" ht="29">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>674</v>
-      </c>
-      <c r="F77" s="35"/>
+        <v>1382</v>
+      </c>
+      <c r="F77" s="115"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
     </row>
-    <row r="78" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+    <row r="78" spans="1:8" ht="87" customHeight="1">
+      <c r="A78" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>701</v>
+      </c>
       <c r="E78" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -54297,19 +54363,19 @@
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
     </row>
-    <row r="80" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="80" spans="1:8" ht="29.25" customHeight="1">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>1410</v>
+        <v>676</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
@@ -54321,19 +54387,19 @@
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
     </row>
-    <row r="82" spans="1:8" ht="29.25" customHeight="1">
+    <row r="82" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
       <c r="A82" s="35"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>677</v>
+        <v>1410</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -54345,31 +54411,31 @@
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
     </row>
-    <row r="84" spans="1:8" ht="29">
+    <row r="84" spans="1:8" ht="29.25" customHeight="1">
       <c r="A84" s="35"/>
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
     </row>
-    <row r="85" spans="1:8" ht="29.25" customHeight="1">
+    <row r="85" spans="1:8" ht="29">
       <c r="A85" s="35"/>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -54381,43 +54447,43 @@
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
     </row>
-    <row r="87" spans="1:8" ht="72.5">
+    <row r="87" spans="1:8" ht="29.25" customHeight="1">
       <c r="A87" s="35"/>
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
     </row>
-    <row r="88" spans="1:8" ht="101.5">
+    <row r="88" spans="1:8" ht="72.5">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
     </row>
-    <row r="89" spans="1:8" ht="29.25" customHeight="1">
+    <row r="89" spans="1:8" ht="101.5">
       <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -54429,7 +54495,7 @@
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -54441,7 +54507,7 @@
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -54453,7 +54519,7 @@
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -54465,7 +54531,7 @@
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -54477,19 +54543,19 @@
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
     </row>
-    <row r="95" spans="1:8" ht="29">
+    <row r="95" spans="1:8" ht="29.25" customHeight="1">
       <c r="A95" s="35"/>
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -54501,7 +54567,7 @@
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
@@ -54513,7 +54579,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -54525,7 +54591,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -54537,7 +54603,7 @@
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35" t="s">
-        <v>1384</v>
+        <v>693</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -54549,7 +54615,7 @@
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -54561,7 +54627,7 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -54573,7 +54639,7 @@
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -54585,7 +54651,7 @@
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35" t="s">
-        <v>694</v>
+        <v>1386</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -54597,7 +54663,7 @@
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -54609,7 +54675,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="35" t="s">
-        <v>1315</v>
+        <v>695</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -54621,7 +54687,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35" t="s">
-        <v>696</v>
+        <v>1315</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -54633,7 +54699,7 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="E107" s="35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -54645,7 +54711,7 @@
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -54657,7 +54723,7 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35" t="s">
-        <v>1388</v>
+        <v>698</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -54669,7 +54735,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -54681,7 +54747,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35" t="s">
-        <v>699</v>
+        <v>1388</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -54693,19 +54759,19 @@
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
     </row>
-    <row r="113" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="113" spans="1:8" ht="29">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="35" t="s">
-        <v>1390</v>
+        <v>700</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -54717,7 +54783,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -54729,7 +54795,7 @@
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>690</v>
+        <v>1390</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -54741,7 +54807,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35" t="s">
-        <v>1392</v>
+        <v>690</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -54753,7 +54819,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -54765,7 +54831,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -54777,7 +54843,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -54789,135 +54855,135 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>693</v>
+        <v>1394</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
     </row>
-    <row r="121" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A121" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="C121" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D121" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="E121" s="74" t="s">
-        <v>1034</v>
+    <row r="121" spans="1:8" s="114" customFormat="1" ht="29">
+      <c r="A121" s="35"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35" t="s">
+        <v>693</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
     </row>
-    <row r="122" spans="1:8" ht="29">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
+    <row r="122" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A122" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>449</v>
+      </c>
       <c r="E122" s="74" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
     </row>
-    <row r="123" spans="1:8" ht="29.25" customHeight="1">
+    <row r="123" spans="1:8" ht="29">
       <c r="A123" s="35"/>
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
-      <c r="E123" s="35" t="s">
-        <v>702</v>
+      <c r="E123" s="74" t="s">
+        <v>1035</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
     </row>
-    <row r="124" spans="1:8" s="114" customFormat="1" ht="188.5">
+    <row r="124" spans="1:8" ht="29.25" customHeight="1">
       <c r="A124" s="35"/>
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
       <c r="E124" s="35" t="s">
-        <v>1396</v>
+        <v>702</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" s="114" customFormat="1" ht="188.5">
       <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>703</v>
+        <v>1395</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
       <c r="H125" s="35"/>
     </row>
-    <row r="126" spans="1:8" ht="29.25" customHeight="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="35"/>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
       <c r="E126" s="35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
       <c r="H126" s="35"/>
     </row>
-    <row r="127" spans="1:8" ht="43.5">
+    <row r="127" spans="1:8" ht="29.25" customHeight="1">
       <c r="A127" s="35"/>
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
       <c r="E127" s="35" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
     </row>
-    <row r="128" spans="1:8" ht="29">
+    <row r="128" spans="1:8" ht="43.5">
       <c r="A128" s="35"/>
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
       <c r="E128" s="35" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
     </row>
-    <row r="129" spans="1:8" ht="58">
+    <row r="129" spans="1:8" ht="29">
       <c r="A129" s="35"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
       <c r="E129" s="35" t="s">
-        <v>1036</v>
+        <v>705</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
     </row>
-    <row r="130" spans="1:8" ht="29.25" customHeight="1">
+    <row r="130" spans="1:8" ht="58">
       <c r="A130" s="35"/>
       <c r="B130" s="35"/>
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35" t="s">
-        <v>706</v>
+        <v>1036</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -54929,43 +54995,43 @@
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
       <c r="E131" s="35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
     </row>
-    <row r="132" spans="1:8" ht="29">
+    <row r="132" spans="1:8" ht="29.25" customHeight="1">
       <c r="A132" s="35"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
     </row>
-    <row r="133" spans="1:8" ht="29.25" customHeight="1">
+    <row r="133" spans="1:8" ht="29">
       <c r="A133" s="35"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
       <c r="E133" s="35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" ht="29.25" customHeight="1">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
       <c r="E134" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
@@ -54977,19 +55043,19 @@
       <c r="C135" s="35"/>
       <c r="D135" s="35"/>
       <c r="E135" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="35"/>
       <c r="H135" s="35"/>
     </row>
-    <row r="136" spans="1:8" ht="29">
+    <row r="136" spans="1:8">
       <c r="A136" s="35"/>
       <c r="B136" s="35"/>
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
@@ -55001,19 +55067,19 @@
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" ht="29">
       <c r="A138" s="35"/>
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="35"/>
@@ -55025,51 +55091,51 @@
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
     </row>
-    <row r="140" spans="1:8" ht="29">
+    <row r="140" spans="1:8">
       <c r="A140" s="35"/>
       <c r="B140" s="35"/>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
       <c r="E140" s="35" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
       <c r="H140" s="35"/>
     </row>
-    <row r="141" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A141" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B141" s="74" t="s">
-        <v>450</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D141" s="35" t="s">
-        <v>451</v>
-      </c>
+    <row r="141" spans="1:8" ht="29">
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
       <c r="E141" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
     </row>
-    <row r="142" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A142" s="35"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
+    <row r="142" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A142" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="74" t="s">
+        <v>450</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>451</v>
+      </c>
       <c r="E142" s="35" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
@@ -55081,7 +55147,7 @@
       <c r="C143" s="35"/>
       <c r="D143" s="35"/>
       <c r="E143" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="35"/>
@@ -55093,7 +55159,7 @@
       <c r="C144" s="35"/>
       <c r="D144" s="35"/>
       <c r="E144" s="35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="35"/>
@@ -55105,7 +55171,7 @@
       <c r="C145" s="35"/>
       <c r="D145" s="35"/>
       <c r="E145" s="35" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
@@ -55117,7 +55183,7 @@
       <c r="C146" s="35"/>
       <c r="D146" s="35"/>
       <c r="E146" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
@@ -55129,7 +55195,7 @@
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
       <c r="E147" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
@@ -55141,7 +55207,7 @@
       <c r="C148" s="35"/>
       <c r="D148" s="35"/>
       <c r="E148" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F148" s="35"/>
       <c r="G148" s="35"/>
@@ -55153,19 +55219,19 @@
       <c r="C149" s="35"/>
       <c r="D149" s="35"/>
       <c r="E149" s="35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
     </row>
-    <row r="150" spans="1:8" ht="29">
+    <row r="150" spans="1:8" ht="29.25" customHeight="1">
       <c r="A150" s="35"/>
       <c r="B150" s="35"/>
       <c r="C150" s="35"/>
       <c r="D150" s="35"/>
       <c r="E150" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -55177,7 +55243,7 @@
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
       <c r="E151" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
@@ -55189,7 +55255,7 @@
       <c r="C152" s="35"/>
       <c r="D152" s="35"/>
       <c r="E152" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -55201,55 +55267,55 @@
       <c r="C153" s="35"/>
       <c r="D153" s="35"/>
       <c r="E153" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="35"/>
       <c r="H153" s="35"/>
     </row>
-    <row r="154" spans="1:8" ht="72.5">
+    <row r="154" spans="1:8" ht="29">
       <c r="A154" s="35"/>
       <c r="B154" s="35"/>
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
       <c r="E154" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
     </row>
-    <row r="155" spans="1:8" ht="58">
+    <row r="155" spans="1:8" ht="72.5">
       <c r="A155" s="35"/>
       <c r="B155" s="35"/>
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="E155" s="35" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
       <c r="H155" s="35"/>
     </row>
-    <row r="156" spans="1:8" ht="105.75" customHeight="1">
+    <row r="156" spans="1:8" ht="58">
       <c r="A156" s="35"/>
       <c r="B156" s="35"/>
       <c r="C156" s="35"/>
       <c r="D156" s="35"/>
       <c r="E156" s="35" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
     </row>
-    <row r="157" spans="1:8" ht="29">
+    <row r="157" spans="1:8" ht="105.75" customHeight="1">
       <c r="A157" s="35"/>
       <c r="B157" s="35"/>
       <c r="C157" s="35"/>
       <c r="D157" s="35"/>
       <c r="E157" s="35" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
@@ -55261,7 +55327,7 @@
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
       <c r="E158" s="35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
@@ -55273,7 +55339,7 @@
       <c r="C159" s="35"/>
       <c r="D159" s="35"/>
       <c r="E159" s="35" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="35"/>
@@ -55285,7 +55351,7 @@
       <c r="C160" s="35"/>
       <c r="D160" s="35"/>
       <c r="E160" s="35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="35"/>
@@ -55297,7 +55363,7 @@
       <c r="C161" s="35"/>
       <c r="D161" s="35"/>
       <c r="E161" s="35" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="35"/>
@@ -55309,7 +55375,7 @@
       <c r="C162" s="35"/>
       <c r="D162" s="35"/>
       <c r="E162" s="35" t="s">
-        <v>1397</v>
+        <v>736</v>
       </c>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
@@ -55321,7 +55387,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -55333,7 +55399,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -55345,7 +55411,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>768</v>
+        <v>1398</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -55357,7 +55423,7 @@
       <c r="C166" s="35"/>
       <c r="D166" s="35"/>
       <c r="E166" s="35" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
@@ -55369,19 +55435,19 @@
       <c r="C167" s="35"/>
       <c r="D167" s="35"/>
       <c r="E167" s="35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="35"/>
       <c r="H167" s="35"/>
     </row>
-    <row r="168" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="168" spans="1:8" ht="29">
       <c r="A168" s="35"/>
       <c r="B168" s="35"/>
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
       <c r="E168" s="35" t="s">
-        <v>1400</v>
+        <v>770</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="35"/>
@@ -55393,39 +55459,39 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
     </row>
-    <row r="170" spans="1:8" ht="43.5">
-      <c r="A170" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="C170" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D170" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="E170" s="99" t="s">
-        <v>1037</v>
+    <row r="170" spans="1:8" s="114" customFormat="1" ht="29">
+      <c r="A170" s="35"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="35" t="s">
+        <v>1400</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
       <c r="H170" s="35"/>
     </row>
-    <row r="171" spans="1:8" ht="29">
-      <c r="A171" s="35"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35" t="s">
-        <v>673</v>
+    <row r="171" spans="1:8" ht="43.5">
+      <c r="A171" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="E171" s="99" t="s">
+        <v>1037</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
@@ -55437,7 +55503,7 @@
       <c r="C172" s="35"/>
       <c r="D172" s="35"/>
       <c r="E172" s="35" t="s">
-        <v>1038</v>
+        <v>673</v>
       </c>
       <c r="F172" s="35"/>
       <c r="G172" s="35"/>
@@ -55449,63 +55515,63 @@
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
       <c r="E173" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
       <c r="H173" s="35"/>
     </row>
-    <row r="174" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A174" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="C174" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D174" s="35" t="s">
-        <v>453</v>
-      </c>
+    <row r="174" spans="1:8" ht="29">
+      <c r="A174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="35"/>
       <c r="H174" s="35"/>
     </row>
-    <row r="175" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A175" s="35"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="35"/>
+    <row r="175" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A175" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D175" s="35" t="s">
+        <v>453</v>
+      </c>
       <c r="E175" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
       <c r="H175" s="35"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" ht="29.25" customHeight="1">
       <c r="A176" s="35"/>
       <c r="B176" s="35"/>
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
       <c r="H176" s="35"/>
     </row>
-    <row r="177" spans="1:8" ht="29.25" customHeight="1">
+    <row r="177" spans="1:8">
       <c r="A177" s="35"/>
       <c r="B177" s="35"/>
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -55517,7 +55583,7 @@
       <c r="C178" s="35"/>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -55529,7 +55595,7 @@
       <c r="C179" s="35"/>
       <c r="D179" s="35"/>
       <c r="E179" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -55541,7 +55607,7 @@
       <c r="C180" s="35"/>
       <c r="D180" s="35"/>
       <c r="E180" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -55553,7 +55619,7 @@
       <c r="C181" s="35"/>
       <c r="D181" s="35"/>
       <c r="E181" s="35" t="s">
-        <v>771</v>
+        <v>1046</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -55565,43 +55631,43 @@
       <c r="C182" s="35"/>
       <c r="D182" s="35"/>
       <c r="E182" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
       <c r="H182" s="35"/>
     </row>
-    <row r="183" spans="1:8" ht="72.5">
+    <row r="183" spans="1:8" ht="29.25" customHeight="1">
       <c r="A183" s="35"/>
       <c r="B183" s="35"/>
       <c r="C183" s="35"/>
       <c r="D183" s="35"/>
       <c r="E183" s="35" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
       <c r="H183" s="35"/>
     </row>
-    <row r="184" spans="1:8" ht="58">
+    <row r="184" spans="1:8" ht="72.5">
       <c r="A184" s="35"/>
       <c r="B184" s="35"/>
       <c r="C184" s="35"/>
       <c r="D184" s="35"/>
       <c r="E184" s="35" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
       <c r="H184" s="35"/>
     </row>
-    <row r="185" spans="1:8" ht="29.25" customHeight="1">
+    <row r="185" spans="1:8" ht="58">
       <c r="A185" s="35"/>
       <c r="B185" s="35"/>
       <c r="C185" s="35"/>
       <c r="D185" s="35"/>
       <c r="E185" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -55613,7 +55679,7 @@
       <c r="C186" s="35"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -55625,7 +55691,7 @@
       <c r="C187" s="35"/>
       <c r="D187" s="35"/>
       <c r="E187" s="35" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -55637,7 +55703,7 @@
       <c r="C188" s="35"/>
       <c r="D188" s="35"/>
       <c r="E188" s="35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
@@ -55649,7 +55715,7 @@
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
       <c r="E189" s="35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -55661,7 +55727,7 @@
       <c r="C190" s="35"/>
       <c r="D190" s="35"/>
       <c r="E190" s="35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -55673,7 +55739,7 @@
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F191" s="35"/>
       <c r="G191" s="35"/>
@@ -55685,7 +55751,7 @@
       <c r="C192" s="35"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F192" s="35"/>
       <c r="G192" s="35"/>
@@ -55697,7 +55763,7 @@
       <c r="C193" s="35"/>
       <c r="D193" s="35"/>
       <c r="E193" s="35" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F193" s="35"/>
       <c r="G193" s="35"/>
@@ -55709,7 +55775,7 @@
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
       <c r="E194" s="35" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F194" s="35"/>
       <c r="G194" s="35"/>
@@ -55721,19 +55787,19 @@
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="35" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="35"/>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="1:8" ht="29">
+    <row r="196" spans="1:8" ht="29.25" customHeight="1">
       <c r="A196" s="35"/>
       <c r="B196" s="35"/>
       <c r="C196" s="35"/>
       <c r="D196" s="35"/>
       <c r="E196" s="35" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F196" s="35"/>
       <c r="G196" s="35"/>
@@ -55745,19 +55811,19 @@
       <c r="C197" s="35"/>
       <c r="D197" s="35"/>
       <c r="E197" s="35" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F197" s="35"/>
       <c r="G197" s="35"/>
       <c r="H197" s="35"/>
     </row>
-    <row r="198" spans="1:8" ht="29.25" customHeight="1">
+    <row r="198" spans="1:8" ht="29">
       <c r="A198" s="35"/>
       <c r="B198" s="35"/>
       <c r="C198" s="35"/>
       <c r="D198" s="35"/>
       <c r="E198" s="35" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F198" s="35"/>
       <c r="G198" s="35"/>
@@ -55769,7 +55835,7 @@
       <c r="C199" s="35"/>
       <c r="D199" s="35"/>
       <c r="E199" s="35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F199" s="35"/>
       <c r="G199" s="35"/>
@@ -55781,19 +55847,19 @@
       <c r="C200" s="35"/>
       <c r="D200" s="35"/>
       <c r="E200" s="35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F200" s="35"/>
       <c r="G200" s="35"/>
       <c r="H200" s="35"/>
     </row>
-    <row r="201" spans="1:8" ht="29">
+    <row r="201" spans="1:8" ht="29.25" customHeight="1">
       <c r="A201" s="35"/>
       <c r="B201" s="35"/>
       <c r="C201" s="35"/>
       <c r="D201" s="35"/>
       <c r="E201" s="35" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F201" s="35"/>
       <c r="G201" s="35"/>
@@ -55805,7 +55871,7 @@
       <c r="C202" s="35"/>
       <c r="D202" s="35"/>
       <c r="E202" s="35" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F202" s="35"/>
       <c r="G202" s="35"/>
@@ -55817,7 +55883,7 @@
       <c r="C203" s="35"/>
       <c r="D203" s="35"/>
       <c r="E203" s="35" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F203" s="35"/>
       <c r="G203" s="35"/>
@@ -55829,7 +55895,7 @@
       <c r="C204" s="35"/>
       <c r="D204" s="35"/>
       <c r="E204" s="35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F204" s="35"/>
       <c r="G204" s="35"/>
@@ -55841,31 +55907,31 @@
       <c r="C205" s="35"/>
       <c r="D205" s="35"/>
       <c r="E205" s="35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F205" s="35"/>
       <c r="G205" s="35"/>
       <c r="H205" s="35"/>
     </row>
-    <row r="206" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="206" spans="1:8" ht="29">
       <c r="A206" s="35"/>
       <c r="B206" s="35"/>
       <c r="C206" s="35"/>
       <c r="D206" s="35"/>
       <c r="E206" s="35" t="s">
-        <v>1402</v>
+        <v>795</v>
       </c>
       <c r="F206" s="35"/>
       <c r="G206" s="35"/>
       <c r="H206" s="35"/>
     </row>
-    <row r="207" spans="1:8" ht="29">
+    <row r="207" spans="1:8" s="114" customFormat="1" ht="29">
       <c r="A207" s="35"/>
       <c r="B207" s="35"/>
       <c r="C207" s="35"/>
       <c r="D207" s="35"/>
       <c r="E207" s="35" t="s">
-        <v>796</v>
+        <v>1401</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="35"/>
@@ -55877,7 +55943,7 @@
       <c r="C208" s="35"/>
       <c r="D208" s="35"/>
       <c r="E208" s="35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F208" s="35"/>
       <c r="G208" s="35"/>
@@ -55889,7 +55955,7 @@
       <c r="C209" s="35"/>
       <c r="D209" s="35"/>
       <c r="E209" s="35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F209" s="35"/>
       <c r="G209" s="35"/>
@@ -55901,19 +55967,19 @@
       <c r="C210" s="35"/>
       <c r="D210" s="35"/>
       <c r="E210" s="35" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F210" s="35"/>
       <c r="G210" s="35"/>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="1:9" s="114" customFormat="1" ht="29">
+    <row r="211" spans="1:9" ht="29">
       <c r="A211" s="35"/>
       <c r="B211" s="35"/>
       <c r="C211" s="35"/>
       <c r="D211" s="35"/>
       <c r="E211" s="35" t="s">
-        <v>1403</v>
+        <v>799</v>
       </c>
       <c r="F211" s="35"/>
       <c r="G211" s="35"/>
@@ -55925,7 +55991,7 @@
       <c r="C212" s="35"/>
       <c r="D212" s="35"/>
       <c r="E212" s="35" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F212" s="35"/>
       <c r="G212" s="35"/>
@@ -55937,7 +56003,7 @@
       <c r="C213" s="35"/>
       <c r="D213" s="35"/>
       <c r="E213" s="35" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F213" s="35"/>
       <c r="G213" s="35"/>
@@ -55949,31 +56015,31 @@
       <c r="C214" s="35"/>
       <c r="D214" s="35"/>
       <c r="E214" s="35" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F214" s="35"/>
       <c r="G214" s="35"/>
       <c r="H214" s="35"/>
     </row>
-    <row r="215" spans="1:9" ht="29">
+    <row r="215" spans="1:9" s="114" customFormat="1" ht="29">
       <c r="A215" s="35"/>
       <c r="B215" s="35"/>
       <c r="C215" s="35"/>
       <c r="D215" s="35"/>
       <c r="E215" s="35" t="s">
-        <v>1047</v>
+        <v>1405</v>
       </c>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
     </row>
-    <row r="216" spans="1:9" ht="29.25" customHeight="1">
+    <row r="216" spans="1:9" ht="29">
       <c r="A216" s="35"/>
       <c r="B216" s="35"/>
       <c r="C216" s="35"/>
       <c r="D216" s="35"/>
       <c r="E216" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="35"/>
@@ -55985,7 +56051,7 @@
       <c r="C217" s="35"/>
       <c r="D217" s="35"/>
       <c r="E217" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F217" s="35"/>
       <c r="G217" s="35"/>
@@ -55997,7 +56063,7 @@
       <c r="C218" s="35"/>
       <c r="D218" s="35"/>
       <c r="E218" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F218" s="35"/>
       <c r="G218" s="35"/>
@@ -56009,129 +56075,129 @@
       <c r="C219" s="35"/>
       <c r="D219" s="35"/>
       <c r="E219" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F219" s="35"/>
       <c r="G219" s="35"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="1:9" ht="29">
+    <row r="220" spans="1:9" ht="29.25" customHeight="1">
       <c r="A220" s="35"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
       <c r="E220" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F220" s="35"/>
       <c r="G220" s="35"/>
       <c r="H220" s="35"/>
     </row>
-    <row r="221" spans="1:9" s="36" customFormat="1" ht="29">
+    <row r="221" spans="1:9" ht="29">
+      <c r="A221" s="35"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="35"/>
+      <c r="D221" s="35"/>
       <c r="E221" s="35" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F221" s="35"/>
+      <c r="G221" s="35"/>
+      <c r="H221" s="35"/>
+    </row>
+    <row r="222" spans="1:9" s="36" customFormat="1" ht="29">
+      <c r="E222" s="35" t="s">
         <v>1053</v>
       </c>
-      <c r="I221" s="73"/>
-    </row>
-    <row r="222" spans="1:9" ht="58">
-      <c r="A222" s="35" t="s">
+      <c r="I222" s="73"/>
+    </row>
+    <row r="223" spans="1:9" ht="58">
+      <c r="A223" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B222" s="74" t="s">
+      <c r="B223" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="C222" s="35" t="s">
+      <c r="C223" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="D222" s="35" t="s">
+      <c r="D223" s="35" t="s">
         <v>801</v>
       </c>
-      <c r="E222" s="35" t="s">
+      <c r="E223" s="35" t="s">
         <v>802</v>
-      </c>
-      <c r="F222" s="36"/>
-      <c r="G222" s="36"/>
-      <c r="H222" s="36"/>
-    </row>
-    <row r="223" spans="1:9" ht="29">
-      <c r="A223" s="36"/>
-      <c r="B223" s="36"/>
-      <c r="C223" s="36"/>
-      <c r="D223" s="36"/>
-      <c r="E223" s="35" t="s">
-        <v>803</v>
       </c>
       <c r="F223" s="36"/>
       <c r="G223" s="36"/>
       <c r="H223" s="36"/>
     </row>
-    <row r="224" spans="1:9" ht="58">
+    <row r="224" spans="1:9" ht="29">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="36"/>
       <c r="D224" s="36"/>
       <c r="E224" s="35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F224" s="36"/>
       <c r="G224" s="36"/>
       <c r="H224" s="36"/>
     </row>
-    <row r="225" spans="1:8" ht="29">
+    <row r="225" spans="1:8" ht="58">
       <c r="A225" s="36"/>
       <c r="B225" s="36"/>
       <c r="C225" s="36"/>
       <c r="D225" s="36"/>
       <c r="E225" s="35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F225" s="36"/>
       <c r="G225" s="36"/>
       <c r="H225" s="36"/>
     </row>
-    <row r="226" spans="1:8" ht="72.5">
+    <row r="226" spans="1:8" ht="29">
       <c r="A226" s="36"/>
       <c r="B226" s="36"/>
       <c r="C226" s="36"/>
       <c r="D226" s="36"/>
       <c r="E226" s="35" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F226" s="36"/>
       <c r="G226" s="36"/>
       <c r="H226" s="36"/>
     </row>
-    <row r="227" spans="1:8" ht="29">
+    <row r="227" spans="1:8" ht="72.5">
       <c r="A227" s="36"/>
       <c r="B227" s="36"/>
       <c r="C227" s="36"/>
       <c r="D227" s="36"/>
       <c r="E227" s="35" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F227" s="36"/>
       <c r="G227" s="36"/>
       <c r="H227" s="36"/>
     </row>
-    <row r="228" spans="1:8" ht="116">
+    <row r="228" spans="1:8" ht="29">
       <c r="A228" s="36"/>
       <c r="B228" s="36"/>
       <c r="C228" s="36"/>
       <c r="D228" s="36"/>
       <c r="E228" s="35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F228" s="36"/>
       <c r="G228" s="36"/>
       <c r="H228" s="36"/>
     </row>
-    <row r="229" spans="1:8" ht="29">
+    <row r="229" spans="1:8" ht="116">
       <c r="A229" s="36"/>
       <c r="B229" s="36"/>
       <c r="C229" s="36"/>
       <c r="D229" s="36"/>
       <c r="E229" s="35" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F229" s="36"/>
       <c r="G229" s="36"/>
@@ -56143,79 +56209,79 @@
       <c r="C230" s="36"/>
       <c r="D230" s="36"/>
       <c r="E230" s="35" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F230" s="36"/>
       <c r="G230" s="36"/>
       <c r="H230" s="36"/>
     </row>
-    <row r="231" spans="1:8" ht="58">
+    <row r="231" spans="1:8" ht="29">
       <c r="A231" s="36"/>
       <c r="B231" s="36"/>
       <c r="C231" s="36"/>
       <c r="D231" s="36"/>
       <c r="E231" s="35" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F231" s="36"/>
       <c r="G231" s="36"/>
       <c r="H231" s="36"/>
     </row>
-    <row r="232" spans="1:8" ht="29">
+    <row r="232" spans="1:8" ht="58">
       <c r="A232" s="36"/>
       <c r="B232" s="36"/>
       <c r="C232" s="36"/>
       <c r="D232" s="36"/>
       <c r="E232" s="35" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F232" s="36"/>
       <c r="G232" s="36"/>
       <c r="H232" s="36"/>
     </row>
-    <row r="233" spans="1:8" ht="72.5">
+    <row r="233" spans="1:8" ht="29">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
       <c r="D233" s="36"/>
       <c r="E233" s="35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F233" s="36"/>
       <c r="G233" s="36"/>
       <c r="H233" s="36"/>
     </row>
-    <row r="234" spans="1:8" ht="29">
+    <row r="234" spans="1:8" ht="72.5">
       <c r="A234" s="36"/>
       <c r="B234" s="36"/>
       <c r="C234" s="36"/>
       <c r="D234" s="36"/>
       <c r="E234" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F234" s="36"/>
       <c r="G234" s="36"/>
       <c r="H234" s="36"/>
     </row>
-    <row r="235" spans="1:8" ht="116">
+    <row r="235" spans="1:8" ht="29">
       <c r="A235" s="36"/>
       <c r="B235" s="36"/>
       <c r="C235" s="36"/>
       <c r="D235" s="36"/>
       <c r="E235" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F235" s="36"/>
       <c r="G235" s="36"/>
       <c r="H235" s="36"/>
     </row>
-    <row r="236" spans="1:8" ht="29">
+    <row r="236" spans="1:8" ht="116">
       <c r="A236" s="36"/>
       <c r="B236" s="36"/>
       <c r="C236" s="36"/>
       <c r="D236" s="36"/>
       <c r="E236" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F236" s="36"/>
       <c r="G236" s="36"/>
@@ -56227,79 +56293,79 @@
       <c r="C237" s="36"/>
       <c r="D237" s="36"/>
       <c r="E237" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F237" s="36"/>
       <c r="G237" s="36"/>
       <c r="H237" s="36"/>
     </row>
-    <row r="238" spans="1:8" ht="58">
+    <row r="238" spans="1:8" ht="29">
       <c r="A238" s="36"/>
       <c r="B238" s="36"/>
       <c r="C238" s="36"/>
       <c r="D238" s="36"/>
       <c r="E238" s="35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F238" s="36"/>
       <c r="G238" s="36"/>
       <c r="H238" s="36"/>
     </row>
-    <row r="239" spans="1:8" ht="29">
+    <row r="239" spans="1:8" ht="58">
       <c r="A239" s="36"/>
       <c r="B239" s="36"/>
       <c r="C239" s="36"/>
       <c r="D239" s="36"/>
       <c r="E239" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F239" s="36"/>
       <c r="G239" s="36"/>
       <c r="H239" s="36"/>
     </row>
-    <row r="240" spans="1:8" ht="72.5">
+    <row r="240" spans="1:8" ht="29">
       <c r="A240" s="36"/>
       <c r="B240" s="36"/>
       <c r="C240" s="36"/>
       <c r="D240" s="36"/>
       <c r="E240" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F240" s="36"/>
       <c r="G240" s="36"/>
       <c r="H240" s="36"/>
     </row>
-    <row r="241" spans="1:8" ht="29">
+    <row r="241" spans="1:8" ht="72.5">
       <c r="A241" s="36"/>
       <c r="B241" s="36"/>
       <c r="C241" s="36"/>
       <c r="D241" s="36"/>
       <c r="E241" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F241" s="36"/>
       <c r="G241" s="36"/>
       <c r="H241" s="36"/>
     </row>
-    <row r="242" spans="1:8" ht="116">
+    <row r="242" spans="1:8" ht="29">
       <c r="A242" s="36"/>
       <c r="B242" s="36"/>
       <c r="C242" s="36"/>
       <c r="D242" s="36"/>
       <c r="E242" s="35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F242" s="36"/>
       <c r="G242" s="36"/>
       <c r="H242" s="36"/>
     </row>
-    <row r="243" spans="1:8" ht="29">
+    <row r="243" spans="1:8" ht="116">
       <c r="A243" s="36"/>
       <c r="B243" s="36"/>
       <c r="C243" s="36"/>
       <c r="D243" s="36"/>
       <c r="E243" s="35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F243" s="36"/>
       <c r="G243" s="36"/>
@@ -56311,111 +56377,111 @@
       <c r="C244" s="36"/>
       <c r="D244" s="36"/>
       <c r="E244" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F244" s="36"/>
       <c r="G244" s="36"/>
       <c r="H244" s="36"/>
     </row>
-    <row r="245" spans="1:8" ht="58">
+    <row r="245" spans="1:8" ht="29">
       <c r="A245" s="36"/>
       <c r="B245" s="36"/>
       <c r="C245" s="36"/>
       <c r="D245" s="36"/>
       <c r="E245" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F245" s="36"/>
       <c r="G245" s="36"/>
       <c r="H245" s="36"/>
     </row>
-    <row r="246" spans="1:8" ht="29">
+    <row r="246" spans="1:8" ht="58">
       <c r="A246" s="36"/>
       <c r="B246" s="36"/>
       <c r="C246" s="36"/>
       <c r="D246" s="36"/>
       <c r="E246" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F246" s="36"/>
       <c r="G246" s="36"/>
       <c r="H246" s="36"/>
     </row>
-    <row r="247" spans="1:8" ht="72.5">
+    <row r="247" spans="1:8" ht="29">
       <c r="A247" s="36"/>
       <c r="B247" s="36"/>
       <c r="C247" s="36"/>
       <c r="D247" s="36"/>
       <c r="E247" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F247" s="36"/>
       <c r="G247" s="36"/>
       <c r="H247" s="36"/>
     </row>
-    <row r="248" spans="1:8" ht="29">
+    <row r="248" spans="1:8" ht="72.5">
       <c r="A248" s="36"/>
       <c r="B248" s="36"/>
       <c r="C248" s="36"/>
       <c r="D248" s="36"/>
       <c r="E248" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F248" s="36"/>
       <c r="G248" s="36"/>
       <c r="H248" s="36"/>
     </row>
-    <row r="249" spans="1:8" ht="188.5">
+    <row r="249" spans="1:8" ht="29">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
       <c r="D249" s="36"/>
       <c r="E249" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F249" s="36"/>
       <c r="G249" s="36"/>
       <c r="H249" s="36"/>
     </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="36" t="s">
-        <v>4</v>
-      </c>
+    <row r="250" spans="1:8" ht="188.5">
+      <c r="A250" s="36"/>
       <c r="B250" s="36"/>
       <c r="C250" s="36"/>
       <c r="D250" s="36"/>
-      <c r="E250" s="36"/>
+      <c r="E250" s="35" t="s">
+        <v>831</v>
+      </c>
       <c r="F250" s="36"/>
       <c r="G250" s="36"/>
       <c r="H250" s="36"/>
     </row>
-    <row r="251" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A251" s="35" t="s">
+    <row r="251" spans="1:8">
+      <c r="A251" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="36"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="36"/>
+      <c r="E251" s="36"/>
+      <c r="F251" s="36"/>
+      <c r="G251" s="36"/>
+      <c r="H251" s="36"/>
+    </row>
+    <row r="252" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A252" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B251" s="35" t="s">
+      <c r="B252" s="35" t="s">
         <v>849</v>
       </c>
-      <c r="C251" s="35" t="s">
+      <c r="C252" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="D251" s="35" t="s">
+      <c r="D252" s="35" t="s">
         <v>845</v>
       </c>
-      <c r="E251" s="35" t="s">
+      <c r="E252" s="35" t="s">
         <v>846</v>
-      </c>
-      <c r="F251" s="35"/>
-      <c r="G251" s="35"/>
-      <c r="H251" s="35"/>
-    </row>
-    <row r="252" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A252" s="35"/>
-      <c r="B252" s="35"/>
-      <c r="C252" s="35"/>
-      <c r="D252" s="35"/>
-      <c r="E252" s="35" t="s">
-        <v>847</v>
       </c>
       <c r="F252" s="35"/>
       <c r="G252" s="35"/>
@@ -56427,62 +56493,74 @@
       <c r="C253" s="35"/>
       <c r="D253" s="35"/>
       <c r="E253" s="35" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F253" s="35"/>
       <c r="G253" s="35"/>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A254" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B254" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="C254" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D254" s="35" t="s">
-        <v>851</v>
-      </c>
+    <row r="254" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A254" s="35"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
       <c r="E254" s="35" t="s">
-        <v>1407</v>
+        <v>848</v>
       </c>
       <c r="F254" s="35"/>
       <c r="G254" s="35"/>
       <c r="H254" s="35"/>
     </row>
-    <row r="255" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A255" s="35"/>
-      <c r="B255" s="35"/>
-      <c r="C255" s="35"/>
-      <c r="D255" s="35"/>
+    <row r="255" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A255" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="C255" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D255" s="35" t="s">
+        <v>851</v>
+      </c>
       <c r="E255" s="35" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="F255" s="35"/>
       <c r="G255" s="35"/>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="1:8" s="114" customFormat="1" ht="43.5" customHeight="1">
+    <row r="256" spans="1:8" ht="43.5" customHeight="1">
       <c r="A256" s="35"/>
       <c r="B256" s="35"/>
       <c r="C256" s="35"/>
       <c r="D256" s="35"/>
       <c r="E256" s="35" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F256" s="35"/>
       <c r="G256" s="35"/>
       <c r="H256" s="35"/>
+    </row>
+    <row r="257" spans="1:8" s="114" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A257" s="35"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="35"/>
+      <c r="E257" s="35" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F257" s="35"/>
+      <c r="G257" s="35"/>
+      <c r="H257" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E1:F75 B1:B1048576 G1:XFD1048576 D1:D1048576 E77:F1048576" xr:uid="{484D6934-AB80-1B41-9A67-95A4F3FCE6DE}"/>
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E78:F1048576 E1:E68 E70:E76 F1:F76 D1:D1048576 G1:XFD1048576 B1:B1048576" xr:uid="{484D6934-AB80-1B41-9A67-95A4F3FCE6DE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56529,19 +56607,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="130" t="s">
         <v>853</v>
       </c>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="40" t="s">
@@ -56914,22 +56992,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="210.75" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="126" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="127" t="s">
         <v>1324</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -57174,19 +57252,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>930</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="132" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="133" t="s">
         <v>1350</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="29">
       <c r="A2" s="30" t="s">

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7942A2D-702A-4F57-80C4-15CA3D825747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6A29C-47A8-4C65-90F4-E78D0C88B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11616,7 +11616,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11879,12 +11879,9 @@
     <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -11892,7 +11889,6 @@
     <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17123,10 +17119,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>631</v>
       </c>
-      <c r="B1" s="132"/>
+      <c r="B1" s="128"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
@@ -17189,16 +17185,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1325</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -17472,12 +17468,12 @@
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
     <col min="11" max="11" width="18.1796875" customWidth="1"/>
     <col min="12" max="12" width="8.1796875" customWidth="1"/>
     <col min="13" max="13" width="11.453125" customWidth="1"/>
     <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
     <col min="16" max="16" width="12.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.81640625" customWidth="1"/>
     <col min="18" max="18" width="14.1796875" customWidth="1"/>
@@ -17486,30 +17482,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>1341</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="134" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="130" t="s">
         <v>1307</v>
       </c>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -23603,9 +23599,9 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
@@ -23618,18 +23614,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1326</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -23742,17 +23738,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -23842,29 +23838,29 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1328</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -23984,42 +23980,42 @@
   <cols>
     <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
     <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.453125" style="1" customWidth="1"/>
     <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1329</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="12" t="s">
@@ -26495,25 +26491,25 @@
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" customWidth="1"/>
-    <col min="7" max="7" width="38.54296875" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.453125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1340</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -26903,19 +26899,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="132" t="s">
         <v>1330</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
     </row>
     <row r="2" spans="1:11" ht="29">
       <c r="A2" s="30" t="s">
@@ -26975,10 +26971,10 @@
         <v>337</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>1303</v>
@@ -27006,10 +27002,10 @@
         <v>337</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>1303</v>
@@ -27083,19 +27079,19 @@
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1331</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -27248,20 +27244,20 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
     <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.453125" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1322</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="30" t="s">
@@ -27505,18 +27501,18 @@
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="6.453125" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" customWidth="1"/>
-    <col min="9" max="9" width="6.54296875" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="7.453125" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="8.81640625" customWidth="1"/>
-    <col min="15" max="15" width="6.81640625" style="112" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" customWidth="1"/>
     <col min="16" max="16" width="7.81640625" customWidth="1"/>
     <col min="17" max="17" width="7.453125" customWidth="1"/>
     <col min="18" max="18" width="8.81640625" customWidth="1"/>
@@ -27527,32 +27523,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="134" t="s">
         <v>1343</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="127" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="123" t="s">
         <v>1416</v>
       </c>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="129"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="125"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -27659,7 +27655,7 @@
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
-      <c r="O3" s="111"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="36" t="s">
         <v>99</v>
       </c>
@@ -27986,31 +27982,31 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="9" width="17.54296875" customWidth="1"/>
+    <col min="8" max="9" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
     <col min="12" max="12" width="18.453125" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="120.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>1332</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="129"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" s="43" customFormat="1" ht="43.5">
       <c r="A2" s="9" t="s">
@@ -28209,39 +28205,39 @@
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.1796875" customWidth="1"/>
     <col min="12" max="12" width="7.81640625" customWidth="1"/>
     <col min="13" max="13" width="8.453125" customWidth="1"/>
     <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" customWidth="1"/>
     <col min="17" max="17" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="106" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="137" t="s">
         <v>1333</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140" t="s">
         <v>415</v>
       </c>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="50.25" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -28605,14 +28601,14 @@
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
     <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" customWidth="1"/>
@@ -28623,52 +28619,52 @@
     <col min="19" max="19" width="13.81640625" customWidth="1"/>
     <col min="20" max="20" width="14.1796875" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
     <col min="23" max="23" width="10.81640625" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" customWidth="1"/>
     <col min="25" max="25" width="16.81640625" customWidth="1"/>
-    <col min="26" max="26" width="22.54296875" customWidth="1"/>
+    <col min="26" max="26" width="22.453125" customWidth="1"/>
     <col min="27" max="27" width="14.1796875" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>978</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="138" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="134" t="s">
         <v>1334</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="140"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="136"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -29080,7 +29076,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
     <col min="5" max="6" width="19.1796875" customWidth="1"/>
@@ -29091,31 +29087,31 @@
     <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.453125" customWidth="1"/>
     <col min="16" max="16" width="28.1796875" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1335</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -29385,39 +29381,38 @@
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" customWidth="1"/>
-    <col min="11" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="23.54296875" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="11" max="13" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" customWidth="1"/>
     <col min="18" max="18" width="14.81640625" customWidth="1"/>
     <col min="22" max="22" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="129"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="125"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -29741,29 +29736,29 @@
     <col min="8" max="9" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>639</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -30000,7 +29995,7 @@
     <col min="6" max="6" width="17.453125" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
     <col min="10" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" customWidth="1"/>
@@ -30010,29 +30005,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="130" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="126" t="s">
         <v>417</v>
       </c>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="146"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="142"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -30723,18 +30718,18 @@
     <col min="2" max="2" width="15.453125" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="143" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -30870,41 +30865,41 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="8.54296875" customWidth="1"/>
+    <col min="9" max="10" width="8.453125" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="13" width="8.54296875" customWidth="1"/>
-    <col min="14" max="19" width="8.54296875" style="80"/>
+    <col min="12" max="13" width="8.453125" customWidth="1"/>
+    <col min="14" max="19" width="8.453125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="129"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" ht="58" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -31416,28 +31411,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>1411</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="115" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="116" t="s">
         <v>402</v>
       </c>
     </row>
@@ -31668,33 +31663,32 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.54296875" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="8" max="10" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.54296875" customWidth="1"/>
+    <col min="12" max="15" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -31893,24 +31887,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>1336</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
     </row>
     <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="19" t="s">
@@ -32116,35 +32110,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>1337</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="129"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="125"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="43.5">
       <c r="A2" s="49" t="s">
@@ -35501,27 +35495,27 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>1338</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="65" t="s">
@@ -38400,7 +38394,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
@@ -38428,29 +38422,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="134" t="s">
         <v>1339</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -42825,9 +42819,10 @@
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" prompt="Select an OCI Region." sqref="A1:B2 C1:D1048576 E1:F2 G1:G1048576 H1:H2 I1:J1048576 O1:XFD1048576" xr:uid="{33844E42-8F4E-A84F-A432-B001CB1649B0}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Select an OCI Region." sqref="K1:N1048576" xr:uid="{5B823DE2-6D4A-45A2-85B2-F34C1C80CB50}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Select an OCI Region." sqref="K1:N1 K5:N1048576" xr:uid="{5B823DE2-6D4A-45A2-85B2-F34C1C80CB50}"/>
+    <dataValidation prompt="Select an OCI Region." sqref="K2:N4" xr:uid="{BD14818C-4D1A-4F46-B880-ED4A3D78C91B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42882,25 +42877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="148.5" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="146" t="s">
         <v>1368</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="152"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="148"/>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="72.75" customHeight="1">
@@ -43019,26 +43014,26 @@
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="12" max="12" width="11.453125" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="15" max="15" width="8.54296875" style="1"/>
+    <col min="15" max="15" width="8.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="134" t="s">
         <v>1244</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="43.5">
       <c r="A2" s="30" t="s">
@@ -43137,50 +43132,49 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="36" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" style="36" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" style="36" customWidth="1"/>
     <col min="9" max="9" width="38.453125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="25.54296875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="36" customWidth="1"/>
     <col min="11" max="11" width="13.453125" style="36" customWidth="1"/>
-    <col min="12" max="12" width="23.54296875" style="36" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" style="36" customWidth="1"/>
     <col min="13" max="13" width="13" style="36" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" style="35" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="35" customWidth="1"/>
     <col min="15" max="15" width="15.453125" style="36" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" style="36" customWidth="1"/>
-    <col min="17" max="17" width="14.453125" style="36" customWidth="1"/>
+    <col min="16" max="17" width="14.453125" style="36" customWidth="1"/>
     <col min="18" max="18" width="12" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.54296875" style="36"/>
+    <col min="19" max="16384" width="8.453125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="149" t="s">
         <v>1342</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="151"/>
     </row>
     <row r="2" spans="1:18" ht="43.5">
       <c r="A2" s="30" t="s">
@@ -43525,7 +43519,7 @@
     <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="10" width="11.453125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44329,7 +44323,7 @@
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44645,7 +44639,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="156.75" customHeight="1"/>
@@ -44654,20 +44648,20 @@
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="6" width="23.54296875" customWidth="1"/>
+    <col min="5" max="6" width="23.453125" customWidth="1"/>
     <col min="7" max="7" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="163" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1412</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="30" t="s">
@@ -45621,16 +45615,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.1796875" style="63" customWidth="1"/>
     <col min="5" max="10" width="28.453125" style="63"/>
     <col min="11" max="11" width="33.81640625" style="63" customWidth="1"/>
     <col min="12" max="12" width="11.453125" style="63" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="63" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.453125" style="63" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="63" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="63" customWidth="1"/>
     <col min="17" max="17" width="29.81640625" style="63" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.81640625" style="63" customWidth="1"/>
     <col min="19" max="19" width="9.453125" style="63" bestFit="1" customWidth="1"/>
@@ -45644,7 +45638,7 @@
     <col min="29" max="29" width="9.81640625" style="63" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" style="63" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.1796875" style="63" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.54296875" style="63" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.453125" style="63" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30.1796875" style="63" customWidth="1"/>
     <col min="34" max="34" width="15.453125" style="63" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="44.453125" style="63" bestFit="1" customWidth="1"/>
@@ -45958,7 +45952,7 @@
         <f t="array" aca="1" ref="AT2:AT6" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
         <v>VCN::fwl-vcn</v>
       </c>
-      <c r="AU2" s="113" t="str">
+      <c r="AU2" s="111" t="str">
         <f ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>fwl-mgmt</v>
       </c>
@@ -45967,7 +45961,7 @@
         <v>fwl-mgmt</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="57" customFormat="1" ht="26">
+    <row r="3" spans="1:48" s="57" customFormat="1">
       <c r="A3" s="57">
         <v>4</v>
       </c>
@@ -46116,7 +46110,7 @@
         <f ca="1"/>
         <v>VCN::prod-vcn</v>
       </c>
-      <c r="AU3" s="113" t="str">
+      <c r="AU3" s="111" t="str">
         <f t="shared" ref="AU3:AU66" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>fwl-pub</v>
       </c>
@@ -46244,7 +46238,7 @@
         <f ca="1"/>
         <v>VCN::nonprod-vcn</v>
       </c>
-      <c r="AU4" s="113" t="str">
+      <c r="AU4" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>fwl-priv</v>
       </c>
@@ -46351,7 +46345,7 @@
         <f ca="1"/>
         <v>VCN::exa-vcn</v>
       </c>
-      <c r="AU5" s="113" t="str">
+      <c r="AU5" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>fwl-ha</v>
       </c>
@@ -46450,7 +46444,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AU6" s="113" t="str">
+      <c r="AU6" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-web</v>
       </c>
@@ -46536,7 +46530,7 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
       <c r="AN7" s="58"/>
-      <c r="AU7" s="113" t="str">
+      <c r="AU7" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-app</v>
       </c>
@@ -46622,7 +46616,7 @@
       <c r="AL8" s="58"/>
       <c r="AM8" s="58"/>
       <c r="AN8" s="58"/>
-      <c r="AU8" s="113" t="str">
+      <c r="AU8" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-db</v>
       </c>
@@ -46708,7 +46702,7 @@
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
       <c r="AN9" s="58"/>
-      <c r="AU9" s="113" t="str">
+      <c r="AU9" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-web</v>
       </c>
@@ -46794,7 +46788,7 @@
       <c r="AL10" s="58"/>
       <c r="AM10" s="58"/>
       <c r="AN10" s="58"/>
-      <c r="AU10" s="113" t="str">
+      <c r="AU10" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-app</v>
       </c>
@@ -46880,7 +46874,7 @@
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
       <c r="AN11" s="58"/>
-      <c r="AU11" s="113" t="str">
+      <c r="AU11" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-db</v>
       </c>
@@ -46964,7 +46958,7 @@
       <c r="AL12" s="58"/>
       <c r="AM12" s="58"/>
       <c r="AN12" s="58"/>
-      <c r="AU12" s="113" t="str">
+      <c r="AU12" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-clnt</v>
       </c>
@@ -47048,7 +47042,7 @@
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
       <c r="AN13" s="58"/>
-      <c r="AU13" s="113" t="str">
+      <c r="AU13" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-bkup</v>
       </c>
@@ -47129,7 +47123,7 @@
       <c r="AL14" s="58"/>
       <c r="AM14" s="58"/>
       <c r="AN14" s="58"/>
-      <c r="AU14" s="113" t="str">
+      <c r="AU14" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-bkup</v>
       </c>
@@ -47206,7 +47200,7 @@
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
       <c r="AN15" s="58"/>
-      <c r="AU15" s="113" t="str">
+      <c r="AU15" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47283,7 +47277,7 @@
       <c r="AL16" s="58"/>
       <c r="AM16" s="58"/>
       <c r="AN16" s="58"/>
-      <c r="AU16" s="113" t="str">
+      <c r="AU16" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47360,7 +47354,7 @@
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
       <c r="AN17" s="58"/>
-      <c r="AU17" s="113" t="str">
+      <c r="AU17" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47437,7 +47431,7 @@
       <c r="AL18" s="58"/>
       <c r="AM18" s="58"/>
       <c r="AN18" s="58"/>
-      <c r="AU18" s="113" t="str">
+      <c r="AU18" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47514,7 +47508,7 @@
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
       <c r="AN19" s="58"/>
-      <c r="AU19" s="113" t="str">
+      <c r="AU19" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47591,7 +47585,7 @@
       <c r="AL20" s="58"/>
       <c r="AM20" s="58"/>
       <c r="AN20" s="58"/>
-      <c r="AU20" s="113" t="str">
+      <c r="AU20" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47668,7 +47662,7 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
       <c r="AN21" s="58"/>
-      <c r="AU21" s="113" t="str">
+      <c r="AU21" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47745,7 +47739,7 @@
       <c r="AL22" s="58"/>
       <c r="AM22" s="58"/>
       <c r="AN22" s="58"/>
-      <c r="AU22" s="113" t="str">
+      <c r="AU22" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47822,7 +47816,7 @@
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
       <c r="AN23" s="58"/>
-      <c r="AU23" s="113" t="str">
+      <c r="AU23" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47899,7 +47893,7 @@
       <c r="AL24" s="58"/>
       <c r="AM24" s="58"/>
       <c r="AN24" s="58"/>
-      <c r="AU24" s="113" t="str">
+      <c r="AU24" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -47976,7 +47970,7 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
       <c r="AN25" s="58"/>
-      <c r="AU25" s="113" t="str">
+      <c r="AU25" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48053,7 +48047,7 @@
       <c r="AL26" s="58"/>
       <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
-      <c r="AU26" s="113" t="str">
+      <c r="AU26" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48130,7 +48124,7 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
       <c r="AN27" s="58"/>
-      <c r="AU27" s="113" t="str">
+      <c r="AU27" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48207,7 +48201,7 @@
       <c r="AL28" s="58"/>
       <c r="AM28" s="58"/>
       <c r="AN28" s="58"/>
-      <c r="AU28" s="113" t="str">
+      <c r="AU28" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48284,7 +48278,7 @@
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
       <c r="AN29" s="58"/>
-      <c r="AU29" s="113" t="str">
+      <c r="AU29" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48361,7 +48355,7 @@
       <c r="AL30" s="58"/>
       <c r="AM30" s="58"/>
       <c r="AN30" s="58"/>
-      <c r="AU30" s="113" t="str">
+      <c r="AU30" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48438,7 +48432,7 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
       <c r="AN31" s="58"/>
-      <c r="AU31" s="113" t="str">
+      <c r="AU31" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48515,7 +48509,7 @@
       <c r="AL32" s="58"/>
       <c r="AM32" s="58"/>
       <c r="AN32" s="58"/>
-      <c r="AU32" s="113" t="str">
+      <c r="AU32" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48592,7 +48586,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
       <c r="AN33" s="58"/>
-      <c r="AU33" s="113" t="str">
+      <c r="AU33" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48669,7 +48663,7 @@
       <c r="AL34" s="58"/>
       <c r="AM34" s="58"/>
       <c r="AN34" s="58"/>
-      <c r="AU34" s="113" t="str">
+      <c r="AU34" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48746,7 +48740,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
       <c r="AN35" s="58"/>
-      <c r="AU35" s="113" t="str">
+      <c r="AU35" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48823,7 +48817,7 @@
       <c r="AL36" s="58"/>
       <c r="AM36" s="58"/>
       <c r="AN36" s="58"/>
-      <c r="AU36" s="113" t="str">
+      <c r="AU36" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48900,7 +48894,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
       <c r="AN37" s="58"/>
-      <c r="AU37" s="113" t="str">
+      <c r="AU37" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -48977,7 +48971,7 @@
       <c r="AL38" s="58"/>
       <c r="AM38" s="58"/>
       <c r="AN38" s="58"/>
-      <c r="AU38" s="113" t="str">
+      <c r="AU38" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49054,7 +49048,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
       <c r="AN39" s="58"/>
-      <c r="AU39" s="113" t="str">
+      <c r="AU39" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49130,7 +49124,7 @@
       <c r="AL40" s="58"/>
       <c r="AM40" s="58"/>
       <c r="AN40" s="58"/>
-      <c r="AU40" s="113" t="str">
+      <c r="AU40" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49181,7 +49175,7 @@
         <v/>
       </c>
       <c r="AK41" s="62"/>
-      <c r="AU41" s="113" t="str">
+      <c r="AU41" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49231,7 +49225,7 @@
         <f t="array" aca="1" ref="Z42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU42" s="113" t="str">
+      <c r="AU42" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49281,7 +49275,7 @@
         <f t="array" aca="1" ref="Z43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU43" s="113" t="str">
+      <c r="AU43" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49331,7 +49325,7 @@
         <f t="array" aca="1" ref="Z44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU44" s="113" t="str">
+      <c r="AU44" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49381,7 +49375,7 @@
         <f t="array" aca="1" ref="Z45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU45" s="113" t="str">
+      <c r="AU45" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49428,7 +49422,7 @@
         <f t="array" aca="1" ref="Z46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU46" s="113" t="str">
+      <c r="AU46" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49475,7 +49469,7 @@
         <f t="array" aca="1" ref="Z47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU47" s="113" t="str">
+      <c r="AU47" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49522,7 +49516,7 @@
         <f t="array" aca="1" ref="Z48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU48" s="113" t="str">
+      <c r="AU48" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49569,7 +49563,7 @@
         <f t="array" aca="1" ref="Z49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU49" s="113" t="str">
+      <c r="AU49" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49590,7 +49584,7 @@
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="AG50" s="63"/>
-      <c r="AU50" s="113" t="str">
+      <c r="AU50" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49611,7 +49605,7 @@
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="L51" s="57"/>
-      <c r="AU51" s="113" t="str">
+      <c r="AU51" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49633,7 +49627,7 @@
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="L52" s="57"/>
-      <c r="AU52" s="113" t="str">
+      <c r="AU52" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49654,7 +49648,7 @@
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
-      <c r="AU53" s="113" t="str">
+      <c r="AU53" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49675,7 +49669,7 @@
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-      <c r="AU54" s="113" t="str">
+      <c r="AU54" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49696,7 +49690,7 @@
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
-      <c r="AU55" s="113" t="str">
+      <c r="AU55" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49717,7 +49711,7 @@
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
-      <c r="AU56" s="113" t="str">
+      <c r="AU56" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49738,7 +49732,7 @@
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
-      <c r="AU57" s="113" t="str">
+      <c r="AU57" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49759,7 +49753,7 @@
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
-      <c r="AU58" s="113" t="str">
+      <c r="AU58" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49780,7 +49774,7 @@
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
-      <c r="AU59" s="113" t="str">
+      <c r="AU59" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49801,7 +49795,7 @@
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
-      <c r="AU60" s="113" t="str">
+      <c r="AU60" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49822,7 +49816,7 @@
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
-      <c r="AU61" s="113" t="str">
+      <c r="AU61" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49843,7 +49837,7 @@
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
-      <c r="AU62" s="113" t="str">
+      <c r="AU62" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49864,7 +49858,7 @@
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-      <c r="AU63" s="113" t="str">
+      <c r="AU63" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49885,7 +49879,7 @@
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
-      <c r="AU64" s="113" t="str">
+      <c r="AU64" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49906,7 +49900,7 @@
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
-      <c r="AU65" s="113" t="str">
+      <c r="AU65" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49927,7 +49921,7 @@
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
-      <c r="AU66" s="113" t="str">
+      <c r="AU66" s="111" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -49948,7 +49942,7 @@
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-      <c r="AU67" s="113" t="str">
+      <c r="AU67" s="111" t="str">
         <f t="shared" ref="AU67:AU130" ca="1" si="3">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -49969,7 +49963,7 @@
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-      <c r="AU68" s="113" t="str">
+      <c r="AU68" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -49990,7 +49984,7 @@
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
-      <c r="AU69" s="113" t="str">
+      <c r="AU69" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50011,7 +50005,7 @@
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
-      <c r="AU70" s="113" t="str">
+      <c r="AU70" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50032,7 +50026,7 @@
       </c>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
-      <c r="AU71" s="113" t="str">
+      <c r="AU71" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50053,7 +50047,7 @@
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
-      <c r="AU72" s="113" t="str">
+      <c r="AU72" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50074,7 +50068,7 @@
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
-      <c r="AU73" s="113" t="str">
+      <c r="AU73" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50095,7 +50089,7 @@
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
-      <c r="AU74" s="113" t="str">
+      <c r="AU74" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50116,7 +50110,7 @@
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="AU75" s="113" t="str">
+      <c r="AU75" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50137,7 +50131,7 @@
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
-      <c r="AU76" s="113" t="str">
+      <c r="AU76" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50158,7 +50152,7 @@
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
-      <c r="AU77" s="113" t="str">
+      <c r="AU77" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50179,7 +50173,7 @@
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
-      <c r="AU78" s="113" t="str">
+      <c r="AU78" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50200,7 +50194,7 @@
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
-      <c r="AU79" s="113" t="str">
+      <c r="AU79" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50221,7 +50215,7 @@
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
-      <c r="AU80" s="113" t="str">
+      <c r="AU80" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50242,7 +50236,7 @@
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
-      <c r="AU81" s="113" t="str">
+      <c r="AU81" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50263,7 +50257,7 @@
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
-      <c r="AU82" s="113" t="str">
+      <c r="AU82" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50284,7 +50278,7 @@
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
-      <c r="AU83" s="113" t="str">
+      <c r="AU83" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50305,7 +50299,7 @@
       </c>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
-      <c r="AU84" s="113" t="str">
+      <c r="AU84" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50326,7 +50320,7 @@
       </c>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
-      <c r="AU85" s="113" t="str">
+      <c r="AU85" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50347,7 +50341,7 @@
       </c>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-      <c r="AU86" s="113" t="str">
+      <c r="AU86" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50368,7 +50362,7 @@
       </c>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
-      <c r="AU87" s="113" t="str">
+      <c r="AU87" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50389,7 +50383,7 @@
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
-      <c r="AU88" s="113" t="str">
+      <c r="AU88" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50410,7 +50404,7 @@
       </c>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
-      <c r="AU89" s="113" t="str">
+      <c r="AU89" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50431,7 +50425,7 @@
       </c>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
-      <c r="AU90" s="113" t="str">
+      <c r="AU90" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50452,7 +50446,7 @@
       </c>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="AU91" s="113" t="str">
+      <c r="AU91" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50473,7 +50467,7 @@
       </c>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
-      <c r="AU92" s="113" t="str">
+      <c r="AU92" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50494,7 +50488,7 @@
       </c>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="AU93" s="113" t="str">
+      <c r="AU93" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50515,7 +50509,7 @@
       </c>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="AU94" s="113" t="str">
+      <c r="AU94" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50536,7 +50530,7 @@
       </c>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
-      <c r="AU95" s="113" t="str">
+      <c r="AU95" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50557,7 +50551,7 @@
       </c>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
-      <c r="AU96" s="113" t="str">
+      <c r="AU96" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50578,7 +50572,7 @@
       </c>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
-      <c r="AU97" s="113" t="str">
+      <c r="AU97" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50599,7 +50593,7 @@
       </c>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-      <c r="AU98" s="113" t="str">
+      <c r="AU98" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50620,7 +50614,7 @@
       </c>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-      <c r="AU99" s="113" t="str">
+      <c r="AU99" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50641,7 +50635,7 @@
       </c>
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
-      <c r="AU100" s="113" t="str">
+      <c r="AU100" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50662,7 +50656,7 @@
       </c>
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
-      <c r="AU101" s="113" t="str">
+      <c r="AU101" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50683,7 +50677,7 @@
       </c>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
-      <c r="AU102" s="113" t="str">
+      <c r="AU102" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50704,7 +50698,7 @@
       </c>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
-      <c r="AU103" s="113" t="str">
+      <c r="AU103" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50725,7 +50719,7 @@
       </c>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
-      <c r="AU104" s="113" t="str">
+      <c r="AU104" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50746,7 +50740,7 @@
       </c>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
-      <c r="AU105" s="113" t="str">
+      <c r="AU105" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50767,7 +50761,7 @@
       </c>
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
-      <c r="AU106" s="113" t="str">
+      <c r="AU106" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50788,7 +50782,7 @@
       </c>
       <c r="I107" s="36"/>
       <c r="J107" s="36"/>
-      <c r="AU107" s="113" t="str">
+      <c r="AU107" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50809,7 +50803,7 @@
       </c>
       <c r="I108" s="36"/>
       <c r="J108" s="36"/>
-      <c r="AU108" s="113" t="str">
+      <c r="AU108" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50830,7 +50824,7 @@
       </c>
       <c r="I109" s="36"/>
       <c r="J109" s="36"/>
-      <c r="AU109" s="113" t="str">
+      <c r="AU109" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50851,7 +50845,7 @@
       </c>
       <c r="I110" s="36"/>
       <c r="J110" s="36"/>
-      <c r="AU110" s="113" t="str">
+      <c r="AU110" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50872,7 +50866,7 @@
       </c>
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
-      <c r="AU111" s="113" t="str">
+      <c r="AU111" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50893,7 +50887,7 @@
       </c>
       <c r="I112" s="36"/>
       <c r="J112" s="36"/>
-      <c r="AU112" s="113" t="str">
+      <c r="AU112" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50914,7 +50908,7 @@
       </c>
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
-      <c r="AU113" s="113" t="str">
+      <c r="AU113" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50935,7 +50929,7 @@
       </c>
       <c r="I114" s="36"/>
       <c r="J114" s="36"/>
-      <c r="AU114" s="113" t="str">
+      <c r="AU114" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50956,7 +50950,7 @@
       </c>
       <c r="I115" s="36"/>
       <c r="J115" s="36"/>
-      <c r="AU115" s="113" t="str">
+      <c r="AU115" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50977,7 +50971,7 @@
       </c>
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
-      <c r="AU116" s="113" t="str">
+      <c r="AU116" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -50998,7 +50992,7 @@
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
-      <c r="AU117" s="113" t="str">
+      <c r="AU117" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51019,7 +51013,7 @@
       </c>
       <c r="I118" s="36"/>
       <c r="J118" s="36"/>
-      <c r="AU118" s="113" t="str">
+      <c r="AU118" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51040,7 +51034,7 @@
       </c>
       <c r="I119" s="36"/>
       <c r="J119" s="36"/>
-      <c r="AU119" s="113" t="str">
+      <c r="AU119" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51061,7 +51055,7 @@
       </c>
       <c r="I120" s="36"/>
       <c r="J120" s="36"/>
-      <c r="AU120" s="113" t="str">
+      <c r="AU120" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51082,7 +51076,7 @@
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
-      <c r="AU121" s="113" t="str">
+      <c r="AU121" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51103,7 +51097,7 @@
       </c>
       <c r="I122" s="36"/>
       <c r="J122" s="36"/>
-      <c r="AU122" s="113" t="str">
+      <c r="AU122" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51124,7 +51118,7 @@
       </c>
       <c r="I123" s="36"/>
       <c r="J123" s="36"/>
-      <c r="AU123" s="113" t="str">
+      <c r="AU123" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51145,7 +51139,7 @@
       </c>
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
-      <c r="AU124" s="113" t="str">
+      <c r="AU124" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51166,7 +51160,7 @@
       </c>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
-      <c r="AU125" s="113" t="str">
+      <c r="AU125" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51187,7 +51181,7 @@
       </c>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
-      <c r="AU126" s="113" t="str">
+      <c r="AU126" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51208,7 +51202,7 @@
       </c>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
-      <c r="AU127" s="113" t="str">
+      <c r="AU127" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51229,7 +51223,7 @@
       </c>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
-      <c r="AU128" s="113" t="str">
+      <c r="AU128" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51250,7 +51244,7 @@
       </c>
       <c r="I129" s="36"/>
       <c r="J129" s="36"/>
-      <c r="AU129" s="113" t="str">
+      <c r="AU129" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51271,7 +51265,7 @@
       </c>
       <c r="I130" s="36"/>
       <c r="J130" s="36"/>
-      <c r="AU130" s="113" t="str">
+      <c r="AU130" s="111" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -51292,7 +51286,7 @@
       </c>
       <c r="I131" s="36"/>
       <c r="J131" s="36"/>
-      <c r="AU131" s="113" t="str">
+      <c r="AU131" s="111" t="str">
         <f t="shared" ref="AU131:AU194" ca="1" si="5">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -51313,7 +51307,7 @@
       </c>
       <c r="I132" s="36"/>
       <c r="J132" s="36"/>
-      <c r="AU132" s="113" t="str">
+      <c r="AU132" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51334,7 +51328,7 @@
       </c>
       <c r="I133" s="36"/>
       <c r="J133" s="36"/>
-      <c r="AU133" s="113" t="str">
+      <c r="AU133" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51355,7 +51349,7 @@
       </c>
       <c r="I134" s="36"/>
       <c r="J134" s="36"/>
-      <c r="AU134" s="113" t="str">
+      <c r="AU134" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51376,7 +51370,7 @@
       </c>
       <c r="I135" s="36"/>
       <c r="J135" s="36"/>
-      <c r="AU135" s="113" t="str">
+      <c r="AU135" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51397,7 +51391,7 @@
       </c>
       <c r="I136" s="36"/>
       <c r="J136" s="36"/>
-      <c r="AU136" s="113" t="str">
+      <c r="AU136" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51418,7 +51412,7 @@
       </c>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
-      <c r="AU137" s="113" t="str">
+      <c r="AU137" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51439,7 +51433,7 @@
       </c>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
-      <c r="AU138" s="113" t="str">
+      <c r="AU138" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51460,7 +51454,7 @@
       </c>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
-      <c r="AU139" s="113" t="str">
+      <c r="AU139" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51481,7 +51475,7 @@
       </c>
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
-      <c r="AU140" s="113" t="str">
+      <c r="AU140" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51502,7 +51496,7 @@
       </c>
       <c r="I141" s="36"/>
       <c r="J141" s="36"/>
-      <c r="AU141" s="113" t="str">
+      <c r="AU141" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51523,7 +51517,7 @@
       </c>
       <c r="I142" s="36"/>
       <c r="J142" s="36"/>
-      <c r="AU142" s="113" t="str">
+      <c r="AU142" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51544,7 +51538,7 @@
       </c>
       <c r="I143" s="36"/>
       <c r="J143" s="36"/>
-      <c r="AU143" s="113" t="str">
+      <c r="AU143" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51565,7 +51559,7 @@
       </c>
       <c r="I144" s="36"/>
       <c r="J144" s="36"/>
-      <c r="AU144" s="113" t="str">
+      <c r="AU144" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51586,7 +51580,7 @@
       </c>
       <c r="I145" s="36"/>
       <c r="J145" s="36"/>
-      <c r="AU145" s="113" t="str">
+      <c r="AU145" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51607,7 +51601,7 @@
       </c>
       <c r="I146" s="36"/>
       <c r="J146" s="36"/>
-      <c r="AU146" s="113" t="str">
+      <c r="AU146" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51628,7 +51622,7 @@
       </c>
       <c r="I147" s="36"/>
       <c r="J147" s="36"/>
-      <c r="AU147" s="113" t="str">
+      <c r="AU147" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51649,7 +51643,7 @@
       </c>
       <c r="I148" s="36"/>
       <c r="J148" s="36"/>
-      <c r="AU148" s="113" t="str">
+      <c r="AU148" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51670,7 +51664,7 @@
       </c>
       <c r="I149" s="36"/>
       <c r="J149" s="36"/>
-      <c r="AU149" s="113" t="str">
+      <c r="AU149" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51691,7 +51685,7 @@
       </c>
       <c r="I150" s="36"/>
       <c r="J150" s="36"/>
-      <c r="AU150" s="113" t="str">
+      <c r="AU150" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51712,7 +51706,7 @@
       </c>
       <c r="I151" s="36"/>
       <c r="J151" s="36"/>
-      <c r="AU151" s="113" t="str">
+      <c r="AU151" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51733,7 +51727,7 @@
       </c>
       <c r="I152" s="36"/>
       <c r="J152" s="36"/>
-      <c r="AU152" s="113" t="str">
+      <c r="AU152" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51754,7 +51748,7 @@
       </c>
       <c r="I153" s="36"/>
       <c r="J153" s="36"/>
-      <c r="AU153" s="113" t="str">
+      <c r="AU153" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51775,7 +51769,7 @@
       </c>
       <c r="I154" s="36"/>
       <c r="J154" s="36"/>
-      <c r="AU154" s="113" t="str">
+      <c r="AU154" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51796,7 +51790,7 @@
       </c>
       <c r="I155" s="36"/>
       <c r="J155" s="36"/>
-      <c r="AU155" s="113" t="str">
+      <c r="AU155" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51817,7 +51811,7 @@
       </c>
       <c r="I156" s="36"/>
       <c r="J156" s="36"/>
-      <c r="AU156" s="113" t="str">
+      <c r="AU156" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51838,7 +51832,7 @@
       </c>
       <c r="I157" s="36"/>
       <c r="J157" s="36"/>
-      <c r="AU157" s="113" t="str">
+      <c r="AU157" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51859,7 +51853,7 @@
       </c>
       <c r="I158" s="36"/>
       <c r="J158" s="36"/>
-      <c r="AU158" s="113" t="str">
+      <c r="AU158" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51880,7 +51874,7 @@
       </c>
       <c r="I159" s="36"/>
       <c r="J159" s="36"/>
-      <c r="AU159" s="113" t="str">
+      <c r="AU159" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51901,7 +51895,7 @@
       </c>
       <c r="I160" s="36"/>
       <c r="J160" s="36"/>
-      <c r="AU160" s="113" t="str">
+      <c r="AU160" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51922,7 +51916,7 @@
       </c>
       <c r="I161" s="36"/>
       <c r="J161" s="36"/>
-      <c r="AU161" s="113" t="str">
+      <c r="AU161" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51943,7 +51937,7 @@
       </c>
       <c r="I162" s="36"/>
       <c r="J162" s="36"/>
-      <c r="AU162" s="113" t="str">
+      <c r="AU162" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51964,7 +51958,7 @@
       </c>
       <c r="I163" s="36"/>
       <c r="J163" s="36"/>
-      <c r="AU163" s="113" t="str">
+      <c r="AU163" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -51985,7 +51979,7 @@
       </c>
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
-      <c r="AU164" s="113" t="str">
+      <c r="AU164" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52006,7 +52000,7 @@
       </c>
       <c r="I165" s="36"/>
       <c r="J165" s="36"/>
-      <c r="AU165" s="113" t="str">
+      <c r="AU165" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52027,7 +52021,7 @@
       </c>
       <c r="I166" s="36"/>
       <c r="J166" s="36"/>
-      <c r="AU166" s="113" t="str">
+      <c r="AU166" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52048,7 +52042,7 @@
       </c>
       <c r="I167" s="36"/>
       <c r="J167" s="36"/>
-      <c r="AU167" s="113" t="str">
+      <c r="AU167" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52069,7 +52063,7 @@
       </c>
       <c r="I168" s="36"/>
       <c r="J168" s="36"/>
-      <c r="AU168" s="113" t="str">
+      <c r="AU168" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52090,7 +52084,7 @@
       </c>
       <c r="I169" s="36"/>
       <c r="J169" s="36"/>
-      <c r="AU169" s="113" t="str">
+      <c r="AU169" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52111,7 +52105,7 @@
       </c>
       <c r="I170" s="36"/>
       <c r="J170" s="36"/>
-      <c r="AU170" s="113" t="str">
+      <c r="AU170" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52132,7 +52126,7 @@
       </c>
       <c r="I171" s="36"/>
       <c r="J171" s="36"/>
-      <c r="AU171" s="113" t="str">
+      <c r="AU171" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52153,7 +52147,7 @@
       </c>
       <c r="I172" s="36"/>
       <c r="J172" s="36"/>
-      <c r="AU172" s="113" t="str">
+      <c r="AU172" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52174,7 +52168,7 @@
       </c>
       <c r="I173" s="36"/>
       <c r="J173" s="36"/>
-      <c r="AU173" s="113" t="str">
+      <c r="AU173" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52195,7 +52189,7 @@
       </c>
       <c r="I174" s="36"/>
       <c r="J174" s="36"/>
-      <c r="AU174" s="113" t="str">
+      <c r="AU174" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52216,7 +52210,7 @@
       </c>
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
-      <c r="AU175" s="113" t="str">
+      <c r="AU175" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52237,7 +52231,7 @@
       </c>
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
-      <c r="AU176" s="113" t="str">
+      <c r="AU176" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52258,7 +52252,7 @@
       </c>
       <c r="I177" s="36"/>
       <c r="J177" s="36"/>
-      <c r="AU177" s="113" t="str">
+      <c r="AU177" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52279,7 +52273,7 @@
       </c>
       <c r="I178" s="36"/>
       <c r="J178" s="36"/>
-      <c r="AU178" s="113" t="str">
+      <c r="AU178" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52300,7 +52294,7 @@
       </c>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
-      <c r="AU179" s="113" t="str">
+      <c r="AU179" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52321,7 +52315,7 @@
       </c>
       <c r="I180" s="36"/>
       <c r="J180" s="36"/>
-      <c r="AU180" s="113" t="str">
+      <c r="AU180" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52342,7 +52336,7 @@
       </c>
       <c r="I181" s="36"/>
       <c r="J181" s="36"/>
-      <c r="AU181" s="113" t="str">
+      <c r="AU181" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52363,7 +52357,7 @@
       </c>
       <c r="I182" s="36"/>
       <c r="J182" s="36"/>
-      <c r="AU182" s="113" t="str">
+      <c r="AU182" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52384,7 +52378,7 @@
       </c>
       <c r="I183" s="36"/>
       <c r="J183" s="36"/>
-      <c r="AU183" s="113" t="str">
+      <c r="AU183" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52405,7 +52399,7 @@
       </c>
       <c r="I184" s="36"/>
       <c r="J184" s="36"/>
-      <c r="AU184" s="113" t="str">
+      <c r="AU184" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52426,7 +52420,7 @@
       </c>
       <c r="I185" s="36"/>
       <c r="J185" s="36"/>
-      <c r="AU185" s="113" t="str">
+      <c r="AU185" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52447,7 +52441,7 @@
       </c>
       <c r="I186" s="36"/>
       <c r="J186" s="36"/>
-      <c r="AU186" s="113" t="str">
+      <c r="AU186" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52468,7 +52462,7 @@
       </c>
       <c r="I187" s="36"/>
       <c r="J187" s="36"/>
-      <c r="AU187" s="113" t="str">
+      <c r="AU187" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52489,7 +52483,7 @@
       </c>
       <c r="I188" s="36"/>
       <c r="J188" s="36"/>
-      <c r="AU188" s="113" t="str">
+      <c r="AU188" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52510,7 +52504,7 @@
       </c>
       <c r="I189" s="36"/>
       <c r="J189" s="36"/>
-      <c r="AU189" s="113" t="str">
+      <c r="AU189" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52531,7 +52525,7 @@
       </c>
       <c r="I190" s="36"/>
       <c r="J190" s="36"/>
-      <c r="AU190" s="113" t="str">
+      <c r="AU190" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52552,7 +52546,7 @@
       </c>
       <c r="I191" s="36"/>
       <c r="J191" s="36"/>
-      <c r="AU191" s="113" t="str">
+      <c r="AU191" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52573,7 +52567,7 @@
       </c>
       <c r="I192" s="36"/>
       <c r="J192" s="36"/>
-      <c r="AU192" s="113" t="str">
+      <c r="AU192" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52594,7 +52588,7 @@
       </c>
       <c r="I193" s="36"/>
       <c r="J193" s="36"/>
-      <c r="AU193" s="113" t="str">
+      <c r="AU193" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52615,7 +52609,7 @@
       </c>
       <c r="I194" s="36"/>
       <c r="J194" s="36"/>
-      <c r="AU194" s="113" t="str">
+      <c r="AU194" s="111" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -52636,7 +52630,7 @@
       </c>
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
-      <c r="AU195" s="113" t="str">
+      <c r="AU195" s="111" t="str">
         <f t="shared" ref="AU195:AU200" ca="1" si="7">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -52657,7 +52651,7 @@
       </c>
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
-      <c r="AU196" s="113" t="str">
+      <c r="AU196" s="111" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -52678,7 +52672,7 @@
       </c>
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
-      <c r="AU197" s="113" t="str">
+      <c r="AU197" s="111" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -52699,7 +52693,7 @@
       </c>
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
-      <c r="AU198" s="113" t="str">
+      <c r="AU198" s="111" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -52720,7 +52714,7 @@
       </c>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
-      <c r="AU199" s="113" t="str">
+      <c r="AU199" s="111" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -52741,7 +52735,7 @@
       </c>
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
-      <c r="AU200" s="113" t="str">
+      <c r="AU200" s="111" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -52775,14 +52769,14 @@
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="63" customWidth="1"/>
     <col min="3" max="4" width="20.1796875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="55" t="s">
         <v>522</v>
       </c>
@@ -53276,7 +53270,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -53290,14 +53284,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>1370</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
@@ -53342,10 +53336,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I257"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -53356,20 +53350,20 @@
     <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="49.453125" customWidth="1"/>
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1">
+      <c r="A1" s="117" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -53929,7 +53923,7 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
     </row>
-    <row r="46" spans="1:8" s="114" customFormat="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="35"/>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
@@ -54229,7 +54223,7 @@
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="1:8" s="120" customFormat="1" ht="29">
+    <row r="69" spans="1:8" ht="29">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -54253,7 +54247,7 @@
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
     </row>
-    <row r="71" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="71" spans="1:8" ht="29.25" customHeight="1">
       <c r="A71" s="35"/>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
@@ -54265,7 +54259,7 @@
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
     </row>
-    <row r="72" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="72" spans="1:8" ht="29.25" customHeight="1">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -54277,7 +54271,7 @@
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
     </row>
-    <row r="73" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="73" spans="1:8" ht="29.25" customHeight="1">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
@@ -54289,7 +54283,7 @@
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
     </row>
-    <row r="74" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="74" spans="1:8" ht="29.25" customHeight="1">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -54301,7 +54295,7 @@
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="75" spans="1:8" ht="29.25" customHeight="1">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
@@ -54325,7 +54319,7 @@
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
     </row>
-    <row r="77" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="77" spans="1:8" ht="29">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
@@ -54333,7 +54327,7 @@
       <c r="E77" s="35" t="s">
         <v>1382</v>
       </c>
-      <c r="F77" s="115"/>
+      <c r="F77" s="112"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
     </row>
@@ -54381,7 +54375,7 @@
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
     </row>
-    <row r="81" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="81" spans="1:8" ht="29.25" customHeight="1">
       <c r="A81" s="35"/>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
@@ -54393,7 +54387,7 @@
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
     </row>
-    <row r="82" spans="1:8" s="114" customFormat="1" ht="29.25" customHeight="1">
+    <row r="82" spans="1:8" ht="29.25" customHeight="1">
       <c r="A82" s="35"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
@@ -54777,7 +54771,7 @@
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
     </row>
-    <row r="114" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="114" spans="1:8" ht="29">
       <c r="A114" s="35"/>
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
@@ -54789,7 +54783,7 @@
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
     </row>
-    <row r="115" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="115" spans="1:8" ht="29">
       <c r="A115" s="35"/>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
@@ -54801,7 +54795,7 @@
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
     </row>
-    <row r="116" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="116" spans="1:8" ht="29">
       <c r="A116" s="35"/>
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
@@ -54813,7 +54807,7 @@
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
     </row>
-    <row r="117" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="117" spans="1:8" ht="29">
       <c r="A117" s="35"/>
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
@@ -54825,7 +54819,7 @@
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
     </row>
-    <row r="118" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="118" spans="1:8" ht="29">
       <c r="A118" s="35"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -54837,7 +54831,7 @@
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
     </row>
-    <row r="119" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="119" spans="1:8" ht="29">
       <c r="A119" s="35"/>
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
@@ -54849,7 +54843,7 @@
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
     </row>
-    <row r="120" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="120" spans="1:8" ht="29">
       <c r="A120" s="35"/>
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
@@ -54861,7 +54855,7 @@
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
     </row>
-    <row r="121" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="121" spans="1:8" ht="29">
       <c r="A121" s="35"/>
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
@@ -54917,7 +54911,7 @@
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
     </row>
-    <row r="125" spans="1:8" s="114" customFormat="1" ht="188.5">
+    <row r="125" spans="1:8" ht="188.5">
       <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
@@ -55453,7 +55447,7 @@
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
     </row>
-    <row r="169" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="169" spans="1:8" ht="29">
       <c r="A169" s="35"/>
       <c r="B169" s="35"/>
       <c r="C169" s="35"/>
@@ -55465,7 +55459,7 @@
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
     </row>
-    <row r="170" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="170" spans="1:8" ht="29">
       <c r="A170" s="35"/>
       <c r="B170" s="35"/>
       <c r="C170" s="35"/>
@@ -55925,7 +55919,7 @@
       <c r="G206" s="35"/>
       <c r="H206" s="35"/>
     </row>
-    <row r="207" spans="1:8" s="114" customFormat="1" ht="29">
+    <row r="207" spans="1:8" ht="29">
       <c r="A207" s="35"/>
       <c r="B207" s="35"/>
       <c r="C207" s="35"/>
@@ -55985,7 +55979,7 @@
       <c r="G211" s="35"/>
       <c r="H211" s="35"/>
     </row>
-    <row r="212" spans="1:9" s="114" customFormat="1" ht="29">
+    <row r="212" spans="1:9" ht="29">
       <c r="A212" s="35"/>
       <c r="B212" s="35"/>
       <c r="C212" s="35"/>
@@ -55997,7 +55991,7 @@
       <c r="G212" s="35"/>
       <c r="H212" s="35"/>
     </row>
-    <row r="213" spans="1:9" s="114" customFormat="1" ht="29">
+    <row r="213" spans="1:9" ht="29">
       <c r="A213" s="35"/>
       <c r="B213" s="35"/>
       <c r="C213" s="35"/>
@@ -56009,7 +56003,7 @@
       <c r="G213" s="35"/>
       <c r="H213" s="35"/>
     </row>
-    <row r="214" spans="1:9" s="114" customFormat="1" ht="29">
+    <row r="214" spans="1:9" ht="29">
       <c r="A214" s="35"/>
       <c r="B214" s="35"/>
       <c r="C214" s="35"/>
@@ -56021,7 +56015,7 @@
       <c r="G214" s="35"/>
       <c r="H214" s="35"/>
     </row>
-    <row r="215" spans="1:9" s="114" customFormat="1" ht="29">
+    <row r="215" spans="1:9" ht="29">
       <c r="A215" s="35"/>
       <c r="B215" s="35"/>
       <c r="C215" s="35"/>
@@ -56543,7 +56537,7 @@
       <c r="G256" s="35"/>
       <c r="H256" s="35"/>
     </row>
-    <row r="257" spans="1:8" s="114" customFormat="1" ht="43.5" customHeight="1">
+    <row r="257" spans="1:8" ht="43.5" customHeight="1">
       <c r="A257" s="35"/>
       <c r="B257" s="35"/>
       <c r="C257" s="35"/>
@@ -56555,12 +56549,102 @@
       <c r="G257" s="35"/>
       <c r="H257" s="35"/>
     </row>
+    <row r="259" spans="1:8" ht="29" customHeight="1">
+      <c r="A259" s="36"/>
+      <c r="B259" s="36"/>
+      <c r="C259" s="36"/>
+      <c r="D259" s="35"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="36"/>
+      <c r="G259" s="36"/>
+      <c r="H259" s="36"/>
+    </row>
+    <row r="260" spans="1:8" ht="29" customHeight="1">
+      <c r="A260" s="36"/>
+      <c r="B260" s="36"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="35"/>
+      <c r="E260" s="35"/>
+      <c r="F260" s="36"/>
+      <c r="G260" s="36"/>
+      <c r="H260" s="36"/>
+    </row>
+    <row r="261" spans="1:8" ht="29" customHeight="1">
+      <c r="A261" s="36"/>
+      <c r="B261" s="36"/>
+      <c r="C261" s="36"/>
+      <c r="D261" s="35"/>
+      <c r="E261" s="35"/>
+      <c r="F261" s="36"/>
+      <c r="G261" s="36"/>
+      <c r="H261" s="36"/>
+    </row>
+    <row r="262" spans="1:8" ht="29" customHeight="1">
+      <c r="A262" s="36"/>
+      <c r="B262" s="36"/>
+      <c r="C262" s="36"/>
+      <c r="D262" s="35"/>
+      <c r="E262" s="35"/>
+      <c r="F262" s="36"/>
+      <c r="G262" s="36"/>
+      <c r="H262" s="36"/>
+    </row>
+    <row r="263" spans="1:8" ht="29" customHeight="1">
+      <c r="A263" s="36"/>
+      <c r="B263" s="36"/>
+      <c r="C263" s="36"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="36"/>
+      <c r="G263" s="36"/>
+      <c r="H263" s="36"/>
+    </row>
+    <row r="264" spans="1:8" ht="29" customHeight="1">
+      <c r="A264" s="36"/>
+      <c r="B264" s="36"/>
+      <c r="C264" s="36"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="36"/>
+      <c r="G264" s="36"/>
+      <c r="H264" s="36"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="36"/>
+      <c r="B265" s="36"/>
+      <c r="C265" s="36"/>
+      <c r="D265" s="35"/>
+      <c r="E265" s="35"/>
+      <c r="F265" s="36"/>
+      <c r="G265" s="36"/>
+      <c r="H265" s="36"/>
+    </row>
+    <row r="266" spans="1:8" ht="29" customHeight="1">
+      <c r="A266" s="36"/>
+      <c r="B266" s="36"/>
+      <c r="C266" s="36"/>
+      <c r="D266" s="35"/>
+      <c r="E266" s="35"/>
+      <c r="F266" s="36"/>
+      <c r="G266" s="36"/>
+      <c r="H266" s="36"/>
+    </row>
+    <row r="267" spans="1:8" ht="29" customHeight="1">
+      <c r="A267" s="36"/>
+      <c r="B267" s="36"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="35"/>
+      <c r="E267" s="35"/>
+      <c r="F267" s="36"/>
+      <c r="G267" s="36"/>
+      <c r="H267" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E78:F1048576 E1:E68 E70:E76 F1:F76 D1:D1048576 G1:XFD1048576 B1:B1048576" xr:uid="{484D6934-AB80-1B41-9A67-95A4F3FCE6DE}"/>
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E1:E68 E70:E76 F1:F76 B1:B1048576 G1:XFD258 D1:D258 E78:F258 D259:XFD1048576" xr:uid="{484D6934-AB80-1B41-9A67-95A4F3FCE6DE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56571,13 +56655,13 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
+          <xm:sqref>A3:A258 A268:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{6F0286A0-0445-A048-812B-C4A2A64A3185}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
+          <xm:sqref>C3:C258 C268:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -56601,25 +56685,25 @@
     <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="59.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="130" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126" t="s">
         <v>853</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="40" t="s">
@@ -56982,7 +57066,7 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="24.453125" customWidth="1"/>
     <col min="7" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -56992,22 +57076,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="210.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="123" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="127" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="123" t="s">
         <v>1324</v>
       </c>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="129"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -57238,9 +57322,9 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.1796875" customWidth="1"/>
@@ -57248,23 +57332,23 @@
     <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.1796875" customWidth="1"/>
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.54296875" customWidth="1"/>
+    <col min="10" max="19" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="117" t="s">
         <v>930</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="133" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="129" t="s">
         <v>1350</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9" ht="29">
       <c r="A2" s="30" t="s">

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02C3BF7-5F20-9A45-8784-3860CA78FDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37D7E4A-F177-704F-B851-90C54220E333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6937,177 +6937,6 @@
   </si>
   <si>
     <r>
-      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"DHCP option" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Will be created in the same compartment as the VCN. Specify the same value as in Subnets Tab(Case-sensitive).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Server Type" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">field is case-sensitive.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Note </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- "Custom DNS Server" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cannot be left empty if the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Server Type" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CustomDnsServer.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">DRG Route Rules will be exported here for DRGv2. Only Static Rules will be exported. Dynamic Rules generated via route distribution statements will be skipped.
 "Defined Tags" - </t>
     </r>
@@ -10958,6 +10787,9 @@
       </rPr>
       <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
     </r>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -17060,7 +16892,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
   </sheetData>
@@ -17152,7 +16984,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1325</v>
+        <v>1416</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -17449,7 +17281,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -18174,7 +18006,7 @@
         <v>892</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>525</v>
@@ -23581,7 +23413,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -23705,7 +23537,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -23809,7 +23641,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -23961,7 +23793,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -26466,7 +26298,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -26866,7 +26698,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -27050,7 +26882,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -27292,7 +27124,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>430</v>
@@ -27490,7 +27322,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -27500,7 +27332,7 @@
       <c r="G1" s="135"/>
       <c r="H1" s="136"/>
       <c r="I1" s="123" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J1" s="124"/>
       <c r="K1" s="124"/>
@@ -27560,7 +27392,7 @@
         <v>633</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="P2" s="30" t="s">
         <v>92</v>
@@ -27712,7 +27544,7 @@
         <v>88</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V5" s="53" t="s">
         <v>410</v>
@@ -27768,7 +27600,7 @@
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="53" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="V6" s="52"/>
     </row>
@@ -27959,7 +27791,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -28184,7 +28016,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -28614,7 +28446,7 @@
       <c r="M1" s="124"/>
       <c r="N1" s="125"/>
       <c r="O1" s="134" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="P1" s="135"/>
       <c r="Q1" s="135"/>
@@ -29058,7 +28890,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -31378,7 +31210,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -31854,7 +31686,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -32077,7 +31909,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -35473,7 +35305,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -38389,7 +38221,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -38451,16 +38283,16 @@
         <v>600</v>
       </c>
       <c r="K2" s="65" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>1363</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>1364</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>1365</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>1366</v>
       </c>
       <c r="O2" s="65" t="s">
         <v>601</v>
@@ -38556,7 +38388,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="91" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="O4" s="91" t="b">
         <v>1</v>
@@ -42844,7 +42676,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -42896,10 +42728,10 @@
         <v>1227</v>
       </c>
       <c r="K2" s="109" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L2" s="110" t="s">
         <v>1361</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>1362</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>1228</v>
@@ -43122,7 +42954,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -43229,7 +43061,7 @@
         <v>1284</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>1263</v>
@@ -43278,7 +43110,7 @@
         <v>1284</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>1312</v>
@@ -44620,7 +44452,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -44637,7 +44469,7 @@
         <v>1208</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1209</v>
@@ -45631,7 +45463,7 @@
         <v>524</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>1316</v>
@@ -45757,7 +45589,7 @@
         <v>980</v>
       </c>
       <c r="AT1" s="55" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AU1" s="55" t="s">
         <v>525</v>
@@ -52753,7 +52585,7 @@
         <v>1318</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -53251,7 +53083,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -53667,7 +53499,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -53679,7 +53511,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -53691,7 +53523,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -53751,7 +53583,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -53775,7 +53607,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -53835,7 +53667,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -54195,7 +54027,7 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
@@ -54219,7 +54051,7 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -54231,7 +54063,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -54243,7 +54075,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -54255,7 +54087,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -54267,7 +54099,7 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -54291,7 +54123,7 @@
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F77" s="112"/>
       <c r="G77" s="35"/>
@@ -54347,7 +54179,7 @@
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -54359,7 +54191,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -54575,7 +54407,7 @@
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -54587,7 +54419,7 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -54599,7 +54431,7 @@
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -54611,7 +54443,7 @@
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -54695,7 +54527,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -54707,7 +54539,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -54743,7 +54575,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -54755,7 +54587,7 @@
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -54779,7 +54611,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -54791,7 +54623,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -54803,7 +54635,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -54815,7 +54647,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -54883,7 +54715,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -55347,7 +55179,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -55359,7 +55191,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -55371,7 +55203,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -55419,7 +55251,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -55431,7 +55263,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -55891,7 +55723,7 @@
       <c r="C207" s="35"/>
       <c r="D207" s="35"/>
       <c r="E207" s="35" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="35"/>
@@ -55951,7 +55783,7 @@
       <c r="C212" s="35"/>
       <c r="D212" s="35"/>
       <c r="E212" s="35" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F212" s="35"/>
       <c r="G212" s="35"/>
@@ -55963,7 +55795,7 @@
       <c r="C213" s="35"/>
       <c r="D213" s="35"/>
       <c r="E213" s="35" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F213" s="35"/>
       <c r="G213" s="35"/>
@@ -55975,7 +55807,7 @@
       <c r="C214" s="35"/>
       <c r="D214" s="35"/>
       <c r="E214" s="35" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F214" s="35"/>
       <c r="G214" s="35"/>
@@ -55987,7 +55819,7 @@
       <c r="C215" s="35"/>
       <c r="D215" s="35"/>
       <c r="E215" s="35" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
@@ -56485,7 +56317,7 @@
         <v>851</v>
       </c>
       <c r="E255" s="35" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F255" s="35"/>
       <c r="G255" s="35"/>
@@ -56497,7 +56329,7 @@
       <c r="C256" s="35"/>
       <c r="D256" s="35"/>
       <c r="E256" s="35" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F256" s="35"/>
       <c r="G256" s="35"/>
@@ -56509,7 +56341,7 @@
       <c r="C257" s="35"/>
       <c r="D257" s="35"/>
       <c r="E257" s="35" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F257" s="35"/>
       <c r="G257" s="35"/>
@@ -57311,7 +57143,7 @@
       <c r="E1" s="117"/>
       <c r="F1" s="117"/>
       <c r="G1" s="129" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1" s="129"/>
       <c r="I1" s="129"/>
@@ -57330,7 +57162,7 @@
         <v>490</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>491</v>
@@ -57457,13 +57289,13 @@
         <v>454</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -57477,16 +57309,16 @@
         <v>337</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>1346</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="36" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>1347</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>1348</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37D7E4A-F177-704F-B851-90C54220E333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628F8610-7BA1-3C4E-9DC3-3685A1B8EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1426">
   <si>
     <t>Region</t>
   </si>
@@ -10070,12 +10070,6 @@
     <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to read cloud-exadata-infrastructures in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use cloud-vmclusters in compartment Database</t>
-  </si>
-  <si>
     <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
   </si>
   <si>
@@ -10392,51 +10386,6 @@
   </si>
   <si>
     <t>User Description</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release - v12
-Introduced new service - Network Sources, 
-Enhancements - Added support for multiple Exa VM Clusters, OCVS Standard Shapes, 
-NLB fix, Instance Terraform
-</t>
-    </r>
-  </si>
-  <si>
-    <t>allow service cloudguard to manage cloudevents-rules in tenancy where target.rule.type='managed'</t>
   </si>
   <si>
     <r>
@@ -10790,6 +10739,80 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3-OCI Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
   </si>
 </sst>
 </file>
@@ -11448,7 +11471,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11818,6 +11841,9 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -16881,7 +16907,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16984,7 +17010,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -27291,7 +27317,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27332,7 +27358,7 @@
       <c r="G1" s="135"/>
       <c r="H1" s="136"/>
       <c r="I1" s="123" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="J1" s="124"/>
       <c r="K1" s="124"/>
@@ -31210,7 +31236,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -44452,7 +44478,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -44469,7 +44495,7 @@
         <v>1208</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1209</v>
@@ -53134,9 +53160,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -53945,125 +53971,133 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
     </row>
-    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>498</v>
+        <v>1414</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>1025</v>
+        <v>1415</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>1026</v>
+        <v>1416</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>1027</v>
+        <v>1417</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
     </row>
-    <row r="66" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>1028</v>
+        <v>1418</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>1029</v>
+        <v>1419</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
     </row>
-    <row r="68" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>1030</v>
+        <v>498</v>
       </c>
       <c r="C68" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>832</v>
+        <v>1025</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>1414</v>
+        <v>1027</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
     </row>
-    <row r="70" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
     </row>
-    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>1376</v>
+        <v>1029</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
     </row>
-    <row r="72" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
+    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>832</v>
+      </c>
       <c r="E72" s="35" t="s">
-        <v>1377</v>
+        <v>1031</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -54075,7 +54109,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>1378</v>
+        <v>1032</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -54087,7 +54121,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -54099,87 +54133,87 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="B76" s="35"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>1033</v>
+        <v>1378</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
     </row>
-    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>1381</v>
-      </c>
-      <c r="F77" s="112"/>
+        <v>1379</v>
+      </c>
+      <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
     </row>
-    <row r="78" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>701</v>
-      </c>
+    <row r="78" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>674</v>
+        <v>1380</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
     </row>
-    <row r="79" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>675</v>
+        <v>1033</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
     </row>
-    <row r="80" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>676</v>
-      </c>
-      <c r="F80" s="35"/>
+        <v>1381</v>
+      </c>
+      <c r="F80" s="112"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
     </row>
-    <row r="81" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+    <row r="81" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>701</v>
+      </c>
       <c r="E81" s="35" t="s">
-        <v>1408</v>
+        <v>674</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -54191,7 +54225,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>1409</v>
+        <v>675</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -54203,7 +54237,7 @@
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
@@ -54214,20 +54248,20 @@
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
-      <c r="E84" s="35" t="s">
-        <v>678</v>
+      <c r="E84" s="33" t="s">
+        <v>1406</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
     </row>
-    <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="35"/>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
-      <c r="E85" s="35" t="s">
-        <v>679</v>
+      <c r="E85" s="33" t="s">
+        <v>1407</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -54238,8 +54272,8 @@
       <c r="B86" s="35"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
-      <c r="E86" s="35" t="s">
-        <v>680</v>
+      <c r="E86" s="33" t="s">
+        <v>677</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
@@ -54250,32 +54284,32 @@
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
-      <c r="E87" s="35" t="s">
-        <v>681</v>
+      <c r="E87" s="33" t="s">
+        <v>678</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
     </row>
-    <row r="88" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
-      <c r="E88" s="35" t="s">
-        <v>682</v>
+      <c r="E88" s="33" t="s">
+        <v>679</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
     </row>
-    <row r="89" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
-      <c r="E89" s="35" t="s">
-        <v>683</v>
+      <c r="E89" s="33" t="s">
+        <v>680</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -54286,32 +54320,32 @@
       <c r="B90" s="35"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
-      <c r="E90" s="35" t="s">
-        <v>684</v>
+      <c r="E90" s="33" t="s">
+        <v>681</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
     </row>
-    <row r="91" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="35"/>
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
-      <c r="E91" s="35" t="s">
-        <v>685</v>
+      <c r="E91" s="33" t="s">
+        <v>682</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
     </row>
-    <row r="92" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="35"/>
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
-      <c r="E92" s="35" t="s">
-        <v>686</v>
+      <c r="E92" s="33" t="s">
+        <v>683</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -54322,8 +54356,8 @@
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
-      <c r="E93" s="35" t="s">
-        <v>687</v>
+      <c r="E93" s="33" t="s">
+        <v>684</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -54334,8 +54368,8 @@
       <c r="B94" s="35"/>
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
-      <c r="E94" s="35" t="s">
-        <v>688</v>
+      <c r="E94" s="33" t="s">
+        <v>685</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -54346,44 +54380,44 @@
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
-      <c r="E95" s="35" t="s">
-        <v>689</v>
+      <c r="E95" s="33" t="s">
+        <v>686</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
     </row>
-    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="35"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
-      <c r="E96" s="35" t="s">
-        <v>690</v>
+      <c r="E96" s="33" t="s">
+        <v>687</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
     </row>
-    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="35"/>
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
-      <c r="E97" s="35" t="s">
-        <v>691</v>
+      <c r="E97" s="33" t="s">
+        <v>688</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
     </row>
-    <row r="98" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="35"/>
       <c r="B98" s="35"/>
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
-      <c r="E98" s="35" t="s">
-        <v>692</v>
+      <c r="E98" s="33" t="s">
+        <v>689</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -54394,8 +54428,8 @@
       <c r="B99" s="35"/>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
-      <c r="E99" s="35" t="s">
-        <v>693</v>
+      <c r="E99" s="33" t="s">
+        <v>690</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -54406,8 +54440,8 @@
       <c r="B100" s="35"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
-      <c r="E100" s="35" t="s">
-        <v>1382</v>
+      <c r="E100" s="33" t="s">
+        <v>691</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -54418,8 +54452,8 @@
       <c r="B101" s="35"/>
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
-      <c r="E101" s="35" t="s">
-        <v>1383</v>
+      <c r="E101" s="33" t="s">
+        <v>692</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -54430,8 +54464,8 @@
       <c r="B102" s="35"/>
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
-      <c r="E102" s="35" t="s">
-        <v>1384</v>
+      <c r="E102" s="33" t="s">
+        <v>693</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -54442,8 +54476,8 @@
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
-      <c r="E103" s="35" t="s">
-        <v>1385</v>
+      <c r="E103" s="33" t="s">
+        <v>1382</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -54454,8 +54488,8 @@
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
-      <c r="E104" s="35" t="s">
-        <v>694</v>
+      <c r="E104" s="33" t="s">
+        <v>1383</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -54466,8 +54500,8 @@
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
-      <c r="E105" s="35" t="s">
-        <v>695</v>
+      <c r="E105" s="33" t="s">
+        <v>1384</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -54478,8 +54512,8 @@
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
-      <c r="E106" s="35" t="s">
-        <v>1315</v>
+      <c r="E106" s="33" t="s">
+        <v>1385</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -54490,8 +54524,8 @@
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
-      <c r="E107" s="35" t="s">
-        <v>696</v>
+      <c r="E107" s="33" t="s">
+        <v>694</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -54502,8 +54536,8 @@
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
-      <c r="E108" s="35" t="s">
-        <v>697</v>
+      <c r="E108" s="33" t="s">
+        <v>695</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -54514,8 +54548,8 @@
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
-      <c r="E109" s="35" t="s">
-        <v>698</v>
+      <c r="E109" s="33" t="s">
+        <v>1315</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -54526,8 +54560,8 @@
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
-      <c r="E110" s="35" t="s">
-        <v>1386</v>
+      <c r="E110" s="33" t="s">
+        <v>696</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -54538,8 +54572,8 @@
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
-      <c r="E111" s="35" t="s">
-        <v>1387</v>
+      <c r="E111" s="33" t="s">
+        <v>697</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -54550,8 +54584,8 @@
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
-      <c r="E112" s="35" t="s">
-        <v>699</v>
+      <c r="E112" s="33" t="s">
+        <v>698</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
@@ -54562,8 +54596,8 @@
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
-      <c r="E113" s="35" t="s">
-        <v>700</v>
+      <c r="E113" s="33" t="s">
+        <v>1386</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -54574,8 +54608,8 @@
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
-      <c r="E114" s="35" t="s">
-        <v>1388</v>
+      <c r="E114" s="33" t="s">
+        <v>1387</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -54586,8 +54620,8 @@
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
-      <c r="E115" s="35" t="s">
-        <v>1389</v>
+      <c r="E115" s="33" t="s">
+        <v>699</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -54598,8 +54632,8 @@
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
-      <c r="E116" s="35" t="s">
-        <v>690</v>
+      <c r="E116" s="33" t="s">
+        <v>700</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -54611,7 +54645,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -54623,7 +54657,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -54635,7 +54669,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -54647,7 +54681,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -54658,7 +54692,7 @@
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
       <c r="D121" s="35"/>
-      <c r="E121" s="35" t="s">
+      <c r="E121" s="33" t="s">
         <v>693</v>
       </c>
       <c r="F121" s="35"/>
@@ -54715,7 +54749,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -54865,7 +54899,7 @@
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
     </row>
-    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="35"/>
       <c r="B138" s="35"/>
       <c r="C138" s="35"/>
@@ -55179,7 +55213,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -55191,7 +55225,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -55203,7 +55237,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -55251,7 +55285,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -55263,7 +55297,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -55329,7 +55363,7 @@
       <c r="A175" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="74" t="s">
+      <c r="B175" s="152" t="s">
         <v>452</v>
       </c>
       <c r="C175" s="35" t="s">
@@ -55723,7 +55757,7 @@
       <c r="C207" s="35"/>
       <c r="D207" s="35"/>
       <c r="E207" s="35" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="35"/>
@@ -55783,7 +55817,7 @@
       <c r="C212" s="35"/>
       <c r="D212" s="35"/>
       <c r="E212" s="35" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F212" s="35"/>
       <c r="G212" s="35"/>
@@ -55795,7 +55829,7 @@
       <c r="C213" s="35"/>
       <c r="D213" s="35"/>
       <c r="E213" s="35" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F213" s="35"/>
       <c r="G213" s="35"/>
@@ -55807,7 +55841,7 @@
       <c r="C214" s="35"/>
       <c r="D214" s="35"/>
       <c r="E214" s="35" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F214" s="35"/>
       <c r="G214" s="35"/>
@@ -55819,7 +55853,7 @@
       <c r="C215" s="35"/>
       <c r="D215" s="35"/>
       <c r="E215" s="35" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
@@ -56247,89 +56281,89 @@
       <c r="G250" s="36"/>
       <c r="H250" s="36"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A251" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B251" s="36"/>
-      <c r="C251" s="36"/>
-      <c r="D251" s="36"/>
-      <c r="E251" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="B251" s="36" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C251" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D251" s="35" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E251" s="35" t="s">
+        <v>1422</v>
+      </c>
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
       <c r="H251" s="36"/>
     </row>
-    <row r="252" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="35" t="s">
-        <v>849</v>
-      </c>
-      <c r="C252" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="D252" s="35" t="s">
-        <v>845</v>
-      </c>
+    <row r="252" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A252" s="36"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="36"/>
+      <c r="D252" s="35"/>
       <c r="E252" s="35" t="s">
-        <v>846</v>
-      </c>
-      <c r="F252" s="35"/>
-      <c r="G252" s="35"/>
-      <c r="H252" s="35"/>
-    </row>
-    <row r="253" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="35"/>
-      <c r="B253" s="35"/>
-      <c r="C253" s="35"/>
+        <v>1423</v>
+      </c>
+      <c r="F252" s="36"/>
+      <c r="G252" s="36"/>
+      <c r="H252" s="36"/>
+    </row>
+    <row r="253" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A253" s="36"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="36"/>
       <c r="D253" s="35"/>
       <c r="E253" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="F253" s="35"/>
-      <c r="G253" s="35"/>
-      <c r="H253" s="35"/>
-    </row>
-    <row r="254" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="35"/>
-      <c r="B254" s="35"/>
-      <c r="C254" s="35"/>
+        <v>1424</v>
+      </c>
+      <c r="F253" s="36"/>
+      <c r="G253" s="36"/>
+      <c r="H253" s="36"/>
+    </row>
+    <row r="254" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A254" s="36"/>
+      <c r="B254" s="36"/>
+      <c r="C254" s="36"/>
       <c r="D254" s="35"/>
       <c r="E254" s="35" t="s">
-        <v>848</v>
-      </c>
-      <c r="F254" s="35"/>
-      <c r="G254" s="35"/>
-      <c r="H254" s="35"/>
-    </row>
-    <row r="255" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="35" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F254" s="36"/>
+      <c r="G254" s="36"/>
+      <c r="H254" s="36"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="36"/>
+      <c r="C255" s="36"/>
+      <c r="D255" s="36"/>
+      <c r="E255" s="36"/>
+      <c r="F255" s="36"/>
+      <c r="G255" s="36"/>
+      <c r="H255" s="36"/>
+    </row>
+    <row r="256" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B255" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="C255" s="35" t="s">
+      <c r="B256" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="C256" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="D255" s="35" t="s">
-        <v>851</v>
-      </c>
-      <c r="E255" s="35" t="s">
-        <v>1405</v>
-      </c>
-      <c r="F255" s="35"/>
-      <c r="G255" s="35"/>
-      <c r="H255" s="35"/>
-    </row>
-    <row r="256" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="35"/>
-      <c r="B256" s="35"/>
-      <c r="C256" s="35"/>
-      <c r="D256" s="35"/>
+      <c r="D256" s="35" t="s">
+        <v>845</v>
+      </c>
       <c r="E256" s="35" t="s">
-        <v>1406</v>
+        <v>846</v>
       </c>
       <c r="F256" s="35"/>
       <c r="G256" s="35"/>
@@ -56341,51 +56375,67 @@
       <c r="C257" s="35"/>
       <c r="D257" s="35"/>
       <c r="E257" s="35" t="s">
-        <v>1407</v>
+        <v>847</v>
       </c>
       <c r="F257" s="35"/>
       <c r="G257" s="35"/>
       <c r="H257" s="35"/>
     </row>
-    <row r="259" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="36"/>
-      <c r="B259" s="36"/>
-      <c r="C259" s="36"/>
-      <c r="D259" s="35"/>
-      <c r="E259" s="35"/>
-      <c r="F259" s="36"/>
-      <c r="G259" s="36"/>
-      <c r="H259" s="36"/>
-    </row>
-    <row r="260" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="36"/>
-      <c r="B260" s="36"/>
-      <c r="C260" s="36"/>
+    <row r="258" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="35"/>
+      <c r="B258" s="35"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="35" t="s">
+        <v>848</v>
+      </c>
+      <c r="F258" s="35"/>
+      <c r="G258" s="35"/>
+      <c r="H258" s="35"/>
+    </row>
+    <row r="259" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="C259" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="D259" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="E259" s="35" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F259" s="35"/>
+      <c r="G259" s="35"/>
+      <c r="H259" s="35"/>
+    </row>
+    <row r="260" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="35"/>
       <c r="D260" s="35"/>
-      <c r="E260" s="35"/>
-      <c r="F260" s="36"/>
-      <c r="G260" s="36"/>
-      <c r="H260" s="36"/>
-    </row>
-    <row r="261" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="36"/>
-      <c r="B261" s="36"/>
-      <c r="C261" s="36"/>
+      <c r="E260" s="35" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F260" s="35"/>
+      <c r="G260" s="35"/>
+      <c r="H260" s="35"/>
+    </row>
+    <row r="261" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="35"/>
+      <c r="B261" s="35"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="35"/>
-      <c r="E261" s="35"/>
-      <c r="F261" s="36"/>
-      <c r="G261" s="36"/>
-      <c r="H261" s="36"/>
-    </row>
-    <row r="262" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="36"/>
-      <c r="B262" s="36"/>
-      <c r="C262" s="36"/>
-      <c r="D262" s="35"/>
-      <c r="E262" s="35"/>
-      <c r="F262" s="36"/>
-      <c r="G262" s="36"/>
-      <c r="H262" s="36"/>
+      <c r="E261" s="35" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F261" s="35"/>
+      <c r="G261" s="35"/>
+      <c r="H261" s="35"/>
     </row>
     <row r="263" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="36"/>
@@ -56407,7 +56457,7 @@
       <c r="G264" s="36"/>
       <c r="H264" s="36"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="36"/>
       <c r="B265" s="36"/>
       <c r="C265" s="36"/>
@@ -56437,12 +56487,53 @@
       <c r="G267" s="36"/>
       <c r="H267" s="36"/>
     </row>
+    <row r="268" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="36"/>
+      <c r="B268" s="36"/>
+      <c r="C268" s="36"/>
+      <c r="D268" s="35"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="36"/>
+      <c r="G268" s="36"/>
+      <c r="H268" s="36"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="36"/>
+      <c r="B269" s="36"/>
+      <c r="C269" s="36"/>
+      <c r="D269" s="35"/>
+      <c r="E269" s="35"/>
+      <c r="F269" s="36"/>
+      <c r="G269" s="36"/>
+      <c r="H269" s="36"/>
+    </row>
+    <row r="270" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="36"/>
+      <c r="B270" s="36"/>
+      <c r="C270" s="36"/>
+      <c r="D270" s="35"/>
+      <c r="E270" s="35"/>
+      <c r="F270" s="36"/>
+      <c r="G270" s="36"/>
+      <c r="H270" s="36"/>
+    </row>
+    <row r="271" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="36"/>
+      <c r="B271" s="36"/>
+      <c r="C271" s="36"/>
+      <c r="D271" s="35"/>
+      <c r="E271" s="35"/>
+      <c r="F271" s="36"/>
+      <c r="G271" s="36"/>
+      <c r="H271" s="36"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E1:E68 E70:E76 F1:F76 B1:B1048576 G1:XFD258 D1:D258 E78:F258 D259:XFD1048576" xr:uid="{484D6934-AB80-1B41-9A67-95A4F3FCE6DE}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 D263:XFD1048576 E1:E63 E68:E79 F1:F79 D1:D262 B1:B1048576 G1:XFD262 F81:F262 E81:E250 E255:E262" xr:uid="{484D6934-AB80-1B41-9A67-95A4F3FCE6DE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E64:E67 E251:E254" xr:uid="{7D4A9492-6FC2-664A-92E2-C139DD64FB60}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56453,13 +56544,13 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A258 A268:A1048576</xm:sqref>
+          <xm:sqref>A272:A1048576 A3:A262</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{6F0286A0-0445-A048-812B-C4A2A64A3185}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C258 C268:C1048576</xm:sqref>
+          <xm:sqref>C272:C1048576 C3:C262</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628F8610-7BA1-3C4E-9DC3-3685A1B8EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8461E4D5-2A42-8246-9C4B-A59CFFD797AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="1427">
   <si>
     <t>Region</t>
   </si>
@@ -10813,6 +10813,9 @@
   </si>
   <si>
     <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>fwl-vcn_fwl-mgmt</t>
   </si>
 </sst>
 </file>
@@ -11471,7 +11474,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11841,9 +11844,6 @@
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -27317,7 +27317,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27442,7 +27442,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>314</v>
       </c>
@@ -27459,7 +27459,7 @@
         <v>336</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>582</v>
+        <v>1426</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
@@ -55363,7 +55363,7 @@
       <c r="A175" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="152" t="s">
+      <c r="B175" s="35" t="s">
         <v>452</v>
       </c>
       <c r="C175" s="35" t="s">

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8461E4D5-2A42-8246-9C4B-A59CFFD797AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC17C70-4C35-434E-ADAF-6AF3518D9334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10741,6 +10741,45 @@
     <t>s</t>
   </si>
   <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>fwl-vcn_fwl-mgmt</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -10754,7 +10793,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3-OCI Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -10775,47 +10814,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.1.0</t>
+      <t>Release - v2024.2.0</t>
     </r>
-  </si>
-  <si>
-    <t>Basic-Access-Policy</t>
-  </si>
-  <si>
-    <t>Policy to allow basic access</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>OKE-Clusters-Policy</t>
-  </si>
-  <si>
-    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
-  </si>
-  <si>
-    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>fwl-vcn_fwl-mgmt</t>
   </si>
 </sst>
 </file>
@@ -16907,7 +16907,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16918,7 +16918,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
@@ -27459,7 +27459,7 @@
         <v>336</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
@@ -53976,16 +53976,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D64" s="35" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E64" s="35" t="s">
         <v>1415</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>1416</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -53997,7 +53997,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -54009,7 +54009,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -54021,7 +54021,7 @@
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -56286,16 +56286,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C251" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D251" s="35" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E251" s="35" t="s">
         <v>1421</v>
-      </c>
-      <c r="E251" s="35" t="s">
-        <v>1422</v>
       </c>
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
@@ -56307,7 +56307,7 @@
       <c r="C252" s="36"/>
       <c r="D252" s="35"/>
       <c r="E252" s="35" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F252" s="36"/>
       <c r="G252" s="36"/>
@@ -56319,7 +56319,7 @@
       <c r="C253" s="36"/>
       <c r="D253" s="35"/>
       <c r="E253" s="35" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F253" s="36"/>
       <c r="G253" s="36"/>
@@ -56331,7 +56331,7 @@
       <c r="C254" s="36"/>
       <c r="D254" s="35"/>
       <c r="E254" s="35" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F254" s="36"/>
       <c r="G254" s="36"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC17C70-4C35-434E-ADAF-6AF3518D9334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536F28B-89E4-F34C-A055-F15F5314BCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -5236,164 +5236,6 @@
     <t>Pod Security policy/API Endpoint Pub Address</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Allowed values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter subnet name as :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ocid
-"API Endpoint Pub Address" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"SSH Key Var Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>IMAGE::Linux</t>
   </si>
   <si>
@@ -9313,275 +9155,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently. CD3 Automation toolkit will not export instances launched by OKE.
-Please create a column called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cloud Init Script </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to execute cloud-init. The script file should be placed under scripts directory and ame of the script should be specified in the column.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Pub Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SSH Key Var Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Remote Execute" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To execute script(Ansible/Shell) remotely during provisioning. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Format is: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">bastion_ip@&lt;scriptname&gt; 
-                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use file extension as .sh for shell scripts and .yaml or .yml for ansible scripts.
-                                      Also update the private keys to connect to bastion  and the target server. Update the files bastion-ssh-key  
-                                      and server-ssh-key under scripts folder.
-                                      Please skip bastion_ip if there is direct connectivity with target servers via VPN. See Sample data in Rows 5 and 6.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Source Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
-                                    Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing image ocid under instance_source_ocids&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing the market place image name under instance_source_ocids&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootVolume::&lt;variable  containing boot volume ocid under instance_source_ocids&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -10738,9 +10311,6 @@
     </r>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Basic-Access-Policy</t>
   </si>
   <si>
@@ -10815,6 +10385,604 @@
         <scheme val="minor"/>
       </rPr>
       <t>Release - v2024.2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"DHCP option" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Will be created in the same compartment as the VCN. Specify the same value as in Subnets Tab(Case-sensitive).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Server Type" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">field is case-sensitive.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- "Custom DNS Server" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot be left empty if the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Server Type" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CustomDnsServer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently. CD3 Automation toolkit will not export instances launched by OKE.
+Please create a column called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cloud Init Script </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to execute cloud-init. The script file should be placed under scripts directory and ame of the script should be specified in the column.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Pub Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SSH Key Var Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the key defined under variable  instance_ssh_keys in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Remote Execute" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To execute script(Ansible/Shell) remotely during provisioning. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Format is: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bastion_ip@&lt;scriptname&gt; 
+                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use file extension as .sh for shell scripts and .yaml or .yml for ansible scripts.
+                                      Also update the private keys to connect to bastion  and the target server. Update the files bastion-ssh-key  
+                                      and server-ssh-key under scripts folder.
+                                      Please skip bastion_ip if there is direct connectivity with target servers via VPN. See Sample data in Rows 5 and 6.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing image ocid under instance_source_ocids&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing the market place image name under instance_source_ocids&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootVolume::&lt;variable  containing boot volume ocid under instance_source_ocids&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Allowed values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter subnet name as :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ocid
+"API Endpoint Pub Address" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"SSH Key Var Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts SSH Key value or the name name of the key defined under variable  oke_ssh_keys in variables_&lt;region&gt;.tf filecontaining SSH key; Multiple keys should be separated by \n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -11853,6 +12021,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF73FEFF"/>
+      <color rgb="FF00FDFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -16902,7 +17076,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -16918,7 +17092,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>
@@ -16929,10 +17103,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16990,6 +17167,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17010,7 +17190,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -17243,7 +17423,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D1:XFD1048576 A1:C2" xr:uid="{65F16DDC-E856-2A45-B577-0471201C84B1}"/>
+    <dataValidation allowBlank="1" sqref="A2:C2 I1:XFD1048576 D2:H1048576 A1:H1" xr:uid="{65F16DDC-E856-2A45-B577-0471201C84B1}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -17276,10 +17456,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T505"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17307,7 +17490,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -17318,7 +17501,7 @@
       <c r="H1" s="124"/>
       <c r="I1" s="125"/>
       <c r="J1" s="130" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K1" s="130"/>
       <c r="L1" s="130"/>
@@ -17345,7 +17528,7 @@
         <v>310</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>11</v>
@@ -18032,7 +18215,7 @@
         <v>892</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>525</v>
@@ -18117,13 +18300,13 @@
         <v>456</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E16" s="52" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F16" s="52" t="s">
         <v>1213</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>1214</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>51</v>
@@ -18133,7 +18316,7 @@
       </c>
       <c r="I16" s="52"/>
       <c r="J16" s="52" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K16" s="52"/>
       <c r="L16" s="53" t="s">
@@ -18173,13 +18356,13 @@
         <v>456</v>
       </c>
       <c r="D17" s="52" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>1217</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>1218</v>
       </c>
       <c r="G17" s="52" t="s">
         <v>51</v>
@@ -18189,7 +18372,7 @@
       </c>
       <c r="I17" s="52"/>
       <c r="J17" s="52" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="53"/>
@@ -23417,10 +23600,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23439,7 +23625,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -23542,10 +23728,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23563,7 +23752,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -23647,10 +23836,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23667,7 +23859,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -23794,10 +23986,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23819,7 +24014,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -26303,10 +26498,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A93DF95-7B73-44AD-B331-4C9388A5C4D4}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26324,7 +26522,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -26343,22 +26541,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>1245</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>1246</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>1247</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>1248</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>1249</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>1250</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>402</v>
@@ -26385,19 +26583,19 @@
         <v>337</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F4" s="35" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>1288</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>1289</v>
       </c>
       <c r="H4" s="35">
         <v>3600</v>
@@ -26412,19 +26610,19 @@
         <v>337</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F5" s="35" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>1290</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>1291</v>
       </c>
       <c r="H5" s="35">
         <v>300</v>
@@ -26439,19 +26637,19 @@
         <v>337</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H6" s="35">
         <v>300</v>
@@ -26702,10 +26900,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA06BB9A-F783-414D-B0BF-71DEBC6C9332}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26724,7 +26925,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -26751,22 +26952,22 @@
         <v>310</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>1251</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>1252</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>1253</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>1254</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>1255</v>
-      </c>
       <c r="J2" s="30" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>402</v>
@@ -26801,20 +27002,20 @@
         <v>455</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>458</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="33" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K4" s="33"/>
     </row>
@@ -26832,16 +27033,16 @@
         <v>455</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>458</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -26851,13 +27052,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K5 K2:K3 B2:C2 A1:A2" xr:uid="{BD276D38-C137-4D09-BE8C-B38DE724D54E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{7FE49E2F-6AC9-E44C-951A-95E664D2EEA6}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
@@ -26890,10 +27091,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26908,7 +27112,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -27059,6 +27263,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27076,7 +27283,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -27150,7 +27357,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>430</v>
@@ -27314,9 +27521,12 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView showFormulas="1" zoomScale="91" zoomScaleNormal="77" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -27348,7 +27558,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1342</v>
+        <v>1425</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -27358,7 +27568,7 @@
       <c r="G1" s="135"/>
       <c r="H1" s="136"/>
       <c r="I1" s="123" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="J1" s="124"/>
       <c r="K1" s="124"/>
@@ -27418,7 +27628,7 @@
         <v>633</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="P2" s="30" t="s">
         <v>92</v>
@@ -27436,7 +27646,7 @@
         <v>95</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V2" s="30" t="s">
         <v>402</v>
@@ -27459,7 +27669,7 @@
         <v>336</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
@@ -27554,7 +27764,7 @@
       </c>
       <c r="N5" s="52"/>
       <c r="O5" s="52" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="P5" s="52" t="s">
         <v>99</v>
@@ -27570,7 +27780,7 @@
         <v>88</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="V5" s="53" t="s">
         <v>410</v>
@@ -27626,7 +27836,7 @@
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="53" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="V6" s="52"/>
     </row>
@@ -27795,10 +28005,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27817,7 +28030,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -27843,7 +28056,7 @@
         <v>102</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>103</v>
@@ -28014,10 +28227,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28042,7 +28258,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -28415,6 +28631,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F65FE3-2D63-BD4D-9BED-4A49D98211B8}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="86" workbookViewId="0">
@@ -28456,7 +28675,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>978</v>
+        <v>1426</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -28472,7 +28691,7 @@
       <c r="M1" s="124"/>
       <c r="N1" s="125"/>
       <c r="O1" s="134" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="P1" s="135"/>
       <c r="Q1" s="135"/>
@@ -28666,7 +28885,7 @@
         <v>32</v>
       </c>
       <c r="Q4" s="96" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R4" s="96">
         <v>1</v>
@@ -28724,7 +28943,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="53" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R5" s="53">
         <v>2</v>
@@ -28796,7 +29015,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="53" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R6" s="53">
         <v>1</v>
@@ -28892,6 +29111,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28916,7 +29138,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -29190,10 +29412,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29544,10 +29769,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29805,10 +30033,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30531,10 +30762,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30686,10 +30920,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31219,6 +31456,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31236,7 +31476,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -31481,10 +31721,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31690,10 +31933,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31712,7 +31958,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -31906,10 +32152,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31935,7 +32184,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -35313,10 +35562,13 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35331,7 +35583,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -38206,6 +38458,9 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="78" workbookViewId="0">
@@ -38247,7 +38502,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -38309,16 +38564,16 @@
         <v>600</v>
       </c>
       <c r="K2" s="65" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M2" s="65" t="s">
         <v>1362</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>1363</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>1364</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>1365</v>
       </c>
       <c r="O2" s="65" t="s">
         <v>601</v>
@@ -38414,7 +38669,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="91" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="O4" s="91" t="b">
         <v>1</v>
@@ -42685,6 +42940,9 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF364EB-A80B-4954-A799-10024F8EBF59}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42700,9 +42958,9 @@
     <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -42730,43 +42988,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D2" s="106" t="s">
         <v>1221</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="E2" s="106" t="s">
         <v>1222</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="F2" s="31" t="s">
         <v>1223</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="106" t="s">
         <v>1224</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="H2" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>1225</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>1226</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="109" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L2" s="110" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>1227</v>
       </c>
-      <c r="K2" s="109" t="s">
-        <v>1360</v>
-      </c>
-      <c r="L2" s="110" t="s">
-        <v>1361</v>
-      </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>1228</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>1229</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>1230</v>
       </c>
       <c r="P2" s="31" t="s">
         <v>92</v>
@@ -42825,10 +43083,13 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9669D7DD-0E56-481F-B379-DA42ACFDD60E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42843,7 +43104,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -42864,43 +43125,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C2" s="106" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>1231</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>1232</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="31" t="s">
         <v>1233</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="G2" s="31" t="s">
         <v>1234</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>1235</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>1236</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>1237</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>1238</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>1239</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>1240</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>1241</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>1242</v>
       </c>
       <c r="O2" s="48"/>
     </row>
@@ -42950,6 +43211,9 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C16463-982C-411E-AA54-908D5D272C61}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="76" workbookViewId="0">
@@ -42980,7 +43244,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -43008,49 +43272,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>1274</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>1275</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>1276</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>1277</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>1268</v>
-      </c>
-      <c r="L2" s="30" t="s">
+      <c r="M2" s="31" t="s">
         <v>1278</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>1279</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>1280</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>1281</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>1282</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>1283</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>402</v>
@@ -43069,43 +43333,43 @@
         <v>425</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M4" s="32" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="P4" s="32"/>
       <c r="Q4" s="32"/>
@@ -43118,40 +43382,40 @@
         <v>425</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M5" s="32" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
@@ -43165,22 +43429,22 @@
         <v>425</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="32"/>
@@ -43200,38 +43464,38 @@
         <v>425</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M7" s="32" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
@@ -43349,19 +43613,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="100" t="s">
         <v>586</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>1055</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>1056</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>1057</v>
       </c>
       <c r="F1" s="102" t="s">
         <v>590</v>
@@ -43382,25 +43646,25 @@
         <v>584</v>
       </c>
       <c r="L1" s="101" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>1059</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="C2" s="36" t="s">
         <v>1060</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>1061</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>326</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>322</v>
@@ -43415,7 +43679,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K2" s="36">
         <v>1</v>
@@ -43426,34 +43690,34 @@
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="104" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>395</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>1065</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="36" t="s">
         <v>1066</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>1067</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="H3" s="36" t="s">
         <v>1069</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>1070</v>
       </c>
       <c r="I3" s="35">
         <v>40</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K3" s="36">
         <v>2</v>
@@ -43464,24 +43728,24 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F4" s="36"/>
       <c r="H4" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L4" t="s">
         <v>1075</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -43489,77 +43753,77 @@
         <v>331</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>1077</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>1078</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F5" s="36"/>
       <c r="H5" s="36" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L5" t="s">
         <v>1080</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="104" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F6" s="36"/>
       <c r="H6" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="104" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F7" s="36"/>
       <c r="H7" s="36" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="104" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F8" s="36"/>
       <c r="H8" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="104" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
@@ -43567,79 +43831,79 @@
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F9" s="36"/>
       <c r="H9" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="104" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F10" s="36"/>
       <c r="H10" s="36" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F11" s="36"/>
       <c r="H11" s="36" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="104" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="36"/>
       <c r="H12" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="104" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F13" s="36"/>
       <c r="H13" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -43648,483 +43912,483 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="H14" s="36" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H15" s="36" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="36" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="36" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="36" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="36" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="36" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="36" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="36" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="36" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="36" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="36" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="36" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="36" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="36" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="36" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="36" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="36" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="36" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="36" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="36" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="36" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="36" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="36" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="36" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="36" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="36" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="36" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="36" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="36" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="36" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="36" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="36" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="36" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="36" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="36" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="36" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="36" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="36" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="36" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="36" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="36" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="36" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="36" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="36" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="36" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="36" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="36" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="36" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="36" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="36" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="36" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="36" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="36" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="36" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="36" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="36" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="36" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="36" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="36" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="36" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="36" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="36" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="36" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="36" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="36" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="36" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="36" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="36" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="36" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="36" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="36" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="36" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="36" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="36" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="36" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="36" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -44460,6 +44724,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321BE6A1-582D-4AC0-8528-7C6D85062858}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44478,7 +44745,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -44492,19 +44759,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1210</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1211</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>402</v>
@@ -45489,25 +45756,25 @@
         <v>524</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E1" s="64" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>1316</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="64" t="s">
         <v>1317</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="H1" s="64" t="s">
         <v>1318</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="I1" s="64" t="s">
         <v>1319</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>1320</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>1321</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>526</v>
@@ -45612,16 +45879,16 @@
         <v>977</v>
       </c>
       <c r="AS1" s="55" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AT1" s="55" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="AU1" s="55" t="s">
         <v>525</v>
       </c>
       <c r="AV1" s="55" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
@@ -45667,7 +45934,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M2" s="58" t="s">
         <v>38</v>
@@ -45928,7 +46195,7 @@
         <v>1</v>
       </c>
       <c r="AS3" s="57" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AT3" s="57" t="str">
         <f ca="1"/>
@@ -46109,7 +46376,7 @@
       <c r="J5" s="36"/>
       <c r="K5" s="58"/>
       <c r="L5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M5" s="58"/>
       <c r="N5" s="58" t="s">
@@ -46216,7 +46483,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="58"/>
       <c r="L6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
@@ -46566,7 +46833,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="58"/>
       <c r="L10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M10" s="58"/>
       <c r="N10" s="58"/>
@@ -46652,7 +46919,7 @@
       <c r="J11" s="36"/>
       <c r="K11" s="58"/>
       <c r="L11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
@@ -46738,7 +47005,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="58"/>
       <c r="L12" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
@@ -46822,7 +47089,7 @@
       <c r="J13" s="36"/>
       <c r="K13" s="58"/>
       <c r="L13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
@@ -46903,7 +47170,7 @@
       <c r="J14" s="36"/>
       <c r="K14" s="58"/>
       <c r="L14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
@@ -47134,7 +47401,7 @@
       <c r="J17" s="36"/>
       <c r="K17" s="58"/>
       <c r="L17" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
@@ -47211,7 +47478,7 @@
       <c r="J18" s="36"/>
       <c r="K18" s="58"/>
       <c r="L18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
@@ -47288,7 +47555,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="58"/>
       <c r="L19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
@@ -47365,7 +47632,7 @@
       <c r="J20" s="36"/>
       <c r="K20" s="58"/>
       <c r="L20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
@@ -47519,7 +47786,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="58"/>
       <c r="L22" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
@@ -47596,7 +47863,7 @@
       <c r="J23" s="36"/>
       <c r="K23" s="58"/>
       <c r="L23" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
@@ -47673,7 +47940,7 @@
       <c r="J24" s="36"/>
       <c r="K24" s="58"/>
       <c r="L24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
@@ -47827,7 +48094,7 @@
       <c r="J26" s="36"/>
       <c r="K26" s="58"/>
       <c r="L26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
@@ -48058,7 +48325,7 @@
       <c r="J29" s="36"/>
       <c r="K29" s="58"/>
       <c r="L29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
@@ -48212,7 +48479,7 @@
       <c r="J31" s="36"/>
       <c r="K31" s="58"/>
       <c r="L31" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M31" s="58"/>
       <c r="N31" s="58"/>
@@ -48366,7 +48633,7 @@
       <c r="J33" s="36"/>
       <c r="K33" s="58"/>
       <c r="L33" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
@@ -48443,7 +48710,7 @@
       <c r="J34" s="36"/>
       <c r="K34" s="58"/>
       <c r="L34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M34" s="58"/>
       <c r="N34" s="58"/>
@@ -48597,7 +48864,7 @@
       <c r="J36" s="36"/>
       <c r="K36" s="58"/>
       <c r="L36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
@@ -48751,7 +49018,7 @@
       <c r="J38" s="36"/>
       <c r="K38" s="58"/>
       <c r="L38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M38" s="58"/>
       <c r="N38" s="58"/>
@@ -48828,7 +49095,7 @@
       <c r="J39" s="36"/>
       <c r="K39" s="58"/>
       <c r="L39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="M39" s="58"/>
       <c r="N39" s="58"/>
@@ -52608,10 +52875,10 @@
         <v>576</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -53091,6 +53358,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A204119-298C-4530-AAD9-E3A56062902D}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53109,7 +53379,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -53128,10 +53398,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>1305</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>1306</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>402</v>
@@ -53160,10 +53430,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53179,7 +53452,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -53229,7 +53502,7 @@
         <v>480</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -53241,7 +53514,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
@@ -53525,7 +53798,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -53537,7 +53810,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -53549,7 +53822,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -53609,7 +53882,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -53633,7 +53906,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -53693,7 +53966,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -53729,7 +54002,7 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -53741,7 +54014,7 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -53753,7 +54026,7 @@
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -53773,7 +54046,7 @@
         <v>446</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -53785,7 +54058,7 @@
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -53797,7 +54070,7 @@
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -53809,7 +54082,7 @@
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -53821,7 +54094,7 @@
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -53833,7 +54106,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -53845,7 +54118,7 @@
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -53857,7 +54130,7 @@
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -53869,7 +54142,7 @@
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -53881,7 +54154,7 @@
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -53893,7 +54166,7 @@
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -53905,7 +54178,7 @@
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -53917,7 +54190,7 @@
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -53929,7 +54202,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -53941,7 +54214,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -53953,7 +54226,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -53965,7 +54238,7 @@
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -53976,16 +54249,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -53997,7 +54270,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -54009,7 +54282,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -54021,7 +54294,7 @@
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -54038,10 +54311,10 @@
         <v>384</v>
       </c>
       <c r="D68" s="35" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E68" s="35" t="s">
         <v>1025</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>1026</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -54053,7 +54326,7 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
@@ -54065,7 +54338,7 @@
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -54077,7 +54350,7 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -54088,7 +54361,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>384</v>
@@ -54097,7 +54370,7 @@
         <v>832</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -54109,7 +54382,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -54121,7 +54394,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -54133,7 +54406,7 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -54145,7 +54418,7 @@
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
@@ -54157,7 +54430,7 @@
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
@@ -54169,7 +54442,7 @@
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -54181,7 +54454,7 @@
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
@@ -54193,7 +54466,7 @@
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F80" s="112"/>
       <c r="G80" s="35"/>
@@ -54249,7 +54522,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="33" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -54261,7 +54534,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="33" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -54477,7 +54750,7 @@
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="33" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -54489,7 +54762,7 @@
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="33" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -54501,7 +54774,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="33" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -54513,7 +54786,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="33" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -54549,7 +54822,7 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="33" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -54597,7 +54870,7 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="33" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -54609,7 +54882,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="33" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -54645,7 +54918,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -54657,7 +54930,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -54669,7 +54942,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -54681,7 +54954,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -54713,7 +54986,7 @@
         <v>449</v>
       </c>
       <c r="E122" s="74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
@@ -54725,7 +54998,7 @@
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
       <c r="E123" s="74" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
@@ -54749,7 +55022,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -54809,7 +55082,7 @@
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -55213,7 +55486,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -55225,7 +55498,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -55237,7 +55510,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -55285,7 +55558,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -55297,7 +55570,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -55317,7 +55590,7 @@
         <v>604</v>
       </c>
       <c r="E171" s="99" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
@@ -55341,7 +55614,7 @@
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
       <c r="E173" s="35" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
@@ -55353,7 +55626,7 @@
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="35"/>
@@ -55373,7 +55646,7 @@
         <v>453</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
@@ -55385,7 +55658,7 @@
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
@@ -55397,7 +55670,7 @@
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -55409,7 +55682,7 @@
       <c r="C178" s="35"/>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -55421,7 +55694,7 @@
       <c r="C179" s="35"/>
       <c r="D179" s="35"/>
       <c r="E179" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -55433,7 +55706,7 @@
       <c r="C180" s="35"/>
       <c r="D180" s="35"/>
       <c r="E180" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -55445,7 +55718,7 @@
       <c r="C181" s="35"/>
       <c r="D181" s="35"/>
       <c r="E181" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -55757,7 +56030,7 @@
       <c r="C207" s="35"/>
       <c r="D207" s="35"/>
       <c r="E207" s="35" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="35"/>
@@ -55817,7 +56090,7 @@
       <c r="C212" s="35"/>
       <c r="D212" s="35"/>
       <c r="E212" s="35" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F212" s="35"/>
       <c r="G212" s="35"/>
@@ -55829,7 +56102,7 @@
       <c r="C213" s="35"/>
       <c r="D213" s="35"/>
       <c r="E213" s="35" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F213" s="35"/>
       <c r="G213" s="35"/>
@@ -55841,7 +56114,7 @@
       <c r="C214" s="35"/>
       <c r="D214" s="35"/>
       <c r="E214" s="35" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F214" s="35"/>
       <c r="G214" s="35"/>
@@ -55853,7 +56126,7 @@
       <c r="C215" s="35"/>
       <c r="D215" s="35"/>
       <c r="E215" s="35" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
@@ -55865,7 +56138,7 @@
       <c r="C216" s="35"/>
       <c r="D216" s="35"/>
       <c r="E216" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F216" s="35"/>
       <c r="G216" s="35"/>
@@ -55877,7 +56150,7 @@
       <c r="C217" s="35"/>
       <c r="D217" s="35"/>
       <c r="E217" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F217" s="35"/>
       <c r="G217" s="35"/>
@@ -55889,7 +56162,7 @@
       <c r="C218" s="35"/>
       <c r="D218" s="35"/>
       <c r="E218" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F218" s="35"/>
       <c r="G218" s="35"/>
@@ -55901,7 +56174,7 @@
       <c r="C219" s="35"/>
       <c r="D219" s="35"/>
       <c r="E219" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F219" s="35"/>
       <c r="G219" s="35"/>
@@ -55913,7 +56186,7 @@
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
       <c r="E220" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F220" s="35"/>
       <c r="G220" s="35"/>
@@ -55925,7 +56198,7 @@
       <c r="C221" s="35"/>
       <c r="D221" s="35"/>
       <c r="E221" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F221" s="35"/>
       <c r="G221" s="35"/>
@@ -55933,7 +56206,7 @@
     </row>
     <row r="222" spans="1:9" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I222" s="73"/>
     </row>
@@ -56286,16 +56559,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C251" s="36" t="s">
         <v>384</v>
       </c>
       <c r="D251" s="35" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E251" s="35" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
@@ -56307,7 +56580,7 @@
       <c r="C252" s="36"/>
       <c r="D252" s="35"/>
       <c r="E252" s="35" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="F252" s="36"/>
       <c r="G252" s="36"/>
@@ -56319,7 +56592,7 @@
       <c r="C253" s="36"/>
       <c r="D253" s="35"/>
       <c r="E253" s="35" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F253" s="36"/>
       <c r="G253" s="36"/>
@@ -56331,7 +56604,7 @@
       <c r="C254" s="36"/>
       <c r="D254" s="35"/>
       <c r="E254" s="35" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F254" s="36"/>
       <c r="G254" s="36"/>
@@ -56407,7 +56680,7 @@
         <v>851</v>
       </c>
       <c r="E259" s="35" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F259" s="35"/>
       <c r="G259" s="35"/>
@@ -56419,7 +56692,7 @@
       <c r="C260" s="35"/>
       <c r="D260" s="35"/>
       <c r="E260" s="35" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F260" s="35"/>
       <c r="G260" s="35"/>
@@ -56431,7 +56704,7 @@
       <c r="C261" s="35"/>
       <c r="D261" s="35"/>
       <c r="E261" s="35" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F261" s="35"/>
       <c r="G261" s="35"/>
@@ -56560,6 +56833,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56944,6 +57220,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56974,7 +57253,7 @@
       <c r="E1" s="124"/>
       <c r="F1" s="125"/>
       <c r="G1" s="123" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
@@ -57205,6 +57484,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57234,7 +57516,7 @@
       <c r="E1" s="117"/>
       <c r="F1" s="117"/>
       <c r="G1" s="129" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H1" s="129"/>
       <c r="I1" s="129"/>
@@ -57253,7 +57535,7 @@
         <v>490</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>491</v>
@@ -57380,13 +57662,13 @@
         <v>454</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -57400,16 +57682,16 @@
         <v>337</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>1345</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>1347</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59F2D5-10F2-8044-853A-92A4ECA184CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36D023A-7408-6C4F-9576-5B69224C1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9260" yWindow="780" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1550">
   <si>
     <t>Region</t>
   </si>
@@ -10673,18 +10673,6 @@
     <t>Domain Name</t>
   </si>
   <si>
-    <t>Members</t>
-  </si>
-  <si>
-    <t>Family Name</t>
-  </si>
-  <si>
-    <t>Enable Capabilities</t>
-  </si>
-  <si>
-    <t>User Email</t>
-  </si>
-  <si>
     <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP|DNS)</t>
   </si>
   <si>
@@ -10692,350 +10680,6 @@
   </si>
   <si>
     <t>DNS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"User Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Family Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field for IAM tenancies
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User Email" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an optional field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Domain Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the identity domain where group resides. eg 'default' for default identity domain. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leave empty for IDCS tenancies.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Enable Capabilities" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify comma seperated list of capabilities to be enabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Group  Name) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Description"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Mandatory for IDCS tenancies.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Domain Name" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Name of the identity domain where group resides. eg 'default' for default identity domain. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave empty for IDCS tenancies.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Members" -  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comma seperated usernames. Leave empty if no member needs to be added to the group.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Matching Rule" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF963634"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
   </si>
   <si>
     <r>
@@ -12981,12 +12625,279 @@
       <t>onlyMT is Mount target without any FSS. onlyFSS is File System without any Mount Target or Export (used for replication)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"User Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"First Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"User email" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an optional field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Group Names" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma Separated groups assigned to user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Disable Capabilities" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By default all these capabilities are enabled for a user.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>User Description</t>
+  </si>
+  <si>
+    <t>User email</t>
+  </si>
+  <si>
+    <t>Group Names</t>
+  </si>
+  <si>
+    <t>Disable Capabilities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Group  Name) is a mandatory field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Matching Rule" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13305,14 +13216,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF963634"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <u/>
@@ -13354,14 +13257,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -13681,7 +13576,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13940,7 +13835,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -13997,23 +13891,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -19165,7 +19050,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
   </sheetData>
@@ -19200,22 +19085,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="139" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="141"/>
+      <c r="A1" s="133" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="133" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -19272,7 +19157,7 @@
         <v>453</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>21</v>
@@ -19463,19 +19348,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>927</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="145" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="141" t="s">
         <v>1334</v>
       </c>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19709,10 +19594,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19778,16 +19663,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1406</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -20078,30 +19963,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>1326</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="146" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="142" t="s">
         <v>1296</v>
       </c>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26213,18 +26098,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -26340,17 +26225,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1314</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26447,25 +26332,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1315</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26602,28 +26487,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1316</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -29110,17 +28995,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1325</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -29508,13 +29393,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1311</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29771,19 +29656,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="144" t="s">
         <v>1317</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29958,15 +29843,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1318</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30146,32 +30031,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="146" t="s">
         <v>1407</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="139" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="133" t="s">
         <v>1392</v>
       </c>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="141"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30625,26 +30510,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="141"/>
+      <c r="A1" s="133" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="137"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30752,20 +30637,20 @@
       <c r="I4" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="J4" s="128" t="s">
+      <c r="J4" s="127" t="s">
         <v>1475</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="127" t="s">
         <v>1476</v>
       </c>
-      <c r="L4" s="128">
+      <c r="L4" s="127">
         <v>100</v>
       </c>
-      <c r="M4" s="128" t="s">
+      <c r="M4" s="127" t="s">
         <v>1477</v>
       </c>
-      <c r="N4" s="128" t="s">
-        <v>1492</v>
+      <c r="N4" s="127" t="s">
+        <v>1486</v>
       </c>
       <c r="O4" s="84" t="b">
         <v>1</v>
@@ -30866,32 +30751,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="153" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="155"/>
+      <c r="A1" s="133" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="149" t="s">
+        <v>1543</v>
+      </c>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="151"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -30922,13 +30807,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>112</v>
@@ -30952,10 +30837,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>402</v>
@@ -31264,7 +31149,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>375</v>
@@ -31303,7 +31188,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="52"/>
       <c r="I12" s="87" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
@@ -31414,45 +31299,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="150" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="146" t="s">
         <v>1319</v>
       </c>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
-      <c r="AF1" s="151"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="151"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -31930,27 +31815,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1320</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -32231,30 +32116,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="141"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -32585,25 +32470,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -32853,29 +32738,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="142" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="138" t="s">
         <v>416</v>
       </c>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="157"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="153"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -33558,10 +33443,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33569,47 +33454,37 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="43" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+    <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="132" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F2" s="111" t="s">
+      <c r="D2" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="E2" s="30" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -33620,11 +33495,9 @@
         <v>431</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
@@ -33635,11 +33508,9 @@
         <v>669</v>
       </c>
       <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -33650,11 +33521,9 @@
         <v>433</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -33665,12 +33534,10 @@
         <v>435</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -33680,12 +33547,10 @@
         <v>437</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -33694,12 +33559,10 @@
       <c r="C8" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="23"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
@@ -33711,10 +33574,8 @@
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
@@ -33726,10 +33587,8 @@
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -33741,10 +33600,8 @@
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
@@ -33755,34 +33612,34 @@
         <v>605</v>
       </c>
       <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35" t="s">
+      <c r="D14" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -33791,15 +33648,13 @@
       <c r="C15" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>835</v>
       </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="35" t="s">
@@ -33808,15 +33663,13 @@
       <c r="C16" s="35" t="s">
         <v>837</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="35" t="s">
@@ -33825,34 +33678,21 @@
       <c r="C17" s="35" t="s">
         <v>840</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="G17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="H1:XFD1048576 B3:G1048576" xr:uid="{34D02532-918C-2242-9200-0036CF7A8F7F}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="B3:D1048576 A1:E1" xr:uid="{8EFF7419-48D3-4C46-B3E5-C58F24B7E6C8}"/>
+    <dataValidation allowBlank="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E1048576" xr:uid="{86EF4A92-0B46-F148-96CE-EDC9C3C9AEDD}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{1DD4F197-DE20-A74C-B8B9-A4750C446198}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -33876,14 +33716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="154" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -34042,22 +33882,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="141"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34602,20 +34442,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34637,7 +34477,7 @@
         <v>656</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>1479</v>
@@ -34755,10 +34595,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="I6" s="53">
         <v>53</v>
@@ -34826,24 +34666,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>1321</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -35052,35 +34892,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>1322</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="141"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="137"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
@@ -38451,16 +38291,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -41370,29 +41210,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="146" t="s">
         <v>1324</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -45837,26 +45677,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="157" t="s">
         <v>1441</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45872,16 +45712,16 @@
       <c r="D2" s="37" t="s">
         <v>1428</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="112" t="s">
         <v>1212</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="112" t="s">
         <v>1213</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>1214</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="112" t="s">
         <v>1215</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -45893,10 +45733,10 @@
       <c r="K2" s="37" t="s">
         <v>1217</v>
       </c>
-      <c r="L2" s="114" t="s">
+      <c r="L2" s="113" t="s">
         <v>1345</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="114" t="s">
         <v>1346</v>
       </c>
       <c r="N2" s="37" t="s">
@@ -45950,10 +45790,10 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="M3" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="N3" s="35">
         <v>3</v>
@@ -46092,22 +45932,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
+      <c r="A1" s="146" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -46116,7 +45956,7 @@
       <c r="B2" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="112" t="s">
         <v>1221</v>
       </c>
       <c r="D2" s="37" t="s">
@@ -46162,42 +46002,42 @@
         <v>1429</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>1500</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>1501</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>1502</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>1503</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="M3" s="35" t="s">
         <v>1504</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>1508</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>1510</v>
       </c>
       <c r="N3" s="35" t="s">
         <v>1442</v>
       </c>
-      <c r="O3" s="116"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
@@ -46207,46 +46047,46 @@
         <v>1438</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>1503</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="M4" s="35" t="s">
         <v>1504</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>1508</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>1509</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>1510</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>1443</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="115"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="117"/>
+      <c r="B5" s="116"/>
       <c r="C5"/>
       <c r="O5"/>
     </row>
@@ -46323,26 +46163,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="287" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="160" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="166"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -46672,37 +46512,35 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="156.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="43" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>1544</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -46710,25 +46548,22 @@
         <v>1201</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>2</v>
+        <v>1545</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1546</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1483</v>
+        <v>1547</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H2" s="30" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -46736,9 +46571,8 @@
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -46746,9 +46580,8 @@
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -46756,9 +46589,8 @@
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -46766,9 +46598,8 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -46776,9 +46607,8 @@
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -46786,9 +46616,8 @@
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -46796,9 +46625,8 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -46806,9 +46634,8 @@
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -46816,9 +46643,8 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -46826,9 +46652,8 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -46836,9 +46661,8 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -46846,9 +46670,8 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -46856,9 +46679,8 @@
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -46866,9 +46688,8 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -46876,9 +46697,8 @@
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -46886,9 +46706,8 @@
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -46896,9 +46715,8 @@
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -46906,9 +46724,8 @@
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -46916,9 +46733,8 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -46926,9 +46742,8 @@
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -46936,9 +46751,8 @@
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -46946,9 +46760,8 @@
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -46956,9 +46769,8 @@
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -46966,9 +46778,8 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -46976,9 +46787,8 @@
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -46986,9 +46796,8 @@
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -46996,9 +46805,8 @@
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -47006,9 +46814,8 @@
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -47016,9 +46823,8 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -47026,9 +46832,8 @@
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -47036,9 +46841,8 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -47046,9 +46850,8 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -47056,9 +46859,8 @@
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -47066,9 +46868,8 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -47076,9 +46877,8 @@
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -47086,9 +46886,8 @@
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -47096,9 +46895,8 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -47106,9 +46904,8 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -47116,9 +46913,8 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -47126,9 +46922,8 @@
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -47136,9 +46931,8 @@
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -47146,9 +46940,8 @@
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -47156,9 +46949,8 @@
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -47166,9 +46958,8 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -47176,9 +46967,8 @@
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -47186,9 +46976,8 @@
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
       <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -47196,9 +46985,8 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -47206,9 +46994,8 @@
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
       <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -47216,9 +47003,8 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
       <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-    </row>
-    <row r="52" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -47226,9 +47012,8 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -47236,9 +47021,8 @@
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -47246,9 +47030,8 @@
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
@@ -47256,9 +47039,8 @@
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-    </row>
-    <row r="56" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -47266,9 +47048,8 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-    </row>
-    <row r="57" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -47276,9 +47057,8 @@
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -47286,9 +47066,8 @@
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-    </row>
-    <row r="59" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -47296,9 +47075,8 @@
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-    </row>
-    <row r="60" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -47306,9 +47084,8 @@
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-    </row>
-    <row r="61" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -47316,9 +47093,8 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -47326,9 +47102,8 @@
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-    </row>
-    <row r="63" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -47336,9 +47111,8 @@
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-    </row>
-    <row r="64" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -47346,9 +47120,8 @@
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-    </row>
-    <row r="65" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -47356,9 +47129,8 @@
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -47366,9 +47138,8 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-    </row>
-    <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -47376,9 +47147,8 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-    </row>
-    <row r="68" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -47386,9 +47156,8 @@
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-    </row>
-    <row r="69" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -47396,9 +47165,8 @@
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-    </row>
-    <row r="70" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -47406,9 +47174,8 @@
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-    </row>
-    <row r="71" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -47416,9 +47183,8 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-    </row>
-    <row r="72" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -47426,9 +47192,8 @@
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-    </row>
-    <row r="73" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -47436,9 +47201,8 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-    </row>
-    <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -47446,9 +47210,8 @@
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-    </row>
-    <row r="75" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -47456,9 +47219,8 @@
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-    </row>
-    <row r="76" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -47466,9 +47228,8 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-    </row>
-    <row r="77" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -47476,9 +47237,8 @@
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-    </row>
-    <row r="78" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -47486,9 +47246,8 @@
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-    </row>
-    <row r="79" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -47496,9 +47255,8 @@
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-    </row>
-    <row r="80" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -47506,9 +47264,8 @@
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-    </row>
-    <row r="81" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -47516,9 +47273,8 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-    </row>
-    <row r="82" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -47526,9 +47282,8 @@
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-    </row>
-    <row r="83" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -47536,9 +47291,8 @@
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-    </row>
-    <row r="84" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -47546,9 +47300,8 @@
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-    </row>
-    <row r="85" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -47556,9 +47309,8 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-    </row>
-    <row r="86" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -47566,9 +47318,8 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-    </row>
-    <row r="87" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -47576,9 +47327,8 @@
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-    </row>
-    <row r="88" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -47586,9 +47336,8 @@
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-    </row>
-    <row r="89" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -47596,9 +47345,8 @@
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-    </row>
-    <row r="90" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -47606,9 +47354,8 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-    </row>
-    <row r="91" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -47616,9 +47363,8 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-    </row>
-    <row r="92" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -47626,9 +47372,8 @@
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -47636,9 +47381,8 @@
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-    </row>
-    <row r="94" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -47646,9 +47390,8 @@
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-    </row>
-    <row r="95" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -47656,9 +47399,8 @@
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-    </row>
-    <row r="96" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -47666,9 +47408,8 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-    </row>
-    <row r="97" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -47676,9 +47417,8 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-    </row>
-    <row r="98" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -47686,9 +47426,8 @@
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-    </row>
-    <row r="99" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -47696,9 +47435,8 @@
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-    </row>
-    <row r="100" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -47706,9 +47444,8 @@
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-    </row>
-    <row r="101" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -47716,33 +47453,20 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-    </row>
-    <row r="102" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="102" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="B3:C1048576 E3:E1048576 F3:G1048576 H3:H1048576" xr:uid="{2093DACC-A066-2948-81F2-6B8614F267FE}"/>
+    <dataValidation allowBlank="1" sqref="H1:XFD1048576 A1:A2 B2:G1048576" xr:uid="{996E8FCD-41A6-454D-99C0-71CAEC94973E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{F6B3E541-4E6E-2B43-A809-0F368ECF78E0}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -47776,71 +47500,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="146" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="142" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>1514</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="H2" s="81" t="s">
         <v>1515</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>1516</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="J2" s="129" t="s">
         <v>1517</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="K2" s="19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>1519</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="M2" s="131" t="s">
         <v>1520</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="N2" s="19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>1521</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>1522</v>
-      </c>
-      <c r="J2" s="130" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>1524</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>1525</v>
-      </c>
-      <c r="M2" s="132" t="s">
-        <v>1526</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>1518</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -47855,10 +47579,10 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="131"/>
+      <c r="J3" s="130"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="131"/>
+      <c r="M3" s="130"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
@@ -47870,30 +47594,30 @@
         <v>1342</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
         <v>1342</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J4" s="131">
+        <v>1523</v>
+      </c>
+      <c r="J4" s="130">
         <v>256</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="131"/>
+      <c r="M4" s="130"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
@@ -47907,22 +47631,22 @@
         <v>424</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="I5" s="35" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J5" s="130">
+        <v>384</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>1530</v>
       </c>
-      <c r="J5" s="131">
-        <v>384</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>1536</v>
-      </c>
       <c r="L5" s="35"/>
-      <c r="M5" s="131"/>
+      <c r="M5" s="130"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
@@ -47934,10 +47658,10 @@
         <v>1342</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>5</v>
@@ -47946,22 +47670,22 @@
         <v>1342</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>1529</v>
-      </c>
-      <c r="J6" s="131">
+        <v>1523</v>
+      </c>
+      <c r="J6" s="130">
         <v>128</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="131">
+      <c r="M6" s="130">
         <v>100</v>
       </c>
       <c r="N6" s="35"/>
@@ -47977,20 +47701,20 @@
         <v>424</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>1534</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>1540</v>
-      </c>
-      <c r="J7" s="131">
+      <c r="J7" s="130">
         <v>3072</v>
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="131"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
     </row>
@@ -48004,24 +47728,24 @@
         <v>426</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J8" s="131">
+        <v>1524</v>
+      </c>
+      <c r="J8" s="130">
         <v>521</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="L8" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="131">
+      <c r="M8" s="130">
         <v>365</v>
       </c>
       <c r="N8" s="35"/>
@@ -48037,10 +47761,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="131"/>
+      <c r="J9" s="130"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="131"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
     </row>
@@ -48054,10 +47778,10 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="131"/>
+      <c r="J10" s="130"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="131"/>
+      <c r="M10" s="130"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
     </row>
@@ -48071,10 +47795,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="131"/>
+      <c r="J11" s="130"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="131"/>
+      <c r="M11" s="130"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
     </row>
@@ -48088,10 +47812,10 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="131"/>
+      <c r="J12" s="130"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="131"/>
+      <c r="M12" s="130"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
     </row>
@@ -48105,10 +47829,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="131"/>
+      <c r="J13" s="130"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="131"/>
+      <c r="M13" s="130"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
     </row>
@@ -48122,10 +47846,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="131"/>
+      <c r="J14" s="130"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="131"/>
+      <c r="M14" s="130"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
     </row>
@@ -48139,10 +47863,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="131"/>
+      <c r="J15" s="130"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="131"/>
+      <c r="M15" s="130"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
     </row>
@@ -48156,10 +47880,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="131"/>
+      <c r="J16" s="130"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="131"/>
+      <c r="M16" s="130"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
     </row>
@@ -48173,10 +47897,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="131"/>
+      <c r="J17" s="130"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="131"/>
+      <c r="M17" s="130"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
     </row>
@@ -48190,10 +47914,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="131"/>
+      <c r="J18" s="130"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="131"/>
+      <c r="M18" s="130"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
     </row>
@@ -48207,10 +47931,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="131"/>
+      <c r="J19" s="130"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="131"/>
+      <c r="M19" s="130"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
     </row>
@@ -48224,10 +47948,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="131"/>
+      <c r="J20" s="130"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="131"/>
+      <c r="M20" s="130"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
     </row>
@@ -48241,10 +47965,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="131"/>
+      <c r="J21" s="130"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="131"/>
+      <c r="M21" s="130"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
     </row>
@@ -48258,10 +47982,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="131"/>
+      <c r="J22" s="130"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="131"/>
+      <c r="M22" s="130"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
     </row>
@@ -48275,10 +47999,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="131"/>
+      <c r="J23" s="130"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="131"/>
+      <c r="M23" s="130"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
     </row>
@@ -48292,10 +48016,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="131"/>
+      <c r="J24" s="130"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="131"/>
+      <c r="M24" s="130"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
     </row>
@@ -48309,10 +48033,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="131"/>
+      <c r="J25" s="130"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="131"/>
+      <c r="M25" s="130"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
     </row>
@@ -48326,10 +48050,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="131"/>
+      <c r="J26" s="130"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="131"/>
+      <c r="M26" s="130"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
     </row>
@@ -48343,10 +48067,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="131"/>
+      <c r="J27" s="130"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="131"/>
+      <c r="M27" s="130"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
     </row>
@@ -48360,10 +48084,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="131"/>
+      <c r="J28" s="130"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="131"/>
+      <c r="M28" s="130"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
     </row>
@@ -48377,10 +48101,10 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="131"/>
+      <c r="J29" s="130"/>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
-      <c r="M29" s="131"/>
+      <c r="M29" s="130"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
     </row>
@@ -48394,10 +48118,10 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="131"/>
+      <c r="J30" s="130"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="131"/>
+      <c r="M30" s="130"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
     </row>
@@ -48411,10 +48135,10 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="131"/>
+      <c r="J31" s="130"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="131"/>
+      <c r="M31" s="130"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
     </row>
@@ -48428,10 +48152,10 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="131"/>
+      <c r="J32" s="130"/>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
-      <c r="M32" s="131"/>
+      <c r="M32" s="130"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
     </row>
@@ -48445,10 +48169,10 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="131"/>
+      <c r="J33" s="130"/>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="131"/>
+      <c r="M33" s="130"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
     </row>
@@ -48462,10 +48186,10 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="131"/>
+      <c r="J34" s="130"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="131"/>
+      <c r="M34" s="130"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
     </row>
@@ -48479,10 +48203,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="131"/>
+      <c r="J35" s="130"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
-      <c r="M35" s="131"/>
+      <c r="M35" s="130"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
     </row>
@@ -48496,10 +48220,10 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="131"/>
+      <c r="J36" s="130"/>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
-      <c r="M36" s="131"/>
+      <c r="M36" s="130"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
     </row>
@@ -48513,10 +48237,10 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="131"/>
+      <c r="J37" s="130"/>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
-      <c r="M37" s="131"/>
+      <c r="M37" s="130"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
     </row>
@@ -48530,10 +48254,10 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="131"/>
+      <c r="J38" s="130"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
-      <c r="M38" s="131"/>
+      <c r="M38" s="130"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
     </row>
@@ -48547,10 +48271,10 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="131"/>
+      <c r="J39" s="130"/>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="131"/>
+      <c r="M39" s="130"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
     </row>
@@ -48564,10 +48288,10 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="131"/>
+      <c r="J40" s="130"/>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
-      <c r="M40" s="131"/>
+      <c r="M40" s="130"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
     </row>
@@ -48581,10 +48305,10 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="131"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
-      <c r="M41" s="131"/>
+      <c r="M41" s="130"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
     </row>
@@ -48598,10 +48322,10 @@
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="131"/>
+      <c r="J42" s="130"/>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
-      <c r="M42" s="131"/>
+      <c r="M42" s="130"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
     </row>
@@ -48615,10 +48339,10 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="131"/>
+      <c r="J43" s="130"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="131"/>
+      <c r="M43" s="130"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
     </row>
@@ -48632,10 +48356,10 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="131"/>
+      <c r="J44" s="130"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="131"/>
+      <c r="M44" s="130"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
     </row>
@@ -48649,10 +48373,10 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="131"/>
+      <c r="J45" s="130"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="131"/>
+      <c r="M45" s="130"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
     </row>
@@ -48666,10 +48390,10 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="J46" s="131"/>
+      <c r="J46" s="130"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
-      <c r="M46" s="131"/>
+      <c r="M46" s="130"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
     </row>
@@ -48683,10 +48407,10 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="131"/>
+      <c r="J47" s="130"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="131"/>
+      <c r="M47" s="130"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
     </row>
@@ -48700,10 +48424,10 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="131"/>
+      <c r="J48" s="130"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="131"/>
+      <c r="M48" s="130"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
     </row>
@@ -48717,10 +48441,10 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="131"/>
+      <c r="J49" s="130"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="131"/>
+      <c r="M49" s="130"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
     </row>
@@ -48734,10 +48458,10 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="131"/>
+      <c r="J50" s="130"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="131"/>
+      <c r="M50" s="130"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
     </row>
@@ -48751,10 +48475,10 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="131"/>
+      <c r="J51" s="130"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="131"/>
+      <c r="M51" s="130"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
     </row>
@@ -48768,10 +48492,10 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="131"/>
+      <c r="J52" s="130"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="131"/>
+      <c r="M52" s="130"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
     </row>
@@ -48785,10 +48509,10 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="131"/>
+      <c r="J53" s="130"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="131"/>
+      <c r="M53" s="130"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
     </row>
@@ -48802,10 +48526,10 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="131"/>
+      <c r="J54" s="130"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="131"/>
+      <c r="M54" s="130"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
     </row>
@@ -48819,10 +48543,10 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="J55" s="131"/>
+      <c r="J55" s="130"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
-      <c r="M55" s="131"/>
+      <c r="M55" s="130"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
     </row>
@@ -48836,10 +48560,10 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
-      <c r="J56" s="131"/>
+      <c r="J56" s="130"/>
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
-      <c r="M56" s="131"/>
+      <c r="M56" s="130"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
     </row>
@@ -48853,10 +48577,10 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="131"/>
+      <c r="J57" s="130"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
-      <c r="M57" s="131"/>
+      <c r="M57" s="130"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
     </row>
@@ -48870,10 +48594,10 @@
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="131"/>
+      <c r="J58" s="130"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
-      <c r="M58" s="131"/>
+      <c r="M58" s="130"/>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
     </row>
@@ -48887,10 +48611,10 @@
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
-      <c r="J59" s="131"/>
+      <c r="J59" s="130"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="131"/>
+      <c r="M59" s="130"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
     </row>
@@ -48904,10 +48628,10 @@
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
-      <c r="J60" s="131"/>
+      <c r="J60" s="130"/>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
-      <c r="M60" s="131"/>
+      <c r="M60" s="130"/>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
     </row>
@@ -48921,10 +48645,10 @@
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="131"/>
+      <c r="J61" s="130"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
-      <c r="M61" s="131"/>
+      <c r="M61" s="130"/>
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
     </row>
@@ -48938,10 +48662,10 @@
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="131"/>
+      <c r="J62" s="130"/>
       <c r="K62" s="35"/>
       <c r="L62" s="35"/>
-      <c r="M62" s="131"/>
+      <c r="M62" s="130"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
     </row>
@@ -48955,10 +48679,10 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="131"/>
+      <c r="J63" s="130"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
-      <c r="M63" s="131"/>
+      <c r="M63" s="130"/>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
     </row>
@@ -48972,10 +48696,10 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="131"/>
+      <c r="J64" s="130"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
-      <c r="M64" s="131"/>
+      <c r="M64" s="130"/>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
     </row>
@@ -48989,10 +48713,10 @@
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
-      <c r="J65" s="131"/>
+      <c r="J65" s="130"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35"/>
-      <c r="M65" s="131"/>
+      <c r="M65" s="130"/>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
     </row>
@@ -57855,14 +57579,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1353</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -57928,16 +57652,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1312</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -61333,19 +61057,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="133" t="s">
         <v>576</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138" t="s">
         <v>850</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -61715,13 +61439,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="109" t="s">
@@ -61736,7 +61460,7 @@
       <c r="D2" s="110" t="s">
         <v>1422</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="111" t="s">
         <v>402</v>
       </c>
     </row>
@@ -61785,31 +61509,31 @@
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="126" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="126" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="124" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65.6640625" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="127" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1471</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="109" t="s">
@@ -61824,34 +61548,34 @@
       <c r="D2" s="110" t="s">
         <v>1444</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="111" t="s">
         <v>1445</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="111" t="s">
         <v>1446</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="111" t="s">
         <v>1447</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="117" t="s">
         <v>1448</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>1449</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="118" t="s">
         <v>1450</v>
       </c>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="111" t="s">
         <v>1451</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="111" t="s">
         <v>1452</v>
       </c>
-      <c r="M2" s="112" t="s">
+      <c r="M2" s="111" t="s">
         <v>1453</v>
       </c>
-      <c r="N2" s="120" t="s">
+      <c r="N2" s="119" t="s">
         <v>402</v>
       </c>
     </row>
@@ -61877,11 +61601,11 @@
       <c r="G3" s="35">
         <v>10</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122" t="s">
+      <c r="H3" s="120"/>
+      <c r="I3" s="121" t="s">
         <v>1458</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="121" t="s">
         <v>1459</v>
       </c>
       <c r="K3" s="35"/>
@@ -61903,7 +61627,7 @@
         <v>1462</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>1463</v>
@@ -61911,17 +61635,17 @@
       <c r="G4" s="35">
         <v>100</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="120">
         <v>5</v>
       </c>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="35" t="s">
         <v>1464</v>
       </c>
-      <c r="L4" s="123"/>
+      <c r="L4" s="122"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="124"/>
+      <c r="N4" s="123"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
@@ -61931,9 +61655,9 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
       <c r="K5" s="35" t="s">
         <v>1470</v>
       </c>
@@ -61943,7 +61667,7 @@
       <c r="M5" s="35" t="s">
         <v>1466</v>
       </c>
-      <c r="N5" s="124"/>
+      <c r="N5" s="123"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
@@ -61953,9 +61677,9 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="35" t="s">
         <v>1467</v>
       </c>
@@ -61963,7 +61687,7 @@
         <v>1468</v>
       </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="124"/>
+      <c r="N6" s="123"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
@@ -61975,13 +61699,13 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="124"/>
+      <c r="N7" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36D023A-7408-6C4F-9576-5B69224C1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9652563-8262-6745-A6F3-AEEA8A7DC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="780" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mansatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
+          <t>Mandatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
         </r>
       </text>
     </comment>
@@ -290,40 +290,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Suruchi</author>
-  </authors>
-  <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{571B8153-5A5A-9343-B63E-0C9467A00B5E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter OCID of the snapshot policy to be attached to the FSS.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -572,7 +538,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -634,7 +600,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -12384,182 +12350,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Freeform and Defined Tags - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Enter subnet name as : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source Snapshot:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Replication Information: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>onlyMT</t>
   </si>
   <si>
@@ -12890,6 +12680,204 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Freeform and Defined Tags - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source Snapshot:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Snapshot Policy - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts OCID of the snapshot policy or the name in format: &lt;snaphot_policy_compartment_name&gt;@&lt;snaphost_policy_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Replication Information: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -30718,7 +30706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -30752,7 +30740,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1540</v>
+        <v>1549</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -30766,7 +30754,7 @@
       <c r="K1" s="134"/>
       <c r="L1" s="137"/>
       <c r="M1" s="149" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="N1" s="150"/>
       <c r="O1" s="150"/>
@@ -31149,7 +31137,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>375</v>
@@ -31188,7 +31176,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="52"/>
       <c r="I12" s="87" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
@@ -31215,7 +31203,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -33460,7 +33447,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -46531,7 +46518,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -46548,16 +46535,16 @@
         <v>1201</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1546</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1547</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1548</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>402</v>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9652563-8262-6745-A6F3-AEEA8A7DC222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE99A4-8C34-8140-A186-D06711898BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="1549">
   <si>
     <t>Region</t>
   </si>
@@ -10090,9 +10090,6 @@
   </si>
   <si>
     <t>Quota Policy</t>
-  </si>
-  <si>
-    <t>ashburn</t>
   </si>
   <si>
     <t>OracleAnalyticsQuota</t>
@@ -19038,7 +19035,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -19074,7 +19071,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -19082,7 +19079,7 @@
       <c r="E1" s="134"/>
       <c r="F1" s="137"/>
       <c r="G1" s="133" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -19145,7 +19142,7 @@
         <v>453</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>21</v>
@@ -30499,7 +30496,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -30551,16 +30548,16 @@
         <v>411</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>1472</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>1473</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>1474</v>
-      </c>
       <c r="N2" s="31" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>632</v>
@@ -30626,19 +30623,19 @@
         <v>634</v>
       </c>
       <c r="J4" s="127" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K4" s="127" t="s">
         <v>1475</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>1476</v>
       </c>
       <c r="L4" s="127">
         <v>100</v>
       </c>
       <c r="M4" s="127" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N4" s="127" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="O4" s="84" t="b">
         <v>1</v>
@@ -30740,7 +30737,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -30754,7 +30751,7 @@
       <c r="K1" s="134"/>
       <c r="L1" s="137"/>
       <c r="M1" s="149" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="N1" s="150"/>
       <c r="O1" s="150"/>
@@ -30795,13 +30792,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>1487</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>1488</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>112</v>
@@ -30825,10 +30822,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>402</v>
@@ -31137,7 +31134,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>375</v>
@@ -31176,7 +31173,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="52"/>
       <c r="I12" s="87" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
@@ -31430,7 +31427,7 @@
         <v>1421</v>
       </c>
       <c r="AI2" s="31" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31708,7 +31705,7 @@
       <c r="AG6" s="52"/>
       <c r="AH6" s="52"/>
       <c r="AI6" s="53" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
@@ -33447,7 +33444,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -34464,10 +34461,10 @@
         <v>656</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>156</v>
@@ -34582,10 +34579,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I6" s="53">
         <v>53</v>
@@ -45665,7 +45662,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="157" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -45697,7 +45694,7 @@
         <v>1211</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E2" s="112" t="s">
         <v>1212</v>
@@ -45750,49 +45747,49 @@
         <v>424</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>1429</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>1430</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>1431</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>1432</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>1433</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>1434</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="K3" s="35">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M3" t="s">
         <v>1492</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1493</v>
       </c>
       <c r="N3" s="35">
         <v>3</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="P3" s="35" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="R3" s="32"/>
     </row>
@@ -45804,18 +45801,18 @@
         <v>424</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1438</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1439</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>1433</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>1434</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>56</v>
@@ -45832,7 +45829,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="P4" s="35" t="b">
         <v>0</v>
@@ -45920,7 +45917,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -45986,43 +45983,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>1494</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>1495</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>1496</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>1497</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>1498</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>1500</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>1501</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>1502</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="M3" s="35" t="s">
         <v>1503</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>1504</v>
-      </c>
       <c r="N3" s="35" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="O3" s="115"/>
     </row>
@@ -46031,41 +46028,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1494</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1495</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>1497</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>1498</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>1500</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>1501</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="35" t="s">
         <v>1502</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="M4" s="35" t="s">
         <v>1503</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>1504</v>
-      </c>
       <c r="N4" s="35" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O4" s="115"/>
     </row>
@@ -46518,7 +46515,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -46535,16 +46532,16 @@
         <v>1201</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1546</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1547</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>402</v>
@@ -47488,7 +47485,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -47497,7 +47494,7 @@
       <c r="F1" s="132"/>
       <c r="G1" s="132"/>
       <c r="H1" s="142" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I1" s="132"/>
       <c r="J1" s="132"/>
@@ -47512,46 +47509,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C2" s="128" t="s">
         <v>1508</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="D2" s="19" t="s">
         <v>1509</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>1510</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M2" s="131" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>1511</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>1516</v>
-      </c>
-      <c r="J2" s="129" t="s">
-        <v>1517</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>1518</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>1519</v>
-      </c>
-      <c r="M2" s="131" t="s">
+      <c r="O2" s="19" t="s">
         <v>1520</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>1512</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -47581,23 +47578,23 @@
         <v>1342</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1525</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1526</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
         <v>1342</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H4" s="35" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>1522</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>1523</v>
       </c>
       <c r="J4" s="130">
         <v>256</v>
@@ -47618,19 +47615,19 @@
         <v>424</v>
       </c>
       <c r="G5" s="35" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>1528</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>1529</v>
-      </c>
       <c r="I5" s="35" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J5" s="130">
         <v>384</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="130"/>
@@ -47645,10 +47642,10 @@
         <v>1342</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>1531</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>1532</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>5</v>
@@ -47657,13 +47654,13 @@
         <v>1342</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J6" s="130">
         <v>128</v>
@@ -47688,13 +47685,13 @@
         <v>424</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>1528</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>1529</v>
-      </c>
       <c r="I7" s="35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="J7" s="130">
         <v>3072</v>
@@ -47715,19 +47712,19 @@
         <v>426</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="J8" s="130">
         <v>521</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="L8" s="35" t="b">
         <v>1</v>
@@ -61427,7 +61424,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -61453,16 +61450,16 @@
     </row>
     <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>1423</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="C3" s="63" t="s">
         <v>1424</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>1425</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E3" s="36"/>
     </row>
@@ -61506,7 +61503,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -61533,34 +61530,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="110" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E2" s="111" t="s">
         <v>1444</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="F2" s="111" t="s">
         <v>1445</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="G2" s="111" t="s">
         <v>1446</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="H2" s="117" t="s">
         <v>1447</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="I2" s="118" t="s">
         <v>1448</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="J2" s="118" t="s">
         <v>1449</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="K2" s="111" t="s">
         <v>1450</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="L2" s="111" t="s">
         <v>1451</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="M2" s="111" t="s">
         <v>1452</v>
-      </c>
-      <c r="M2" s="111" t="s">
-        <v>1453</v>
       </c>
       <c r="N2" s="119" t="s">
         <v>402</v>
@@ -61568,32 +61565,32 @@
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>1454</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>1455</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>1456</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>384</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G3" s="35">
         <v>10</v>
       </c>
       <c r="H3" s="120"/>
       <c r="I3" s="121" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J3" s="121" t="s">
         <v>1458</v>
-      </c>
-      <c r="J3" s="121" t="s">
-        <v>1459</v>
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
@@ -61602,22 +61599,22 @@
     </row>
     <row r="4" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>1460</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="35" t="s">
         <v>1461</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>1462</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>1463</v>
       </c>
       <c r="G4" s="35">
         <v>100</v>
@@ -61628,7 +61625,7 @@
       <c r="I4" s="121"/>
       <c r="J4" s="121"/>
       <c r="K4" s="35" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="L4" s="122"/>
       <c r="M4" s="35"/>
@@ -61646,13 +61643,13 @@
       <c r="I5" s="121"/>
       <c r="J5" s="121"/>
       <c r="K5" s="35" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="L5" s="36" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M5" s="35" t="s">
         <v>1465</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>1466</v>
       </c>
       <c r="N5" s="123"/>
     </row>
@@ -61668,10 +61665,10 @@
       <c r="I6" s="121"/>
       <c r="J6" s="121"/>
       <c r="K6" s="35" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L6" s="36" t="s">
         <v>1467</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>1468</v>
       </c>
       <c r="M6" s="35"/>
       <c r="N6" s="123"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE99A4-8C34-8140-A186-D06711898BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD20AE5-3760-744A-951F-4CCC0D12D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10353,265 +10353,6 @@
     <t>ACTUAL::100%</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Home Region only</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Scope" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compartment or Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Target" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compartment Name or {tagNamespace}.{tagKey}.{tagValue}. Note- It should be a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cost Tracking Tag.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Schedule" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MONTH or  SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Amount" - T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Start Day" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Budget Start Date"/"Budget End Date" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Rules" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Recipients": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> comma seperated email addresses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Autotune Type</t>
   </si>
   <si>
@@ -12863,6 +12604,254 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home Region only</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Scope" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment or Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Target" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment Name or {tagNamespace}.{tagKey}.{tagValue}.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Schedule" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MONTH or  SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Amount" - T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Start Day" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Budget Start Date"/"Budget End Date" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Rules" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Recipients": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comma seperated email addresses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -19035,7 +19024,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
   </sheetData>
@@ -19071,7 +19060,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -19079,7 +19068,7 @@
       <c r="E1" s="134"/>
       <c r="F1" s="137"/>
       <c r="G1" s="133" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1" s="134"/>
       <c r="I1" s="134"/>
@@ -19142,7 +19131,7 @@
         <v>453</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>21</v>
@@ -30496,7 +30485,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -30548,16 +30537,16 @@
         <v>411</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>1471</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>1472</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>1473</v>
-      </c>
       <c r="N2" s="31" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>632</v>
@@ -30623,19 +30612,19 @@
         <v>634</v>
       </c>
       <c r="J4" s="127" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K4" s="127" t="s">
         <v>1474</v>
-      </c>
-      <c r="K4" s="127" t="s">
-        <v>1475</v>
       </c>
       <c r="L4" s="127">
         <v>100</v>
       </c>
       <c r="M4" s="127" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N4" s="127" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="O4" s="84" t="b">
         <v>1</v>
@@ -30737,7 +30726,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -30751,7 +30740,7 @@
       <c r="K1" s="134"/>
       <c r="L1" s="137"/>
       <c r="M1" s="149" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="N1" s="150"/>
       <c r="O1" s="150"/>
@@ -30792,13 +30781,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>1486</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>1487</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>112</v>
@@ -30822,10 +30811,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>402</v>
@@ -31134,7 +31123,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>375</v>
@@ -31173,7 +31162,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="52"/>
       <c r="I12" s="87" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
@@ -33444,7 +33433,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -34461,10 +34450,10 @@
         <v>656</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>156</v>
@@ -34579,10 +34568,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I6" s="53">
         <v>53</v>
@@ -45774,10 +45763,10 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M3" t="s">
         <v>1491</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1492</v>
       </c>
       <c r="N3" s="35">
         <v>3</v>
@@ -45917,7 +45906,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -45986,37 +45975,37 @@
         <v>1428</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>1493</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>1494</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>1495</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>1496</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>1497</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>1498</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>1500</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>1501</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="M3" s="35" t="s">
         <v>1502</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>1503</v>
       </c>
       <c r="N3" s="35" t="s">
         <v>1441</v>
@@ -46031,35 +46020,35 @@
         <v>1437</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1493</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1494</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>1496</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>1497</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="35" t="s">
         <v>1498</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>1500</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="35" t="s">
         <v>1501</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="M4" s="35" t="s">
         <v>1502</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>1503</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>1442</v>
@@ -46515,7 +46504,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -46532,16 +46521,16 @@
         <v>1201</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1543</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1544</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1545</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1546</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>402</v>
@@ -47485,7 +47474,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -47494,7 +47483,7 @@
       <c r="F1" s="132"/>
       <c r="G1" s="132"/>
       <c r="H1" s="142" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I1" s="132"/>
       <c r="J1" s="132"/>
@@ -47509,46 +47498,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C2" s="128" t="s">
         <v>1507</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="D2" s="19" t="s">
         <v>1508</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>1509</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M2" s="131" t="s">
+        <v>1518</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>1510</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>1515</v>
-      </c>
-      <c r="J2" s="129" t="s">
-        <v>1516</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>1517</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>1518</v>
-      </c>
-      <c r="M2" s="131" t="s">
+      <c r="O2" s="19" t="s">
         <v>1519</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>1511</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -47578,23 +47567,23 @@
         <v>1342</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1524</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1525</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
         <v>1342</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H4" s="35" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>1521</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>1522</v>
       </c>
       <c r="J4" s="130">
         <v>256</v>
@@ -47615,19 +47604,19 @@
         <v>424</v>
       </c>
       <c r="G5" s="35" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>1527</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>1528</v>
-      </c>
       <c r="I5" s="35" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J5" s="130">
         <v>384</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L5" s="35"/>
       <c r="M5" s="130"/>
@@ -47642,10 +47631,10 @@
         <v>1342</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>1530</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>1531</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>5</v>
@@ -47654,13 +47643,13 @@
         <v>1342</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="J6" s="130">
         <v>128</v>
@@ -47685,13 +47674,13 @@
         <v>424</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>1527</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>1528</v>
-      </c>
       <c r="I7" s="35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J7" s="130">
         <v>3072</v>
@@ -47712,19 +47701,19 @@
         <v>426</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J8" s="130">
         <v>521</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="L8" s="35" t="b">
         <v>1</v>
@@ -61424,7 +61413,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -61503,7 +61492,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1470</v>
+        <v>1548</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -61611,7 +61600,7 @@
         <v>1461</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>1462</v>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD20AE5-3760-744A-951F-4CCC0D12D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A10103-C4DD-AD49-8360-00DBD71F49CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13771,7 +13771,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13942,6 +13941,9 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19040,7 +19042,7 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -19059,22 +19061,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1483</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="133" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="132" t="s">
         <v>1482</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="137"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -19322,19 +19324,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>927</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="141" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="140" t="s">
         <v>1334</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19355,7 +19357,7 @@
       <c r="F2" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="94" t="s">
         <v>491</v>
       </c>
       <c r="H2" s="31" t="s">
@@ -19568,10 +19570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="140"/>
+      <c r="B1" s="139"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19637,16 +19639,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1406</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19937,30 +19939,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1326</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="142" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="141" t="s">
         <v>1296</v>
       </c>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26072,18 +26074,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -26199,17 +26201,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1314</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26306,25 +26308,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1315</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26439,7 +26441,7 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
@@ -26461,28 +26463,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1316</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -28951,7 +28953,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -28969,17 +28971,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1325</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -29016,11 +29018,11 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29367,13 +29369,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1311</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29630,19 +29632,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>1317</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29680,19 +29682,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
@@ -29817,15 +29819,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1318</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30005,32 +30007,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>1407</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="133" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="132" t="s">
         <v>1392</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="137"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="136"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30484,26 +30486,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1537</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="137"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="136"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30611,19 +30613,19 @@
       <c r="I4" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="126" t="s">
         <v>1473</v>
       </c>
-      <c r="K4" s="127" t="s">
+      <c r="K4" s="126" t="s">
         <v>1474</v>
       </c>
-      <c r="L4" s="127">
+      <c r="L4" s="126">
         <v>100</v>
       </c>
-      <c r="M4" s="127" t="s">
+      <c r="M4" s="126" t="s">
         <v>1475</v>
       </c>
-      <c r="N4" s="127" t="s">
+      <c r="N4" s="126" t="s">
         <v>1484</v>
       </c>
       <c r="O4" s="84" t="b">
@@ -30688,6 +30690,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{5F2F54D4-DE5B-A740-A826-1380AC8F6641}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{0D42991A-073B-0B40-AF45-49EF0E834302}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -30725,32 +30745,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1547</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="149" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="148" t="s">
         <v>1540</v>
       </c>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="151"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="150"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -31272,45 +31292,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="146" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="145" t="s">
         <v>1319</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="146"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="146"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -31462,90 +31482,90 @@
       <c r="A4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="95" t="s">
         <v>945</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="95" t="s">
         <v>1410</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="95" t="s">
         <v>1412</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="95" t="s">
         <v>944</v>
       </c>
-      <c r="G4" s="96" t="b">
+      <c r="G4" s="95" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="95" t="s">
         <v>969</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="95" t="s">
         <v>969</v>
       </c>
       <c r="J4" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="95" t="s">
         <v>943</v>
       </c>
-      <c r="L4" s="96" t="s">
+      <c r="L4" s="95" t="s">
         <v>942</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="95" t="s">
         <v>855</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="95" t="s">
         <v>1414</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="95" t="s">
         <v>1412</v>
       </c>
-      <c r="P4" s="96">
+      <c r="P4" s="95">
         <v>1</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="95" t="s">
         <v>934</v>
       </c>
-      <c r="R4" s="96">
+      <c r="R4" s="95">
         <v>32</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="95" t="s">
         <v>972</v>
       </c>
-      <c r="T4" s="96">
+      <c r="T4" s="95">
         <v>32</v>
       </c>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="95" t="s">
         <v>854</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="95" t="s">
         <v>970</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="X4" s="96" t="s">
+      <c r="X4" s="95" t="s">
         <v>1418</v>
       </c>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="97" t="s">
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="96" t="s">
         <v>941</v>
       </c>
-      <c r="AC4" s="96" t="s">
+      <c r="AC4" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
     </row>
     <row r="5" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
@@ -31553,7 +31573,7 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
-      <c r="D5" s="96"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="52"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -31566,7 +31586,7 @@
       <c r="N5" s="53" t="s">
         <v>1415</v>
       </c>
-      <c r="O5" s="96" t="s">
+      <c r="O5" s="95" t="s">
         <v>1412</v>
       </c>
       <c r="P5" s="53">
@@ -31585,13 +31605,13 @@
         <v>32</v>
       </c>
       <c r="U5" s="53"/>
-      <c r="V5" s="96" t="s">
+      <c r="V5" s="95" t="s">
         <v>970</v>
       </c>
       <c r="W5" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="96" t="s">
+      <c r="X5" s="95" t="s">
         <v>1419</v>
       </c>
       <c r="Y5" s="53"/>
@@ -31614,7 +31634,7 @@
       <c r="A6" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="95" t="s">
         <v>424</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -31632,7 +31652,7 @@
       <c r="G6" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="95" t="s">
         <v>969</v>
       </c>
       <c r="I6" s="53" t="s">
@@ -31647,7 +31667,7 @@
       <c r="N6" s="53" t="s">
         <v>1416</v>
       </c>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="95" t="s">
         <v>1412</v>
       </c>
       <c r="P6" s="53">
@@ -31665,26 +31685,26 @@
       <c r="T6" s="53">
         <v>32</v>
       </c>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="95" t="s">
         <v>854</v>
       </c>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="95" t="s">
         <v>970</v>
       </c>
       <c r="W6" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="X6" s="96" t="s">
+      <c r="X6" s="95" t="s">
         <v>1419</v>
       </c>
       <c r="Y6" s="53">
         <v>2</v>
       </c>
       <c r="Z6" s="53"/>
-      <c r="AA6" s="96" t="s">
+      <c r="AA6" s="95" t="s">
         <v>970</v>
       </c>
-      <c r="AB6" s="98"/>
+      <c r="AB6" s="97"/>
       <c r="AC6" s="53" t="s">
         <v>99</v>
       </c>
@@ -31788,27 +31808,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1320</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -32089,30 +32109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="137"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="136"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -32443,25 +32463,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -32710,30 +32730,30 @@
     <col min="18" max="18" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="132" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="138" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="153"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="152"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -33418,7 +33438,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -33432,13 +33452,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1546</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -33666,6 +33686,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{47B1B38E-AFF8-7049-B4BD-5E408E8FEEB7}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -33689,14 +33721,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="155"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -33855,22 +33887,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="137"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="136"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34415,20 +34447,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34621,7 +34653,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34639,24 +34671,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1321</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -34865,35 +34897,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1322</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="137"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="136"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
@@ -35085,7 +35117,7 @@
       <c r="AA4" s="52"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="52" t="s">
         <v>314</v>
       </c>
       <c r="B5" s="85" t="s">
@@ -38264,16 +38296,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -41183,29 +41215,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>1324</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -45650,26 +45682,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="156" t="s">
         <v>1440</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="159"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45685,16 +45717,16 @@
       <c r="D2" s="37" t="s">
         <v>1427</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="111" t="s">
         <v>1212</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="111" t="s">
         <v>1213</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>1214</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="111" t="s">
         <v>1215</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -45706,10 +45738,10 @@
       <c r="K2" s="37" t="s">
         <v>1217</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="112" t="s">
         <v>1345</v>
       </c>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="113" t="s">
         <v>1346</v>
       </c>
       <c r="N2" s="37" t="s">
@@ -45827,7 +45859,7 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="162" t="s">
         <v>4</v>
       </c>
     </row>
@@ -45871,6 +45903,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{357730DE-E609-484D-9CA9-DE05C5244025}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{47F4B22B-03E7-EA41-B3D7-A07B2AD5AABB}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -45904,23 +45954,23 @@
     <col min="15" max="15" width="46.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:15" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
         <v>1504</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -45929,7 +45979,7 @@
       <c r="B2" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="111" t="s">
         <v>1221</v>
       </c>
       <c r="D2" s="37" t="s">
@@ -45968,7 +46018,7 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -46010,13 +46060,13 @@
       <c r="N3" s="35" t="s">
         <v>1441</v>
       </c>
-      <c r="O3" s="115"/>
+      <c r="O3" s="114"/>
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="76" t="s">
         <v>1437</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -46053,13 +46103,13 @@
       <c r="N4" s="35" t="s">
         <v>1442</v>
       </c>
-      <c r="O4" s="115"/>
+      <c r="O4" s="114"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="115"/>
       <c r="C5"/>
       <c r="O5"/>
     </row>
@@ -46099,6 +46149,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{7BB79F72-2125-C54B-A1F2-16A034FAB05E}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -46110,7 +46172,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46136,26 +46198,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="287" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="161"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -46487,7 +46549,7 @@
   </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -46503,15 +46565,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>1541</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -47440,6 +47502,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{815A3179-AB51-F848-9924-ADDDAEA75ADA}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -47473,25 +47547,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1534</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="142" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="141" t="s">
         <v>1536</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -47500,7 +47574,7 @@
       <c r="B2" s="19" t="s">
         <v>1506</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="127" t="s">
         <v>1507</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -47521,7 +47595,7 @@
       <c r="I2" s="19" t="s">
         <v>1514</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="128" t="s">
         <v>1515</v>
       </c>
       <c r="K2" s="19" t="s">
@@ -47530,7 +47604,7 @@
       <c r="L2" s="19" t="s">
         <v>1517</v>
       </c>
-      <c r="M2" s="131" t="s">
+      <c r="M2" s="130" t="s">
         <v>1518</v>
       </c>
       <c r="N2" s="19" t="s">
@@ -47552,10 +47626,10 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="130"/>
+      <c r="J3" s="129"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="130"/>
+      <c r="M3" s="129"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
@@ -47585,12 +47659,12 @@
       <c r="I4" s="35" t="s">
         <v>1521</v>
       </c>
-      <c r="J4" s="130">
+      <c r="J4" s="129">
         <v>256</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="130"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
@@ -47612,14 +47686,14 @@
       <c r="I5" s="35" t="s">
         <v>1522</v>
       </c>
-      <c r="J5" s="130">
+      <c r="J5" s="129">
         <v>384</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>1528</v>
       </c>
       <c r="L5" s="35"/>
-      <c r="M5" s="130"/>
+      <c r="M5" s="129"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
@@ -47651,14 +47725,14 @@
       <c r="I6" s="35" t="s">
         <v>1521</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="129">
         <v>128</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="130">
+      <c r="M6" s="129">
         <v>100</v>
       </c>
       <c r="N6" s="35"/>
@@ -47682,12 +47756,12 @@
       <c r="I7" s="35" t="s">
         <v>1532</v>
       </c>
-      <c r="J7" s="130">
+      <c r="J7" s="129">
         <v>3072</v>
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="130"/>
+      <c r="M7" s="129"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
     </row>
@@ -47709,7 +47783,7 @@
       <c r="I8" s="35" t="s">
         <v>1522</v>
       </c>
-      <c r="J8" s="130">
+      <c r="J8" s="129">
         <v>521</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -47718,7 +47792,7 @@
       <c r="L8" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="130">
+      <c r="M8" s="129">
         <v>365</v>
       </c>
       <c r="N8" s="35"/>
@@ -47734,10 +47808,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="130"/>
+      <c r="J9" s="129"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="130"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
     </row>
@@ -47751,10 +47825,10 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="130"/>
+      <c r="J10" s="129"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="130"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
     </row>
@@ -47768,10 +47842,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="130"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="130"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
     </row>
@@ -47785,10 +47859,10 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="130"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="130"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
     </row>
@@ -47802,10 +47876,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="130"/>
+      <c r="J13" s="129"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="130"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
     </row>
@@ -47819,10 +47893,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="130"/>
+      <c r="J14" s="129"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="130"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
     </row>
@@ -47836,10 +47910,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="130"/>
+      <c r="J15" s="129"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="130"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
     </row>
@@ -47853,10 +47927,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="130"/>
+      <c r="J16" s="129"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="130"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
     </row>
@@ -47870,10 +47944,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="130"/>
+      <c r="J17" s="129"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="130"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
     </row>
@@ -47887,10 +47961,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="130"/>
+      <c r="J18" s="129"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="130"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
     </row>
@@ -47904,10 +47978,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="130"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="130"/>
+      <c r="M19" s="129"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
     </row>
@@ -47921,10 +47995,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="130"/>
+      <c r="J20" s="129"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="130"/>
+      <c r="M20" s="129"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
     </row>
@@ -47938,10 +48012,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="130"/>
+      <c r="J21" s="129"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="130"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
     </row>
@@ -47955,10 +48029,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="130"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="130"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
     </row>
@@ -47972,10 +48046,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="130"/>
+      <c r="J23" s="129"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="130"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
     </row>
@@ -47989,10 +48063,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="130"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="130"/>
+      <c r="M24" s="129"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
     </row>
@@ -48006,10 +48080,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="130"/>
+      <c r="J25" s="129"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="130"/>
+      <c r="M25" s="129"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
     </row>
@@ -48023,10 +48097,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="130"/>
+      <c r="J26" s="129"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="130"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
     </row>
@@ -48040,10 +48114,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="130"/>
+      <c r="J27" s="129"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="130"/>
+      <c r="M27" s="129"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
     </row>
@@ -48057,10 +48131,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="130"/>
+      <c r="J28" s="129"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="130"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
     </row>
@@ -48074,10 +48148,10 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="130"/>
+      <c r="J29" s="129"/>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
-      <c r="M29" s="130"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
     </row>
@@ -48091,10 +48165,10 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="130"/>
+      <c r="J30" s="129"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="130"/>
+      <c r="M30" s="129"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
     </row>
@@ -48108,10 +48182,10 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="130"/>
+      <c r="J31" s="129"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="130"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
     </row>
@@ -48125,10 +48199,10 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="130"/>
+      <c r="J32" s="129"/>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
-      <c r="M32" s="130"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
     </row>
@@ -48142,10 +48216,10 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="130"/>
+      <c r="J33" s="129"/>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="130"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
     </row>
@@ -48159,10 +48233,10 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="130"/>
+      <c r="J34" s="129"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="130"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
     </row>
@@ -48176,10 +48250,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="130"/>
+      <c r="J35" s="129"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
-      <c r="M35" s="130"/>
+      <c r="M35" s="129"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
     </row>
@@ -48193,10 +48267,10 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="130"/>
+      <c r="J36" s="129"/>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
-      <c r="M36" s="130"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
     </row>
@@ -48210,10 +48284,10 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="130"/>
+      <c r="J37" s="129"/>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
-      <c r="M37" s="130"/>
+      <c r="M37" s="129"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
     </row>
@@ -48227,10 +48301,10 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="130"/>
+      <c r="J38" s="129"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
-      <c r="M38" s="130"/>
+      <c r="M38" s="129"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
     </row>
@@ -48244,10 +48318,10 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="130"/>
+      <c r="J39" s="129"/>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="130"/>
+      <c r="M39" s="129"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
     </row>
@@ -48261,10 +48335,10 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="130"/>
+      <c r="J40" s="129"/>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
-      <c r="M40" s="130"/>
+      <c r="M40" s="129"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
     </row>
@@ -48278,10 +48352,10 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="130"/>
+      <c r="J41" s="129"/>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
-      <c r="M41" s="130"/>
+      <c r="M41" s="129"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
     </row>
@@ -48295,10 +48369,10 @@
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="130"/>
+      <c r="J42" s="129"/>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
-      <c r="M42" s="130"/>
+      <c r="M42" s="129"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
     </row>
@@ -48312,10 +48386,10 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="130"/>
+      <c r="J43" s="129"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="130"/>
+      <c r="M43" s="129"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
     </row>
@@ -48329,10 +48403,10 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="130"/>
+      <c r="J44" s="129"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="130"/>
+      <c r="M44" s="129"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
     </row>
@@ -48346,10 +48420,10 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="130"/>
+      <c r="J45" s="129"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="130"/>
+      <c r="M45" s="129"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
     </row>
@@ -48363,10 +48437,10 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="J46" s="130"/>
+      <c r="J46" s="129"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
-      <c r="M46" s="130"/>
+      <c r="M46" s="129"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
     </row>
@@ -48380,10 +48454,10 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="130"/>
+      <c r="J47" s="129"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="130"/>
+      <c r="M47" s="129"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
     </row>
@@ -48397,10 +48471,10 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="130"/>
+      <c r="J48" s="129"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="130"/>
+      <c r="M48" s="129"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
     </row>
@@ -48414,10 +48488,10 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="130"/>
+      <c r="J49" s="129"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="130"/>
+      <c r="M49" s="129"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
     </row>
@@ -48431,10 +48505,10 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="130"/>
+      <c r="J50" s="129"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="130"/>
+      <c r="M50" s="129"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
     </row>
@@ -48448,10 +48522,10 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="130"/>
+      <c r="J51" s="129"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="130"/>
+      <c r="M51" s="129"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
     </row>
@@ -48465,10 +48539,10 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="130"/>
+      <c r="J52" s="129"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="130"/>
+      <c r="M52" s="129"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
     </row>
@@ -48482,10 +48556,10 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="130"/>
+      <c r="J53" s="129"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="130"/>
+      <c r="M53" s="129"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
     </row>
@@ -48499,10 +48573,10 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="130"/>
+      <c r="J54" s="129"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="130"/>
+      <c r="M54" s="129"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
     </row>
@@ -48516,10 +48590,10 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="J55" s="130"/>
+      <c r="J55" s="129"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
-      <c r="M55" s="130"/>
+      <c r="M55" s="129"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
     </row>
@@ -48533,10 +48607,10 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
-      <c r="J56" s="130"/>
+      <c r="J56" s="129"/>
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
-      <c r="M56" s="130"/>
+      <c r="M56" s="129"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
     </row>
@@ -48550,10 +48624,10 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="130"/>
+      <c r="J57" s="129"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
-      <c r="M57" s="130"/>
+      <c r="M57" s="129"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
     </row>
@@ -48567,10 +48641,10 @@
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="130"/>
+      <c r="J58" s="129"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
-      <c r="M58" s="130"/>
+      <c r="M58" s="129"/>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
     </row>
@@ -48584,10 +48658,10 @@
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
-      <c r="J59" s="130"/>
+      <c r="J59" s="129"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="130"/>
+      <c r="M59" s="129"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
     </row>
@@ -48601,10 +48675,10 @@
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
-      <c r="J60" s="130"/>
+      <c r="J60" s="129"/>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
-      <c r="M60" s="130"/>
+      <c r="M60" s="129"/>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
     </row>
@@ -48618,10 +48692,10 @@
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="130"/>
+      <c r="J61" s="129"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
-      <c r="M61" s="130"/>
+      <c r="M61" s="129"/>
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
     </row>
@@ -48635,10 +48709,10 @@
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="130"/>
+      <c r="J62" s="129"/>
       <c r="K62" s="35"/>
       <c r="L62" s="35"/>
-      <c r="M62" s="130"/>
+      <c r="M62" s="129"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
     </row>
@@ -48652,10 +48726,10 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="130"/>
+      <c r="J63" s="129"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
-      <c r="M63" s="130"/>
+      <c r="M63" s="129"/>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
     </row>
@@ -48669,10 +48743,10 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="130"/>
+      <c r="J64" s="129"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
-      <c r="M64" s="130"/>
+      <c r="M64" s="129"/>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
     </row>
@@ -48686,10 +48760,10 @@
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
-      <c r="J65" s="130"/>
+      <c r="J65" s="129"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35"/>
-      <c r="M65" s="130"/>
+      <c r="M65" s="129"/>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
     </row>
@@ -48760,46 +48834,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>1047</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>1048</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>1049</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>1050</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="101" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="102" t="s">
         <v>587</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="102" t="s">
         <v>588</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="101" t="s">
         <v>583</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="100" t="s">
         <v>1051</v>
       </c>
-      <c r="M1" s="101"/>
+      <c r="M1" s="100"/>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>1052</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -48817,7 +48891,7 @@
       <c r="F2" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="104" t="s">
         <v>328</v>
       </c>
       <c r="H2" s="36" t="s">
@@ -48837,7 +48911,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="103" t="s">
         <v>1057</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -48855,7 +48929,7 @@
       <c r="F3" s="36" t="s">
         <v>1061</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="104" t="s">
         <v>1062</v>
       </c>
       <c r="H3" s="36" t="s">
@@ -48875,7 +48949,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="103" t="s">
         <v>1065</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -48897,7 +48971,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -48919,7 +48993,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="103" t="s">
         <v>1075</v>
       </c>
       <c r="B6" s="36"/>
@@ -48936,7 +49010,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="103" t="s">
         <v>1079</v>
       </c>
       <c r="B7" s="36"/>
@@ -48953,7 +49027,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="103" t="s">
         <v>1083</v>
       </c>
       <c r="B8" s="36"/>
@@ -48970,7 +49044,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="103" t="s">
         <v>1087</v>
       </c>
       <c r="B9" s="36"/>
@@ -48987,7 +49061,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>1090</v>
       </c>
       <c r="B10" s="36"/>
@@ -49004,7 +49078,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="103" t="s">
         <v>1094</v>
       </c>
       <c r="B11" s="36"/>
@@ -49021,7 +49095,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="103" t="s">
         <v>1098</v>
       </c>
       <c r="B12" s="36"/>
@@ -49038,7 +49112,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="103" t="s">
         <v>1102</v>
       </c>
       <c r="B13" s="36"/>
@@ -49055,7 +49129,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="103" t="s">
         <v>332</v>
       </c>
       <c r="B14" s="36"/>
@@ -50217,7 +50291,7 @@
         <f t="array" aca="1" ref="AT2:AT6" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
         <v>VCN::fwl-vcn</v>
       </c>
-      <c r="AU2" s="107" t="str">
+      <c r="AU2" s="106" t="str">
         <f ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>fwl-mgmt</v>
       </c>
@@ -50375,7 +50449,7 @@
         <f ca="1"/>
         <v>VCN::prod-vcn</v>
       </c>
-      <c r="AU3" s="107" t="str">
+      <c r="AU3" s="106" t="str">
         <f t="shared" ref="AU3:AU66" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>fwl-pub</v>
       </c>
@@ -50503,7 +50577,7 @@
         <f ca="1"/>
         <v>VCN::nonprod-vcn</v>
       </c>
-      <c r="AU4" s="107" t="str">
+      <c r="AU4" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>fwl-priv</v>
       </c>
@@ -50610,7 +50684,7 @@
         <f ca="1"/>
         <v>VCN::exa-vcn</v>
       </c>
-      <c r="AU5" s="107" t="str">
+      <c r="AU5" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>fwl-ha</v>
       </c>
@@ -50709,7 +50783,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AU6" s="107" t="str">
+      <c r="AU6" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-web</v>
       </c>
@@ -50795,7 +50869,7 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
       <c r="AN7" s="58"/>
-      <c r="AU7" s="107" t="str">
+      <c r="AU7" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-app</v>
       </c>
@@ -50881,7 +50955,7 @@
       <c r="AL8" s="58"/>
       <c r="AM8" s="58"/>
       <c r="AN8" s="58"/>
-      <c r="AU8" s="107" t="str">
+      <c r="AU8" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-db</v>
       </c>
@@ -50967,7 +51041,7 @@
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
       <c r="AN9" s="58"/>
-      <c r="AU9" s="107" t="str">
+      <c r="AU9" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-web</v>
       </c>
@@ -51053,7 +51127,7 @@
       <c r="AL10" s="58"/>
       <c r="AM10" s="58"/>
       <c r="AN10" s="58"/>
-      <c r="AU10" s="107" t="str">
+      <c r="AU10" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-app</v>
       </c>
@@ -51139,7 +51213,7 @@
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
       <c r="AN11" s="58"/>
-      <c r="AU11" s="107" t="str">
+      <c r="AU11" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-db</v>
       </c>
@@ -51223,7 +51297,7 @@
       <c r="AL12" s="58"/>
       <c r="AM12" s="58"/>
       <c r="AN12" s="58"/>
-      <c r="AU12" s="107" t="str">
+      <c r="AU12" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-clnt</v>
       </c>
@@ -51307,7 +51381,7 @@
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
       <c r="AN13" s="58"/>
-      <c r="AU13" s="107" t="str">
+      <c r="AU13" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-bkup</v>
       </c>
@@ -51388,7 +51462,7 @@
       <c r="AL14" s="58"/>
       <c r="AM14" s="58"/>
       <c r="AN14" s="58"/>
-      <c r="AU14" s="107" t="str">
+      <c r="AU14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-bkup</v>
       </c>
@@ -51465,7 +51539,7 @@
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
       <c r="AN15" s="58"/>
-      <c r="AU15" s="107" t="str">
+      <c r="AU15" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51542,7 +51616,7 @@
       <c r="AL16" s="58"/>
       <c r="AM16" s="58"/>
       <c r="AN16" s="58"/>
-      <c r="AU16" s="107" t="str">
+      <c r="AU16" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51619,7 +51693,7 @@
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
       <c r="AN17" s="58"/>
-      <c r="AU17" s="107" t="str">
+      <c r="AU17" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51696,7 +51770,7 @@
       <c r="AL18" s="58"/>
       <c r="AM18" s="58"/>
       <c r="AN18" s="58"/>
-      <c r="AU18" s="107" t="str">
+      <c r="AU18" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51773,7 +51847,7 @@
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
       <c r="AN19" s="58"/>
-      <c r="AU19" s="107" t="str">
+      <c r="AU19" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51850,7 +51924,7 @@
       <c r="AL20" s="58"/>
       <c r="AM20" s="58"/>
       <c r="AN20" s="58"/>
-      <c r="AU20" s="107" t="str">
+      <c r="AU20" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51927,7 +52001,7 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
       <c r="AN21" s="58"/>
-      <c r="AU21" s="107" t="str">
+      <c r="AU21" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52004,7 +52078,7 @@
       <c r="AL22" s="58"/>
       <c r="AM22" s="58"/>
       <c r="AN22" s="58"/>
-      <c r="AU22" s="107" t="str">
+      <c r="AU22" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52081,7 +52155,7 @@
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
       <c r="AN23" s="58"/>
-      <c r="AU23" s="107" t="str">
+      <c r="AU23" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52158,7 +52232,7 @@
       <c r="AL24" s="58"/>
       <c r="AM24" s="58"/>
       <c r="AN24" s="58"/>
-      <c r="AU24" s="107" t="str">
+      <c r="AU24" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52235,7 +52309,7 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
       <c r="AN25" s="58"/>
-      <c r="AU25" s="107" t="str">
+      <c r="AU25" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52312,7 +52386,7 @@
       <c r="AL26" s="58"/>
       <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
-      <c r="AU26" s="107" t="str">
+      <c r="AU26" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52389,7 +52463,7 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
       <c r="AN27" s="58"/>
-      <c r="AU27" s="107" t="str">
+      <c r="AU27" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52466,7 +52540,7 @@
       <c r="AL28" s="58"/>
       <c r="AM28" s="58"/>
       <c r="AN28" s="58"/>
-      <c r="AU28" s="107" t="str">
+      <c r="AU28" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52543,7 +52617,7 @@
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
       <c r="AN29" s="58"/>
-      <c r="AU29" s="107" t="str">
+      <c r="AU29" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52620,7 +52694,7 @@
       <c r="AL30" s="58"/>
       <c r="AM30" s="58"/>
       <c r="AN30" s="58"/>
-      <c r="AU30" s="107" t="str">
+      <c r="AU30" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52697,7 +52771,7 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
       <c r="AN31" s="58"/>
-      <c r="AU31" s="107" t="str">
+      <c r="AU31" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52774,7 +52848,7 @@
       <c r="AL32" s="58"/>
       <c r="AM32" s="58"/>
       <c r="AN32" s="58"/>
-      <c r="AU32" s="107" t="str">
+      <c r="AU32" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52851,7 +52925,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
       <c r="AN33" s="58"/>
-      <c r="AU33" s="107" t="str">
+      <c r="AU33" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52928,7 +53002,7 @@
       <c r="AL34" s="58"/>
       <c r="AM34" s="58"/>
       <c r="AN34" s="58"/>
-      <c r="AU34" s="107" t="str">
+      <c r="AU34" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53005,7 +53079,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
       <c r="AN35" s="58"/>
-      <c r="AU35" s="107" t="str">
+      <c r="AU35" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53082,7 +53156,7 @@
       <c r="AL36" s="58"/>
       <c r="AM36" s="58"/>
       <c r="AN36" s="58"/>
-      <c r="AU36" s="107" t="str">
+      <c r="AU36" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53159,7 +53233,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
       <c r="AN37" s="58"/>
-      <c r="AU37" s="107" t="str">
+      <c r="AU37" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53236,7 +53310,7 @@
       <c r="AL38" s="58"/>
       <c r="AM38" s="58"/>
       <c r="AN38" s="58"/>
-      <c r="AU38" s="107" t="str">
+      <c r="AU38" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53313,7 +53387,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
       <c r="AN39" s="58"/>
-      <c r="AU39" s="107" t="str">
+      <c r="AU39" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53389,7 +53463,7 @@
       <c r="AL40" s="58"/>
       <c r="AM40" s="58"/>
       <c r="AN40" s="58"/>
-      <c r="AU40" s="107" t="str">
+      <c r="AU40" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53440,7 +53514,7 @@
         <v/>
       </c>
       <c r="AK41" s="62"/>
-      <c r="AU41" s="107" t="str">
+      <c r="AU41" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53490,7 +53564,7 @@
         <f t="array" aca="1" ref="Z42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU42" s="107" t="str">
+      <c r="AU42" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53540,7 +53614,7 @@
         <f t="array" aca="1" ref="Z43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU43" s="107" t="str">
+      <c r="AU43" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53590,7 +53664,7 @@
         <f t="array" aca="1" ref="Z44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU44" s="107" t="str">
+      <c r="AU44" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53640,7 +53714,7 @@
         <f t="array" aca="1" ref="Z45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU45" s="107" t="str">
+      <c r="AU45" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53687,7 +53761,7 @@
         <f t="array" aca="1" ref="Z46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU46" s="107" t="str">
+      <c r="AU46" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53734,7 +53808,7 @@
         <f t="array" aca="1" ref="Z47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU47" s="107" t="str">
+      <c r="AU47" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53781,7 +53855,7 @@
         <f t="array" aca="1" ref="Z48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU48" s="107" t="str">
+      <c r="AU48" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53828,7 +53902,7 @@
         <f t="array" aca="1" ref="Z49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU49" s="107" t="str">
+      <c r="AU49" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53849,7 +53923,7 @@
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="AG50" s="63"/>
-      <c r="AU50" s="107" t="str">
+      <c r="AU50" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53870,7 +53944,7 @@
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="L51" s="57"/>
-      <c r="AU51" s="107" t="str">
+      <c r="AU51" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53892,7 +53966,7 @@
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="L52" s="57"/>
-      <c r="AU52" s="107" t="str">
+      <c r="AU52" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53913,7 +53987,7 @@
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
-      <c r="AU53" s="107" t="str">
+      <c r="AU53" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53934,7 +54008,7 @@
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-      <c r="AU54" s="107" t="str">
+      <c r="AU54" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53955,7 +54029,7 @@
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
-      <c r="AU55" s="107" t="str">
+      <c r="AU55" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53976,7 +54050,7 @@
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
-      <c r="AU56" s="107" t="str">
+      <c r="AU56" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53997,7 +54071,7 @@
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
-      <c r="AU57" s="107" t="str">
+      <c r="AU57" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54018,7 +54092,7 @@
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
-      <c r="AU58" s="107" t="str">
+      <c r="AU58" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54039,7 +54113,7 @@
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
-      <c r="AU59" s="107" t="str">
+      <c r="AU59" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54060,7 +54134,7 @@
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
-      <c r="AU60" s="107" t="str">
+      <c r="AU60" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54081,7 +54155,7 @@
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
-      <c r="AU61" s="107" t="str">
+      <c r="AU61" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54102,7 +54176,7 @@
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
-      <c r="AU62" s="107" t="str">
+      <c r="AU62" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54123,7 +54197,7 @@
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-      <c r="AU63" s="107" t="str">
+      <c r="AU63" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54144,7 +54218,7 @@
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
-      <c r="AU64" s="107" t="str">
+      <c r="AU64" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54165,7 +54239,7 @@
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
-      <c r="AU65" s="107" t="str">
+      <c r="AU65" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54186,7 +54260,7 @@
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
-      <c r="AU66" s="107" t="str">
+      <c r="AU66" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54207,7 +54281,7 @@
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-      <c r="AU67" s="107" t="str">
+      <c r="AU67" s="106" t="str">
         <f t="shared" ref="AU67:AU130" ca="1" si="3">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -54228,7 +54302,7 @@
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-      <c r="AU68" s="107" t="str">
+      <c r="AU68" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54249,7 +54323,7 @@
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
-      <c r="AU69" s="107" t="str">
+      <c r="AU69" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54270,7 +54344,7 @@
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
-      <c r="AU70" s="107" t="str">
+      <c r="AU70" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54291,7 +54365,7 @@
       </c>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
-      <c r="AU71" s="107" t="str">
+      <c r="AU71" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54312,7 +54386,7 @@
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
-      <c r="AU72" s="107" t="str">
+      <c r="AU72" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54333,7 +54407,7 @@
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
-      <c r="AU73" s="107" t="str">
+      <c r="AU73" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54354,7 +54428,7 @@
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
-      <c r="AU74" s="107" t="str">
+      <c r="AU74" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54375,7 +54449,7 @@
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="AU75" s="107" t="str">
+      <c r="AU75" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54396,7 +54470,7 @@
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
-      <c r="AU76" s="107" t="str">
+      <c r="AU76" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54417,7 +54491,7 @@
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
-      <c r="AU77" s="107" t="str">
+      <c r="AU77" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54438,7 +54512,7 @@
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
-      <c r="AU78" s="107" t="str">
+      <c r="AU78" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54459,7 +54533,7 @@
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
-      <c r="AU79" s="107" t="str">
+      <c r="AU79" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54480,7 +54554,7 @@
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
-      <c r="AU80" s="107" t="str">
+      <c r="AU80" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54501,7 +54575,7 @@
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
-      <c r="AU81" s="107" t="str">
+      <c r="AU81" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54522,7 +54596,7 @@
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
-      <c r="AU82" s="107" t="str">
+      <c r="AU82" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54543,7 +54617,7 @@
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
-      <c r="AU83" s="107" t="str">
+      <c r="AU83" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54564,7 +54638,7 @@
       </c>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
-      <c r="AU84" s="107" t="str">
+      <c r="AU84" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54585,7 +54659,7 @@
       </c>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
-      <c r="AU85" s="107" t="str">
+      <c r="AU85" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54606,7 +54680,7 @@
       </c>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-      <c r="AU86" s="107" t="str">
+      <c r="AU86" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54627,7 +54701,7 @@
       </c>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
-      <c r="AU87" s="107" t="str">
+      <c r="AU87" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54648,7 +54722,7 @@
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
-      <c r="AU88" s="107" t="str">
+      <c r="AU88" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54669,7 +54743,7 @@
       </c>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
-      <c r="AU89" s="107" t="str">
+      <c r="AU89" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54690,7 +54764,7 @@
       </c>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
-      <c r="AU90" s="107" t="str">
+      <c r="AU90" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54711,7 +54785,7 @@
       </c>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="AU91" s="107" t="str">
+      <c r="AU91" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54732,7 +54806,7 @@
       </c>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
-      <c r="AU92" s="107" t="str">
+      <c r="AU92" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54753,7 +54827,7 @@
       </c>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="AU93" s="107" t="str">
+      <c r="AU93" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54774,7 +54848,7 @@
       </c>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="AU94" s="107" t="str">
+      <c r="AU94" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54795,7 +54869,7 @@
       </c>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
-      <c r="AU95" s="107" t="str">
+      <c r="AU95" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54816,7 +54890,7 @@
       </c>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
-      <c r="AU96" s="107" t="str">
+      <c r="AU96" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54837,7 +54911,7 @@
       </c>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
-      <c r="AU97" s="107" t="str">
+      <c r="AU97" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54858,7 +54932,7 @@
       </c>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-      <c r="AU98" s="107" t="str">
+      <c r="AU98" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54879,7 +54953,7 @@
       </c>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-      <c r="AU99" s="107" t="str">
+      <c r="AU99" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54900,7 +54974,7 @@
       </c>
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
-      <c r="AU100" s="107" t="str">
+      <c r="AU100" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54921,7 +54995,7 @@
       </c>
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
-      <c r="AU101" s="107" t="str">
+      <c r="AU101" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54942,7 +55016,7 @@
       </c>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
-      <c r="AU102" s="107" t="str">
+      <c r="AU102" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54963,7 +55037,7 @@
       </c>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
-      <c r="AU103" s="107" t="str">
+      <c r="AU103" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54984,7 +55058,7 @@
       </c>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
-      <c r="AU104" s="107" t="str">
+      <c r="AU104" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55005,7 +55079,7 @@
       </c>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
-      <c r="AU105" s="107" t="str">
+      <c r="AU105" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55026,7 +55100,7 @@
       </c>
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
-      <c r="AU106" s="107" t="str">
+      <c r="AU106" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55047,7 +55121,7 @@
       </c>
       <c r="I107" s="36"/>
       <c r="J107" s="36"/>
-      <c r="AU107" s="107" t="str">
+      <c r="AU107" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55068,7 +55142,7 @@
       </c>
       <c r="I108" s="36"/>
       <c r="J108" s="36"/>
-      <c r="AU108" s="107" t="str">
+      <c r="AU108" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55089,7 +55163,7 @@
       </c>
       <c r="I109" s="36"/>
       <c r="J109" s="36"/>
-      <c r="AU109" s="107" t="str">
+      <c r="AU109" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55110,7 +55184,7 @@
       </c>
       <c r="I110" s="36"/>
       <c r="J110" s="36"/>
-      <c r="AU110" s="107" t="str">
+      <c r="AU110" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55131,7 +55205,7 @@
       </c>
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
-      <c r="AU111" s="107" t="str">
+      <c r="AU111" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55152,7 +55226,7 @@
       </c>
       <c r="I112" s="36"/>
       <c r="J112" s="36"/>
-      <c r="AU112" s="107" t="str">
+      <c r="AU112" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55173,7 +55247,7 @@
       </c>
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
-      <c r="AU113" s="107" t="str">
+      <c r="AU113" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55194,7 +55268,7 @@
       </c>
       <c r="I114" s="36"/>
       <c r="J114" s="36"/>
-      <c r="AU114" s="107" t="str">
+      <c r="AU114" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55215,7 +55289,7 @@
       </c>
       <c r="I115" s="36"/>
       <c r="J115" s="36"/>
-      <c r="AU115" s="107" t="str">
+      <c r="AU115" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55236,7 +55310,7 @@
       </c>
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
-      <c r="AU116" s="107" t="str">
+      <c r="AU116" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55257,7 +55331,7 @@
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
-      <c r="AU117" s="107" t="str">
+      <c r="AU117" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55278,7 +55352,7 @@
       </c>
       <c r="I118" s="36"/>
       <c r="J118" s="36"/>
-      <c r="AU118" s="107" t="str">
+      <c r="AU118" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55299,7 +55373,7 @@
       </c>
       <c r="I119" s="36"/>
       <c r="J119" s="36"/>
-      <c r="AU119" s="107" t="str">
+      <c r="AU119" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55320,7 +55394,7 @@
       </c>
       <c r="I120" s="36"/>
       <c r="J120" s="36"/>
-      <c r="AU120" s="107" t="str">
+      <c r="AU120" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55341,7 +55415,7 @@
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
-      <c r="AU121" s="107" t="str">
+      <c r="AU121" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55362,7 +55436,7 @@
       </c>
       <c r="I122" s="36"/>
       <c r="J122" s="36"/>
-      <c r="AU122" s="107" t="str">
+      <c r="AU122" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55383,7 +55457,7 @@
       </c>
       <c r="I123" s="36"/>
       <c r="J123" s="36"/>
-      <c r="AU123" s="107" t="str">
+      <c r="AU123" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55404,7 +55478,7 @@
       </c>
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
-      <c r="AU124" s="107" t="str">
+      <c r="AU124" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55425,7 +55499,7 @@
       </c>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
-      <c r="AU125" s="107" t="str">
+      <c r="AU125" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55446,7 +55520,7 @@
       </c>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
-      <c r="AU126" s="107" t="str">
+      <c r="AU126" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55467,7 +55541,7 @@
       </c>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
-      <c r="AU127" s="107" t="str">
+      <c r="AU127" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55488,7 +55562,7 @@
       </c>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
-      <c r="AU128" s="107" t="str">
+      <c r="AU128" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55509,7 +55583,7 @@
       </c>
       <c r="I129" s="36"/>
       <c r="J129" s="36"/>
-      <c r="AU129" s="107" t="str">
+      <c r="AU129" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55530,7 +55604,7 @@
       </c>
       <c r="I130" s="36"/>
       <c r="J130" s="36"/>
-      <c r="AU130" s="107" t="str">
+      <c r="AU130" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55551,7 +55625,7 @@
       </c>
       <c r="I131" s="36"/>
       <c r="J131" s="36"/>
-      <c r="AU131" s="107" t="str">
+      <c r="AU131" s="106" t="str">
         <f t="shared" ref="AU131:AU194" ca="1" si="5">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -55572,7 +55646,7 @@
       </c>
       <c r="I132" s="36"/>
       <c r="J132" s="36"/>
-      <c r="AU132" s="107" t="str">
+      <c r="AU132" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55593,7 +55667,7 @@
       </c>
       <c r="I133" s="36"/>
       <c r="J133" s="36"/>
-      <c r="AU133" s="107" t="str">
+      <c r="AU133" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55614,7 +55688,7 @@
       </c>
       <c r="I134" s="36"/>
       <c r="J134" s="36"/>
-      <c r="AU134" s="107" t="str">
+      <c r="AU134" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55635,7 +55709,7 @@
       </c>
       <c r="I135" s="36"/>
       <c r="J135" s="36"/>
-      <c r="AU135" s="107" t="str">
+      <c r="AU135" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55656,7 +55730,7 @@
       </c>
       <c r="I136" s="36"/>
       <c r="J136" s="36"/>
-      <c r="AU136" s="107" t="str">
+      <c r="AU136" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55677,7 +55751,7 @@
       </c>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
-      <c r="AU137" s="107" t="str">
+      <c r="AU137" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55698,7 +55772,7 @@
       </c>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
-      <c r="AU138" s="107" t="str">
+      <c r="AU138" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55719,7 +55793,7 @@
       </c>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
-      <c r="AU139" s="107" t="str">
+      <c r="AU139" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55740,7 +55814,7 @@
       </c>
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
-      <c r="AU140" s="107" t="str">
+      <c r="AU140" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55761,7 +55835,7 @@
       </c>
       <c r="I141" s="36"/>
       <c r="J141" s="36"/>
-      <c r="AU141" s="107" t="str">
+      <c r="AU141" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55782,7 +55856,7 @@
       </c>
       <c r="I142" s="36"/>
       <c r="J142" s="36"/>
-      <c r="AU142" s="107" t="str">
+      <c r="AU142" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55803,7 +55877,7 @@
       </c>
       <c r="I143" s="36"/>
       <c r="J143" s="36"/>
-      <c r="AU143" s="107" t="str">
+      <c r="AU143" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55824,7 +55898,7 @@
       </c>
       <c r="I144" s="36"/>
       <c r="J144" s="36"/>
-      <c r="AU144" s="107" t="str">
+      <c r="AU144" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55845,7 +55919,7 @@
       </c>
       <c r="I145" s="36"/>
       <c r="J145" s="36"/>
-      <c r="AU145" s="107" t="str">
+      <c r="AU145" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55866,7 +55940,7 @@
       </c>
       <c r="I146" s="36"/>
       <c r="J146" s="36"/>
-      <c r="AU146" s="107" t="str">
+      <c r="AU146" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55887,7 +55961,7 @@
       </c>
       <c r="I147" s="36"/>
       <c r="J147" s="36"/>
-      <c r="AU147" s="107" t="str">
+      <c r="AU147" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55908,7 +55982,7 @@
       </c>
       <c r="I148" s="36"/>
       <c r="J148" s="36"/>
-      <c r="AU148" s="107" t="str">
+      <c r="AU148" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55929,7 +56003,7 @@
       </c>
       <c r="I149" s="36"/>
       <c r="J149" s="36"/>
-      <c r="AU149" s="107" t="str">
+      <c r="AU149" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55950,7 +56024,7 @@
       </c>
       <c r="I150" s="36"/>
       <c r="J150" s="36"/>
-      <c r="AU150" s="107" t="str">
+      <c r="AU150" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55971,7 +56045,7 @@
       </c>
       <c r="I151" s="36"/>
       <c r="J151" s="36"/>
-      <c r="AU151" s="107" t="str">
+      <c r="AU151" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55992,7 +56066,7 @@
       </c>
       <c r="I152" s="36"/>
       <c r="J152" s="36"/>
-      <c r="AU152" s="107" t="str">
+      <c r="AU152" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56013,7 +56087,7 @@
       </c>
       <c r="I153" s="36"/>
       <c r="J153" s="36"/>
-      <c r="AU153" s="107" t="str">
+      <c r="AU153" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56034,7 +56108,7 @@
       </c>
       <c r="I154" s="36"/>
       <c r="J154" s="36"/>
-      <c r="AU154" s="107" t="str">
+      <c r="AU154" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56055,7 +56129,7 @@
       </c>
       <c r="I155" s="36"/>
       <c r="J155" s="36"/>
-      <c r="AU155" s="107" t="str">
+      <c r="AU155" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56076,7 +56150,7 @@
       </c>
       <c r="I156" s="36"/>
       <c r="J156" s="36"/>
-      <c r="AU156" s="107" t="str">
+      <c r="AU156" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56097,7 +56171,7 @@
       </c>
       <c r="I157" s="36"/>
       <c r="J157" s="36"/>
-      <c r="AU157" s="107" t="str">
+      <c r="AU157" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56118,7 +56192,7 @@
       </c>
       <c r="I158" s="36"/>
       <c r="J158" s="36"/>
-      <c r="AU158" s="107" t="str">
+      <c r="AU158" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56139,7 +56213,7 @@
       </c>
       <c r="I159" s="36"/>
       <c r="J159" s="36"/>
-      <c r="AU159" s="107" t="str">
+      <c r="AU159" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56160,7 +56234,7 @@
       </c>
       <c r="I160" s="36"/>
       <c r="J160" s="36"/>
-      <c r="AU160" s="107" t="str">
+      <c r="AU160" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56181,7 +56255,7 @@
       </c>
       <c r="I161" s="36"/>
       <c r="J161" s="36"/>
-      <c r="AU161" s="107" t="str">
+      <c r="AU161" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56202,7 +56276,7 @@
       </c>
       <c r="I162" s="36"/>
       <c r="J162" s="36"/>
-      <c r="AU162" s="107" t="str">
+      <c r="AU162" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56223,7 +56297,7 @@
       </c>
       <c r="I163" s="36"/>
       <c r="J163" s="36"/>
-      <c r="AU163" s="107" t="str">
+      <c r="AU163" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56244,7 +56318,7 @@
       </c>
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
-      <c r="AU164" s="107" t="str">
+      <c r="AU164" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56265,7 +56339,7 @@
       </c>
       <c r="I165" s="36"/>
       <c r="J165" s="36"/>
-      <c r="AU165" s="107" t="str">
+      <c r="AU165" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56286,7 +56360,7 @@
       </c>
       <c r="I166" s="36"/>
       <c r="J166" s="36"/>
-      <c r="AU166" s="107" t="str">
+      <c r="AU166" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56307,7 +56381,7 @@
       </c>
       <c r="I167" s="36"/>
       <c r="J167" s="36"/>
-      <c r="AU167" s="107" t="str">
+      <c r="AU167" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56328,7 +56402,7 @@
       </c>
       <c r="I168" s="36"/>
       <c r="J168" s="36"/>
-      <c r="AU168" s="107" t="str">
+      <c r="AU168" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56349,7 +56423,7 @@
       </c>
       <c r="I169" s="36"/>
       <c r="J169" s="36"/>
-      <c r="AU169" s="107" t="str">
+      <c r="AU169" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56370,7 +56444,7 @@
       </c>
       <c r="I170" s="36"/>
       <c r="J170" s="36"/>
-      <c r="AU170" s="107" t="str">
+      <c r="AU170" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56391,7 +56465,7 @@
       </c>
       <c r="I171" s="36"/>
       <c r="J171" s="36"/>
-      <c r="AU171" s="107" t="str">
+      <c r="AU171" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56412,7 +56486,7 @@
       </c>
       <c r="I172" s="36"/>
       <c r="J172" s="36"/>
-      <c r="AU172" s="107" t="str">
+      <c r="AU172" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56433,7 +56507,7 @@
       </c>
       <c r="I173" s="36"/>
       <c r="J173" s="36"/>
-      <c r="AU173" s="107" t="str">
+      <c r="AU173" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56454,7 +56528,7 @@
       </c>
       <c r="I174" s="36"/>
       <c r="J174" s="36"/>
-      <c r="AU174" s="107" t="str">
+      <c r="AU174" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56475,7 +56549,7 @@
       </c>
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
-      <c r="AU175" s="107" t="str">
+      <c r="AU175" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56496,7 +56570,7 @@
       </c>
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
-      <c r="AU176" s="107" t="str">
+      <c r="AU176" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56517,7 +56591,7 @@
       </c>
       <c r="I177" s="36"/>
       <c r="J177" s="36"/>
-      <c r="AU177" s="107" t="str">
+      <c r="AU177" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56538,7 +56612,7 @@
       </c>
       <c r="I178" s="36"/>
       <c r="J178" s="36"/>
-      <c r="AU178" s="107" t="str">
+      <c r="AU178" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56559,7 +56633,7 @@
       </c>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
-      <c r="AU179" s="107" t="str">
+      <c r="AU179" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56580,7 +56654,7 @@
       </c>
       <c r="I180" s="36"/>
       <c r="J180" s="36"/>
-      <c r="AU180" s="107" t="str">
+      <c r="AU180" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56601,7 +56675,7 @@
       </c>
       <c r="I181" s="36"/>
       <c r="J181" s="36"/>
-      <c r="AU181" s="107" t="str">
+      <c r="AU181" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56622,7 +56696,7 @@
       </c>
       <c r="I182" s="36"/>
       <c r="J182" s="36"/>
-      <c r="AU182" s="107" t="str">
+      <c r="AU182" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56643,7 +56717,7 @@
       </c>
       <c r="I183" s="36"/>
       <c r="J183" s="36"/>
-      <c r="AU183" s="107" t="str">
+      <c r="AU183" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56664,7 +56738,7 @@
       </c>
       <c r="I184" s="36"/>
       <c r="J184" s="36"/>
-      <c r="AU184" s="107" t="str">
+      <c r="AU184" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56685,7 +56759,7 @@
       </c>
       <c r="I185" s="36"/>
       <c r="J185" s="36"/>
-      <c r="AU185" s="107" t="str">
+      <c r="AU185" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56706,7 +56780,7 @@
       </c>
       <c r="I186" s="36"/>
       <c r="J186" s="36"/>
-      <c r="AU186" s="107" t="str">
+      <c r="AU186" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56727,7 +56801,7 @@
       </c>
       <c r="I187" s="36"/>
       <c r="J187" s="36"/>
-      <c r="AU187" s="107" t="str">
+      <c r="AU187" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56748,7 +56822,7 @@
       </c>
       <c r="I188" s="36"/>
       <c r="J188" s="36"/>
-      <c r="AU188" s="107" t="str">
+      <c r="AU188" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56769,7 +56843,7 @@
       </c>
       <c r="I189" s="36"/>
       <c r="J189" s="36"/>
-      <c r="AU189" s="107" t="str">
+      <c r="AU189" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56790,7 +56864,7 @@
       </c>
       <c r="I190" s="36"/>
       <c r="J190" s="36"/>
-      <c r="AU190" s="107" t="str">
+      <c r="AU190" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56811,7 +56885,7 @@
       </c>
       <c r="I191" s="36"/>
       <c r="J191" s="36"/>
-      <c r="AU191" s="107" t="str">
+      <c r="AU191" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56832,7 +56906,7 @@
       </c>
       <c r="I192" s="36"/>
       <c r="J192" s="36"/>
-      <c r="AU192" s="107" t="str">
+      <c r="AU192" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56853,7 +56927,7 @@
       </c>
       <c r="I193" s="36"/>
       <c r="J193" s="36"/>
-      <c r="AU193" s="107" t="str">
+      <c r="AU193" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56874,7 +56948,7 @@
       </c>
       <c r="I194" s="36"/>
       <c r="J194" s="36"/>
-      <c r="AU194" s="107" t="str">
+      <c r="AU194" s="106" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56895,7 +56969,7 @@
       </c>
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
-      <c r="AU195" s="107" t="str">
+      <c r="AU195" s="106" t="str">
         <f t="shared" ref="AU195:AU200" ca="1" si="7">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -56916,7 +56990,7 @@
       </c>
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
-      <c r="AU196" s="107" t="str">
+      <c r="AU196" s="106" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -56937,7 +57011,7 @@
       </c>
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
-      <c r="AU197" s="107" t="str">
+      <c r="AU197" s="106" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -56958,7 +57032,7 @@
       </c>
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
-      <c r="AU198" s="107" t="str">
+      <c r="AU198" s="106" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -56979,7 +57053,7 @@
       </c>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
-      <c r="AU199" s="107" t="str">
+      <c r="AU199" s="106" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57000,7 +57074,7 @@
       </c>
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
-      <c r="AU200" s="107" t="str">
+      <c r="AU200" s="106" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57552,14 +57626,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1353</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -57625,16 +57699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1312</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -58642,7 +58716,7 @@
       <c r="E80" s="35" t="s">
         <v>1365</v>
       </c>
-      <c r="F80" s="108"/>
+      <c r="F80" s="107"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
     </row>
@@ -59763,7 +59837,7 @@
       <c r="D171" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="E171" s="99" t="s">
+      <c r="E171" s="98" t="s">
         <v>1030</v>
       </c>
       <c r="F171" s="35"/>
@@ -61030,19 +61104,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>576</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="137" t="s">
         <v>850</v>
       </c>
-      <c r="H1" s="139"/>
-      <c r="I1" s="140"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -61412,28 +61486,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1481</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>1422</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>402</v>
       </c>
     </row>
@@ -61460,6 +61534,18 @@
     <dataValidation allowBlank="1" sqref="A1:XFD1" xr:uid="{69821E7D-0BEE-4017-9F1B-D7BEFAB77982}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{2E2303BB-372A-3948-A232-9907FC736C12}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -61482,73 +61568,73 @@
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="124" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="123" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="124" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="124" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65.6640625" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="126" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1548</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>1443</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>1444</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="110" t="s">
         <v>1445</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="110" t="s">
         <v>1446</v>
       </c>
-      <c r="H2" s="117" t="s">
+      <c r="H2" s="116" t="s">
         <v>1447</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="117" t="s">
         <v>1448</v>
       </c>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="117" t="s">
         <v>1449</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="110" t="s">
         <v>1450</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="110" t="s">
         <v>1451</v>
       </c>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="110" t="s">
         <v>1452</v>
       </c>
-      <c r="N2" s="119" t="s">
+      <c r="N2" s="118" t="s">
         <v>402</v>
       </c>
     </row>
@@ -61574,11 +61660,11 @@
       <c r="G3" s="35">
         <v>10</v>
       </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121" t="s">
+      <c r="H3" s="119"/>
+      <c r="I3" s="120" t="s">
         <v>1457</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="120" t="s">
         <v>1458</v>
       </c>
       <c r="K3" s="35"/>
@@ -61608,17 +61694,17 @@
       <c r="G4" s="35">
         <v>100</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="119">
         <v>5</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
       <c r="K4" s="35" t="s">
         <v>1463</v>
       </c>
-      <c r="L4" s="122"/>
+      <c r="L4" s="121"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="123"/>
+      <c r="N4" s="122"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
@@ -61628,9 +61714,9 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="35" t="s">
         <v>1469</v>
       </c>
@@ -61640,7 +61726,7 @@
       <c r="M5" s="35" t="s">
         <v>1465</v>
       </c>
-      <c r="N5" s="123"/>
+      <c r="N5" s="122"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
@@ -61650,9 +61736,9 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
       <c r="K6" s="35" t="s">
         <v>1466</v>
       </c>
@@ -61660,7 +61746,7 @@
         <v>1467</v>
       </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="123"/>
+      <c r="N6" s="122"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
@@ -61672,13 +61758,13 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="123"/>
+      <c r="N7" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -61710,5 +61796,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{02290C8B-B188-2048-8777-E965DBFF9BA3}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A10103-C4DD-AD49-8360-00DBD71F49CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD20AE5-3760-744A-951F-4CCC0D12D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13771,6 +13771,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13941,9 +13942,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -19042,7 +19040,7 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -19061,22 +19059,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1483</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="132" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="133" t="s">
         <v>1482</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="136"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -19324,19 +19322,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>927</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="140" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="141" t="s">
         <v>1334</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19357,7 +19355,7 @@
       <c r="F2" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="95" t="s">
         <v>491</v>
       </c>
       <c r="H2" s="31" t="s">
@@ -19570,10 +19568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>629</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19639,16 +19637,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1406</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19939,30 +19937,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1326</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="141" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="142" t="s">
         <v>1296</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26074,18 +26072,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1313</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -26201,17 +26199,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1314</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26308,25 +26306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1315</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26441,7 +26439,7 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
@@ -26463,28 +26461,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1316</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -28953,7 +28951,7 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -28971,17 +28969,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1325</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -29018,11 +29016,11 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29369,13 +29367,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1311</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29632,19 +29630,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>1317</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29682,19 +29680,19 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
     </row>
     <row r="4" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
@@ -29819,15 +29817,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1318</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30007,32 +30005,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>1407</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="132" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="133" t="s">
         <v>1392</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="136"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30486,26 +30484,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1537</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="137"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30613,19 +30611,19 @@
       <c r="I4" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="J4" s="127" t="s">
         <v>1473</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="127" t="s">
         <v>1474</v>
       </c>
-      <c r="L4" s="126">
+      <c r="L4" s="127">
         <v>100</v>
       </c>
-      <c r="M4" s="126" t="s">
+      <c r="M4" s="127" t="s">
         <v>1475</v>
       </c>
-      <c r="N4" s="126" t="s">
+      <c r="N4" s="127" t="s">
         <v>1484</v>
       </c>
       <c r="O4" s="84" t="b">
@@ -30690,24 +30688,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{5F2F54D4-DE5B-A740-A826-1380AC8F6641}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{0D42991A-073B-0B40-AF45-49EF0E834302}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -30745,32 +30725,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1547</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="148" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="149" t="s">
         <v>1540</v>
       </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="151"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -31292,45 +31272,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1408</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="145" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="146" t="s">
         <v>1319</v>
       </c>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -31482,90 +31462,90 @@
       <c r="A4" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>424</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>945</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>1410</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="96" t="s">
         <v>1412</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="96" t="s">
         <v>944</v>
       </c>
-      <c r="G4" s="95" t="b">
+      <c r="G4" s="96" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="96" t="s">
         <v>969</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="96" t="s">
         <v>969</v>
       </c>
       <c r="J4" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="96" t="s">
         <v>943</v>
       </c>
-      <c r="L4" s="95" t="s">
+      <c r="L4" s="96" t="s">
         <v>942</v>
       </c>
-      <c r="M4" s="95" t="s">
+      <c r="M4" s="96" t="s">
         <v>855</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="96" t="s">
         <v>1414</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="96" t="s">
         <v>1412</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="96">
         <v>1</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="96" t="s">
         <v>934</v>
       </c>
-      <c r="R4" s="95">
+      <c r="R4" s="96">
         <v>32</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="96" t="s">
         <v>972</v>
       </c>
-      <c r="T4" s="95">
+      <c r="T4" s="96">
         <v>32</v>
       </c>
-      <c r="U4" s="95" t="s">
+      <c r="U4" s="96" t="s">
         <v>854</v>
       </c>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="96" t="s">
         <v>970</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="X4" s="95" t="s">
+      <c r="X4" s="96" t="s">
         <v>1418</v>
       </c>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="96" t="s">
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="97" t="s">
         <v>941</v>
       </c>
-      <c r="AC4" s="95" t="s">
+      <c r="AC4" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
     </row>
     <row r="5" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
@@ -31573,7 +31553,7 @@
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
-      <c r="D5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="52"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -31586,7 +31566,7 @@
       <c r="N5" s="53" t="s">
         <v>1415</v>
       </c>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="96" t="s">
         <v>1412</v>
       </c>
       <c r="P5" s="53">
@@ -31605,13 +31585,13 @@
         <v>32</v>
       </c>
       <c r="U5" s="53"/>
-      <c r="V5" s="95" t="s">
+      <c r="V5" s="96" t="s">
         <v>970</v>
       </c>
       <c r="W5" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="X5" s="95" t="s">
+      <c r="X5" s="96" t="s">
         <v>1419</v>
       </c>
       <c r="Y5" s="53"/>
@@ -31634,7 +31614,7 @@
       <c r="A6" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>424</v>
       </c>
       <c r="C6" s="53" t="s">
@@ -31652,7 +31632,7 @@
       <c r="G6" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="96" t="s">
         <v>969</v>
       </c>
       <c r="I6" s="53" t="s">
@@ -31667,7 +31647,7 @@
       <c r="N6" s="53" t="s">
         <v>1416</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="96" t="s">
         <v>1412</v>
       </c>
       <c r="P6" s="53">
@@ -31685,26 +31665,26 @@
       <c r="T6" s="53">
         <v>32</v>
       </c>
-      <c r="U6" s="95" t="s">
+      <c r="U6" s="96" t="s">
         <v>854</v>
       </c>
-      <c r="V6" s="95" t="s">
+      <c r="V6" s="96" t="s">
         <v>970</v>
       </c>
       <c r="W6" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="X6" s="95" t="s">
+      <c r="X6" s="96" t="s">
         <v>1419</v>
       </c>
       <c r="Y6" s="53">
         <v>2</v>
       </c>
       <c r="Z6" s="53"/>
-      <c r="AA6" s="95" t="s">
+      <c r="AA6" s="96" t="s">
         <v>970</v>
       </c>
-      <c r="AB6" s="97"/>
+      <c r="AB6" s="98"/>
       <c r="AC6" s="53" t="s">
         <v>99</v>
       </c>
@@ -31808,27 +31788,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1320</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -32109,30 +32089,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -32463,25 +32443,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -32730,30 +32710,30 @@
     <col min="18" max="18" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="133" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="137" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="138" t="s">
         <v>416</v>
       </c>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="153"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -33438,7 +33418,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -33452,13 +33432,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1546</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -33686,18 +33666,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{47B1B38E-AFF8-7049-B4BD-5E408E8FEEB7}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -33721,14 +33689,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="154" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -33887,22 +33855,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34447,20 +34415,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34653,7 +34621,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34671,24 +34639,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1321</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -34897,35 +34865,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1322</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="136"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="134"/>
+      <c r="AA1" s="137"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
@@ -35117,7 +35085,7 @@
       <c r="AA4" s="52"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="94" t="s">
         <v>314</v>
       </c>
       <c r="B5" s="85" t="s">
@@ -38296,16 +38264,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1323</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -41215,29 +41183,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>1324</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -45682,26 +45650,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>1440</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45717,16 +45685,16 @@
       <c r="D2" s="37" t="s">
         <v>1427</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="112" t="s">
         <v>1212</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="112" t="s">
         <v>1213</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>1214</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="112" t="s">
         <v>1215</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -45738,10 +45706,10 @@
       <c r="K2" s="37" t="s">
         <v>1217</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="113" t="s">
         <v>1345</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="114" t="s">
         <v>1346</v>
       </c>
       <c r="N2" s="37" t="s">
@@ -45859,7 +45827,7 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="99" t="s">
         <v>4</v>
       </c>
     </row>
@@ -45903,24 +45871,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{357730DE-E609-484D-9CA9-DE05C5244025}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{47F4B22B-03E7-EA41-B3D7-A07B2AD5AABB}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -45954,23 +45904,23 @@
     <col min="15" max="15" width="46.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="146" t="s">
         <v>1504</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -45979,7 +45929,7 @@
       <c r="B2" s="38" t="s">
         <v>1211</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="112" t="s">
         <v>1221</v>
       </c>
       <c r="D2" s="37" t="s">
@@ -46018,7 +45968,7 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -46060,13 +46010,13 @@
       <c r="N3" s="35" t="s">
         <v>1441</v>
       </c>
-      <c r="O3" s="114"/>
+      <c r="O3" s="115"/>
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="35" t="s">
         <v>1437</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -46103,13 +46053,13 @@
       <c r="N4" s="35" t="s">
         <v>1442</v>
       </c>
-      <c r="O4" s="114"/>
+      <c r="O4" s="115"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="116"/>
       <c r="C5"/>
       <c r="O5"/>
     </row>
@@ -46149,18 +46099,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{7BB79F72-2125-C54B-A1F2-16A034FAB05E}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -46172,7 +46110,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="76" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46198,26 +46136,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="287" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -46549,7 +46487,7 @@
   </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -46565,15 +46503,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>1541</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -47502,18 +47440,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{815A3179-AB51-F848-9924-ADDDAEA75ADA}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -47547,25 +47473,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1534</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="141" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="142" t="s">
         <v>1536</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -47574,7 +47500,7 @@
       <c r="B2" s="19" t="s">
         <v>1506</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>1507</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -47595,7 +47521,7 @@
       <c r="I2" s="19" t="s">
         <v>1514</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="129" t="s">
         <v>1515</v>
       </c>
       <c r="K2" s="19" t="s">
@@ -47604,7 +47530,7 @@
       <c r="L2" s="19" t="s">
         <v>1517</v>
       </c>
-      <c r="M2" s="130" t="s">
+      <c r="M2" s="131" t="s">
         <v>1518</v>
       </c>
       <c r="N2" s="19" t="s">
@@ -47626,10 +47552,10 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="129"/>
+      <c r="M3" s="130"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
@@ -47659,12 +47585,12 @@
       <c r="I4" s="35" t="s">
         <v>1521</v>
       </c>
-      <c r="J4" s="129">
+      <c r="J4" s="130">
         <v>256</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="129"/>
+      <c r="M4" s="130"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
@@ -47686,14 +47612,14 @@
       <c r="I5" s="35" t="s">
         <v>1522</v>
       </c>
-      <c r="J5" s="129">
+      <c r="J5" s="130">
         <v>384</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>1528</v>
       </c>
       <c r="L5" s="35"/>
-      <c r="M5" s="129"/>
+      <c r="M5" s="130"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
@@ -47725,14 +47651,14 @@
       <c r="I6" s="35" t="s">
         <v>1521</v>
       </c>
-      <c r="J6" s="129">
+      <c r="J6" s="130">
         <v>128</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="129">
+      <c r="M6" s="130">
         <v>100</v>
       </c>
       <c r="N6" s="35"/>
@@ -47756,12 +47682,12 @@
       <c r="I7" s="35" t="s">
         <v>1532</v>
       </c>
-      <c r="J7" s="129">
+      <c r="J7" s="130">
         <v>3072</v>
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="129"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
     </row>
@@ -47783,7 +47709,7 @@
       <c r="I8" s="35" t="s">
         <v>1522</v>
       </c>
-      <c r="J8" s="129">
+      <c r="J8" s="130">
         <v>521</v>
       </c>
       <c r="K8" s="35" t="s">
@@ -47792,7 +47718,7 @@
       <c r="L8" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="129">
+      <c r="M8" s="130">
         <v>365</v>
       </c>
       <c r="N8" s="35"/>
@@ -47808,10 +47734,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="129"/>
+      <c r="J9" s="130"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="129"/>
+      <c r="M9" s="130"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
     </row>
@@ -47825,10 +47751,10 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="129"/>
+      <c r="J10" s="130"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="129"/>
+      <c r="M10" s="130"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
     </row>
@@ -47842,10 +47768,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="129"/>
+      <c r="J11" s="130"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="129"/>
+      <c r="M11" s="130"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
     </row>
@@ -47859,10 +47785,10 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="129"/>
+      <c r="J12" s="130"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="129"/>
+      <c r="M12" s="130"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
     </row>
@@ -47876,10 +47802,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="129"/>
+      <c r="J13" s="130"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="129"/>
+      <c r="M13" s="130"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
     </row>
@@ -47893,10 +47819,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="129"/>
+      <c r="J14" s="130"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="129"/>
+      <c r="M14" s="130"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
     </row>
@@ -47910,10 +47836,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="129"/>
+      <c r="J15" s="130"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="129"/>
+      <c r="M15" s="130"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
     </row>
@@ -47927,10 +47853,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="129"/>
+      <c r="J16" s="130"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="129"/>
+      <c r="M16" s="130"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
     </row>
@@ -47944,10 +47870,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="129"/>
+      <c r="J17" s="130"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="129"/>
+      <c r="M17" s="130"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
     </row>
@@ -47961,10 +47887,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="129"/>
+      <c r="J18" s="130"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="129"/>
+      <c r="M18" s="130"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
     </row>
@@ -47978,10 +47904,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="129"/>
+      <c r="J19" s="130"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="129"/>
+      <c r="M19" s="130"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
     </row>
@@ -47995,10 +47921,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="129"/>
+      <c r="J20" s="130"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="129"/>
+      <c r="M20" s="130"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
     </row>
@@ -48012,10 +47938,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="129"/>
+      <c r="J21" s="130"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="129"/>
+      <c r="M21" s="130"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
     </row>
@@ -48029,10 +47955,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="129"/>
+      <c r="J22" s="130"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="129"/>
+      <c r="M22" s="130"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
     </row>
@@ -48046,10 +47972,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="129"/>
+      <c r="J23" s="130"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="129"/>
+      <c r="M23" s="130"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
     </row>
@@ -48063,10 +47989,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="129"/>
+      <c r="J24" s="130"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="129"/>
+      <c r="M24" s="130"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
     </row>
@@ -48080,10 +48006,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="129"/>
+      <c r="J25" s="130"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="129"/>
+      <c r="M25" s="130"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
     </row>
@@ -48097,10 +48023,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="129"/>
+      <c r="J26" s="130"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="129"/>
+      <c r="M26" s="130"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
     </row>
@@ -48114,10 +48040,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="129"/>
+      <c r="J27" s="130"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="129"/>
+      <c r="M27" s="130"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
     </row>
@@ -48131,10 +48057,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="129"/>
+      <c r="J28" s="130"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="129"/>
+      <c r="M28" s="130"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
     </row>
@@ -48148,10 +48074,10 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="129"/>
+      <c r="J29" s="130"/>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
-      <c r="M29" s="129"/>
+      <c r="M29" s="130"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
     </row>
@@ -48165,10 +48091,10 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="129"/>
+      <c r="J30" s="130"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="129"/>
+      <c r="M30" s="130"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
     </row>
@@ -48182,10 +48108,10 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="129"/>
+      <c r="J31" s="130"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="129"/>
+      <c r="M31" s="130"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
     </row>
@@ -48199,10 +48125,10 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="129"/>
+      <c r="J32" s="130"/>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
-      <c r="M32" s="129"/>
+      <c r="M32" s="130"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
     </row>
@@ -48216,10 +48142,10 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="129"/>
+      <c r="J33" s="130"/>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="129"/>
+      <c r="M33" s="130"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
     </row>
@@ -48233,10 +48159,10 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="129"/>
+      <c r="J34" s="130"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="129"/>
+      <c r="M34" s="130"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
     </row>
@@ -48250,10 +48176,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="129"/>
+      <c r="J35" s="130"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
-      <c r="M35" s="129"/>
+      <c r="M35" s="130"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
     </row>
@@ -48267,10 +48193,10 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="129"/>
+      <c r="J36" s="130"/>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
-      <c r="M36" s="129"/>
+      <c r="M36" s="130"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
     </row>
@@ -48284,10 +48210,10 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="129"/>
+      <c r="J37" s="130"/>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
-      <c r="M37" s="129"/>
+      <c r="M37" s="130"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
     </row>
@@ -48301,10 +48227,10 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="129"/>
+      <c r="J38" s="130"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
-      <c r="M38" s="129"/>
+      <c r="M38" s="130"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
     </row>
@@ -48318,10 +48244,10 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="129"/>
+      <c r="J39" s="130"/>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="129"/>
+      <c r="M39" s="130"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
     </row>
@@ -48335,10 +48261,10 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="129"/>
+      <c r="J40" s="130"/>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
-      <c r="M40" s="129"/>
+      <c r="M40" s="130"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
     </row>
@@ -48352,10 +48278,10 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="129"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
-      <c r="M41" s="129"/>
+      <c r="M41" s="130"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
     </row>
@@ -48369,10 +48295,10 @@
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="129"/>
+      <c r="J42" s="130"/>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
-      <c r="M42" s="129"/>
+      <c r="M42" s="130"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
     </row>
@@ -48386,10 +48312,10 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="129"/>
+      <c r="J43" s="130"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="129"/>
+      <c r="M43" s="130"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
     </row>
@@ -48403,10 +48329,10 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="129"/>
+      <c r="J44" s="130"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="129"/>
+      <c r="M44" s="130"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
     </row>
@@ -48420,10 +48346,10 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="129"/>
+      <c r="J45" s="130"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="129"/>
+      <c r="M45" s="130"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
     </row>
@@ -48437,10 +48363,10 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="J46" s="129"/>
+      <c r="J46" s="130"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
-      <c r="M46" s="129"/>
+      <c r="M46" s="130"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
     </row>
@@ -48454,10 +48380,10 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="129"/>
+      <c r="J47" s="130"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="129"/>
+      <c r="M47" s="130"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
     </row>
@@ -48471,10 +48397,10 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="129"/>
+      <c r="J48" s="130"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="129"/>
+      <c r="M48" s="130"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
     </row>
@@ -48488,10 +48414,10 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="129"/>
+      <c r="J49" s="130"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="129"/>
+      <c r="M49" s="130"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
     </row>
@@ -48505,10 +48431,10 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="129"/>
+      <c r="J50" s="130"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="129"/>
+      <c r="M50" s="130"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
     </row>
@@ -48522,10 +48448,10 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="129"/>
+      <c r="J51" s="130"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="129"/>
+      <c r="M51" s="130"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
     </row>
@@ -48539,10 +48465,10 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="129"/>
+      <c r="J52" s="130"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="129"/>
+      <c r="M52" s="130"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
     </row>
@@ -48556,10 +48482,10 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="129"/>
+      <c r="J53" s="130"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="129"/>
+      <c r="M53" s="130"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
     </row>
@@ -48573,10 +48499,10 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="129"/>
+      <c r="J54" s="130"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="129"/>
+      <c r="M54" s="130"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
     </row>
@@ -48590,10 +48516,10 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="J55" s="129"/>
+      <c r="J55" s="130"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
-      <c r="M55" s="129"/>
+      <c r="M55" s="130"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
     </row>
@@ -48607,10 +48533,10 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
-      <c r="J56" s="129"/>
+      <c r="J56" s="130"/>
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
-      <c r="M56" s="129"/>
+      <c r="M56" s="130"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
     </row>
@@ -48624,10 +48550,10 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="129"/>
+      <c r="J57" s="130"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
-      <c r="M57" s="129"/>
+      <c r="M57" s="130"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
     </row>
@@ -48641,10 +48567,10 @@
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="129"/>
+      <c r="J58" s="130"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
-      <c r="M58" s="129"/>
+      <c r="M58" s="130"/>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
     </row>
@@ -48658,10 +48584,10 @@
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
-      <c r="J59" s="129"/>
+      <c r="J59" s="130"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="129"/>
+      <c r="M59" s="130"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
     </row>
@@ -48675,10 +48601,10 @@
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
-      <c r="J60" s="129"/>
+      <c r="J60" s="130"/>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
-      <c r="M60" s="129"/>
+      <c r="M60" s="130"/>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
     </row>
@@ -48692,10 +48618,10 @@
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="129"/>
+      <c r="J61" s="130"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
-      <c r="M61" s="129"/>
+      <c r="M61" s="130"/>
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
     </row>
@@ -48709,10 +48635,10 @@
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="129"/>
+      <c r="J62" s="130"/>
       <c r="K62" s="35"/>
       <c r="L62" s="35"/>
-      <c r="M62" s="129"/>
+      <c r="M62" s="130"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
     </row>
@@ -48726,10 +48652,10 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="129"/>
+      <c r="J63" s="130"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
-      <c r="M63" s="129"/>
+      <c r="M63" s="130"/>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
     </row>
@@ -48743,10 +48669,10 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="129"/>
+      <c r="J64" s="130"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
-      <c r="M64" s="129"/>
+      <c r="M64" s="130"/>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
     </row>
@@ -48760,10 +48686,10 @@
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
-      <c r="J65" s="129"/>
+      <c r="J65" s="130"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35"/>
-      <c r="M65" s="129"/>
+      <c r="M65" s="130"/>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
     </row>
@@ -48834,46 +48760,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>1047</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="101" t="s">
         <v>1048</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="101" t="s">
         <v>1049</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>1050</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="102" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="102" t="s">
         <v>317</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="103" t="s">
         <v>587</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="103" t="s">
         <v>588</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="102" t="s">
         <v>583</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="101" t="s">
         <v>1051</v>
       </c>
-      <c r="M1" s="100"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="104" t="s">
         <v>1052</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -48891,7 +48817,7 @@
       <c r="F2" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="105" t="s">
         <v>328</v>
       </c>
       <c r="H2" s="36" t="s">
@@ -48911,7 +48837,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="104" t="s">
         <v>1057</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -48929,7 +48855,7 @@
       <c r="F3" s="36" t="s">
         <v>1061</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="105" t="s">
         <v>1062</v>
       </c>
       <c r="H3" s="36" t="s">
@@ -48949,7 +48875,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="104" t="s">
         <v>1065</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -48971,7 +48897,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="104" t="s">
         <v>331</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -48993,7 +48919,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="104" t="s">
         <v>1075</v>
       </c>
       <c r="B6" s="36"/>
@@ -49010,7 +48936,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="104" t="s">
         <v>1079</v>
       </c>
       <c r="B7" s="36"/>
@@ -49027,7 +48953,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="104" t="s">
         <v>1083</v>
       </c>
       <c r="B8" s="36"/>
@@ -49044,7 +48970,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="104" t="s">
         <v>1087</v>
       </c>
       <c r="B9" s="36"/>
@@ -49061,7 +48987,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="104" t="s">
         <v>1090</v>
       </c>
       <c r="B10" s="36"/>
@@ -49078,7 +49004,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>1094</v>
       </c>
       <c r="B11" s="36"/>
@@ -49095,7 +49021,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="104" t="s">
         <v>1098</v>
       </c>
       <c r="B12" s="36"/>
@@ -49112,7 +49038,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="104" t="s">
         <v>1102</v>
       </c>
       <c r="B13" s="36"/>
@@ -49129,7 +49055,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="104" t="s">
         <v>332</v>
       </c>
       <c r="B14" s="36"/>
@@ -50291,7 +50217,7 @@
         <f t="array" aca="1" ref="AT2:AT6" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
         <v>VCN::fwl-vcn</v>
       </c>
-      <c r="AU2" s="106" t="str">
+      <c r="AU2" s="107" t="str">
         <f ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>fwl-mgmt</v>
       </c>
@@ -50449,7 +50375,7 @@
         <f ca="1"/>
         <v>VCN::prod-vcn</v>
       </c>
-      <c r="AU3" s="106" t="str">
+      <c r="AU3" s="107" t="str">
         <f t="shared" ref="AU3:AU66" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>fwl-pub</v>
       </c>
@@ -50577,7 +50503,7 @@
         <f ca="1"/>
         <v>VCN::nonprod-vcn</v>
       </c>
-      <c r="AU4" s="106" t="str">
+      <c r="AU4" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>fwl-priv</v>
       </c>
@@ -50684,7 +50610,7 @@
         <f ca="1"/>
         <v>VCN::exa-vcn</v>
       </c>
-      <c r="AU5" s="106" t="str">
+      <c r="AU5" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>fwl-ha</v>
       </c>
@@ -50783,7 +50709,7 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AU6" s="106" t="str">
+      <c r="AU6" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-web</v>
       </c>
@@ -50869,7 +50795,7 @@
       <c r="AL7" s="58"/>
       <c r="AM7" s="58"/>
       <c r="AN7" s="58"/>
-      <c r="AU7" s="106" t="str">
+      <c r="AU7" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-app</v>
       </c>
@@ -50955,7 +50881,7 @@
       <c r="AL8" s="58"/>
       <c r="AM8" s="58"/>
       <c r="AN8" s="58"/>
-      <c r="AU8" s="106" t="str">
+      <c r="AU8" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>prod-db</v>
       </c>
@@ -51041,7 +50967,7 @@
       <c r="AL9" s="58"/>
       <c r="AM9" s="58"/>
       <c r="AN9" s="58"/>
-      <c r="AU9" s="106" t="str">
+      <c r="AU9" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-web</v>
       </c>
@@ -51127,7 +51053,7 @@
       <c r="AL10" s="58"/>
       <c r="AM10" s="58"/>
       <c r="AN10" s="58"/>
-      <c r="AU10" s="106" t="str">
+      <c r="AU10" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-app</v>
       </c>
@@ -51213,7 +51139,7 @@
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
       <c r="AN11" s="58"/>
-      <c r="AU11" s="106" t="str">
+      <c r="AU11" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>nonprod-db</v>
       </c>
@@ -51297,7 +51223,7 @@
       <c r="AL12" s="58"/>
       <c r="AM12" s="58"/>
       <c r="AN12" s="58"/>
-      <c r="AU12" s="106" t="str">
+      <c r="AU12" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-clnt</v>
       </c>
@@ -51381,7 +51307,7 @@
       <c r="AL13" s="58"/>
       <c r="AM13" s="58"/>
       <c r="AN13" s="58"/>
-      <c r="AU13" s="106" t="str">
+      <c r="AU13" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-bkup</v>
       </c>
@@ -51462,7 +51388,7 @@
       <c r="AL14" s="58"/>
       <c r="AM14" s="58"/>
       <c r="AN14" s="58"/>
-      <c r="AU14" s="106" t="str">
+      <c r="AU14" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>exa-bkup</v>
       </c>
@@ -51539,7 +51465,7 @@
       <c r="AL15" s="58"/>
       <c r="AM15" s="58"/>
       <c r="AN15" s="58"/>
-      <c r="AU15" s="106" t="str">
+      <c r="AU15" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51616,7 +51542,7 @@
       <c r="AL16" s="58"/>
       <c r="AM16" s="58"/>
       <c r="AN16" s="58"/>
-      <c r="AU16" s="106" t="str">
+      <c r="AU16" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51693,7 +51619,7 @@
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
       <c r="AN17" s="58"/>
-      <c r="AU17" s="106" t="str">
+      <c r="AU17" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51770,7 +51696,7 @@
       <c r="AL18" s="58"/>
       <c r="AM18" s="58"/>
       <c r="AN18" s="58"/>
-      <c r="AU18" s="106" t="str">
+      <c r="AU18" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51847,7 +51773,7 @@
       <c r="AL19" s="58"/>
       <c r="AM19" s="58"/>
       <c r="AN19" s="58"/>
-      <c r="AU19" s="106" t="str">
+      <c r="AU19" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -51924,7 +51850,7 @@
       <c r="AL20" s="58"/>
       <c r="AM20" s="58"/>
       <c r="AN20" s="58"/>
-      <c r="AU20" s="106" t="str">
+      <c r="AU20" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52001,7 +51927,7 @@
       <c r="AL21" s="58"/>
       <c r="AM21" s="58"/>
       <c r="AN21" s="58"/>
-      <c r="AU21" s="106" t="str">
+      <c r="AU21" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52078,7 +52004,7 @@
       <c r="AL22" s="58"/>
       <c r="AM22" s="58"/>
       <c r="AN22" s="58"/>
-      <c r="AU22" s="106" t="str">
+      <c r="AU22" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52155,7 +52081,7 @@
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
       <c r="AN23" s="58"/>
-      <c r="AU23" s="106" t="str">
+      <c r="AU23" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52232,7 +52158,7 @@
       <c r="AL24" s="58"/>
       <c r="AM24" s="58"/>
       <c r="AN24" s="58"/>
-      <c r="AU24" s="106" t="str">
+      <c r="AU24" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52309,7 +52235,7 @@
       <c r="AL25" s="58"/>
       <c r="AM25" s="58"/>
       <c r="AN25" s="58"/>
-      <c r="AU25" s="106" t="str">
+      <c r="AU25" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52386,7 +52312,7 @@
       <c r="AL26" s="58"/>
       <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
-      <c r="AU26" s="106" t="str">
+      <c r="AU26" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52463,7 +52389,7 @@
       <c r="AL27" s="58"/>
       <c r="AM27" s="58"/>
       <c r="AN27" s="58"/>
-      <c r="AU27" s="106" t="str">
+      <c r="AU27" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52540,7 +52466,7 @@
       <c r="AL28" s="58"/>
       <c r="AM28" s="58"/>
       <c r="AN28" s="58"/>
-      <c r="AU28" s="106" t="str">
+      <c r="AU28" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52617,7 +52543,7 @@
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
       <c r="AN29" s="58"/>
-      <c r="AU29" s="106" t="str">
+      <c r="AU29" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52694,7 +52620,7 @@
       <c r="AL30" s="58"/>
       <c r="AM30" s="58"/>
       <c r="AN30" s="58"/>
-      <c r="AU30" s="106" t="str">
+      <c r="AU30" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52771,7 +52697,7 @@
       <c r="AL31" s="58"/>
       <c r="AM31" s="58"/>
       <c r="AN31" s="58"/>
-      <c r="AU31" s="106" t="str">
+      <c r="AU31" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52848,7 +52774,7 @@
       <c r="AL32" s="58"/>
       <c r="AM32" s="58"/>
       <c r="AN32" s="58"/>
-      <c r="AU32" s="106" t="str">
+      <c r="AU32" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -52925,7 +52851,7 @@
       <c r="AL33" s="58"/>
       <c r="AM33" s="58"/>
       <c r="AN33" s="58"/>
-      <c r="AU33" s="106" t="str">
+      <c r="AU33" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53002,7 +52928,7 @@
       <c r="AL34" s="58"/>
       <c r="AM34" s="58"/>
       <c r="AN34" s="58"/>
-      <c r="AU34" s="106" t="str">
+      <c r="AU34" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53079,7 +53005,7 @@
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
       <c r="AN35" s="58"/>
-      <c r="AU35" s="106" t="str">
+      <c r="AU35" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53156,7 +53082,7 @@
       <c r="AL36" s="58"/>
       <c r="AM36" s="58"/>
       <c r="AN36" s="58"/>
-      <c r="AU36" s="106" t="str">
+      <c r="AU36" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53233,7 +53159,7 @@
       <c r="AL37" s="58"/>
       <c r="AM37" s="58"/>
       <c r="AN37" s="58"/>
-      <c r="AU37" s="106" t="str">
+      <c r="AU37" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53310,7 +53236,7 @@
       <c r="AL38" s="58"/>
       <c r="AM38" s="58"/>
       <c r="AN38" s="58"/>
-      <c r="AU38" s="106" t="str">
+      <c r="AU38" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53387,7 +53313,7 @@
       <c r="AL39" s="58"/>
       <c r="AM39" s="58"/>
       <c r="AN39" s="58"/>
-      <c r="AU39" s="106" t="str">
+      <c r="AU39" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53463,7 +53389,7 @@
       <c r="AL40" s="58"/>
       <c r="AM40" s="58"/>
       <c r="AN40" s="58"/>
-      <c r="AU40" s="106" t="str">
+      <c r="AU40" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53514,7 +53440,7 @@
         <v/>
       </c>
       <c r="AK41" s="62"/>
-      <c r="AU41" s="106" t="str">
+      <c r="AU41" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53564,7 +53490,7 @@
         <f t="array" aca="1" ref="Z42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU42" s="106" t="str">
+      <c r="AU42" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53614,7 +53540,7 @@
         <f t="array" aca="1" ref="Z43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU43" s="106" t="str">
+      <c r="AU43" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53664,7 +53590,7 @@
         <f t="array" aca="1" ref="Z44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU44" s="106" t="str">
+      <c r="AU44" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53714,7 +53640,7 @@
         <f t="array" aca="1" ref="Z45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU45" s="106" t="str">
+      <c r="AU45" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53761,7 +53687,7 @@
         <f t="array" aca="1" ref="Z46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU46" s="106" t="str">
+      <c r="AU46" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53808,7 +53734,7 @@
         <f t="array" aca="1" ref="Z47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU47" s="106" t="str">
+      <c r="AU47" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53855,7 +53781,7 @@
         <f t="array" aca="1" ref="Z48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU48" s="106" t="str">
+      <c r="AU48" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53902,7 +53828,7 @@
         <f t="array" aca="1" ref="Z49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AU49" s="106" t="str">
+      <c r="AU49" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53923,7 +53849,7 @@
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
       <c r="AG50" s="63"/>
-      <c r="AU50" s="106" t="str">
+      <c r="AU50" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53944,7 +53870,7 @@
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
       <c r="L51" s="57"/>
-      <c r="AU51" s="106" t="str">
+      <c r="AU51" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53966,7 +53892,7 @@
       <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="L52" s="57"/>
-      <c r="AU52" s="106" t="str">
+      <c r="AU52" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -53987,7 +53913,7 @@
       </c>
       <c r="I53" s="36"/>
       <c r="J53" s="36"/>
-      <c r="AU53" s="106" t="str">
+      <c r="AU53" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54008,7 +53934,7 @@
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-      <c r="AU54" s="106" t="str">
+      <c r="AU54" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54029,7 +53955,7 @@
       </c>
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
-      <c r="AU55" s="106" t="str">
+      <c r="AU55" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54050,7 +53976,7 @@
       </c>
       <c r="I56" s="36"/>
       <c r="J56" s="36"/>
-      <c r="AU56" s="106" t="str">
+      <c r="AU56" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54071,7 +53997,7 @@
       </c>
       <c r="I57" s="36"/>
       <c r="J57" s="36"/>
-      <c r="AU57" s="106" t="str">
+      <c r="AU57" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54092,7 +54018,7 @@
       </c>
       <c r="I58" s="36"/>
       <c r="J58" s="36"/>
-      <c r="AU58" s="106" t="str">
+      <c r="AU58" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54113,7 +54039,7 @@
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
-      <c r="AU59" s="106" t="str">
+      <c r="AU59" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54134,7 +54060,7 @@
       </c>
       <c r="I60" s="36"/>
       <c r="J60" s="36"/>
-      <c r="AU60" s="106" t="str">
+      <c r="AU60" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54155,7 +54081,7 @@
       </c>
       <c r="I61" s="36"/>
       <c r="J61" s="36"/>
-      <c r="AU61" s="106" t="str">
+      <c r="AU61" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54176,7 +54102,7 @@
       </c>
       <c r="I62" s="36"/>
       <c r="J62" s="36"/>
-      <c r="AU62" s="106" t="str">
+      <c r="AU62" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54197,7 +54123,7 @@
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-      <c r="AU63" s="106" t="str">
+      <c r="AU63" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54218,7 +54144,7 @@
       </c>
       <c r="I64" s="36"/>
       <c r="J64" s="36"/>
-      <c r="AU64" s="106" t="str">
+      <c r="AU64" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54239,7 +54165,7 @@
       </c>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
-      <c r="AU65" s="106" t="str">
+      <c r="AU65" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54260,7 +54186,7 @@
       </c>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
-      <c r="AU66" s="106" t="str">
+      <c r="AU66" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
@@ -54281,7 +54207,7 @@
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-      <c r="AU67" s="106" t="str">
+      <c r="AU67" s="107" t="str">
         <f t="shared" ref="AU67:AU130" ca="1" si="3">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -54302,7 +54228,7 @@
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-      <c r="AU68" s="106" t="str">
+      <c r="AU68" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54323,7 +54249,7 @@
       </c>
       <c r="I69" s="36"/>
       <c r="J69" s="36"/>
-      <c r="AU69" s="106" t="str">
+      <c r="AU69" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54344,7 +54270,7 @@
       </c>
       <c r="I70" s="36"/>
       <c r="J70" s="36"/>
-      <c r="AU70" s="106" t="str">
+      <c r="AU70" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54365,7 +54291,7 @@
       </c>
       <c r="I71" s="36"/>
       <c r="J71" s="36"/>
-      <c r="AU71" s="106" t="str">
+      <c r="AU71" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54386,7 +54312,7 @@
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
-      <c r="AU72" s="106" t="str">
+      <c r="AU72" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54407,7 +54333,7 @@
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
-      <c r="AU73" s="106" t="str">
+      <c r="AU73" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54428,7 +54354,7 @@
       </c>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
-      <c r="AU74" s="106" t="str">
+      <c r="AU74" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54449,7 +54375,7 @@
       </c>
       <c r="I75" s="36"/>
       <c r="J75" s="36"/>
-      <c r="AU75" s="106" t="str">
+      <c r="AU75" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54470,7 +54396,7 @@
       </c>
       <c r="I76" s="36"/>
       <c r="J76" s="36"/>
-      <c r="AU76" s="106" t="str">
+      <c r="AU76" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54491,7 +54417,7 @@
       </c>
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
-      <c r="AU77" s="106" t="str">
+      <c r="AU77" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54512,7 +54438,7 @@
       </c>
       <c r="I78" s="36"/>
       <c r="J78" s="36"/>
-      <c r="AU78" s="106" t="str">
+      <c r="AU78" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54533,7 +54459,7 @@
       </c>
       <c r="I79" s="36"/>
       <c r="J79" s="36"/>
-      <c r="AU79" s="106" t="str">
+      <c r="AU79" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54554,7 +54480,7 @@
       </c>
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
-      <c r="AU80" s="106" t="str">
+      <c r="AU80" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54575,7 +54501,7 @@
       </c>
       <c r="I81" s="36"/>
       <c r="J81" s="36"/>
-      <c r="AU81" s="106" t="str">
+      <c r="AU81" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54596,7 +54522,7 @@
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="36"/>
-      <c r="AU82" s="106" t="str">
+      <c r="AU82" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54617,7 +54543,7 @@
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="36"/>
-      <c r="AU83" s="106" t="str">
+      <c r="AU83" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54638,7 +54564,7 @@
       </c>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
-      <c r="AU84" s="106" t="str">
+      <c r="AU84" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54659,7 +54585,7 @@
       </c>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
-      <c r="AU85" s="106" t="str">
+      <c r="AU85" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54680,7 +54606,7 @@
       </c>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
-      <c r="AU86" s="106" t="str">
+      <c r="AU86" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54701,7 +54627,7 @@
       </c>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
-      <c r="AU87" s="106" t="str">
+      <c r="AU87" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54722,7 +54648,7 @@
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
-      <c r="AU88" s="106" t="str">
+      <c r="AU88" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54743,7 +54669,7 @@
       </c>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
-      <c r="AU89" s="106" t="str">
+      <c r="AU89" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54764,7 +54690,7 @@
       </c>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
-      <c r="AU90" s="106" t="str">
+      <c r="AU90" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54785,7 +54711,7 @@
       </c>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
-      <c r="AU91" s="106" t="str">
+      <c r="AU91" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54806,7 +54732,7 @@
       </c>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
-      <c r="AU92" s="106" t="str">
+      <c r="AU92" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54827,7 +54753,7 @@
       </c>
       <c r="I93" s="36"/>
       <c r="J93" s="36"/>
-      <c r="AU93" s="106" t="str">
+      <c r="AU93" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54848,7 +54774,7 @@
       </c>
       <c r="I94" s="36"/>
       <c r="J94" s="36"/>
-      <c r="AU94" s="106" t="str">
+      <c r="AU94" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54869,7 +54795,7 @@
       </c>
       <c r="I95" s="36"/>
       <c r="J95" s="36"/>
-      <c r="AU95" s="106" t="str">
+      <c r="AU95" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54890,7 +54816,7 @@
       </c>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
-      <c r="AU96" s="106" t="str">
+      <c r="AU96" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54911,7 +54837,7 @@
       </c>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
-      <c r="AU97" s="106" t="str">
+      <c r="AU97" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54932,7 +54858,7 @@
       </c>
       <c r="I98" s="36"/>
       <c r="J98" s="36"/>
-      <c r="AU98" s="106" t="str">
+      <c r="AU98" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54953,7 +54879,7 @@
       </c>
       <c r="I99" s="36"/>
       <c r="J99" s="36"/>
-      <c r="AU99" s="106" t="str">
+      <c r="AU99" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54974,7 +54900,7 @@
       </c>
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
-      <c r="AU100" s="106" t="str">
+      <c r="AU100" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -54995,7 +54921,7 @@
       </c>
       <c r="I101" s="36"/>
       <c r="J101" s="36"/>
-      <c r="AU101" s="106" t="str">
+      <c r="AU101" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55016,7 +54942,7 @@
       </c>
       <c r="I102" s="36"/>
       <c r="J102" s="36"/>
-      <c r="AU102" s="106" t="str">
+      <c r="AU102" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55037,7 +54963,7 @@
       </c>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
-      <c r="AU103" s="106" t="str">
+      <c r="AU103" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55058,7 +54984,7 @@
       </c>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
-      <c r="AU104" s="106" t="str">
+      <c r="AU104" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55079,7 +55005,7 @@
       </c>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
-      <c r="AU105" s="106" t="str">
+      <c r="AU105" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55100,7 +55026,7 @@
       </c>
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
-      <c r="AU106" s="106" t="str">
+      <c r="AU106" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55121,7 +55047,7 @@
       </c>
       <c r="I107" s="36"/>
       <c r="J107" s="36"/>
-      <c r="AU107" s="106" t="str">
+      <c r="AU107" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55142,7 +55068,7 @@
       </c>
       <c r="I108" s="36"/>
       <c r="J108" s="36"/>
-      <c r="AU108" s="106" t="str">
+      <c r="AU108" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55163,7 +55089,7 @@
       </c>
       <c r="I109" s="36"/>
       <c r="J109" s="36"/>
-      <c r="AU109" s="106" t="str">
+      <c r="AU109" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55184,7 +55110,7 @@
       </c>
       <c r="I110" s="36"/>
       <c r="J110" s="36"/>
-      <c r="AU110" s="106" t="str">
+      <c r="AU110" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55205,7 +55131,7 @@
       </c>
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
-      <c r="AU111" s="106" t="str">
+      <c r="AU111" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55226,7 +55152,7 @@
       </c>
       <c r="I112" s="36"/>
       <c r="J112" s="36"/>
-      <c r="AU112" s="106" t="str">
+      <c r="AU112" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55247,7 +55173,7 @@
       </c>
       <c r="I113" s="36"/>
       <c r="J113" s="36"/>
-      <c r="AU113" s="106" t="str">
+      <c r="AU113" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55268,7 +55194,7 @@
       </c>
       <c r="I114" s="36"/>
       <c r="J114" s="36"/>
-      <c r="AU114" s="106" t="str">
+      <c r="AU114" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55289,7 +55215,7 @@
       </c>
       <c r="I115" s="36"/>
       <c r="J115" s="36"/>
-      <c r="AU115" s="106" t="str">
+      <c r="AU115" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55310,7 +55236,7 @@
       </c>
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
-      <c r="AU116" s="106" t="str">
+      <c r="AU116" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55331,7 +55257,7 @@
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
-      <c r="AU117" s="106" t="str">
+      <c r="AU117" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55352,7 +55278,7 @@
       </c>
       <c r="I118" s="36"/>
       <c r="J118" s="36"/>
-      <c r="AU118" s="106" t="str">
+      <c r="AU118" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55373,7 +55299,7 @@
       </c>
       <c r="I119" s="36"/>
       <c r="J119" s="36"/>
-      <c r="AU119" s="106" t="str">
+      <c r="AU119" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55394,7 +55320,7 @@
       </c>
       <c r="I120" s="36"/>
       <c r="J120" s="36"/>
-      <c r="AU120" s="106" t="str">
+      <c r="AU120" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55415,7 +55341,7 @@
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
-      <c r="AU121" s="106" t="str">
+      <c r="AU121" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55436,7 +55362,7 @@
       </c>
       <c r="I122" s="36"/>
       <c r="J122" s="36"/>
-      <c r="AU122" s="106" t="str">
+      <c r="AU122" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55457,7 +55383,7 @@
       </c>
       <c r="I123" s="36"/>
       <c r="J123" s="36"/>
-      <c r="AU123" s="106" t="str">
+      <c r="AU123" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55478,7 +55404,7 @@
       </c>
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
-      <c r="AU124" s="106" t="str">
+      <c r="AU124" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55499,7 +55425,7 @@
       </c>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
-      <c r="AU125" s="106" t="str">
+      <c r="AU125" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55520,7 +55446,7 @@
       </c>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
-      <c r="AU126" s="106" t="str">
+      <c r="AU126" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55541,7 +55467,7 @@
       </c>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
-      <c r="AU127" s="106" t="str">
+      <c r="AU127" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55562,7 +55488,7 @@
       </c>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
-      <c r="AU128" s="106" t="str">
+      <c r="AU128" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55583,7 +55509,7 @@
       </c>
       <c r="I129" s="36"/>
       <c r="J129" s="36"/>
-      <c r="AU129" s="106" t="str">
+      <c r="AU129" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55604,7 +55530,7 @@
       </c>
       <c r="I130" s="36"/>
       <c r="J130" s="36"/>
-      <c r="AU130" s="106" t="str">
+      <c r="AU130" s="107" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -55625,7 +55551,7 @@
       </c>
       <c r="I131" s="36"/>
       <c r="J131" s="36"/>
-      <c r="AU131" s="106" t="str">
+      <c r="AU131" s="107" t="str">
         <f t="shared" ref="AU131:AU194" ca="1" si="5">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -55646,7 +55572,7 @@
       </c>
       <c r="I132" s="36"/>
       <c r="J132" s="36"/>
-      <c r="AU132" s="106" t="str">
+      <c r="AU132" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55667,7 +55593,7 @@
       </c>
       <c r="I133" s="36"/>
       <c r="J133" s="36"/>
-      <c r="AU133" s="106" t="str">
+      <c r="AU133" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55688,7 +55614,7 @@
       </c>
       <c r="I134" s="36"/>
       <c r="J134" s="36"/>
-      <c r="AU134" s="106" t="str">
+      <c r="AU134" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55709,7 +55635,7 @@
       </c>
       <c r="I135" s="36"/>
       <c r="J135" s="36"/>
-      <c r="AU135" s="106" t="str">
+      <c r="AU135" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55730,7 +55656,7 @@
       </c>
       <c r="I136" s="36"/>
       <c r="J136" s="36"/>
-      <c r="AU136" s="106" t="str">
+      <c r="AU136" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55751,7 +55677,7 @@
       </c>
       <c r="I137" s="36"/>
       <c r="J137" s="36"/>
-      <c r="AU137" s="106" t="str">
+      <c r="AU137" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55772,7 +55698,7 @@
       </c>
       <c r="I138" s="36"/>
       <c r="J138" s="36"/>
-      <c r="AU138" s="106" t="str">
+      <c r="AU138" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55793,7 +55719,7 @@
       </c>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
-      <c r="AU139" s="106" t="str">
+      <c r="AU139" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55814,7 +55740,7 @@
       </c>
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
-      <c r="AU140" s="106" t="str">
+      <c r="AU140" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55835,7 +55761,7 @@
       </c>
       <c r="I141" s="36"/>
       <c r="J141" s="36"/>
-      <c r="AU141" s="106" t="str">
+      <c r="AU141" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55856,7 +55782,7 @@
       </c>
       <c r="I142" s="36"/>
       <c r="J142" s="36"/>
-      <c r="AU142" s="106" t="str">
+      <c r="AU142" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55877,7 +55803,7 @@
       </c>
       <c r="I143" s="36"/>
       <c r="J143" s="36"/>
-      <c r="AU143" s="106" t="str">
+      <c r="AU143" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55898,7 +55824,7 @@
       </c>
       <c r="I144" s="36"/>
       <c r="J144" s="36"/>
-      <c r="AU144" s="106" t="str">
+      <c r="AU144" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55919,7 +55845,7 @@
       </c>
       <c r="I145" s="36"/>
       <c r="J145" s="36"/>
-      <c r="AU145" s="106" t="str">
+      <c r="AU145" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55940,7 +55866,7 @@
       </c>
       <c r="I146" s="36"/>
       <c r="J146" s="36"/>
-      <c r="AU146" s="106" t="str">
+      <c r="AU146" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55961,7 +55887,7 @@
       </c>
       <c r="I147" s="36"/>
       <c r="J147" s="36"/>
-      <c r="AU147" s="106" t="str">
+      <c r="AU147" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -55982,7 +55908,7 @@
       </c>
       <c r="I148" s="36"/>
       <c r="J148" s="36"/>
-      <c r="AU148" s="106" t="str">
+      <c r="AU148" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56003,7 +55929,7 @@
       </c>
       <c r="I149" s="36"/>
       <c r="J149" s="36"/>
-      <c r="AU149" s="106" t="str">
+      <c r="AU149" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56024,7 +55950,7 @@
       </c>
       <c r="I150" s="36"/>
       <c r="J150" s="36"/>
-      <c r="AU150" s="106" t="str">
+      <c r="AU150" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56045,7 +55971,7 @@
       </c>
       <c r="I151" s="36"/>
       <c r="J151" s="36"/>
-      <c r="AU151" s="106" t="str">
+      <c r="AU151" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56066,7 +55992,7 @@
       </c>
       <c r="I152" s="36"/>
       <c r="J152" s="36"/>
-      <c r="AU152" s="106" t="str">
+      <c r="AU152" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56087,7 +56013,7 @@
       </c>
       <c r="I153" s="36"/>
       <c r="J153" s="36"/>
-      <c r="AU153" s="106" t="str">
+      <c r="AU153" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56108,7 +56034,7 @@
       </c>
       <c r="I154" s="36"/>
       <c r="J154" s="36"/>
-      <c r="AU154" s="106" t="str">
+      <c r="AU154" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56129,7 +56055,7 @@
       </c>
       <c r="I155" s="36"/>
       <c r="J155" s="36"/>
-      <c r="AU155" s="106" t="str">
+      <c r="AU155" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56150,7 +56076,7 @@
       </c>
       <c r="I156" s="36"/>
       <c r="J156" s="36"/>
-      <c r="AU156" s="106" t="str">
+      <c r="AU156" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56171,7 +56097,7 @@
       </c>
       <c r="I157" s="36"/>
       <c r="J157" s="36"/>
-      <c r="AU157" s="106" t="str">
+      <c r="AU157" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56192,7 +56118,7 @@
       </c>
       <c r="I158" s="36"/>
       <c r="J158" s="36"/>
-      <c r="AU158" s="106" t="str">
+      <c r="AU158" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56213,7 +56139,7 @@
       </c>
       <c r="I159" s="36"/>
       <c r="J159" s="36"/>
-      <c r="AU159" s="106" t="str">
+      <c r="AU159" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56234,7 +56160,7 @@
       </c>
       <c r="I160" s="36"/>
       <c r="J160" s="36"/>
-      <c r="AU160" s="106" t="str">
+      <c r="AU160" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56255,7 +56181,7 @@
       </c>
       <c r="I161" s="36"/>
       <c r="J161" s="36"/>
-      <c r="AU161" s="106" t="str">
+      <c r="AU161" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56276,7 +56202,7 @@
       </c>
       <c r="I162" s="36"/>
       <c r="J162" s="36"/>
-      <c r="AU162" s="106" t="str">
+      <c r="AU162" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56297,7 +56223,7 @@
       </c>
       <c r="I163" s="36"/>
       <c r="J163" s="36"/>
-      <c r="AU163" s="106" t="str">
+      <c r="AU163" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56318,7 +56244,7 @@
       </c>
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
-      <c r="AU164" s="106" t="str">
+      <c r="AU164" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56339,7 +56265,7 @@
       </c>
       <c r="I165" s="36"/>
       <c r="J165" s="36"/>
-      <c r="AU165" s="106" t="str">
+      <c r="AU165" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56360,7 +56286,7 @@
       </c>
       <c r="I166" s="36"/>
       <c r="J166" s="36"/>
-      <c r="AU166" s="106" t="str">
+      <c r="AU166" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56381,7 +56307,7 @@
       </c>
       <c r="I167" s="36"/>
       <c r="J167" s="36"/>
-      <c r="AU167" s="106" t="str">
+      <c r="AU167" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56402,7 +56328,7 @@
       </c>
       <c r="I168" s="36"/>
       <c r="J168" s="36"/>
-      <c r="AU168" s="106" t="str">
+      <c r="AU168" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56423,7 +56349,7 @@
       </c>
       <c r="I169" s="36"/>
       <c r="J169" s="36"/>
-      <c r="AU169" s="106" t="str">
+      <c r="AU169" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56444,7 +56370,7 @@
       </c>
       <c r="I170" s="36"/>
       <c r="J170" s="36"/>
-      <c r="AU170" s="106" t="str">
+      <c r="AU170" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56465,7 +56391,7 @@
       </c>
       <c r="I171" s="36"/>
       <c r="J171" s="36"/>
-      <c r="AU171" s="106" t="str">
+      <c r="AU171" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56486,7 +56412,7 @@
       </c>
       <c r="I172" s="36"/>
       <c r="J172" s="36"/>
-      <c r="AU172" s="106" t="str">
+      <c r="AU172" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56507,7 +56433,7 @@
       </c>
       <c r="I173" s="36"/>
       <c r="J173" s="36"/>
-      <c r="AU173" s="106" t="str">
+      <c r="AU173" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56528,7 +56454,7 @@
       </c>
       <c r="I174" s="36"/>
       <c r="J174" s="36"/>
-      <c r="AU174" s="106" t="str">
+      <c r="AU174" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56549,7 +56475,7 @@
       </c>
       <c r="I175" s="36"/>
       <c r="J175" s="36"/>
-      <c r="AU175" s="106" t="str">
+      <c r="AU175" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56570,7 +56496,7 @@
       </c>
       <c r="I176" s="36"/>
       <c r="J176" s="36"/>
-      <c r="AU176" s="106" t="str">
+      <c r="AU176" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56591,7 +56517,7 @@
       </c>
       <c r="I177" s="36"/>
       <c r="J177" s="36"/>
-      <c r="AU177" s="106" t="str">
+      <c r="AU177" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56612,7 +56538,7 @@
       </c>
       <c r="I178" s="36"/>
       <c r="J178" s="36"/>
-      <c r="AU178" s="106" t="str">
+      <c r="AU178" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56633,7 +56559,7 @@
       </c>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
-      <c r="AU179" s="106" t="str">
+      <c r="AU179" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56654,7 +56580,7 @@
       </c>
       <c r="I180" s="36"/>
       <c r="J180" s="36"/>
-      <c r="AU180" s="106" t="str">
+      <c r="AU180" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56675,7 +56601,7 @@
       </c>
       <c r="I181" s="36"/>
       <c r="J181" s="36"/>
-      <c r="AU181" s="106" t="str">
+      <c r="AU181" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56696,7 +56622,7 @@
       </c>
       <c r="I182" s="36"/>
       <c r="J182" s="36"/>
-      <c r="AU182" s="106" t="str">
+      <c r="AU182" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56717,7 +56643,7 @@
       </c>
       <c r="I183" s="36"/>
       <c r="J183" s="36"/>
-      <c r="AU183" s="106" t="str">
+      <c r="AU183" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56738,7 +56664,7 @@
       </c>
       <c r="I184" s="36"/>
       <c r="J184" s="36"/>
-      <c r="AU184" s="106" t="str">
+      <c r="AU184" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56759,7 +56685,7 @@
       </c>
       <c r="I185" s="36"/>
       <c r="J185" s="36"/>
-      <c r="AU185" s="106" t="str">
+      <c r="AU185" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56780,7 +56706,7 @@
       </c>
       <c r="I186" s="36"/>
       <c r="J186" s="36"/>
-      <c r="AU186" s="106" t="str">
+      <c r="AU186" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56801,7 +56727,7 @@
       </c>
       <c r="I187" s="36"/>
       <c r="J187" s="36"/>
-      <c r="AU187" s="106" t="str">
+      <c r="AU187" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56822,7 +56748,7 @@
       </c>
       <c r="I188" s="36"/>
       <c r="J188" s="36"/>
-      <c r="AU188" s="106" t="str">
+      <c r="AU188" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56843,7 +56769,7 @@
       </c>
       <c r="I189" s="36"/>
       <c r="J189" s="36"/>
-      <c r="AU189" s="106" t="str">
+      <c r="AU189" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56864,7 +56790,7 @@
       </c>
       <c r="I190" s="36"/>
       <c r="J190" s="36"/>
-      <c r="AU190" s="106" t="str">
+      <c r="AU190" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56885,7 +56811,7 @@
       </c>
       <c r="I191" s="36"/>
       <c r="J191" s="36"/>
-      <c r="AU191" s="106" t="str">
+      <c r="AU191" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56906,7 +56832,7 @@
       </c>
       <c r="I192" s="36"/>
       <c r="J192" s="36"/>
-      <c r="AU192" s="106" t="str">
+      <c r="AU192" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56927,7 +56853,7 @@
       </c>
       <c r="I193" s="36"/>
       <c r="J193" s="36"/>
-      <c r="AU193" s="106" t="str">
+      <c r="AU193" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56948,7 +56874,7 @@
       </c>
       <c r="I194" s="36"/>
       <c r="J194" s="36"/>
-      <c r="AU194" s="106" t="str">
+      <c r="AU194" s="107" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -56969,7 +56895,7 @@
       </c>
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
-      <c r="AU195" s="106" t="str">
+      <c r="AU195" s="107" t="str">
         <f t="shared" ref="AU195:AU200" ca="1" si="7">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
@@ -56990,7 +56916,7 @@
       </c>
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
-      <c r="AU196" s="106" t="str">
+      <c r="AU196" s="107" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57011,7 +56937,7 @@
       </c>
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
-      <c r="AU197" s="106" t="str">
+      <c r="AU197" s="107" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57032,7 +56958,7 @@
       </c>
       <c r="I198" s="36"/>
       <c r="J198" s="36"/>
-      <c r="AU198" s="106" t="str">
+      <c r="AU198" s="107" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57053,7 +56979,7 @@
       </c>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
-      <c r="AU199" s="106" t="str">
+      <c r="AU199" s="107" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57074,7 +57000,7 @@
       </c>
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
-      <c r="AU200" s="106" t="str">
+      <c r="AU200" s="107" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
@@ -57626,14 +57552,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1353</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -57699,16 +57625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1312</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -58716,7 +58642,7 @@
       <c r="E80" s="35" t="s">
         <v>1365</v>
       </c>
-      <c r="F80" s="107"/>
+      <c r="F80" s="108"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
     </row>
@@ -59837,7 +59763,7 @@
       <c r="D171" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="E171" s="98" t="s">
+      <c r="E171" s="99" t="s">
         <v>1030</v>
       </c>
       <c r="F171" s="35"/>
@@ -61104,19 +61030,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>576</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138" t="s">
         <v>850</v>
       </c>
-      <c r="H1" s="138"/>
-      <c r="I1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -61486,28 +61412,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1481</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="110" t="s">
         <v>1422</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="111" t="s">
         <v>402</v>
       </c>
     </row>
@@ -61534,18 +61460,6 @@
     <dataValidation allowBlank="1" sqref="A1:XFD1" xr:uid="{69821E7D-0BEE-4017-9F1B-D7BEFAB77982}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{2E2303BB-372A-3948-A232-9907FC736C12}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -61568,73 +61482,73 @@
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="123" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="124" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="124" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="124" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65.6640625" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="125" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>1548</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="110" t="s">
         <v>1443</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="111" t="s">
         <v>1444</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="111" t="s">
         <v>1445</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="111" t="s">
         <v>1446</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="117" t="s">
         <v>1447</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="118" t="s">
         <v>1448</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>1449</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="111" t="s">
         <v>1450</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="111" t="s">
         <v>1451</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="111" t="s">
         <v>1452</v>
       </c>
-      <c r="N2" s="118" t="s">
+      <c r="N2" s="119" t="s">
         <v>402</v>
       </c>
     </row>
@@ -61660,11 +61574,11 @@
       <c r="G3" s="35">
         <v>10</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="120" t="s">
+      <c r="H3" s="120"/>
+      <c r="I3" s="121" t="s">
         <v>1457</v>
       </c>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="121" t="s">
         <v>1458</v>
       </c>
       <c r="K3" s="35"/>
@@ -61694,17 +61608,17 @@
       <c r="G4" s="35">
         <v>100</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="120">
         <v>5</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="35" t="s">
         <v>1463</v>
       </c>
-      <c r="L4" s="121"/>
+      <c r="L4" s="122"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="122"/>
+      <c r="N4" s="123"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
@@ -61714,9 +61628,9 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
       <c r="K5" s="35" t="s">
         <v>1469</v>
       </c>
@@ -61726,7 +61640,7 @@
       <c r="M5" s="35" t="s">
         <v>1465</v>
       </c>
-      <c r="N5" s="122"/>
+      <c r="N5" s="123"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
@@ -61736,9 +61650,9 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
       <c r="K6" s="35" t="s">
         <v>1466</v>
       </c>
@@ -61746,7 +61660,7 @@
         <v>1467</v>
       </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="122"/>
+      <c r="N6" s="123"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
@@ -61758,13 +61672,13 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="122"/>
+      <c r="N7" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -61796,17 +61710,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{02290C8B-B188-2048-8777-E965DBFF9BA3}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEE5DFC-F141-7B41-9807-045491E2431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F35A1A-0653-F34F-BC43-8FBDCCF9E482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1551">
   <si>
     <t>Region</t>
   </si>
@@ -5990,9 +5990,6 @@
     <t>allow group DatabaseAdmins to manage private-ips in compartment Network</t>
   </si>
   <si>
-    <t>Subnet Names</t>
-  </si>
-  <si>
     <t>VLAN Names</t>
   </si>
   <si>
@@ -12237,55 +12234,6 @@
     <t>Network@sddc-depoyment-vcn::snet-sddc-mgmt</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.4.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- LB Routing Policies, Users/Groups for Custom Domains, 'Subnet Name' columns change to 'Network Details'</t>
-    </r>
-  </si>
-  <si>
     <t>Backend ServerComp@ServerName:Port</t>
   </si>
   <si>
@@ -12908,6 +12856,51 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">											</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ LB Routing Policies, Users/Groups for Custom Domains, 'Subnet Name' columns change to 'Network Details'</t>
     </r>
   </si>
 </sst>
@@ -13342,7 +13335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -13568,17 +13561,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13586,7 +13568,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13848,12 +13830,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -13896,6 +13872,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -19059,7 +19038,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1531</v>
+        <v>1550</v>
       </c>
     </row>
   </sheetData>
@@ -19094,22 +19073,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>1442</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="136"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="131" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="135"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -19166,7 +19145,7 @@
         <v>446</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>21</v>
@@ -19357,19 +19336,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>910</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="140" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="139" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19385,7 +19364,7 @@
         <v>482</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>483</v>
@@ -19512,13 +19491,13 @@
         <v>446</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -19532,16 +19511,16 @@
         <v>331</v>
       </c>
       <c r="C9" s="35" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D9" s="35" t="s">
         <v>1297</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="36" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>1298</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>1299</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -19603,10 +19582,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="139"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19672,16 +19651,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19972,30 +19951,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="141" t="s">
+      <c r="A1" s="131" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="140" t="s">
         <v>1268</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="141"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -20698,7 +20677,7 @@
         <v>876</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>517</v>
@@ -26107,18 +26086,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -26234,17 +26213,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26341,25 +26320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26496,28 +26475,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -29004,17 +28983,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
+      <c r="A1" s="130" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -29402,13 +29381,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29477,7 +29456,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>422</v>
@@ -29665,19 +29644,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
+      <c r="A1" s="142" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29852,15 +29831,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30040,32 +30019,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="132" t="s">
-        <v>1515</v>
-      </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="136"/>
+      <c r="A1" s="144" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="131" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="135"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30084,7 +30063,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>88</v>
@@ -30111,7 +30090,7 @@
         <v>620</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="P2" s="30" t="s">
         <v>91</v>
@@ -30152,7 +30131,7 @@
         <v>330</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
@@ -30228,7 +30207,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G5" s="52" t="b">
         <v>0</v>
@@ -30263,7 +30242,7 @@
         <v>87</v>
       </c>
       <c r="U5" s="53" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="V5" s="53" t="s">
         <v>403</v>
@@ -30286,7 +30265,7 @@
         <v>330</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G6" s="52" t="b">
         <v>0</v>
@@ -30319,7 +30298,7 @@
       </c>
       <c r="T6" s="52"/>
       <c r="U6" s="53" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="V6" s="52"/>
     </row>
@@ -30340,7 +30319,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G7" s="52" t="b">
         <v>0</v>
@@ -30388,7 +30367,7 @@
         <v>330</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G8" s="52" t="b">
         <v>0</v>
@@ -30519,26 +30498,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="136"/>
+      <c r="A1" s="131" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="135"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30572,16 +30551,16 @@
         <v>404</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1429</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>1430</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>1431</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>1432</v>
-      </c>
       <c r="N2" s="31" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>621</v>
@@ -30646,20 +30625,20 @@
       <c r="I4" s="53" t="s">
         <v>623</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="J4" s="124" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K4" s="124" t="s">
         <v>1433</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="L4" s="124">
+        <v>100</v>
+      </c>
+      <c r="M4" s="124" t="s">
         <v>1434</v>
       </c>
-      <c r="L4" s="126">
-        <v>100</v>
-      </c>
-      <c r="M4" s="126" t="s">
-        <v>1435</v>
-      </c>
-      <c r="N4" s="126" t="s">
-        <v>1444</v>
+      <c r="N4" s="124" t="s">
+        <v>1443</v>
       </c>
       <c r="O4" s="84" t="b">
         <v>1</v>
@@ -30778,32 +30757,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="148" t="s">
-        <v>1498</v>
-      </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="150"/>
+      <c r="A1" s="131" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="147" t="s">
+        <v>1497</v>
+      </c>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="149"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -30819,7 +30798,7 @@
         <v>106</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>107</v>
@@ -30834,13 +30813,13 @@
         <v>109</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>1445</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>1446</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>110</v>
@@ -30864,10 +30843,10 @@
         <v>116</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="U2" s="31" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>395</v>
@@ -30915,7 +30894,7 @@
         <v>117</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
@@ -31019,7 +30998,7 @@
         <v>117</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -31057,7 +31036,7 @@
         <v>125</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87"/>
@@ -31099,7 +31078,7 @@
         <v>128</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87"/>
@@ -31141,7 +31120,7 @@
         <v>130</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87"/>
@@ -31176,10 +31155,10 @@
         <v>86</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -31215,7 +31194,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="52"/>
       <c r="I12" s="87" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
@@ -31283,7 +31262,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AI1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31325,45 +31304,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="145" t="s">
-        <v>1551</v>
-      </c>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
+      <c r="A1" s="131" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="144" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -31376,7 +31355,7 @@
         <v>943</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>942</v>
@@ -31388,10 +31367,10 @@
         <v>940</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>939</v>
@@ -31406,7 +31385,7 @@
         <v>936</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>935</v>
@@ -31430,13 +31409,13 @@
         <v>933</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="W2" s="31" t="s">
         <v>80</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="Y2" s="31" t="s">
         <v>932</v>
@@ -31445,7 +31424,7 @@
         <v>931</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="AB2" s="31" t="s">
         <v>930</v>
@@ -31463,13 +31442,13 @@
         <v>928</v>
       </c>
       <c r="AG2" s="31" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AH2" s="31" t="s">
         <v>1380</v>
       </c>
-      <c r="AH2" s="31" t="s">
-        <v>1381</v>
-      </c>
       <c r="AI2" s="31" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31522,10 +31501,10 @@
         <v>927</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F4" s="95" t="s">
         <v>926</v>
@@ -31534,10 +31513,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="J4" s="53" t="b">
         <v>0</v>
@@ -31552,10 +31531,10 @@
         <v>842</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="O4" s="95" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P4" s="95">
         <v>1</v>
@@ -31576,13 +31555,13 @@
         <v>841</v>
       </c>
       <c r="V4" s="95" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="W4" s="95" t="s">
         <v>95</v>
       </c>
       <c r="X4" s="95" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="Y4" s="95"/>
       <c r="Z4" s="95"/>
@@ -31617,10 +31596,10 @@
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="O5" s="95" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P5" s="53">
         <v>2</v>
@@ -31639,13 +31618,13 @@
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="95" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="W5" s="53" t="s">
         <v>86</v>
       </c>
       <c r="X5" s="95" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Y5" s="53"/>
       <c r="Z5" s="53"/>
@@ -31674,10 +31653,10 @@
         <v>919</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>1375</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>1376</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>918</v>
@@ -31686,10 +31665,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="J6" s="53" t="b">
         <v>0</v>
@@ -31698,10 +31677,10 @@
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="O6" s="95" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P6" s="53">
         <v>1</v>
@@ -31722,20 +31701,20 @@
         <v>841</v>
       </c>
       <c r="V6" s="95" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="W6" s="53" t="s">
         <v>95</v>
       </c>
       <c r="X6" s="95" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Y6" s="53">
         <v>2</v>
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="95" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="53" t="s">
@@ -31747,7 +31726,7 @@
       <c r="AG6" s="52"/>
       <c r="AH6" s="52"/>
       <c r="AI6" s="53" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -31841,27 +31820,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -31883,7 +31862,7 @@
         <v>513</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>133</v>
@@ -31961,7 +31940,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H4" s="52" t="b">
         <v>1</v>
@@ -32035,7 +32014,7 @@
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H6" s="52" t="b">
         <v>0</v>
@@ -32142,30 +32121,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="136"/>
+      <c r="A1" s="131" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="135"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -32187,7 +32166,7 @@
         <v>150</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>151</v>
@@ -32277,7 +32256,7 @@
         <v>161</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>162</v>
@@ -32337,7 +32316,7 @@
         <v>167</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>162</v>
@@ -32385,7 +32364,7 @@
         <v>170</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H6" s="52" t="s">
         <v>162</v>
@@ -32496,25 +32475,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>625</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -32764,29 +32743,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="137" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="136" t="s">
         <v>409</v>
       </c>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="151"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -33485,13 +33464,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -33754,14 +33733,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -33909,12 +33888,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
+      <c r="A1" s="140" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
     </row>
     <row r="2" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -33924,7 +33903,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1247</v>
@@ -33946,10 +33925,10 @@
         <v>375</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33960,10 +33939,10 @@
         <v>375</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -33984,7 +33963,7 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -34005,22 +33984,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="136"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="135"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34033,7 +34012,7 @@
         <v>632</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>633</v>
@@ -34095,7 +34074,7 @@
         <v>640</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E4" s="53" t="b">
         <v>0</v>
@@ -34133,7 +34112,7 @@
         <v>636</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E5" s="53" t="b">
         <v>1</v>
@@ -34565,20 +34544,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34600,10 +34579,10 @@
         <v>644</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>153</v>
@@ -34615,7 +34594,7 @@
         <v>412</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -34667,7 +34646,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -34701,7 +34680,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -34718,10 +34697,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I6" s="53">
         <v>53</v>
@@ -34731,7 +34710,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -34789,24 +34768,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
+      <c r="A1" s="131" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -34819,7 +34798,7 @@
         <v>904</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>905</v>
@@ -34889,7 +34868,7 @@
         <v>909</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52" t="s">
@@ -35015,35 +34994,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="136"/>
+      <c r="A1" s="131" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="135"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
@@ -35056,7 +35035,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>575</v>
@@ -35170,7 +35149,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>599</v>
@@ -35245,7 +35224,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E5" s="92" t="s">
         <v>601</v>
@@ -38414,16 +38393,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="A1" s="131" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -41333,29 +41312,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
+      <c r="A1" s="144" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -41378,10 +41357,10 @@
         <v>590</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>1528</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>1529</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>577</v>
@@ -41396,16 +41375,16 @@
         <v>591</v>
       </c>
       <c r="K2" s="65" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>1314</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>1315</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>1316</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>1317</v>
       </c>
       <c r="O2" s="65" t="s">
         <v>592</v>
@@ -41474,10 +41453,10 @@
         <v>603</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G4" s="52">
         <v>4</v>
@@ -41501,7 +41480,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="91" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O4" s="91" t="b">
         <v>1</v>
@@ -45800,26 +45779,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
+      <c r="A1" s="155" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="157"/>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45833,7 +45812,7 @@
         <v>1184</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>1185</v>
@@ -45856,11 +45835,11 @@
       <c r="K2" s="37" t="s">
         <v>1190</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="129" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M2" s="129" t="s">
         <v>1312</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>1313</v>
       </c>
       <c r="N2" s="37" t="s">
         <v>1191</v>
@@ -45886,49 +45865,49 @@
         <v>417</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>1388</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>1389</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>1390</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>1391</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>1392</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>1393</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K3" s="35">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M3" t="s">
         <v>1450</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1451</v>
       </c>
       <c r="N3" s="35">
         <v>3</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="P3" s="35" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="R3" s="32"/>
     </row>
@@ -45940,18 +45919,18 @@
         <v>417</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1397</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1398</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>1392</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>1393</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>55</v>
@@ -45968,7 +45947,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="P4" s="35" t="b">
         <v>0</v>
@@ -46073,22 +46052,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
+      <c r="A1" s="144" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -46098,7 +46077,7 @@
         <v>1184</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>1194</v>
@@ -46140,94 +46119,94 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>1452</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>1453</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>1454</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="35" t="s">
         <v>1455</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="I3" s="35" t="s">
         <v>1456</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="35" t="s">
         <v>1457</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>1458</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>1459</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="M3" s="35" t="s">
         <v>1460</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>1461</v>
-      </c>
       <c r="N3" s="35" t="s">
-        <v>1401</v>
-      </c>
-      <c r="O3" s="114"/>
+        <v>1400</v>
+      </c>
+      <c r="O3" s="112"/>
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>1454</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>1455</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="35" t="s">
         <v>1456</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>1457</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>1458</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="35" t="s">
         <v>1459</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="M4" s="35" t="s">
         <v>1460</v>
       </c>
-      <c r="M4" s="35" t="s">
-        <v>1461</v>
-      </c>
       <c r="N4" s="35" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O4" s="114"/>
+        <v>1401</v>
+      </c>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="113"/>
       <c r="C5"/>
       <c r="O5"/>
     </row>
@@ -46269,12 +46248,18 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{7BB79F72-2125-C54B-A1F2-16A034FAB05E}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{2DA1F44B-6903-EA44-8C6F-C58D4D6E12BA}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -46305,15 +46290,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="A1" s="131" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -46323,16 +46308,16 @@
         <v>1174</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1502</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1503</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>395</v>
@@ -47291,26 +47276,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="287" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="161"/>
+      <c r="A1" s="158" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -47399,7 +47384,7 @@
         <v>1245</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>1224</v>
@@ -47448,7 +47433,7 @@
         <v>1245</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>1273</v>
@@ -47665,71 +47650,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="140" t="s">
         <v>1493</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="141" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C2" s="125" t="s">
         <v>1465</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="D2" s="19" t="s">
         <v>1466</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>1467</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J2" s="126" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>1475</v>
+      </c>
+      <c r="M2" s="128" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>1468</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J2" s="128" t="s">
-        <v>1474</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>1475</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>1476</v>
-      </c>
-      <c r="M2" s="130" t="s">
+      <c r="O2" s="19" t="s">
         <v>1477</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>1469</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -47744,10 +47729,10 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="129"/>
+      <c r="J3" s="127"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="129"/>
+      <c r="M3" s="127"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
@@ -47756,33 +47741,33 @@
         <v>311</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1482</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1483</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H4" s="35" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>1479</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J4" s="129">
+      <c r="J4" s="127">
         <v>256</v>
       </c>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="129"/>
+      <c r="M4" s="127"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
@@ -47796,22 +47781,22 @@
         <v>417</v>
       </c>
       <c r="G5" s="35" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>1485</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="I5" s="35" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J5" s="127">
+        <v>384</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>1486</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J5" s="129">
-        <v>384</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>1487</v>
-      </c>
       <c r="L5" s="35"/>
-      <c r="M5" s="129"/>
+      <c r="M5" s="127"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
@@ -47820,37 +47805,37 @@
         <v>311</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C6" s="35" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>1488</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>1489</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J6" s="129">
+        <v>1479</v>
+      </c>
+      <c r="J6" s="127">
         <v>128</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="129">
+      <c r="M6" s="127">
         <v>100</v>
       </c>
       <c r="N6" s="35"/>
@@ -47866,20 +47851,20 @@
         <v>417</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>1485</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>1486</v>
-      </c>
       <c r="I7" s="35" t="s">
-        <v>1491</v>
-      </c>
-      <c r="J7" s="129">
+        <v>1490</v>
+      </c>
+      <c r="J7" s="127">
         <v>3072</v>
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="129"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
     </row>
@@ -47893,24 +47878,24 @@
         <v>419</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J8" s="129">
+        <v>1480</v>
+      </c>
+      <c r="J8" s="127">
         <v>521</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="L8" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="129">
+      <c r="M8" s="127">
         <v>365</v>
       </c>
       <c r="N8" s="35"/>
@@ -47926,10 +47911,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="129"/>
+      <c r="J9" s="127"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="129"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
     </row>
@@ -47943,10 +47928,10 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="129"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="129"/>
+      <c r="M10" s="127"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
     </row>
@@ -47960,10 +47945,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="129"/>
+      <c r="J11" s="127"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="129"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
     </row>
@@ -47977,10 +47962,10 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="129"/>
+      <c r="J12" s="127"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="129"/>
+      <c r="M12" s="127"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
     </row>
@@ -47994,10 +47979,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="129"/>
+      <c r="J13" s="127"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="129"/>
+      <c r="M13" s="127"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
     </row>
@@ -48011,10 +47996,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="129"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="129"/>
+      <c r="M14" s="127"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
     </row>
@@ -48028,10 +48013,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="129"/>
+      <c r="J15" s="127"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="129"/>
+      <c r="M15" s="127"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
     </row>
@@ -48045,10 +48030,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="129"/>
+      <c r="J16" s="127"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="129"/>
+      <c r="M16" s="127"/>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
     </row>
@@ -48062,10 +48047,10 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="129"/>
+      <c r="J17" s="127"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="129"/>
+      <c r="M17" s="127"/>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
     </row>
@@ -48079,10 +48064,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="129"/>
+      <c r="J18" s="127"/>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="129"/>
+      <c r="M18" s="127"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
     </row>
@@ -48096,10 +48081,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="129"/>
+      <c r="J19" s="127"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="129"/>
+      <c r="M19" s="127"/>
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
     </row>
@@ -48113,10 +48098,10 @@
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="129"/>
+      <c r="J20" s="127"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="129"/>
+      <c r="M20" s="127"/>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
     </row>
@@ -48130,10 +48115,10 @@
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="129"/>
+      <c r="J21" s="127"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="129"/>
+      <c r="M21" s="127"/>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
     </row>
@@ -48147,10 +48132,10 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="129"/>
+      <c r="J22" s="127"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="129"/>
+      <c r="M22" s="127"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
     </row>
@@ -48164,10 +48149,10 @@
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="129"/>
+      <c r="J23" s="127"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="129"/>
+      <c r="M23" s="127"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
     </row>
@@ -48181,10 +48166,10 @@
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="129"/>
+      <c r="J24" s="127"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="129"/>
+      <c r="M24" s="127"/>
       <c r="N24" s="35"/>
       <c r="O24" s="35"/>
     </row>
@@ -48198,10 +48183,10 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="J25" s="129"/>
+      <c r="J25" s="127"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="129"/>
+      <c r="M25" s="127"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
     </row>
@@ -48215,10 +48200,10 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="129"/>
+      <c r="J26" s="127"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="129"/>
+      <c r="M26" s="127"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
     </row>
@@ -48232,10 +48217,10 @@
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="129"/>
+      <c r="J27" s="127"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="129"/>
+      <c r="M27" s="127"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
     </row>
@@ -48249,10 +48234,10 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="129"/>
+      <c r="J28" s="127"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="129"/>
+      <c r="M28" s="127"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
     </row>
@@ -48266,10 +48251,10 @@
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="129"/>
+      <c r="J29" s="127"/>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
-      <c r="M29" s="129"/>
+      <c r="M29" s="127"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
     </row>
@@ -48283,10 +48268,10 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="129"/>
+      <c r="J30" s="127"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="129"/>
+      <c r="M30" s="127"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
     </row>
@@ -48300,10 +48285,10 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="129"/>
+      <c r="J31" s="127"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="129"/>
+      <c r="M31" s="127"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
     </row>
@@ -48317,10 +48302,10 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
-      <c r="J32" s="129"/>
+      <c r="J32" s="127"/>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
-      <c r="M32" s="129"/>
+      <c r="M32" s="127"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
     </row>
@@ -48334,10 +48319,10 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="129"/>
+      <c r="J33" s="127"/>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="129"/>
+      <c r="M33" s="127"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
     </row>
@@ -48351,10 +48336,10 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="129"/>
+      <c r="J34" s="127"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="129"/>
+      <c r="M34" s="127"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
     </row>
@@ -48368,10 +48353,10 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="129"/>
+      <c r="J35" s="127"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
-      <c r="M35" s="129"/>
+      <c r="M35" s="127"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
     </row>
@@ -48385,10 +48370,10 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="129"/>
+      <c r="J36" s="127"/>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
-      <c r="M36" s="129"/>
+      <c r="M36" s="127"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
     </row>
@@ -48402,10 +48387,10 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="129"/>
+      <c r="J37" s="127"/>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
-      <c r="M37" s="129"/>
+      <c r="M37" s="127"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
     </row>
@@ -48419,10 +48404,10 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="129"/>
+      <c r="J38" s="127"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
-      <c r="M38" s="129"/>
+      <c r="M38" s="127"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
     </row>
@@ -48436,10 +48421,10 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="129"/>
+      <c r="J39" s="127"/>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="129"/>
+      <c r="M39" s="127"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
     </row>
@@ -48453,10 +48438,10 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="129"/>
+      <c r="J40" s="127"/>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
-      <c r="M40" s="129"/>
+      <c r="M40" s="127"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
     </row>
@@ -48470,10 +48455,10 @@
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="129"/>
+      <c r="J41" s="127"/>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
-      <c r="M41" s="129"/>
+      <c r="M41" s="127"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
     </row>
@@ -48487,10 +48472,10 @@
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="129"/>
+      <c r="J42" s="127"/>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
-      <c r="M42" s="129"/>
+      <c r="M42" s="127"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
     </row>
@@ -48504,10 +48489,10 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="129"/>
+      <c r="J43" s="127"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="129"/>
+      <c r="M43" s="127"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
     </row>
@@ -48521,10 +48506,10 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="129"/>
+      <c r="J44" s="127"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="129"/>
+      <c r="M44" s="127"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
     </row>
@@ -48538,10 +48523,10 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="129"/>
+      <c r="J45" s="127"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="129"/>
+      <c r="M45" s="127"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
     </row>
@@ -48555,10 +48540,10 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="J46" s="129"/>
+      <c r="J46" s="127"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
-      <c r="M46" s="129"/>
+      <c r="M46" s="127"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
     </row>
@@ -48572,10 +48557,10 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="129"/>
+      <c r="J47" s="127"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="129"/>
+      <c r="M47" s="127"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
     </row>
@@ -48589,10 +48574,10 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="129"/>
+      <c r="J48" s="127"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="129"/>
+      <c r="M48" s="127"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
     </row>
@@ -48606,10 +48591,10 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="129"/>
+      <c r="J49" s="127"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="129"/>
+      <c r="M49" s="127"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
     </row>
@@ -48623,10 +48608,10 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="129"/>
+      <c r="J50" s="127"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="129"/>
+      <c r="M50" s="127"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
     </row>
@@ -48640,10 +48625,10 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="129"/>
+      <c r="J51" s="127"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="129"/>
+      <c r="M51" s="127"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
     </row>
@@ -48657,10 +48642,10 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="129"/>
+      <c r="J52" s="127"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="129"/>
+      <c r="M52" s="127"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
     </row>
@@ -48674,10 +48659,10 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="129"/>
+      <c r="J53" s="127"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="129"/>
+      <c r="M53" s="127"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
     </row>
@@ -48691,10 +48676,10 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="129"/>
+      <c r="J54" s="127"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="129"/>
+      <c r="M54" s="127"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
     </row>
@@ -48708,10 +48693,10 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="J55" s="129"/>
+      <c r="J55" s="127"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
-      <c r="M55" s="129"/>
+      <c r="M55" s="127"/>
       <c r="N55" s="35"/>
       <c r="O55" s="35"/>
     </row>
@@ -48725,10 +48710,10 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
-      <c r="J56" s="129"/>
+      <c r="J56" s="127"/>
       <c r="K56" s="35"/>
       <c r="L56" s="35"/>
-      <c r="M56" s="129"/>
+      <c r="M56" s="127"/>
       <c r="N56" s="35"/>
       <c r="O56" s="35"/>
     </row>
@@ -48742,10 +48727,10 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="129"/>
+      <c r="J57" s="127"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
-      <c r="M57" s="129"/>
+      <c r="M57" s="127"/>
       <c r="N57" s="35"/>
       <c r="O57" s="35"/>
     </row>
@@ -48759,10 +48744,10 @@
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="129"/>
+      <c r="J58" s="127"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
-      <c r="M58" s="129"/>
+      <c r="M58" s="127"/>
       <c r="N58" s="35"/>
       <c r="O58" s="35"/>
     </row>
@@ -48776,10 +48761,10 @@
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
-      <c r="J59" s="129"/>
+      <c r="J59" s="127"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="129"/>
+      <c r="M59" s="127"/>
       <c r="N59" s="35"/>
       <c r="O59" s="35"/>
     </row>
@@ -48793,10 +48778,10 @@
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
-      <c r="J60" s="129"/>
+      <c r="J60" s="127"/>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
-      <c r="M60" s="129"/>
+      <c r="M60" s="127"/>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
     </row>
@@ -48810,10 +48795,10 @@
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="129"/>
+      <c r="J61" s="127"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35"/>
-      <c r="M61" s="129"/>
+      <c r="M61" s="127"/>
       <c r="N61" s="35"/>
       <c r="O61" s="35"/>
     </row>
@@ -48827,10 +48812,10 @@
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="129"/>
+      <c r="J62" s="127"/>
       <c r="K62" s="35"/>
       <c r="L62" s="35"/>
-      <c r="M62" s="129"/>
+      <c r="M62" s="127"/>
       <c r="N62" s="35"/>
       <c r="O62" s="35"/>
     </row>
@@ -48844,10 +48829,10 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="129"/>
+      <c r="J63" s="127"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
-      <c r="M63" s="129"/>
+      <c r="M63" s="127"/>
       <c r="N63" s="35"/>
       <c r="O63" s="35"/>
     </row>
@@ -48861,10 +48846,10 @@
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="129"/>
+      <c r="J64" s="127"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35"/>
-      <c r="M64" s="129"/>
+      <c r="M64" s="127"/>
       <c r="N64" s="35"/>
       <c r="O64" s="35"/>
     </row>
@@ -48878,10 +48863,10 @@
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
-      <c r="J65" s="129"/>
+      <c r="J65" s="127"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35"/>
-      <c r="M65" s="129"/>
+      <c r="M65" s="127"/>
       <c r="N65" s="35"/>
       <c r="O65" s="35"/>
     </row>
@@ -50066,16 +50051,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AV201"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="AV19" sqref="AV19"/>
-    </sheetView>
+    <sheetView zoomScale="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.1640625" style="63" customWidth="1"/>
-    <col min="5" max="10" width="28.5" style="63"/>
+    <col min="5" max="5" width="40.6640625" style="63" customWidth="1"/>
+    <col min="6" max="10" width="28.5" style="63"/>
     <col min="11" max="11" width="33.83203125" style="63" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="63" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="63" bestFit="1" customWidth="1"/>
@@ -50122,25 +50106,23 @@
         <v>516</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E1" s="64" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64" t="s">
         <v>1277</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="64" t="s">
         <v>1278</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="H1" s="64" t="s">
         <v>1279</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="I1" s="64" t="s">
         <v>1280</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>1281</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>1282</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>518</v>
@@ -50248,13 +50230,13 @@
         <v>946</v>
       </c>
       <c r="AT1" s="55" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="AU1" s="55" t="s">
         <v>517</v>
       </c>
       <c r="AV1" s="55" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
@@ -50273,9 +50255,9 @@
         <f t="array" aca="1" ref="D2:D6" ca="1">_xlfn.UNIQUE(INDIRECT("C2:C"&amp;$G$5),FALSE,FALSE)</f>
         <v>fwl-vcn</v>
       </c>
-      <c r="E2" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H2+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>fwl-vcn_fwl-mgmt</v>
+      <c r="E2" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">_xlfn.IFNA(IF($H2 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H2 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H2 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H2 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H2 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@fwl-vcn::fwl-mgmt</v>
       </c>
       <c r="F2" s="36" t="str">
         <f ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
@@ -50290,7 +50272,7 @@
       </c>
       <c r="I2" s="36" t="str" cm="1">
         <f t="array" aca="1" ref="I2:I13" ca="1">_xlfn.UNIQUE(INDIRECT("E2:E"&amp;$G$2),FALSE,FALSE)</f>
-        <v>fwl-vcn_fwl-mgmt</v>
+        <v>Network@fwl-vcn::fwl-mgmt</v>
       </c>
       <c r="J2" s="36" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">_xlfn.UNIQUE(INDIRECT("F2:F"&amp;$G$2),FALSE,FALSE)</f>
@@ -50434,9 +50416,9 @@
         <f ca="1"/>
         <v>prod-vcn</v>
       </c>
-      <c r="E3" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H3+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>fwl-vcn_fwl-pub</v>
+      <c r="E3" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">_xlfn.IFNA(IF($H3 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H3 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H3 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H3 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H3 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@fwl-vcn::fwl-pub</v>
       </c>
       <c r="F3" s="36" t="str">
         <f t="shared" ref="F3:F66" ca="1" si="0">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
@@ -50451,7 +50433,7 @@
       </c>
       <c r="I3" s="36" t="str">
         <f ca="1"/>
-        <v>fwl-vcn_fwl-pub</v>
+        <v>Network@fwl-vcn::fwl-pub</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="58" t="s">
@@ -50592,9 +50574,9 @@
         <f ca="1"/>
         <v>nonprod-vcn</v>
       </c>
-      <c r="E4" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">_xlfn.IFNA(IF($H4+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H4+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H4+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H4+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>fwl-vcn_fwl-priv</v>
+      <c r="E4" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">_xlfn.IFNA(IF($H4 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H4 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H4 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H4 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H4 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@fwl-vcn::fwl-priv</v>
       </c>
       <c r="F4" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -50609,7 +50591,7 @@
       </c>
       <c r="I4" s="36" t="str">
         <f ca="1"/>
-        <v>fwl-vcn_fwl-priv</v>
+        <v>Network@fwl-vcn::fwl-priv</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="58"/>
@@ -50720,9 +50702,9 @@
         <f ca="1"/>
         <v>exa-vcn</v>
       </c>
-      <c r="E5" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xlfn.IFNA(IF($H5+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H5+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H5+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H5+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>fwl-vcn_fwl-ha</v>
+      <c r="E5" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">_xlfn.IFNA(IF($H5 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H5 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H5 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H5 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H5 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@fwl-vcn::fwl-ha</v>
       </c>
       <c r="F5" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -50737,7 +50719,7 @@
       </c>
       <c r="I5" s="36" t="str">
         <f ca="1"/>
-        <v>fwl-vcn_fwl-ha</v>
+        <v>Network@fwl-vcn::fwl-ha</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="58"/>
@@ -50827,9 +50809,9 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="E6" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">_xlfn.IFNA(IF($H6+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H6+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H6+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H6+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-web</v>
+      <c r="E6" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">_xlfn.IFNA(IF($H6 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H6 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H6 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H6 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H6 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-web</v>
       </c>
       <c r="F6" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -50844,7 +50826,7 @@
       </c>
       <c r="I6" s="36" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-web</v>
+        <v>Network@prod-vcn::prod-web</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="58"/>
@@ -50922,9 +50904,9 @@
         <f t="array" aca="1" ref="C7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E7" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">_xlfn.IFNA(IF($H7+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H7+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H7+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H7+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-app</v>
+      <c r="E7" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">_xlfn.IFNA(IF($H7 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H7 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H7 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H7 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H7 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-app</v>
       </c>
       <c r="F7" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -50936,7 +50918,7 @@
       </c>
       <c r="I7" s="36" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-app</v>
+        <v>Network@prod-vcn::prod-app</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="58"/>
@@ -51008,9 +50990,9 @@
         <f t="array" aca="1" ref="C8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E8" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">_xlfn.IFNA(IF($H8+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H8+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H8+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H8+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-db</v>
+      <c r="E8" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">_xlfn.IFNA(IF($H8 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H8 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H8 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H8 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H8 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-db</v>
       </c>
       <c r="F8" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51022,7 +51004,7 @@
       </c>
       <c r="I8" s="36" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-db</v>
+        <v>Network@prod-vcn::prod-db</v>
       </c>
       <c r="J8" s="36"/>
       <c r="K8" s="58"/>
@@ -51094,9 +51076,9 @@
         <f t="array" aca="1" ref="C9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E9" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">_xlfn.IFNA(IF($H9+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H9+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H9+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H9+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-web</v>
+      <c r="E9" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">_xlfn.IFNA(IF($H9 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H9 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H9 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H9 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H9 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-web</v>
       </c>
       <c r="F9" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51108,7 +51090,7 @@
       </c>
       <c r="I9" s="36" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-web</v>
+        <v>Network@nonprod-vcn::nonprod-web</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="58"/>
@@ -51180,9 +51162,9 @@
         <f t="array" aca="1" ref="C10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E10" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">_xlfn.IFNA(IF($H10+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H10+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H10+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H10+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-app</v>
+      <c r="E10" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">_xlfn.IFNA(IF($H10 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H10 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H10 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H10 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H10 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-app</v>
       </c>
       <c r="F10" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51194,7 +51176,7 @@
       </c>
       <c r="I10" s="36" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-app</v>
+        <v>Network@nonprod-vcn::nonprod-app</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="58"/>
@@ -51266,9 +51248,9 @@
         <f t="array" aca="1" ref="C11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E11" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">_xlfn.IFNA(IF($H11+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H11+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H11+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H11+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-db</v>
+      <c r="E11" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">_xlfn.IFNA(IF($H11 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H11 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H11 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H11 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H11 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-db</v>
       </c>
       <c r="F11" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51280,7 +51262,7 @@
       </c>
       <c r="I11" s="36" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-db</v>
+        <v>Network@nonprod-vcn::nonprod-db</v>
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="58"/>
@@ -51352,9 +51334,9 @@
         <f t="array" aca="1" ref="C12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E12" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">_xlfn.IFNA(IF($H12+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H12+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H12+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H12+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>exa-vcn_exa-clnt</v>
+      <c r="E12" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_xlfn.IFNA(IF($H12 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H12 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H12 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H12 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H12 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@exa-vcn::exa-clnt</v>
       </c>
       <c r="F12" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51366,7 +51348,7 @@
       </c>
       <c r="I12" s="36" t="str">
         <f ca="1"/>
-        <v>exa-vcn_exa-clnt</v>
+        <v>Network@exa-vcn::exa-clnt</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="58"/>
@@ -51436,9 +51418,9 @@
         <f t="array" aca="1" ref="C13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E13" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">_xlfn.IFNA(IF($H13+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H13+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H13+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H13+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>exa-vcn_exa-bkup</v>
+      <c r="E13" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">_xlfn.IFNA(IF($H13 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H13 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H13 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H13 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H13 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@exa-vcn::exa-bkup</v>
       </c>
       <c r="F13" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51450,7 +51432,7 @@
       </c>
       <c r="I13" s="36" t="str">
         <f ca="1"/>
-        <v>exa-vcn_exa-bkup</v>
+        <v>Network@exa-vcn::exa-bkup</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="58"/>
@@ -51520,9 +51502,9 @@
         <f t="array" aca="1" ref="C14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E14" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">_xlfn.IFNA(IF($H14+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H14+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H14+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H14+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>exa-vcn_exa-bkup</v>
+      <c r="E14" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xlfn.IFNA(IF($H14 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H14 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H14 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H14 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H14 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@exa-vcn::exa-bkup</v>
       </c>
       <c r="F14" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -51597,8 +51579,8 @@
         <f t="array" aca="1" ref="C15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E15" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">_xlfn.IFNA(IF($H15+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H15+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H15+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H15+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E15" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">_xlfn.IFNA(IF($H15 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H15 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H15 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H15 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H15 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F15" s="36" t="str">
@@ -51674,8 +51656,8 @@
         <f t="array" aca="1" ref="C16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E16" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">_xlfn.IFNA(IF($H16+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H16+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H16+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H16+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E16" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">_xlfn.IFNA(IF($H16 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H16 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H16 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H16 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H16 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F16" s="36" t="str">
@@ -51751,8 +51733,8 @@
         <f t="array" aca="1" ref="C17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E17" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">_xlfn.IFNA(IF($H17+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H17+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H17+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H17+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E17" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">_xlfn.IFNA(IF($H17 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H17 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H17 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H17 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H17 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F17" s="36" t="str">
@@ -51828,8 +51810,8 @@
         <f t="array" aca="1" ref="C18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E18" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">_xlfn.IFNA(IF($H18+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H18+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H18+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H18+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E18" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">_xlfn.IFNA(IF($H18 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H18 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H18 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H18 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H18 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F18" s="36" t="str">
@@ -51905,8 +51887,8 @@
         <f t="array" aca="1" ref="C19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E19" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">_xlfn.IFNA(IF($H19+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H19+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H19+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H19+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E19" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">_xlfn.IFNA(IF($H19 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H19 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H19 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H19 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H19 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F19" s="36" t="str">
@@ -51982,8 +51964,8 @@
         <f t="array" aca="1" ref="C20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E20" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">_xlfn.IFNA(IF($H20+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H20+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H20+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H20+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E20" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">_xlfn.IFNA(IF($H20 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H20 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H20 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H20 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H20 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F20" s="36" t="str">
@@ -52059,8 +52041,8 @@
         <f t="array" aca="1" ref="C21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E21" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">_xlfn.IFNA(IF($H21+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H21+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H21+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H21+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E21" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">_xlfn.IFNA(IF($H21 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H21 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H21 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H21 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H21 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F21" s="36" t="str">
@@ -52136,8 +52118,8 @@
         <f t="array" aca="1" ref="C22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E22" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">_xlfn.IFNA(IF($H22+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H22+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H22+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H22+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E22" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">_xlfn.IFNA(IF($H22 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H22 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H22 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H22 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H22 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F22" s="36" t="str">
@@ -52213,8 +52195,8 @@
         <f t="array" aca="1" ref="C23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E23" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">_xlfn.IFNA(IF($H23+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H23+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H23+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H23+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E23" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">_xlfn.IFNA(IF($H23 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H23 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H23 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H23 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H23 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F23" s="36" t="str">
@@ -52290,8 +52272,8 @@
         <f t="array" aca="1" ref="C24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E24" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">_xlfn.IFNA(IF($H24+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H24+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H24+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H24+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E24" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">_xlfn.IFNA(IF($H24 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H24 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H24 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H24 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H24 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F24" s="36" t="str">
@@ -52367,8 +52349,8 @@
         <f t="array" aca="1" ref="C25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E25" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E25" ca="1">_xlfn.IFNA(IF($H25+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H25+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H25+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H25+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E25" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">_xlfn.IFNA(IF($H25 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H25 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H25 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H25 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H25 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F25" s="36" t="str">
@@ -52444,8 +52426,8 @@
         <f t="array" aca="1" ref="C26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E26" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E26" ca="1">_xlfn.IFNA(IF($H26+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H26+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H26+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H26+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E26" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">_xlfn.IFNA(IF($H26 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H26 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H26 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H26 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H26 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F26" s="36" t="str">
@@ -52521,8 +52503,8 @@
         <f t="array" aca="1" ref="C27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E27" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E27" ca="1">_xlfn.IFNA(IF($H27+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H27+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H27+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H27+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E27" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">_xlfn.IFNA(IF($H27 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H27 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H27 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H27 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H27 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F27" s="36" t="str">
@@ -52598,8 +52580,8 @@
         <f t="array" aca="1" ref="C28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E28" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E28" ca="1">_xlfn.IFNA(IF($H28+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H28+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H28+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H28+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+      <c r="E28" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">_xlfn.IFNA(IF($H28 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H28 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H28 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H28 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H28 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F28" s="36" t="str">
@@ -52675,10 +52657,6 @@
         <f t="array" aca="1" ref="C29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E29" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E29" ca="1">_xlfn.IFNA(IF($H29+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H29+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H29+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H29+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F29" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -52752,10 +52730,6 @@
         <f t="array" aca="1" ref="C30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E30" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E30" ca="1">_xlfn.IFNA(IF($H30+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H30+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H30+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H30+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F30" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -52829,10 +52803,6 @@
         <f t="array" aca="1" ref="C31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E31" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E31" ca="1">_xlfn.IFNA(IF($H31+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H31+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H31+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H31+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F31" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -52906,10 +52876,6 @@
         <f t="array" aca="1" ref="C32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E32" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E32" ca="1">_xlfn.IFNA(IF($H32+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H32+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H32+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H32+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F32" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -52983,10 +52949,6 @@
         <f t="array" aca="1" ref="C33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E33" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E33" ca="1">_xlfn.IFNA(IF($H33+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H33+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H33+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H33+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F33" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53060,10 +53022,6 @@
         <f t="array" aca="1" ref="C34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E34" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E34" ca="1">_xlfn.IFNA(IF($H34+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H34+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H34+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H34+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F34" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53137,10 +53095,6 @@
         <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E35" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E35" ca="1">_xlfn.IFNA(IF($H35+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H35+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H35+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H35+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F35" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53214,10 +53168,6 @@
         <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E36" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E36" ca="1">_xlfn.IFNA(IF($H36+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H36+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H36+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H36+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F36" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53291,10 +53241,6 @@
         <f t="array" aca="1" ref="C37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E37" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E37" ca="1">_xlfn.IFNA(IF($H37+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H37+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H37+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H37+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F37" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53368,10 +53314,6 @@
         <f t="array" aca="1" ref="C38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E38" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E38" ca="1">_xlfn.IFNA(IF($H38+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H38+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H38+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H38+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F38" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53445,10 +53387,6 @@
         <f t="array" aca="1" ref="C39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E39" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E39" ca="1">_xlfn.IFNA(IF($H39+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H39+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H39+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H39+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F39" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53522,10 +53460,6 @@
         <f t="array" aca="1" ref="C40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E40" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E40" ca="1">_xlfn.IFNA(IF($H40+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H40+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H40+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H40+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F40" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53598,10 +53532,6 @@
         <f t="array" aca="1" ref="C41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E41" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E41" ca="1">_xlfn.IFNA(IF($H41+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H41+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H41+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H41+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F41" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53649,10 +53579,6 @@
         <f t="array" aca="1" ref="C42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E42" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E42" ca="1">_xlfn.IFNA(IF($H42+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H42+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H42+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H42+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F42" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53699,10 +53625,6 @@
         <f t="array" aca="1" ref="C43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E43" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E43" ca="1">_xlfn.IFNA(IF($H43+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H43+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H43+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H43+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F43" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53749,10 +53671,6 @@
         <f t="array" aca="1" ref="C44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E44" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">_xlfn.IFNA(IF($H44+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H44+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H44+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H44+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F44" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53799,10 +53717,6 @@
         <f t="array" aca="1" ref="C45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E45" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E45" ca="1">_xlfn.IFNA(IF($H45+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H45+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H45+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H45+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F45" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53849,10 +53763,6 @@
         <f t="array" aca="1" ref="C46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E46" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E46" ca="1">_xlfn.IFNA(IF($H46+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H46+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H46+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H46+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F46" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53896,10 +53806,6 @@
         <f t="array" aca="1" ref="C47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E47" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E47" ca="1">_xlfn.IFNA(IF($H47+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H47+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H47+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H47+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F47" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53943,10 +53849,6 @@
         <f t="array" aca="1" ref="C48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E48" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E48" ca="1">_xlfn.IFNA(IF($H48+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H48+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H48+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H48+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F48" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -53990,10 +53892,6 @@
         <f t="array" aca="1" ref="C49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E49" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E49" ca="1">_xlfn.IFNA(IF($H49+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H49+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H49+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H49+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F49" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54026,10 +53924,6 @@
       </c>
     </row>
     <row r="50" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E50" ca="1">_xlfn.IFNA(IF($H50+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H50+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H50+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H50+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F50" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54047,10 +53941,6 @@
       </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E51" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E51" ca="1">_xlfn.IFNA(IF($H51+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H51+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H51+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H51+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F51" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54069,10 +53959,6 @@
       <c r="AV51" s="57"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E52" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E52" ca="1">_xlfn.IFNA(IF($H52+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H52+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H52+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H52+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F52" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54091,10 +53977,6 @@
       <c r="AV52" s="57"/>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E53" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E53" ca="1">_xlfn.IFNA(IF($H53+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H53+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H53+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H53+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F53" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54112,10 +53994,6 @@
       <c r="AV53" s="57"/>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E54" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E54" ca="1">_xlfn.IFNA(IF($H54+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H54+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H54+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H54+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F54" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54133,10 +54011,6 @@
       <c r="AV54" s="57"/>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E55" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E55" ca="1">_xlfn.IFNA(IF($H55+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H55+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H55+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H55+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F55" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54154,10 +54028,6 @@
       <c r="AV55" s="57"/>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E56" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E56" ca="1">_xlfn.IFNA(IF($H56+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H56+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H56+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H56+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F56" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54175,10 +54045,6 @@
       <c r="AV56" s="57"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E57" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E57" ca="1">_xlfn.IFNA(IF($H57+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H57+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H57+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H57+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F57" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54196,10 +54062,6 @@
       <c r="AV57" s="57"/>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E58" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E58" ca="1">_xlfn.IFNA(IF($H58+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H58+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H58+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H58+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F58" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54217,10 +54079,6 @@
       <c r="AV58" s="57"/>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E59" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E59" ca="1">_xlfn.IFNA(IF($H59+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H59+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H59+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H59+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F59" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54238,10 +54096,6 @@
       <c r="AV59" s="57"/>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E60" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E60" ca="1">_xlfn.IFNA(IF($H60+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H60+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H60+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H60+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F60" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54259,10 +54113,6 @@
       <c r="AV60" s="57"/>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E61" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E61" ca="1">_xlfn.IFNA(IF($H61+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H61+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H61+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H61+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F61" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54280,10 +54130,6 @@
       <c r="AV61" s="57"/>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E62" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E62" ca="1">_xlfn.IFNA(IF($H62+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H62+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H62+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H62+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F62" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54301,10 +54147,6 @@
       <c r="AV62" s="57"/>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E63" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E63" ca="1">_xlfn.IFNA(IF($H63+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H63+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H63+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H63+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F63" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54322,10 +54164,6 @@
       <c r="AV63" s="57"/>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="E64" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E64" ca="1">_xlfn.IFNA(IF($H64+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H64+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H64+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H64+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F64" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54342,11 +54180,7 @@
       </c>
       <c r="AV64" s="57"/>
     </row>
-    <row r="65" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E65" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E65" ca="1">_xlfn.IFNA(IF($H65+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H65+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H65+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H65+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="65" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F65" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54363,11 +54197,7 @@
       </c>
       <c r="AV65" s="57"/>
     </row>
-    <row r="66" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E66" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E66" ca="1">_xlfn.IFNA(IF($H66+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H66+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H66+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H66+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="66" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F66" s="36" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -54384,11 +54214,7 @@
       </c>
       <c r="AV66" s="57"/>
     </row>
-    <row r="67" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E67" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E67" ca="1">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H67+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="67" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F67" s="36" t="str">
         <f t="shared" ref="F67:F130" ca="1" si="2">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
@@ -54405,11 +54231,7 @@
       </c>
       <c r="AV67" s="57"/>
     </row>
-    <row r="68" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E68" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E68" ca="1">_xlfn.IFNA(IF($H68+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H68+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H68+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H68+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="68" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F68" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54426,11 +54248,7 @@
       </c>
       <c r="AV68" s="57"/>
     </row>
-    <row r="69" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E69" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E69" ca="1">_xlfn.IFNA(IF($H69+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H69+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H69+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H69+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="69" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F69" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54447,11 +54265,7 @@
       </c>
       <c r="AV69" s="57"/>
     </row>
-    <row r="70" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E70" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E70" ca="1">_xlfn.IFNA(IF($H70+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H70+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H70+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H70+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="70" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F70" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54468,11 +54282,7 @@
       </c>
       <c r="AV70" s="57"/>
     </row>
-    <row r="71" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E71" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E71" ca="1">_xlfn.IFNA(IF($H71+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H71+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H71+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H71+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="71" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F71" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54489,11 +54299,7 @@
       </c>
       <c r="AV71" s="57"/>
     </row>
-    <row r="72" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E72" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E72" ca="1">_xlfn.IFNA(IF($H72+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H72+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H72+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H72+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="72" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F72" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54510,11 +54316,7 @@
       </c>
       <c r="AV72" s="57"/>
     </row>
-    <row r="73" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E73" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E73" ca="1">_xlfn.IFNA(IF($H73+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H73+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H73+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H73+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="73" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F73" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54531,11 +54333,7 @@
       </c>
       <c r="AV73" s="57"/>
     </row>
-    <row r="74" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E74" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E74" ca="1">_xlfn.IFNA(IF($H74+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H74+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H74+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H74+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="74" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F74" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54552,11 +54350,7 @@
       </c>
       <c r="AV74" s="57"/>
     </row>
-    <row r="75" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E75" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E75" ca="1">_xlfn.IFNA(IF($H75+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H75+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H75+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H75+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="75" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F75" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54573,11 +54367,7 @@
       </c>
       <c r="AV75" s="57"/>
     </row>
-    <row r="76" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E76" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E76" ca="1">_xlfn.IFNA(IF($H76+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H76+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H76+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H76+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="76" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F76" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54594,11 +54384,7 @@
       </c>
       <c r="AV76" s="57"/>
     </row>
-    <row r="77" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E77" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E77" ca="1">_xlfn.IFNA(IF($H77+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H77+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H77+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H77+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="77" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F77" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54615,11 +54401,7 @@
       </c>
       <c r="AV77" s="57"/>
     </row>
-    <row r="78" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E78" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E78" ca="1">_xlfn.IFNA(IF($H78+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H78+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H78+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H78+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="78" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F78" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54636,11 +54418,7 @@
       </c>
       <c r="AV78" s="57"/>
     </row>
-    <row r="79" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E79" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E79" ca="1">_xlfn.IFNA(IF($H79+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H79+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H79+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H79+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="79" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F79" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54657,11 +54435,7 @@
       </c>
       <c r="AV79" s="57"/>
     </row>
-    <row r="80" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E80" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E80" ca="1">_xlfn.IFNA(IF($H80+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H80+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H80+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H80+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="80" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F80" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54678,11 +54452,7 @@
       </c>
       <c r="AV80" s="57"/>
     </row>
-    <row r="81" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E81" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E81" ca="1">_xlfn.IFNA(IF($H81+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H81+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H81+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H81+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="81" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F81" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54699,11 +54469,7 @@
       </c>
       <c r="AV81" s="57"/>
     </row>
-    <row r="82" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E82" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E82" ca="1">_xlfn.IFNA(IF($H82+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H82+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H82+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H82+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="82" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F82" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54720,11 +54486,7 @@
       </c>
       <c r="AV82" s="57"/>
     </row>
-    <row r="83" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E83" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E83" ca="1">_xlfn.IFNA(IF($H83+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H83+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H83+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H83+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="83" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F83" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54741,11 +54503,7 @@
       </c>
       <c r="AV83" s="57"/>
     </row>
-    <row r="84" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E84" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E84" ca="1">_xlfn.IFNA(IF($H84+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H84+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H84+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H84+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="84" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F84" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54762,11 +54520,7 @@
       </c>
       <c r="AV84" s="57"/>
     </row>
-    <row r="85" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E85" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E85" ca="1">_xlfn.IFNA(IF($H85+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H85+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H85+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H85+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="85" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F85" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54783,11 +54537,7 @@
       </c>
       <c r="AV85" s="57"/>
     </row>
-    <row r="86" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E86" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E86" ca="1">_xlfn.IFNA(IF($H86+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H86+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H86+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H86+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="86" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F86" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54804,11 +54554,7 @@
       </c>
       <c r="AV86" s="57"/>
     </row>
-    <row r="87" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E87" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E87" ca="1">_xlfn.IFNA(IF($H87+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H87+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H87+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H87+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="87" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F87" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54825,11 +54571,7 @@
       </c>
       <c r="AV87" s="57"/>
     </row>
-    <row r="88" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E88" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E88" ca="1">_xlfn.IFNA(IF($H88+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H88+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H88+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H88+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="88" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F88" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54846,11 +54588,7 @@
       </c>
       <c r="AV88" s="57"/>
     </row>
-    <row r="89" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E89" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E89" ca="1">_xlfn.IFNA(IF($H89+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H89+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H89+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H89+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="89" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F89" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54867,11 +54605,7 @@
       </c>
       <c r="AV89" s="57"/>
     </row>
-    <row r="90" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E90" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E90" ca="1">_xlfn.IFNA(IF($H90+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H90+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H90+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H90+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="90" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F90" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54888,11 +54622,7 @@
       </c>
       <c r="AV90" s="57"/>
     </row>
-    <row r="91" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E91" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E91" ca="1">_xlfn.IFNA(IF($H91+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H91+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H91+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H91+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="91" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F91" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54909,11 +54639,7 @@
       </c>
       <c r="AV91" s="57"/>
     </row>
-    <row r="92" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E92" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E92" ca="1">_xlfn.IFNA(IF($H92+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H92+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H92+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H92+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="92" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F92" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54930,11 +54656,7 @@
       </c>
       <c r="AV92" s="57"/>
     </row>
-    <row r="93" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E93" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E93" ca="1">_xlfn.IFNA(IF($H93+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H93+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H93+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H93+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="93" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F93" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54951,11 +54673,7 @@
       </c>
       <c r="AV93" s="57"/>
     </row>
-    <row r="94" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E94" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E94" ca="1">_xlfn.IFNA(IF($H94+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H94+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H94+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H94+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="94" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F94" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54972,11 +54690,7 @@
       </c>
       <c r="AV94" s="57"/>
     </row>
-    <row r="95" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E95" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E95" ca="1">_xlfn.IFNA(IF($H95+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H95+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H95+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H95+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="95" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F95" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -54993,11 +54707,7 @@
       </c>
       <c r="AV95" s="57"/>
     </row>
-    <row r="96" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E96" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E96" ca="1">_xlfn.IFNA(IF($H96+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H96+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H96+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H96+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="96" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F96" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55014,11 +54724,7 @@
       </c>
       <c r="AV96" s="57"/>
     </row>
-    <row r="97" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E97" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E97" ca="1">_xlfn.IFNA(IF($H97+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H97+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H97+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H97+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="97" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F97" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55035,11 +54741,7 @@
       </c>
       <c r="AV97" s="57"/>
     </row>
-    <row r="98" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E98" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E98" ca="1">_xlfn.IFNA(IF($H98+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H98+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H98+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H98+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="98" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F98" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55056,11 +54758,7 @@
       </c>
       <c r="AV98" s="57"/>
     </row>
-    <row r="99" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E99" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E99" ca="1">_xlfn.IFNA(IF($H99+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H99+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H99+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H99+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="99" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F99" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55077,11 +54775,7 @@
       </c>
       <c r="AV99" s="57"/>
     </row>
-    <row r="100" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E100" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E100" ca="1">_xlfn.IFNA(IF($H100+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H100+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H100+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H100+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="100" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F100" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55098,11 +54792,7 @@
       </c>
       <c r="AV100" s="57"/>
     </row>
-    <row r="101" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E101" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E101" ca="1">_xlfn.IFNA(IF($H101+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H101+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H101+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H101+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="101" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F101" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55119,11 +54809,7 @@
       </c>
       <c r="AV101" s="57"/>
     </row>
-    <row r="102" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E102" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E102" ca="1">_xlfn.IFNA(IF($H102+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H102+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H102+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H102+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="102" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F102" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55140,11 +54826,7 @@
       </c>
       <c r="AV102" s="57"/>
     </row>
-    <row r="103" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E103" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E103" ca="1">_xlfn.IFNA(IF($H103+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H103+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H103+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H103+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="103" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F103" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55161,11 +54843,7 @@
       </c>
       <c r="AV103" s="57"/>
     </row>
-    <row r="104" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E104" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E104" ca="1">_xlfn.IFNA(IF($H104+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H104+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H104+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H104+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="104" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F104" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55182,11 +54860,7 @@
       </c>
       <c r="AV104" s="57"/>
     </row>
-    <row r="105" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E105" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E105" ca="1">_xlfn.IFNA(IF($H105+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H105+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H105+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H105+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="105" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F105" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55203,11 +54877,7 @@
       </c>
       <c r="AV105" s="57"/>
     </row>
-    <row r="106" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E106" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E106" ca="1">_xlfn.IFNA(IF($H106+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H106+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H106+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H106+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="106" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F106" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55224,11 +54894,7 @@
       </c>
       <c r="AV106" s="57"/>
     </row>
-    <row r="107" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E107" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E107" ca="1">_xlfn.IFNA(IF($H107+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H107+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H107+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H107+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="107" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F107" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55245,11 +54911,7 @@
       </c>
       <c r="AV107" s="57"/>
     </row>
-    <row r="108" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E108" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E108" ca="1">_xlfn.IFNA(IF($H108+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H108+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H108+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H108+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="108" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F108" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55266,11 +54928,7 @@
       </c>
       <c r="AV108" s="57"/>
     </row>
-    <row r="109" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E109" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E109" ca="1">_xlfn.IFNA(IF($H109+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H109+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H109+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H109+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="109" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F109" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55287,11 +54945,7 @@
       </c>
       <c r="AV109" s="57"/>
     </row>
-    <row r="110" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E110" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E110" ca="1">_xlfn.IFNA(IF($H110+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H110+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H110+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H110+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="110" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F110" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55308,11 +54962,7 @@
       </c>
       <c r="AV110" s="57"/>
     </row>
-    <row r="111" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E111" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E111" ca="1">_xlfn.IFNA(IF($H111+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H111+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H111+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H111+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="111" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F111" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55329,11 +54979,7 @@
       </c>
       <c r="AV111" s="57"/>
     </row>
-    <row r="112" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E112" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E112" ca="1">_xlfn.IFNA(IF($H112+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H112+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H112+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H112+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="112" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F112" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55350,11 +54996,7 @@
       </c>
       <c r="AV112" s="57"/>
     </row>
-    <row r="113" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E113" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E113" ca="1">_xlfn.IFNA(IF($H113+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H113+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H113+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H113+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="113" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F113" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55371,11 +55013,7 @@
       </c>
       <c r="AV113" s="57"/>
     </row>
-    <row r="114" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E114" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E114" ca="1">_xlfn.IFNA(IF($H114+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H114+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H114+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H114+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="114" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F114" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55392,11 +55030,7 @@
       </c>
       <c r="AV114" s="57"/>
     </row>
-    <row r="115" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E115" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E115" ca="1">_xlfn.IFNA(IF($H115+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H115+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H115+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H115+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="115" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F115" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55413,11 +55047,7 @@
       </c>
       <c r="AV115" s="57"/>
     </row>
-    <row r="116" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E116" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E116" ca="1">_xlfn.IFNA(IF($H116+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H116+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H116+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H116+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="116" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F116" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55434,11 +55064,7 @@
       </c>
       <c r="AV116" s="57"/>
     </row>
-    <row r="117" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E117" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E117" ca="1">_xlfn.IFNA(IF($H117+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H117+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H117+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H117+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="117" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F117" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55455,11 +55081,7 @@
       </c>
       <c r="AV117" s="57"/>
     </row>
-    <row r="118" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E118" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E118" ca="1">_xlfn.IFNA(IF($H118+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H118+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H118+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H118+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="118" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F118" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55476,11 +55098,7 @@
       </c>
       <c r="AV118" s="57"/>
     </row>
-    <row r="119" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E119" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E119" ca="1">_xlfn.IFNA(IF($H119+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H119+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H119+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H119+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="119" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F119" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55497,11 +55115,7 @@
       </c>
       <c r="AV119" s="57"/>
     </row>
-    <row r="120" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E120" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E120" ca="1">_xlfn.IFNA(IF($H120+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H120+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H120+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H120+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="120" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F120" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55518,11 +55132,7 @@
       </c>
       <c r="AV120" s="57"/>
     </row>
-    <row r="121" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E121" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E121" ca="1">_xlfn.IFNA(IF($H121+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H121+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H121+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H121+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="121" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F121" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55539,11 +55149,7 @@
       </c>
       <c r="AV121" s="57"/>
     </row>
-    <row r="122" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E122" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E122" ca="1">_xlfn.IFNA(IF($H122+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H122+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H122+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H122+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="122" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F122" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55560,11 +55166,7 @@
       </c>
       <c r="AV122" s="57"/>
     </row>
-    <row r="123" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E123" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E123" ca="1">_xlfn.IFNA(IF($H123+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H123+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H123+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H123+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="123" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F123" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55581,11 +55183,7 @@
       </c>
       <c r="AV123" s="57"/>
     </row>
-    <row r="124" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E124" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E124" ca="1">_xlfn.IFNA(IF($H124+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H124+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H124+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H124+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="124" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F124" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55602,11 +55200,7 @@
       </c>
       <c r="AV124" s="57"/>
     </row>
-    <row r="125" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E125" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E125" ca="1">_xlfn.IFNA(IF($H125+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H125+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H125+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H125+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="125" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F125" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55623,11 +55217,7 @@
       </c>
       <c r="AV125" s="57"/>
     </row>
-    <row r="126" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E126" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E126" ca="1">_xlfn.IFNA(IF($H126+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H126+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H126+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H126+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="126" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F126" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55644,11 +55234,7 @@
       </c>
       <c r="AV126" s="57"/>
     </row>
-    <row r="127" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E127" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E127" ca="1">_xlfn.IFNA(IF($H127+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H127+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H127+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H127+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="127" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F127" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55665,11 +55251,7 @@
       </c>
       <c r="AV127" s="57"/>
     </row>
-    <row r="128" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E128" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E128" ca="1">_xlfn.IFNA(IF($H128+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H128+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H128+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H128+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="128" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F128" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55686,11 +55268,7 @@
       </c>
       <c r="AV128" s="57"/>
     </row>
-    <row r="129" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E129" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E129" ca="1">_xlfn.IFNA(IF($H129+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H129+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H129+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H129+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="129" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F129" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55707,11 +55285,7 @@
       </c>
       <c r="AV129" s="57"/>
     </row>
-    <row r="130" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E130" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E130" ca="1">_xlfn.IFNA(IF($H130+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H130+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H130+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H130+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="130" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F130" s="36" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
@@ -55728,11 +55302,7 @@
       </c>
       <c r="AV130" s="57"/>
     </row>
-    <row r="131" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E131" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E131" ca="1">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H131+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="131" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F131" s="36" t="str">
         <f t="shared" ref="F131:F194" ca="1" si="4">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
@@ -55749,11 +55319,7 @@
       </c>
       <c r="AV131" s="57"/>
     </row>
-    <row r="132" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E132" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E132" ca="1">_xlfn.IFNA(IF($H132+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H132+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H132+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H132+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="132" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F132" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55770,11 +55336,7 @@
       </c>
       <c r="AV132" s="57"/>
     </row>
-    <row r="133" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E133" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E133" ca="1">_xlfn.IFNA(IF($H133+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H133+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H133+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H133+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="133" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F133" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55791,11 +55353,7 @@
       </c>
       <c r="AV133" s="57"/>
     </row>
-    <row r="134" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E134" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E134" ca="1">_xlfn.IFNA(IF($H134+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H134+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H134+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H134+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="134" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F134" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55812,11 +55370,7 @@
       </c>
       <c r="AV134" s="57"/>
     </row>
-    <row r="135" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E135" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E135" ca="1">_xlfn.IFNA(IF($H135+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H135+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H135+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H135+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="135" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F135" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55833,11 +55387,7 @@
       </c>
       <c r="AV135" s="57"/>
     </row>
-    <row r="136" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E136" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E136" ca="1">_xlfn.IFNA(IF($H136+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H136+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H136+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H136+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="136" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F136" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55854,11 +55404,7 @@
       </c>
       <c r="AV136" s="57"/>
     </row>
-    <row r="137" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E137" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E137" ca="1">_xlfn.IFNA(IF($H137+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H137+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H137+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H137+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="137" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F137" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55875,11 +55421,7 @@
       </c>
       <c r="AV137" s="57"/>
     </row>
-    <row r="138" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E138" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E138" ca="1">_xlfn.IFNA(IF($H138+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H138+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H138+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H138+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="138" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F138" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55896,11 +55438,7 @@
       </c>
       <c r="AV138" s="57"/>
     </row>
-    <row r="139" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E139" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E139" ca="1">_xlfn.IFNA(IF($H139+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H139+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H139+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H139+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="139" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F139" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55917,11 +55455,7 @@
       </c>
       <c r="AV139" s="57"/>
     </row>
-    <row r="140" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E140" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E140" ca="1">_xlfn.IFNA(IF($H140+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H140+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H140+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H140+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="140" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F140" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55938,11 +55472,7 @@
       </c>
       <c r="AV140" s="57"/>
     </row>
-    <row r="141" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E141" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E141" ca="1">_xlfn.IFNA(IF($H141+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H141+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H141+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H141+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="141" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F141" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55959,11 +55489,7 @@
       </c>
       <c r="AV141" s="57"/>
     </row>
-    <row r="142" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E142" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E142" ca="1">_xlfn.IFNA(IF($H142+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H142+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H142+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H142+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="142" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F142" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -55980,11 +55506,7 @@
       </c>
       <c r="AV142" s="57"/>
     </row>
-    <row r="143" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E143" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E143" ca="1">_xlfn.IFNA(IF($H143+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H143+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H143+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H143+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="143" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F143" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56001,11 +55523,7 @@
       </c>
       <c r="AV143" s="57"/>
     </row>
-    <row r="144" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E144" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E144" ca="1">_xlfn.IFNA(IF($H144+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H144+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H144+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H144+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="144" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F144" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56022,11 +55540,7 @@
       </c>
       <c r="AV144" s="57"/>
     </row>
-    <row r="145" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E145" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E145" ca="1">_xlfn.IFNA(IF($H145+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H145+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H145+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H145+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="145" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F145" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56043,11 +55557,7 @@
       </c>
       <c r="AV145" s="57"/>
     </row>
-    <row r="146" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E146" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E146" ca="1">_xlfn.IFNA(IF($H146+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H146+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H146+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H146+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="146" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F146" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56064,11 +55574,7 @@
       </c>
       <c r="AV146" s="57"/>
     </row>
-    <row r="147" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E147" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E147" ca="1">_xlfn.IFNA(IF($H147+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H147+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H147+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H147+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="147" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F147" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56085,11 +55591,7 @@
       </c>
       <c r="AV147" s="57"/>
     </row>
-    <row r="148" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E148" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E148" ca="1">_xlfn.IFNA(IF($H148+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H148+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H148+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H148+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="148" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F148" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56106,11 +55608,7 @@
       </c>
       <c r="AV148" s="57"/>
     </row>
-    <row r="149" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E149" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E149" ca="1">_xlfn.IFNA(IF($H149+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H149+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H149+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H149+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="149" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F149" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56127,11 +55625,7 @@
       </c>
       <c r="AV149" s="57"/>
     </row>
-    <row r="150" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E150" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E150" ca="1">_xlfn.IFNA(IF($H150+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H150+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H150+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H150+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="150" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F150" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56148,11 +55642,7 @@
       </c>
       <c r="AV150" s="57"/>
     </row>
-    <row r="151" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E151" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E151" ca="1">_xlfn.IFNA(IF($H151+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H151+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H151+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H151+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="151" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F151" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56169,11 +55659,7 @@
       </c>
       <c r="AV151" s="57"/>
     </row>
-    <row r="152" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E152" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E152" ca="1">_xlfn.IFNA(IF($H152+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H152+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H152+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H152+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="152" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F152" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56190,11 +55676,7 @@
       </c>
       <c r="AV152" s="57"/>
     </row>
-    <row r="153" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E153" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E153" ca="1">_xlfn.IFNA(IF($H153+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H153+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H153+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H153+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="153" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F153" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56211,11 +55693,7 @@
       </c>
       <c r="AV153" s="57"/>
     </row>
-    <row r="154" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E154" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E154" ca="1">_xlfn.IFNA(IF($H154+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H154+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H154+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H154+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="154" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F154" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56232,11 +55710,7 @@
       </c>
       <c r="AV154" s="57"/>
     </row>
-    <row r="155" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E155" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E155" ca="1">_xlfn.IFNA(IF($H155+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H155+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H155+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H155+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="155" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F155" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56253,11 +55727,7 @@
       </c>
       <c r="AV155" s="57"/>
     </row>
-    <row r="156" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E156" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E156" ca="1">_xlfn.IFNA(IF($H156+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H156+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H156+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H156+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="156" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F156" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56274,11 +55744,7 @@
       </c>
       <c r="AV156" s="57"/>
     </row>
-    <row r="157" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E157" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E157" ca="1">_xlfn.IFNA(IF($H157+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H157+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H157+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H157+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="157" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F157" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56295,11 +55761,7 @@
       </c>
       <c r="AV157" s="57"/>
     </row>
-    <row r="158" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E158" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E158" ca="1">_xlfn.IFNA(IF($H158+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H158+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H158+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H158+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="158" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F158" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56316,11 +55778,7 @@
       </c>
       <c r="AV158" s="57"/>
     </row>
-    <row r="159" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E159" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E159" ca="1">_xlfn.IFNA(IF($H159+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H159+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H159+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H159+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="159" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F159" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56337,11 +55795,7 @@
       </c>
       <c r="AV159" s="57"/>
     </row>
-    <row r="160" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E160" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E160" ca="1">_xlfn.IFNA(IF($H160+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H160+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H160+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H160+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="160" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F160" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56358,11 +55812,7 @@
       </c>
       <c r="AV160" s="57"/>
     </row>
-    <row r="161" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E161" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E161" ca="1">_xlfn.IFNA(IF($H161+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H161+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H161+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H161+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="161" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F161" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56379,11 +55829,7 @@
       </c>
       <c r="AV161" s="57"/>
     </row>
-    <row r="162" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E162" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E162" ca="1">_xlfn.IFNA(IF($H162+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H162+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H162+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H162+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="162" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F162" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56400,11 +55846,7 @@
       </c>
       <c r="AV162" s="57"/>
     </row>
-    <row r="163" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E163" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E163" ca="1">_xlfn.IFNA(IF($H163+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H163+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H163+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H163+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="163" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F163" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56421,11 +55863,7 @@
       </c>
       <c r="AV163" s="57"/>
     </row>
-    <row r="164" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E164" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E164" ca="1">_xlfn.IFNA(IF($H164+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H164+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H164+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H164+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="164" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F164" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56442,11 +55880,7 @@
       </c>
       <c r="AV164" s="57"/>
     </row>
-    <row r="165" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E165" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E165" ca="1">_xlfn.IFNA(IF($H165+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H165+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H165+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H165+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="165" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F165" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56463,11 +55897,7 @@
       </c>
       <c r="AV165" s="57"/>
     </row>
-    <row r="166" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E166" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E166" ca="1">_xlfn.IFNA(IF($H166+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H166+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H166+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H166+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="166" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F166" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56484,11 +55914,7 @@
       </c>
       <c r="AV166" s="57"/>
     </row>
-    <row r="167" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E167" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E167" ca="1">_xlfn.IFNA(IF($H167+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H167+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H167+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H167+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="167" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F167" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56505,11 +55931,7 @@
       </c>
       <c r="AV167" s="57"/>
     </row>
-    <row r="168" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E168" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E168" ca="1">_xlfn.IFNA(IF($H168+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H168+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H168+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H168+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="168" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F168" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56526,11 +55948,7 @@
       </c>
       <c r="AV168" s="57"/>
     </row>
-    <row r="169" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E169" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E169" ca="1">_xlfn.IFNA(IF($H169+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H169+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H169+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H169+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="169" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F169" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56547,11 +55965,7 @@
       </c>
       <c r="AV169" s="57"/>
     </row>
-    <row r="170" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E170" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E170" ca="1">_xlfn.IFNA(IF($H170+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H170+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H170+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H170+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="170" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F170" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56568,11 +55982,7 @@
       </c>
       <c r="AV170" s="57"/>
     </row>
-    <row r="171" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E171" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E171" ca="1">_xlfn.IFNA(IF($H171+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H171+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H171+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H171+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="171" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F171" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56589,11 +55999,7 @@
       </c>
       <c r="AV171" s="57"/>
     </row>
-    <row r="172" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E172" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E172" ca="1">_xlfn.IFNA(IF($H172+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H172+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H172+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H172+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="172" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F172" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56610,11 +56016,7 @@
       </c>
       <c r="AV172" s="57"/>
     </row>
-    <row r="173" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E173" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E173" ca="1">_xlfn.IFNA(IF($H173+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H173+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H173+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H173+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="173" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F173" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56631,11 +56033,7 @@
       </c>
       <c r="AV173" s="57"/>
     </row>
-    <row r="174" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E174" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E174" ca="1">_xlfn.IFNA(IF($H174+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H174+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H174+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H174+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="174" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F174" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56652,11 +56050,7 @@
       </c>
       <c r="AV174" s="57"/>
     </row>
-    <row r="175" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E175" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E175" ca="1">_xlfn.IFNA(IF($H175+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H175+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H175+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H175+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="175" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F175" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56673,11 +56067,7 @@
       </c>
       <c r="AV175" s="57"/>
     </row>
-    <row r="176" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E176" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E176" ca="1">_xlfn.IFNA(IF($H176+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H176+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H176+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H176+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="176" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F176" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56694,11 +56084,7 @@
       </c>
       <c r="AV176" s="57"/>
     </row>
-    <row r="177" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E177" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E177" ca="1">_xlfn.IFNA(IF($H177+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H177+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H177+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H177+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="177" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F177" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56715,11 +56101,7 @@
       </c>
       <c r="AV177" s="57"/>
     </row>
-    <row r="178" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E178" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E178" ca="1">_xlfn.IFNA(IF($H178+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H178+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H178+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H178+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="178" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F178" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56736,11 +56118,7 @@
       </c>
       <c r="AV178" s="57"/>
     </row>
-    <row r="179" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E179" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E179" ca="1">_xlfn.IFNA(IF($H179+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H179+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H179+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H179+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="179" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F179" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56757,11 +56135,7 @@
       </c>
       <c r="AV179" s="57"/>
     </row>
-    <row r="180" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E180" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E180" ca="1">_xlfn.IFNA(IF($H180+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H180+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H180+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H180+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="180" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F180" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56778,11 +56152,7 @@
       </c>
       <c r="AV180" s="57"/>
     </row>
-    <row r="181" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E181" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E181" ca="1">_xlfn.IFNA(IF($H181+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H181+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H181+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H181+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="181" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F181" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56799,11 +56169,7 @@
       </c>
       <c r="AV181" s="57"/>
     </row>
-    <row r="182" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E182" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E182" ca="1">_xlfn.IFNA(IF($H182+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H182+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H182+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H182+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="182" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F182" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56820,11 +56186,7 @@
       </c>
       <c r="AV182" s="57"/>
     </row>
-    <row r="183" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E183" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E183" ca="1">_xlfn.IFNA(IF($H183+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H183+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H183+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H183+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="183" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F183" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56841,11 +56203,7 @@
       </c>
       <c r="AV183" s="57"/>
     </row>
-    <row r="184" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E184" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E184" ca="1">_xlfn.IFNA(IF($H184+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H184+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H184+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H184+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="184" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F184" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56862,11 +56220,7 @@
       </c>
       <c r="AV184" s="57"/>
     </row>
-    <row r="185" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E185" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E185" ca="1">_xlfn.IFNA(IF($H185+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H185+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H185+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H185+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="185" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F185" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56883,11 +56237,7 @@
       </c>
       <c r="AV185" s="57"/>
     </row>
-    <row r="186" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E186" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E186" ca="1">_xlfn.IFNA(IF($H186+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H186+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H186+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H186+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="186" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F186" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56904,11 +56254,7 @@
       </c>
       <c r="AV186" s="57"/>
     </row>
-    <row r="187" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E187" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E187" ca="1">_xlfn.IFNA(IF($H187+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H187+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H187+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H187+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="187" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F187" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56925,11 +56271,7 @@
       </c>
       <c r="AV187" s="57"/>
     </row>
-    <row r="188" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E188" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E188" ca="1">_xlfn.IFNA(IF($H188+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H188+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H188+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H188+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="188" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F188" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56946,11 +56288,7 @@
       </c>
       <c r="AV188" s="57"/>
     </row>
-    <row r="189" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E189" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E189" ca="1">_xlfn.IFNA(IF($H189+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H189+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H189+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H189+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="189" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F189" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56967,11 +56305,7 @@
       </c>
       <c r="AV189" s="57"/>
     </row>
-    <row r="190" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E190" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E190" ca="1">_xlfn.IFNA(IF($H190+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H190+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H190+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H190+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="190" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F190" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -56988,11 +56322,7 @@
       </c>
       <c r="AV190" s="57"/>
     </row>
-    <row r="191" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E191" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E191" ca="1">_xlfn.IFNA(IF($H191+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H191+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H191+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H191+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="191" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F191" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -57009,11 +56339,7 @@
       </c>
       <c r="AV191" s="57"/>
     </row>
-    <row r="192" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E192" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E192" ca="1">_xlfn.IFNA(IF($H192+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H192+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H192+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H192+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="192" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F192" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -57030,11 +56356,7 @@
       </c>
       <c r="AV192" s="57"/>
     </row>
-    <row r="193" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E193" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E193" ca="1">_xlfn.IFNA(IF($H193+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H193+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H193+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H193+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="193" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F193" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -57051,11 +56373,7 @@
       </c>
       <c r="AV193" s="57"/>
     </row>
-    <row r="194" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E194" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E194" ca="1">_xlfn.IFNA(IF($H194+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H194+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H194+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H194+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="194" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F194" s="36" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -57072,11 +56390,7 @@
       </c>
       <c r="AV194" s="57"/>
     </row>
-    <row r="195" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E195" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E195" ca="1">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H195+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="195" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F195" s="36" t="str">
         <f t="shared" ref="F195:F201" ca="1" si="6">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
@@ -57093,11 +56407,7 @@
       </c>
       <c r="AV195" s="57"/>
     </row>
-    <row r="196" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E196" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E196" ca="1">_xlfn.IFNA(IF($H196+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H196+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H196+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H196+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="196" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F196" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -57114,11 +56424,7 @@
       </c>
       <c r="AV196" s="57"/>
     </row>
-    <row r="197" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E197" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E197" ca="1">_xlfn.IFNA(IF($H197+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H197+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H197+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H197+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="197" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F197" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -57135,11 +56441,7 @@
       </c>
       <c r="AV197" s="57"/>
     </row>
-    <row r="198" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E198" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E198" ca="1">_xlfn.IFNA(IF($H198+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H198+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H198+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H198+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="198" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F198" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -57156,11 +56458,7 @@
       </c>
       <c r="AV198" s="57"/>
     </row>
-    <row r="199" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E199" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E199" ca="1">_xlfn.IFNA(IF($H199+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H199+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H199+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H199+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="199" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F199" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -57177,11 +56475,7 @@
       </c>
       <c r="AV199" s="57"/>
     </row>
-    <row r="200" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E200" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E200" ca="1">_xlfn.IFNA(IF($H200+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H200+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H200+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H200+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="200" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F200" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -57198,11 +56492,7 @@
       </c>
       <c r="AV200" s="57"/>
     </row>
-    <row r="201" spans="5:48" x14ac:dyDescent="0.2">
-      <c r="E201" s="36" t="str" cm="1">
-        <f t="array" aca="1" ref="E201" ca="1">_xlfn.IFNA(IF($H201+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H201+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H201+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H201+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
+    <row r="201" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F201" s="36" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
@@ -57241,10 +56531,10 @@
         <v>568</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -57744,14 +57034,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135"/>
+      <c r="A1" s="130" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -57817,16 +57107,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -58164,7 +57454,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -58176,7 +57466,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -58188,7 +57478,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -58248,7 +57538,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -58272,7 +57562,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -58332,7 +57622,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -58615,16 +57905,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>377</v>
       </c>
       <c r="D64" s="35" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E64" s="35" t="s">
         <v>1360</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>1361</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -58636,7 +57926,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -58648,7 +57938,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -58660,7 +57950,7 @@
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -58760,7 +58050,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -58772,7 +58062,7 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -58784,7 +58074,7 @@
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
@@ -58796,7 +58086,7 @@
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
@@ -58808,7 +58098,7 @@
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -58832,7 +58122,7 @@
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F80" s="107"/>
       <c r="G80" s="35"/>
@@ -58888,7 +58178,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="33" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -58900,7 +58190,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="33" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -59116,7 +58406,7 @@
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="33" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -59128,7 +58418,7 @@
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="33" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -59140,7 +58430,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="33" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -59152,7 +58442,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="33" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -59236,7 +58526,7 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="33" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -59248,7 +58538,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="33" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -59284,7 +58574,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -59296,7 +58586,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -59308,7 +58598,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -59320,7 +58610,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -59388,7 +58678,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -59852,7 +59142,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -59864,7 +59154,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -59876,7 +59166,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -59924,7 +59214,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -59936,7 +59226,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -60396,7 +59686,7 @@
       <c r="C207" s="35"/>
       <c r="D207" s="35"/>
       <c r="E207" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F207" s="35"/>
       <c r="G207" s="35"/>
@@ -60456,7 +59746,7 @@
       <c r="C212" s="35"/>
       <c r="D212" s="35"/>
       <c r="E212" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F212" s="35"/>
       <c r="G212" s="35"/>
@@ -60468,7 +59758,7 @@
       <c r="C213" s="35"/>
       <c r="D213" s="35"/>
       <c r="E213" s="35" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F213" s="35"/>
       <c r="G213" s="35"/>
@@ -60480,7 +59770,7 @@
       <c r="C214" s="35"/>
       <c r="D214" s="35"/>
       <c r="E214" s="35" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F214" s="35"/>
       <c r="G214" s="35"/>
@@ -60492,7 +59782,7 @@
       <c r="C215" s="35"/>
       <c r="D215" s="35"/>
       <c r="E215" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
@@ -60925,16 +60215,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="36" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C251" s="36" t="s">
         <v>377</v>
       </c>
       <c r="D251" s="35" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E251" s="35" t="s">
         <v>1366</v>
-      </c>
-      <c r="E251" s="35" t="s">
-        <v>1367</v>
       </c>
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
@@ -60946,7 +60236,7 @@
       <c r="C252" s="36"/>
       <c r="D252" s="35"/>
       <c r="E252" s="35" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F252" s="36"/>
       <c r="G252" s="36"/>
@@ -60958,7 +60248,7 @@
       <c r="C253" s="36"/>
       <c r="D253" s="35"/>
       <c r="E253" s="35" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F253" s="36"/>
       <c r="G253" s="36"/>
@@ -60970,7 +60260,7 @@
       <c r="C254" s="36"/>
       <c r="D254" s="35"/>
       <c r="E254" s="35" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F254" s="36"/>
       <c r="G254" s="36"/>
@@ -61046,7 +60336,7 @@
         <v>835</v>
       </c>
       <c r="E259" s="35" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F259" s="35"/>
       <c r="G259" s="35"/>
@@ -61058,7 +60348,7 @@
       <c r="C260" s="35"/>
       <c r="D260" s="35"/>
       <c r="E260" s="35" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F260" s="35"/>
       <c r="G260" s="35"/>
@@ -61070,7 +60360,7 @@
       <c r="C261" s="35"/>
       <c r="D261" s="35"/>
       <c r="E261" s="35" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F261" s="35"/>
       <c r="G261" s="35"/>
@@ -61222,19 +60512,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136" t="s">
         <v>837</v>
       </c>
-      <c r="H1" s="138"/>
-      <c r="I1" s="139"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -61604,13 +60894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="A1" s="130" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
@@ -61623,7 +60913,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E2" s="110" t="s">
         <v>395</v>
@@ -61634,13 +60924,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="63" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>1383</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>1384</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E3" s="36"/>
     </row>
@@ -61686,31 +60976,31 @@
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="123" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="124" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="124" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="122" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="122" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65.6640625" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="125" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="123" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
+      <c r="A1" s="130" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
@@ -61723,36 +61013,36 @@
         <v>2</v>
       </c>
       <c r="D2" s="109" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E2" s="110" t="s">
         <v>1403</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="F2" s="110" t="s">
         <v>1404</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="G2" s="110" t="s">
         <v>1405</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="H2" s="114" t="s">
         <v>1406</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="I2" s="115" t="s">
         <v>1407</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="J2" s="115" t="s">
         <v>1408</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="K2" s="110" t="s">
         <v>1409</v>
       </c>
-      <c r="K2" s="110" t="s">
+      <c r="L2" s="110" t="s">
         <v>1410</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="M2" s="110" t="s">
         <v>1411</v>
       </c>
-      <c r="M2" s="110" t="s">
-        <v>1412</v>
-      </c>
-      <c r="N2" s="118" t="s">
+      <c r="N2" s="116" t="s">
         <v>395</v>
       </c>
     </row>
@@ -61761,29 +61051,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>1413</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>1414</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>1415</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>377</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G3" s="35">
         <v>10</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="120" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J3" s="118" t="s">
         <v>1417</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>1418</v>
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
@@ -61795,34 +61085,34 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>1419</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="35" t="s">
         <v>1420</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>1421</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>1422</v>
       </c>
       <c r="G4" s="35">
         <v>100</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="117">
         <v>5</v>
       </c>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
       <c r="K4" s="35" t="s">
-        <v>1423</v>
-      </c>
-      <c r="L4" s="121"/>
+        <v>1422</v>
+      </c>
+      <c r="L4" s="119"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="122"/>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
@@ -61832,19 +61122,19 @@
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
       <c r="K5" s="35" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="L5" s="36" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M5" s="35" t="s">
         <v>1424</v>
       </c>
-      <c r="M5" s="35" t="s">
-        <v>1425</v>
-      </c>
-      <c r="N5" s="122"/>
+      <c r="N5" s="120"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
@@ -61854,17 +61144,17 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
       <c r="K6" s="35" t="s">
+        <v>1425</v>
+      </c>
+      <c r="L6" s="36" t="s">
         <v>1426</v>
       </c>
-      <c r="L6" s="36" t="s">
-        <v>1427</v>
-      </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="122"/>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
@@ -61876,13 +61166,13 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="122"/>
+      <c r="N7" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F35A1A-0653-F34F-BC43-8FBDCCF9E482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF252AB-97A0-F44B-B323-96389B321D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1551">
   <si>
     <t>Region</t>
   </si>
@@ -10599,273 +10599,6 @@
   <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"User Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"First Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User email" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an optional field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Group Names" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma Separated groups assigned to user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Disable Capabilities" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>By default all these capabilities are enabled for a user.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <t>User Description</t>
-  </si>
-  <si>
-    <t>User email</t>
-  </si>
-  <si>
-    <t>Group Names</t>
-  </si>
-  <si>
-    <t>Disable Capabilities</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Group  Name) is a mandatory field.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Matching Rule" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Region" - </t>
     </r>
     <r>
@@ -12901,6 +12634,318 @@
       </rPr>
       <t xml:space="preserve">
  LB Routing Policies, Users/Groups for Custom Domains, 'Subnet Name' columns change to 'Network Details'</t>
+    </r>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Family Name</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Enable Capabilities</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Group  Name) is a mandatory field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mandatory for IDCS tenancies.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Domain Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name of the identity domain where group resides. Leave empty for 'default'  identity domain or IDCS tenancies. It should be in the format of &lt;compartment_name&gt;@&lt;custom_domain_name&gt; for IAM tenancies.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Members" -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comma seperated usernames. Leave empty if no member needs to be added to the group.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Matching Rule" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify your tenancy's Home Region for creating Groups.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pecify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"User Name" - i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s a mandatory field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Family Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a mandatory field for IAM tenancies</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"User Email" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is an optional field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Domain Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name of the identity domain where user resides. Leave empty for 'default'  identity domain or IDCS tenancies. It should be in the format of &lt;compartment_name&gt;@&lt;custom_domain_name&gt; for IAM tenancies.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Enable Capabilities" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify comma seperated list of capabilities to be enabled for user. For ex: api_keys, console_password, auth_tokens, customer_secret_keys, db_credentials, oauth2client_credentials, smtp_credentials.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
     </r>
   </si>
 </sst>
@@ -13568,7 +13613,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13876,17 +13921,21 @@
     <xf numFmtId="0" fontId="39" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13957,6 +14006,7 @@
     <xf numFmtId="0" fontId="34" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -19038,7 +19088,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
     </row>
   </sheetData>
@@ -19073,22 +19123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>1442</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="131" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="135" t="s">
         <v>1441</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -19336,19 +19386,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>910</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="139" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="141" t="s">
         <v>1300</v>
       </c>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19582,10 +19632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="138"/>
+      <c r="B1" s="140"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19651,16 +19701,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1370</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19951,30 +20001,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>1292</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="140" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="142" t="s">
         <v>1268</v>
       </c>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26086,18 +26136,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1284</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -26213,17 +26263,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1285</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26320,25 +26370,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1286</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26475,28 +26525,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1287</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -28983,17 +29033,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1291</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -29381,13 +29431,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1282</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29644,19 +29694,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="144" t="s">
         <v>1288</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -29831,15 +29881,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1289</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30019,32 +30069,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>1371</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="131" t="s">
-        <v>1514</v>
-      </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="135"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="135" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" s="43" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30063,7 +30113,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>88</v>
@@ -30131,7 +30181,7 @@
         <v>330</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
@@ -30207,7 +30257,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="G5" s="52" t="b">
         <v>0</v>
@@ -30265,7 +30315,7 @@
         <v>330</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="G6" s="52" t="b">
         <v>0</v>
@@ -30319,7 +30369,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="G7" s="52" t="b">
         <v>0</v>
@@ -30367,7 +30417,7 @@
         <v>330</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="G8" s="52" t="b">
         <v>0</v>
@@ -30498,26 +30548,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>1494</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="137"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -30757,32 +30807,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="147" t="s">
+      <c r="A1" s="135" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="149" t="s">
         <v>1497</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="149"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="151"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -30798,7 +30848,7 @@
         <v>106</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>107</v>
@@ -30894,7 +30944,7 @@
         <v>117</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
@@ -30998,7 +31048,7 @@
         <v>117</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -31036,7 +31086,7 @@
         <v>125</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87"/>
@@ -31078,7 +31128,7 @@
         <v>128</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87"/>
@@ -31120,7 +31170,7 @@
         <v>130</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87"/>
@@ -31158,7 +31208,7 @@
         <v>1495</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -31304,45 +31354,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="144" t="s">
-        <v>1549</v>
-      </c>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
+      <c r="A1" s="135" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="146" t="s">
+        <v>1543</v>
+      </c>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -31367,10 +31417,10 @@
         <v>940</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>939</v>
@@ -31385,7 +31435,7 @@
         <v>936</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>935</v>
@@ -31409,7 +31459,7 @@
         <v>933</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="W2" s="31" t="s">
         <v>80</v>
@@ -31424,7 +31474,7 @@
         <v>931</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="AB2" s="31" t="s">
         <v>930</v>
@@ -31513,10 +31563,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="J4" s="53" t="b">
         <v>0</v>
@@ -31531,7 +31581,7 @@
         <v>842</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="O4" s="95" t="s">
         <v>1375</v>
@@ -31555,7 +31605,7 @@
         <v>841</v>
       </c>
       <c r="V4" s="95" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="W4" s="95" t="s">
         <v>95</v>
@@ -31596,7 +31646,7 @@
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="O5" s="95" t="s">
         <v>1375</v>
@@ -31618,7 +31668,7 @@
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="95" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="W5" s="53" t="s">
         <v>86</v>
@@ -31665,10 +31715,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="J6" s="53" t="b">
         <v>0</v>
@@ -31677,7 +31727,7 @@
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="O6" s="95" t="s">
         <v>1375</v>
@@ -31701,7 +31751,7 @@
         <v>841</v>
       </c>
       <c r="V6" s="95" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="W6" s="53" t="s">
         <v>95</v>
@@ -31714,7 +31764,7 @@
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="95" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="53" t="s">
@@ -31820,27 +31870,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
+      <c r="A1" s="131" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -31862,7 +31912,7 @@
         <v>513</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>133</v>
@@ -31940,7 +31990,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H4" s="52" t="b">
         <v>1</v>
@@ -32014,7 +32064,7 @@
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H6" s="52" t="b">
         <v>0</v>
@@ -32121,30 +32171,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="135"/>
+      <c r="A1" s="135" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -32166,7 +32216,7 @@
         <v>150</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>151</v>
@@ -32256,7 +32306,7 @@
         <v>161</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>162</v>
@@ -32316,7 +32366,7 @@
         <v>167</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>162</v>
@@ -32364,7 +32414,7 @@
         <v>170</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="H6" s="52" t="s">
         <v>162</v>
@@ -32475,25 +32525,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>625</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -32743,29 +32793,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="136" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="138" t="s">
         <v>409</v>
       </c>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="151"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="153"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -33448,10 +33498,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33459,37 +33509,47 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="43" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:7" s="43" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="132" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="110" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F2" s="130" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="G2" s="110" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
@@ -33501,8 +33561,10 @@
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
@@ -33514,8 +33576,10 @@
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -33527,8 +33591,10 @@
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -33540,8 +33606,10 @@
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
@@ -33553,8 +33621,10 @@
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
@@ -33566,8 +33636,10 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
@@ -33579,8 +33651,10 @@
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
@@ -33592,8 +33666,10 @@
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
@@ -33605,8 +33681,10 @@
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>5</v>
       </c>
@@ -33618,8 +33696,10 @@
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -33627,8 +33707,10 @@
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
@@ -33638,12 +33720,14 @@
       <c r="C14" s="22" t="s">
         <v>818</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="35" t="s">
         <v>819</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>5</v>
       </c>
@@ -33653,12 +33737,14 @@
       <c r="C15" s="35" t="s">
         <v>821</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35" t="s">
         <v>822</v>
       </c>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>5</v>
       </c>
@@ -33668,12 +33754,14 @@
       <c r="C16" s="35" t="s">
         <v>824</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>825</v>
       </c>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="G16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>5</v>
       </c>
@@ -33683,18 +33771,21 @@
       <c r="C17" s="35" t="s">
         <v>827</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="G17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="B3:D1048576 A1:E1" xr:uid="{8EFF7419-48D3-4C46-B3E5-C58F24B7E6C8}"/>
+  <dataValidations count="3">
     <dataValidation allowBlank="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E1048576" xr:uid="{86EF4A92-0B46-F148-96CE-EDC9C3C9AEDD}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H1:XFD2" xr:uid="{8E14605B-225F-E544-BA1C-35B21117EB59}"/>
+    <dataValidation allowBlank="1" sqref="B3:D13 B18:D1048576 B14:C17 F14:F17" xr:uid="{8EFF7419-48D3-4C46-B3E5-C58F24B7E6C8}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33733,14 +33824,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="154" t="s">
         <v>402</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -33888,8 +33979,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
-        <v>1510</v>
+      <c r="A1" s="142" t="s">
+        <v>1504</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -33903,7 +33994,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1247</v>
@@ -33925,10 +34016,10 @@
         <v>375</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33939,10 +34030,10 @@
         <v>375</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
   </sheetData>
@@ -33984,22 +34075,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34012,7 +34103,7 @@
         <v>632</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>633</v>
@@ -34074,7 +34165,7 @@
         <v>640</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="E4" s="53" t="b">
         <v>0</v>
@@ -34112,7 +34203,7 @@
         <v>636</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="E5" s="53" t="b">
         <v>1</v>
@@ -34544,20 +34635,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
@@ -34594,7 +34685,7 @@
         <v>412</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -34646,7 +34737,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -34680,7 +34771,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -34710,7 +34801,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -34768,24 +34859,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
+      <c r="A1" s="135" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -34798,7 +34889,7 @@
         <v>904</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>905</v>
@@ -34868,7 +34959,7 @@
         <v>909</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52" t="s">
@@ -34994,35 +35085,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="135"/>
+      <c r="A1" s="135" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="137"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
@@ -35035,7 +35126,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>575</v>
@@ -35149,7 +35240,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>599</v>
@@ -35224,7 +35315,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="E5" s="92" t="s">
         <v>601</v>
@@ -38393,16 +38484,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>1290</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -41312,29 +41403,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
+      <c r="A1" s="146" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
       <c r="V1" s="69"/>
       <c r="W1" s="69"/>
       <c r="X1" s="69"/>
@@ -41357,10 +41448,10 @@
         <v>590</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>577</v>
@@ -41453,10 +41544,10 @@
         <v>603</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="G4" s="52">
         <v>4</v>
@@ -45779,26 +45870,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="157" t="s">
         <v>1399</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46052,22 +46143,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="146" t="s">
         <v>1462</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -46077,7 +46168,7 @@
         <v>1184</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>1194</v>
@@ -46122,7 +46213,7 @@
         <v>1387</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>1451</v>
@@ -46167,7 +46258,7 @@
         <v>1396</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>1451</v>
@@ -46272,10 +46363,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="156.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46286,21 +46377,22 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="43" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="43" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>1550</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -46308,146 +46400,149 @@
         <v>1174</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1500</v>
+        <v>1546</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1501</v>
+        <v>1547</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G2" s="30" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G2" s="163" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="71"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="71"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="71"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="71"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="71"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="71"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="71"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="71"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
@@ -46456,7 +46551,7 @@
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
@@ -46465,7 +46560,7 @@
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
@@ -46474,7 +46569,7 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
@@ -46483,7 +46578,7 @@
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
@@ -46492,7 +46587,7 @@
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="G21" s="71"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
@@ -46501,7 +46596,7 @@
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
@@ -46510,7 +46605,7 @@
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
@@ -46519,7 +46614,7 @@
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="71"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
@@ -46528,7 +46623,7 @@
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
@@ -46537,7 +46632,7 @@
       <c r="D26" s="36"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="71"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
@@ -46546,7 +46641,7 @@
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="G27" s="71"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
@@ -46555,7 +46650,7 @@
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
@@ -46564,7 +46659,7 @@
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="G29" s="71"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
@@ -46573,7 +46668,7 @@
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="71"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
@@ -46582,7 +46677,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
@@ -46591,7 +46686,7 @@
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
@@ -46600,7 +46695,7 @@
       <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
@@ -46609,7 +46704,7 @@
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="G34" s="71"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
@@ -46618,7 +46713,7 @@
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
@@ -46627,7 +46722,7 @@
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="71"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
@@ -46636,7 +46731,7 @@
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="G37" s="71"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
@@ -46645,7 +46740,7 @@
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="G38" s="71"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36"/>
@@ -46654,7 +46749,7 @@
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="71"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36"/>
@@ -46663,7 +46758,7 @@
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="G40" s="71"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36"/>
@@ -46672,7 +46767,7 @@
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="G41" s="71"/>
     </row>
     <row r="42" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36"/>
@@ -46681,7 +46776,7 @@
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="G42" s="71"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36"/>
@@ -46690,7 +46785,7 @@
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="G43" s="71"/>
     </row>
     <row r="44" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
@@ -46699,7 +46794,7 @@
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
       <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="G44" s="71"/>
     </row>
     <row r="45" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
@@ -46708,7 +46803,7 @@
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="G45" s="71"/>
     </row>
     <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
@@ -46717,7 +46812,7 @@
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
+      <c r="G46" s="71"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="36"/>
@@ -46726,7 +46821,7 @@
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="G47" s="71"/>
     </row>
     <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36"/>
@@ -46735,7 +46830,7 @@
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="G48" s="71"/>
     </row>
     <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="36"/>
@@ -46744,7 +46839,7 @@
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
@@ -46753,7 +46848,7 @@
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="G50" s="71"/>
     </row>
     <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
@@ -46762,7 +46857,7 @@
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="G51" s="71"/>
     </row>
     <row r="52" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
@@ -46771,7 +46866,7 @@
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
+      <c r="G52" s="71"/>
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36"/>
@@ -46780,7 +46875,7 @@
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="G53" s="71"/>
     </row>
     <row r="54" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
@@ -46789,7 +46884,7 @@
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
+      <c r="G54" s="71"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="36"/>
@@ -46798,7 +46893,7 @@
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36"/>
@@ -46807,7 +46902,7 @@
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="G56" s="71"/>
     </row>
     <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36"/>
@@ -46816,7 +46911,7 @@
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="G57" s="71"/>
     </row>
     <row r="58" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36"/>
@@ -46825,7 +46920,7 @@
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
+      <c r="G58" s="71"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36"/>
@@ -46834,7 +46929,7 @@
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="G59" s="71"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36"/>
@@ -46843,7 +46938,7 @@
       <c r="D60" s="36"/>
       <c r="E60" s="36"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
+      <c r="G60" s="71"/>
     </row>
     <row r="61" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36"/>
@@ -46852,7 +46947,7 @@
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36"/>
@@ -46861,7 +46956,7 @@
       <c r="D62" s="36"/>
       <c r="E62" s="36"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="G62" s="71"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36"/>
@@ -46870,7 +46965,7 @@
       <c r="D63" s="36"/>
       <c r="E63" s="36"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
+      <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36"/>
@@ -46879,7 +46974,7 @@
       <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
+      <c r="G64" s="71"/>
     </row>
     <row r="65" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="36"/>
@@ -46888,7 +46983,7 @@
       <c r="D65" s="36"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
+      <c r="G65" s="71"/>
     </row>
     <row r="66" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36"/>
@@ -46897,7 +46992,7 @@
       <c r="D66" s="36"/>
       <c r="E66" s="36"/>
       <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
+      <c r="G66" s="71"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36"/>
@@ -46906,7 +47001,7 @@
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36"/>
@@ -46915,7 +47010,7 @@
       <c r="D68" s="36"/>
       <c r="E68" s="36"/>
       <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="36"/>
@@ -46924,7 +47019,7 @@
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
       <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
+      <c r="G69" s="71"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36"/>
@@ -46933,7 +47028,7 @@
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
+      <c r="G70" s="71"/>
     </row>
     <row r="71" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36"/>
@@ -46942,7 +47037,7 @@
       <c r="D71" s="36"/>
       <c r="E71" s="36"/>
       <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
+      <c r="G71" s="71"/>
     </row>
     <row r="72" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36"/>
@@ -46951,7 +47046,7 @@
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
+      <c r="G72" s="71"/>
     </row>
     <row r="73" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="36"/>
@@ -46960,7 +47055,7 @@
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36"/>
@@ -46969,7 +47064,7 @@
       <c r="D74" s="36"/>
       <c r="E74" s="36"/>
       <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
+      <c r="G74" s="71"/>
     </row>
     <row r="75" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="36"/>
@@ -46978,7 +47073,7 @@
       <c r="D75" s="36"/>
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
+      <c r="G75" s="71"/>
     </row>
     <row r="76" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36"/>
@@ -46987,7 +47082,7 @@
       <c r="D76" s="36"/>
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
+      <c r="G76" s="71"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36"/>
@@ -46996,7 +47091,7 @@
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
+      <c r="G77" s="71"/>
     </row>
     <row r="78" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36"/>
@@ -47005,7 +47100,7 @@
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
+      <c r="G78" s="71"/>
     </row>
     <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36"/>
@@ -47014,7 +47109,7 @@
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36"/>
@@ -47023,7 +47118,7 @@
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
+      <c r="G80" s="71"/>
     </row>
     <row r="81" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="36"/>
@@ -47032,7 +47127,7 @@
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
+      <c r="G81" s="71"/>
     </row>
     <row r="82" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36"/>
@@ -47041,7 +47136,7 @@
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
+      <c r="G82" s="71"/>
     </row>
     <row r="83" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36"/>
@@ -47050,7 +47145,7 @@
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
+      <c r="G83" s="71"/>
     </row>
     <row r="84" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36"/>
@@ -47059,7 +47154,7 @@
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
+      <c r="G84" s="71"/>
     </row>
     <row r="85" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36"/>
@@ -47068,7 +47163,7 @@
       <c r="D85" s="36"/>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
+      <c r="G85" s="71"/>
     </row>
     <row r="86" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36"/>
@@ -47077,7 +47172,7 @@
       <c r="D86" s="36"/>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
+      <c r="G86" s="71"/>
     </row>
     <row r="87" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36"/>
@@ -47086,7 +47181,7 @@
       <c r="D87" s="36"/>
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
+      <c r="G87" s="71"/>
     </row>
     <row r="88" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36"/>
@@ -47095,7 +47190,7 @@
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
+      <c r="G88" s="71"/>
     </row>
     <row r="89" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36"/>
@@ -47104,7 +47199,7 @@
       <c r="D89" s="36"/>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
+      <c r="G89" s="71"/>
     </row>
     <row r="90" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36"/>
@@ -47113,7 +47208,7 @@
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
+      <c r="G90" s="71"/>
     </row>
     <row r="91" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36"/>
@@ -47122,7 +47217,7 @@
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
+      <c r="G91" s="71"/>
     </row>
     <row r="92" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36"/>
@@ -47131,7 +47226,7 @@
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
+      <c r="G92" s="71"/>
     </row>
     <row r="93" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36"/>
@@ -47140,7 +47235,7 @@
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
+      <c r="G93" s="71"/>
     </row>
     <row r="94" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36"/>
@@ -47149,7 +47244,7 @@
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
+      <c r="G94" s="71"/>
     </row>
     <row r="95" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36"/>
@@ -47158,7 +47253,7 @@
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
+      <c r="G95" s="71"/>
     </row>
     <row r="96" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36"/>
@@ -47167,7 +47262,7 @@
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
+      <c r="G96" s="71"/>
     </row>
     <row r="97" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="36"/>
@@ -47176,7 +47271,7 @@
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36"/>
@@ -47185,7 +47280,7 @@
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
+      <c r="G98" s="71"/>
     </row>
     <row r="99" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36"/>
@@ -47194,7 +47289,7 @@
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
+      <c r="G99" s="71"/>
     </row>
     <row r="100" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36"/>
@@ -47203,7 +47298,7 @@
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
+      <c r="G100" s="71"/>
     </row>
     <row r="101" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36"/>
@@ -47212,7 +47307,7 @@
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
+      <c r="G101" s="71"/>
     </row>
     <row r="102" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -47220,10 +47315,10 @@
     <row r="105" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="H1:XFD1048576 A1:A2 B2:G1048576" xr:uid="{996E8FCD-41A6-454D-99C0-71CAEC94973E}"/>
+    <dataValidation allowBlank="1" sqref="B3:XFD1048576" xr:uid="{996E8FCD-41A6-454D-99C0-71CAEC94973E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47276,26 +47371,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="287" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="160" t="s">
         <v>1293</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -47650,25 +47745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="140" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="142" t="s">
         <v>1493</v>
       </c>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -57034,7 +57129,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1319</v>
       </c>
       <c r="B1" s="133"/>
@@ -57107,16 +57202,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1283</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -60512,19 +60607,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="135" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138" t="s">
         <v>837</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -60894,13 +60989,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>1440</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="s">
@@ -60985,8 +61080,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="43" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
-        <v>1504</v>
+      <c r="A1" s="131" t="s">
+        <v>1498</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A64E05-CD88-4845-9C95-6FF4E97B0568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9CE4E-8753-2843-BFDE-A7A7AFA7AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29440" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -19466,7 +19466,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29515,7 +29515,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30135,7 +30135,7 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="91" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="77" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -33595,7 +33595,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -33875,6 +33875,79 @@
       </c>
       <c r="G17" s="36"/>
     </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -49099,24 +49172,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{489DA760-A20C-F442-86D2-801FF1251602}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B1048576 B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{E7E3074F-7F90-AE40-8AF4-EAAE8A1352C8}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$3:$L$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region." xr:uid="{5AF42E87-A290-B44A-9D30-1B4403526E25}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
+          <xm:sqref>A3:A1048576 E3:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{390A3801-6AF9-3A46-81E9-112DDF17151D}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -50263,9 +50330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AV201"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="93" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
-    </sheetView>
+    <sheetView zoomScale="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -57332,7 +57397,7 @@
   </sheetPr>
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9CE4E-8753-2843-BFDE-A7A7AFA7AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A5238-A869-6F47-8C33-294F0DF7CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29440" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29440" windowHeight="17360" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="1569">
   <si>
     <t>Region</t>
   </si>
@@ -13029,6 +13029,36 @@
       <t xml:space="preserve">
  Updated Region column drop down for all sheets, Modified description for Users, Instances, Policies</t>
     </r>
+  </si>
+  <si>
+    <t>Namespace for Env</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>QA Env</t>
+  </si>
+  <si>
+    <t>Prod Env</t>
+  </si>
+  <si>
+    <t>DR Env</t>
+  </si>
+  <si>
+    <t>Namespace for Operations</t>
   </si>
 </sst>
 </file>
@@ -60890,7 +60920,9 @@
       <c r="E4" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>1560</v>
+      </c>
       <c r="G4" s="52" t="b">
         <v>0</v>
       </c>
@@ -60917,7 +60949,9 @@
       <c r="E5" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="52" t="s">
+        <v>1561</v>
+      </c>
       <c r="G5" s="52" t="b">
         <v>0</v>
       </c>
@@ -60936,11 +60970,15 @@
       <c r="C6" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="52" t="s">
+        <v>1568</v>
+      </c>
       <c r="E6" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="52" t="s">
+        <v>1562</v>
+      </c>
       <c r="G6" s="52" t="b">
         <v>0</v>
       </c>
@@ -60963,7 +61001,9 @@
       <c r="E7" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="52" t="s">
+        <v>1563</v>
+      </c>
       <c r="G7" s="52" t="b">
         <v>0</v>
       </c>
@@ -60986,7 +61026,9 @@
       <c r="E8" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="52" t="s">
+        <v>1564</v>
+      </c>
       <c r="G8" s="52" t="b">
         <v>0</v>
       </c>
@@ -61003,7 +61045,9 @@
       <c r="C9" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="52"/>
+      <c r="D9" s="52" t="s">
+        <v>1559</v>
+      </c>
       <c r="E9" s="52" t="s">
         <v>302</v>
       </c>
@@ -61028,11 +61072,15 @@
       <c r="C10" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="52" t="s">
+        <v>1559</v>
+      </c>
       <c r="E10" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="52" t="s">
+        <v>1565</v>
+      </c>
       <c r="G10" s="52" t="b">
         <v>0</v>
       </c>
@@ -61049,11 +61097,15 @@
       <c r="C11" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>1559</v>
+      </c>
       <c r="E11" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="52" t="s">
+        <v>1566</v>
+      </c>
       <c r="G11" s="52" t="b">
         <v>0</v>
       </c>
@@ -61070,11 +61122,15 @@
       <c r="C12" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="52" t="s">
+        <v>1559</v>
+      </c>
       <c r="E12" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="52" t="s">
+        <v>1567</v>
+      </c>
       <c r="G12" s="52" t="b">
         <v>0</v>
       </c>
@@ -61143,7 +61199,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:B2 C1:F1048576 G1:G2 I1:I2 J1:XFD1048576 H1:H1048576" xr:uid="{B3C51400-D71B-5747-9F69-06AD4073E95D}"/>
+    <dataValidation allowBlank="1" sqref="A1:B2 H1:H1048576 G1:G2 I1:I2 J1:XFD1048576 C1:F1048576" xr:uid="{B3C51400-D71B-5747-9F69-06AD4073E95D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2495352-AB5B-3E4B-8EA5-89BF0767246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71ED0A-FF6D-0B46-9F65-88689C02B447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="760" windowWidth="29440" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1240" yWindow="3320" windowWidth="29440" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <definedName name="workload_drop" localSheetId="24">[6]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop">[7]Database_Dropdown!$D$2:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -8031,493 +8031,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Display Name(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Type(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Valid values are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Replica Region(optional)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid only for vault type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Can't be same as the primary vault region.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-If a key/keys have to be created, enter below </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fields:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Key Compartment Name" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Key Display Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Protection Mode" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"HSM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SOFTWARE".</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Algorithm" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Length in bits" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128, 192, 256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"RSA" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2048, 3072, 4096</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                          "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECDSA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>256, 384, 521</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Below are the </t>
     </r>
     <r>
@@ -13079,6 +12592,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -13086,6 +12610,503 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>"Vault Display Name(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Type(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Valid values are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Replica Region(optional)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid for both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"default"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vault types. Can't be same as the primary vault region.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If a key/keys have to be created, enter below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Key Compartment Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Key Display Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Protection Mode" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"HSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SOFTWARE".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Algorithm" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Length in bits" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 192, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"RSA" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2048, 3072, 4096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                          "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECDSA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256, 384, 521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CD3 Automation Toolkit</t>
     </r>
     <r>
@@ -13107,7 +13128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.4.2</t>
+      <t>Release - v2024.4.3</t>
     </r>
     <r>
       <rPr>
@@ -13118,7 +13139,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- Modified description for VCNs, DRGs, BlockVolumes, SDDCs Tabs. Added a note in Exa-VMClusters Tab.</t>
+ Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
     </r>
   </si>
 </sst>
@@ -19328,7 +19349,7 @@
       <c r="E1" s="138"/>
       <c r="F1" s="139"/>
       <c r="G1" s="137" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1" s="138"/>
       <c r="I1" s="138"/>
@@ -19583,7 +19604,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -29660,7 +29681,7 @@
         <v>417</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>377</v>
@@ -29675,7 +29696,7 @@
         <v>418</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>377</v>
@@ -29690,7 +29711,7 @@
         <v>331</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>377</v>
@@ -29705,7 +29726,7 @@
         <v>1085</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>377</v>
@@ -30266,7 +30287,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="275.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="148" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
@@ -30276,7 +30297,7 @@
       <c r="G1" s="149"/>
       <c r="H1" s="150"/>
       <c r="I1" s="137" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J1" s="138"/>
       <c r="K1" s="138"/>
@@ -30309,7 +30330,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>88</v>
@@ -30377,7 +30398,7 @@
         <v>330</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
@@ -30453,7 +30474,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G5" s="52" t="b">
         <v>0</v>
@@ -30511,7 +30532,7 @@
         <v>330</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G6" s="52" t="b">
         <v>0</v>
@@ -30565,7 +30586,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G7" s="52" t="b">
         <v>0</v>
@@ -30613,7 +30634,7 @@
         <v>330</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G8" s="52" t="b">
         <v>0</v>
@@ -30745,7 +30766,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -31004,7 +31025,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -31018,7 +31039,7 @@
       <c r="K1" s="138"/>
       <c r="L1" s="139"/>
       <c r="M1" s="151" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="N1" s="152"/>
       <c r="O1" s="152"/>
@@ -31044,7 +31065,7 @@
         <v>106</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>107</v>
@@ -31140,7 +31161,7 @@
         <v>117</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
@@ -31244,7 +31265,7 @@
         <v>117</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
@@ -31282,7 +31303,7 @@
         <v>125</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87"/>
@@ -31324,7 +31345,7 @@
         <v>128</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87"/>
@@ -31366,7 +31387,7 @@
         <v>130</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87"/>
@@ -31401,10 +31422,10 @@
         <v>86</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87"/>
@@ -31440,7 +31461,7 @@
       <c r="G12" s="87"/>
       <c r="H12" s="52"/>
       <c r="I12" s="87" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
@@ -31551,7 +31572,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -31568,7 +31589,7 @@
       <c r="N1" s="138"/>
       <c r="O1" s="139"/>
       <c r="P1" s="148" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q1" s="149"/>
       <c r="R1" s="149"/>
@@ -31613,10 +31634,10 @@
         <v>767</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>766</v>
@@ -31631,7 +31652,7 @@
         <v>763</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O2" s="31" t="s">
         <v>762</v>
@@ -31655,7 +31676,7 @@
         <v>760</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="W2" s="31" t="s">
         <v>80</v>
@@ -31670,7 +31691,7 @@
         <v>758</v>
       </c>
       <c r="AA2" s="31" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AB2" s="31" t="s">
         <v>757</v>
@@ -31759,10 +31780,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J4" s="53" t="b">
         <v>0</v>
@@ -31777,7 +31798,7 @@
         <v>670</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O4" s="95" t="s">
         <v>1111</v>
@@ -31801,7 +31822,7 @@
         <v>669</v>
       </c>
       <c r="V4" s="95" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W4" s="95" t="s">
         <v>95</v>
@@ -31842,7 +31863,7 @@
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
       <c r="N5" s="53" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="O5" s="95" t="s">
         <v>1111</v>
@@ -31864,7 +31885,7 @@
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="95" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W5" s="53" t="s">
         <v>86</v>
@@ -31911,10 +31932,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J6" s="53" t="b">
         <v>0</v>
@@ -31923,7 +31944,7 @@
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
       <c r="N6" s="53" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="O6" s="95" t="s">
         <v>1111</v>
@@ -31947,7 +31968,7 @@
         <v>669</v>
       </c>
       <c r="V6" s="95" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W6" s="53" t="s">
         <v>95</v>
@@ -31960,7 +31981,7 @@
       </c>
       <c r="Z6" s="53"/>
       <c r="AA6" s="95" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="53" t="s">
@@ -32067,7 +32088,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -32108,7 +32129,7 @@
         <v>503</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>133</v>
@@ -32186,7 +32207,7 @@
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H4" s="52" t="b">
         <v>1</v>
@@ -32260,7 +32281,7 @@
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H6" s="52" t="b">
         <v>0</v>
@@ -32368,7 +32389,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -32412,7 +32433,7 @@
         <v>150</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>151</v>
@@ -32502,7 +32523,7 @@
         <v>161</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>162</v>
@@ -32562,7 +32583,7 @@
         <v>167</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>162</v>
@@ -32610,7 +32631,7 @@
         <v>170</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H6" s="52" t="s">
         <v>162</v>
@@ -33713,7 +33734,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="43" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -33736,7 +33757,7 @@
         <v>1171</v>
       </c>
       <c r="E2" s="110" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F2" s="130" t="s">
